--- a/Equilibrage.xlsx
+++ b/Equilibrage.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Github\Dukes Of The Realm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D1E149-63BE-4705-85E5-1EF765D2AB3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60ABEA1D-3050-41E7-A5A7-4C96F018C37F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId2"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId3"/>
+    <sheet name="Equi V.1" sheetId="1" r:id="rId1"/>
+    <sheet name="Equi V.2" sheetId="3" r:id="rId2"/>
+    <sheet name="Param V.1" sheetId="2" r:id="rId3"/>
+    <sheet name="Param V.2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
   <si>
     <t>Coût</t>
   </si>
@@ -182,6 +183,30 @@
   </si>
   <si>
     <t>Pour</t>
+  </si>
+  <si>
+    <t>Rempart</t>
+  </si>
+  <si>
+    <t>Niveau</t>
+  </si>
+  <si>
+    <t>Caserne</t>
+  </si>
+  <si>
+    <t>Moulin</t>
+  </si>
+  <si>
+    <t>(multiplier)</t>
+  </si>
+  <si>
+    <t>(nb queue)</t>
+  </si>
+  <si>
+    <t>(nb villager)</t>
+  </si>
+  <si>
+    <t>Starter de base</t>
   </si>
 </sst>
 </file>
@@ -313,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -718,11 +743,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -908,6 +946,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -923,13 +967,58 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -939,60 +1028,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1010,11 +1045,21 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1459,14 +1504,14 @@
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="66" t="s">
+      <c r="I9" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -1486,12 +1531,12 @@
       <c r="G10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1521,12 +1566,12 @@
         <f>G3</f>
         <v>65</v>
       </c>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1557,14 +1602,14 @@
         <v>100</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="65" t="s">
+      <c r="I12" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -1595,12 +1640,12 @@
         <v>35</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1611,12 +1656,12 @@
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
@@ -1625,12 +1670,12 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
@@ -1811,7 +1856,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1892,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="54">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G4" s="46">
         <f>(40*G2)*G1</f>
@@ -1908,7 +1953,10 @@
       <c r="J4" s="47">
         <v>65</v>
       </c>
-      <c r="K4" s="44"/>
+      <c r="K4" s="103">
+        <f>F4/F$10</f>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
@@ -1925,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="54">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G5" s="46">
         <f>(75*G2)*G1</f>
@@ -1941,7 +1989,10 @@
       <c r="J5" s="47">
         <v>55</v>
       </c>
-      <c r="K5" s="44"/>
+      <c r="K5" s="103">
+        <f t="shared" ref="K5:K9" si="0">F5/F$10</f>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
@@ -1958,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="54">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G6" s="46">
         <f>(77*G2)*G1</f>
@@ -1974,7 +2025,10 @@
       <c r="J6" s="47">
         <v>100</v>
       </c>
-      <c r="K6" s="44"/>
+      <c r="K6" s="103">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
@@ -1991,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="54">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G7" s="46">
         <f>(20*G2)*G1</f>
@@ -2007,7 +2061,10 @@
       <c r="J7" s="47">
         <v>65</v>
       </c>
-      <c r="K7" s="44"/>
+      <c r="K7" s="103">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
@@ -2024,7 +2081,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="54">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G8" s="46">
         <f>(24*G2)*G1</f>
@@ -2040,7 +2097,10 @@
       <c r="J8" s="47">
         <v>35</v>
       </c>
-      <c r="K8" s="44"/>
+      <c r="K8" s="103">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
@@ -2073,10 +2133,17 @@
       <c r="J9" s="47">
         <v>80</v>
       </c>
-      <c r="K9" s="44"/>
+      <c r="K9" s="103">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
+      <c r="F10">
+        <f>SUM(F4:F9)</f>
+        <v>100</v>
+      </c>
       <c r="K10" s="44"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2155,19 +2222,19 @@
         <v>10</v>
       </c>
       <c r="F14" s="54">
-        <f>F4</f>
-        <v>10</v>
+        <f t="shared" ref="F14:F19" si="1">F4</f>
+        <v>25</v>
       </c>
       <c r="G14" s="46">
         <f>$B14*G4</f>
         <v>320</v>
       </c>
       <c r="H14" s="46">
-        <f t="shared" ref="H14:H19" si="0">H4*B14</f>
+        <f t="shared" ref="H14:H19" si="2">H4*B14</f>
         <v>240</v>
       </c>
-      <c r="I14" s="99">
-        <f t="shared" ref="I14:I19" si="1">I4*B14</f>
+      <c r="I14" s="65">
+        <f t="shared" ref="I14:I19" si="3">I4*B14</f>
         <v>4.5</v>
       </c>
       <c r="J14" s="46">
@@ -2189,23 +2256,23 @@
         <v>640</v>
       </c>
       <c r="E15" s="46">
-        <f t="shared" ref="E15:E19" si="2">E5*B15</f>
+        <f t="shared" ref="E15:E19" si="4">E5*B15</f>
         <v>5</v>
       </c>
       <c r="F15" s="54">
-        <f>F5</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="G15" s="46">
         <f>$B15*G5</f>
         <v>300</v>
       </c>
       <c r="H15" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="I15" s="99">
-        <f t="shared" si="1"/>
+      <c r="I15" s="65">
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
       <c r="J15" s="48">
@@ -2228,23 +2295,23 @@
         <v>640</v>
       </c>
       <c r="E16" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.8048780487804876</v>
       </c>
       <c r="F16" s="54">
-        <f>F6</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="G16" s="46">
         <f>$B16*G6</f>
         <v>240.39024390243901</v>
       </c>
       <c r="H16" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>398.04878048780489</v>
       </c>
-      <c r="I16" s="99">
-        <f t="shared" si="1"/>
+      <c r="I16" s="65">
+        <f t="shared" si="3"/>
         <v>7.9999999999999991</v>
       </c>
       <c r="J16" s="46">
@@ -2265,23 +2332,23 @@
         <v>640</v>
       </c>
       <c r="E17" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="F17" s="54">
-        <f>F7</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="G17" s="46">
         <f>$B17*G7</f>
         <v>128</v>
       </c>
       <c r="H17" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>576</v>
       </c>
-      <c r="I17" s="99">
-        <f t="shared" si="1"/>
+      <c r="I17" s="65">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J17" s="48">
@@ -2303,23 +2370,23 @@
         <v>640</v>
       </c>
       <c r="E18" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F18" s="54">
-        <f>F8</f>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="G18" s="46">
         <f>$B18*G8</f>
         <v>64.000000000000014</v>
       </c>
       <c r="H18" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="I18" s="99">
-        <f t="shared" si="1"/>
+      <c r="I18" s="65">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="J18" s="46">
@@ -2340,11 +2407,11 @@
         <v>640</v>
       </c>
       <c r="E19" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="F19" s="54">
-        <f>F9</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G19" s="46">
@@ -2352,11 +2419,11 @@
         <v>51.2</v>
       </c>
       <c r="H19" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="I19" s="100">
-        <f t="shared" si="1"/>
+      <c r="I19" s="66">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="J19" s="48">
@@ -2372,7 +2439,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="60">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E21" s="61" t="s">
         <v>45</v>
@@ -2400,7 +2467,7 @@
       <c r="H23" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="99" t="s">
+      <c r="I23" s="65" t="s">
         <v>10</v>
       </c>
       <c r="J23" s="47" t="s">
@@ -2410,34 +2477,34 @@
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="46">
         <f>D$21/E4</f>
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="C24" s="52" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="47">
         <f>$B$24*D4</f>
-        <v>6400</v>
+        <v>16000</v>
       </c>
       <c r="E24" s="47">
         <f>$B24*E4</f>
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F24" s="47">
         <f>F14</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G24" s="47">
-        <f t="shared" ref="G24:H24" si="3">$B$24*G4</f>
-        <v>3200</v>
+        <f t="shared" ref="G24:H24" si="5">$B$24*G4</f>
+        <v>8000</v>
       </c>
       <c r="H24" s="47">
-        <f t="shared" si="3"/>
-        <v>2400</v>
-      </c>
-      <c r="I24" s="99">
+        <f t="shared" si="5"/>
+        <v>6000</v>
+      </c>
+      <c r="I24" s="65">
         <f>$B$24*I4</f>
-        <v>45</v>
+        <v>112.5</v>
       </c>
       <c r="J24" s="46">
         <f>J14</f>
@@ -2448,76 +2515,76 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="46">
-        <f t="shared" ref="B25:B29" si="4">D$21/E5</f>
-        <v>100</v>
+        <f t="shared" ref="B25:B29" si="6">D$21/E5</f>
+        <v>250</v>
       </c>
       <c r="C25" s="52" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="47">
-        <f t="shared" ref="D25:D28" si="5">B25*D5</f>
-        <v>12800</v>
+        <f t="shared" ref="D25:D28" si="7">B25*D5</f>
+        <v>32000</v>
       </c>
       <c r="E25" s="47">
         <f>$B$25*E5</f>
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F25" s="47">
-        <f t="shared" ref="F25:F29" si="6">F15</f>
-        <v>10</v>
+        <f t="shared" ref="F25:F29" si="8">F15</f>
+        <v>25</v>
       </c>
       <c r="G25" s="47">
-        <f t="shared" ref="G25:H25" si="7">$B$25*G5</f>
-        <v>6000</v>
+        <f t="shared" ref="G25:H25" si="9">$B$25*G5</f>
+        <v>15000</v>
       </c>
       <c r="H25" s="47">
-        <f t="shared" si="7"/>
-        <v>4200</v>
-      </c>
-      <c r="I25" s="99">
+        <f t="shared" si="9"/>
+        <v>10500</v>
+      </c>
+      <c r="I25" s="65">
         <f>$B$25*I5</f>
-        <v>150</v>
+        <v>375</v>
       </c>
       <c r="J25" s="46">
-        <f t="shared" ref="J25:J29" si="8">J15</f>
+        <f t="shared" ref="J25:J29" si="10">J15</f>
         <v>55</v>
       </c>
       <c r="K25" s="63"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="46">
-        <f t="shared" si="4"/>
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>125</v>
       </c>
       <c r="C26" s="51" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="47">
-        <f t="shared" si="5"/>
-        <v>8200</v>
+        <f t="shared" si="7"/>
+        <v>20500</v>
       </c>
       <c r="E26" s="47">
         <f>$B$26*E6</f>
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F26" s="47">
-        <f t="shared" si="6"/>
-        <v>9</v>
+        <f t="shared" si="8"/>
+        <v>20</v>
       </c>
       <c r="G26" s="47">
-        <f t="shared" ref="G26:I26" si="9">$B$26*G6</f>
-        <v>3080</v>
+        <f t="shared" ref="G26:I26" si="11">$B$26*G6</f>
+        <v>7700</v>
       </c>
       <c r="H26" s="47">
-        <f t="shared" si="9"/>
-        <v>5100</v>
-      </c>
-      <c r="I26" s="99">
-        <f t="shared" si="9"/>
-        <v>102.49999999999999</v>
+        <f t="shared" si="11"/>
+        <v>12750</v>
+      </c>
+      <c r="I26" s="65">
+        <f t="shared" si="11"/>
+        <v>256.25</v>
       </c>
       <c r="J26" s="46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="K26" s="63"/>
@@ -2525,114 +2592,114 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="46">
-        <f t="shared" si="4"/>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="C27" s="51" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="47">
-        <f t="shared" si="5"/>
-        <v>8000</v>
+        <f t="shared" si="7"/>
+        <v>20000</v>
       </c>
       <c r="E27" s="47">
         <f>$B$27*E7</f>
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F27" s="47">
-        <f t="shared" si="6"/>
-        <v>8</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
       <c r="G27" s="47">
-        <f t="shared" ref="G27:H27" si="10">$B$27*G7</f>
-        <v>1600</v>
+        <f t="shared" ref="G27:H27" si="12">$B$27*G7</f>
+        <v>4000</v>
       </c>
       <c r="H27" s="47">
+        <f t="shared" si="12"/>
+        <v>18000</v>
+      </c>
+      <c r="I27" s="65">
+        <f>$B$27*I7</f>
+        <v>187.5</v>
+      </c>
+      <c r="J27" s="46">
         <f t="shared" si="10"/>
-        <v>7200</v>
-      </c>
-      <c r="I27" s="99">
-        <f>$B$27*I7</f>
-        <v>75</v>
-      </c>
-      <c r="J27" s="46">
-        <f t="shared" si="8"/>
         <v>65</v>
       </c>
       <c r="K27" s="63"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="46">
-        <f t="shared" si="4"/>
-        <v>33.333333333333336</v>
+        <f t="shared" si="6"/>
+        <v>83.333333333333329</v>
       </c>
       <c r="C28" s="53" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="47">
-        <f t="shared" si="5"/>
-        <v>6400</v>
+        <f t="shared" si="7"/>
+        <v>16000</v>
       </c>
       <c r="E28" s="47">
         <f>$B$28*E8</f>
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F28" s="47">
-        <f t="shared" si="6"/>
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="G28" s="47">
-        <f t="shared" ref="G28:I28" si="11">$B$28*G8</f>
-        <v>640.00000000000011</v>
+        <f t="shared" ref="G28:I28" si="13">$B$28*G8</f>
+        <v>1600.0000000000002</v>
       </c>
       <c r="H28" s="47">
-        <f t="shared" si="11"/>
-        <v>1200</v>
-      </c>
-      <c r="I28" s="99">
-        <f t="shared" si="11"/>
-        <v>100</v>
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+      <c r="I28" s="65">
+        <f t="shared" si="13"/>
+        <v>250</v>
       </c>
       <c r="J28" s="46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="K28" s="63"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="46">
-        <f t="shared" si="4"/>
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>125</v>
       </c>
       <c r="C29" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="47">
         <f>B29*D9</f>
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="E29" s="47">
         <f>$B$29*E9</f>
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F29" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="G29" s="47">
-        <f t="shared" ref="G29:I29" si="12">$B$29*G9</f>
-        <v>320</v>
+        <f t="shared" ref="G29:I29" si="14">$B$29*G9</f>
+        <v>800</v>
       </c>
       <c r="H29" s="47">
-        <f t="shared" si="12"/>
-        <v>300</v>
-      </c>
-      <c r="I29" s="99">
-        <f t="shared" si="12"/>
-        <v>43.75</v>
+        <f t="shared" si="14"/>
+        <v>750</v>
+      </c>
+      <c r="I29" s="65">
+        <f t="shared" si="14"/>
+        <v>109.375</v>
       </c>
       <c r="J29" s="46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="K29" s="63"/>
@@ -3004,7 +3071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687FDFBE-E0CD-444E-9C48-EAF49AA577DB}">
   <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -3015,237 +3082,242 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="72"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="100"/>
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="87"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="74"/>
       <c r="F6" s="27">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="81"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="78"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="81"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="86"/>
       <c r="F9" s="22">
         <v>250</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="93"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="89"/>
       <c r="F10" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="84"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="77"/>
       <c r="F11" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="75"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
       <c r="F12" s="29">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71"/>
       <c r="F13" s="23">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="78"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
       <c r="F15" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="93"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="89"/>
       <c r="F16" s="25">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="84"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77"/>
       <c r="F17" s="32">
         <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="75"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="92"/>
       <c r="F18" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="84"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="77"/>
       <c r="F19" s="34">
         <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="96"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
       <c r="F20" s="30">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="71"/>
       <c r="F21" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="78"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="74"/>
       <c r="F22" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="90"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="83"/>
       <c r="F23" s="36">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B19:E19"/>
@@ -3262,13 +3334,433 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7358574A-592A-4C40-9736-421EE2E19A0C}">
+  <dimension ref="A3:I25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="49">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="49">
+        <f>B5+0.05</f>
+        <v>1.05</v>
+      </c>
+      <c r="C6" s="101">
+        <v>1</v>
+      </c>
+      <c r="D6" s="48">
+        <f>$I$12+A6*EXP(A6/10)</f>
+        <v>71.105170918075643</v>
+      </c>
+      <c r="E6" s="102"/>
+      <c r="H6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="49">
+        <f>B6+0.05</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C7" s="101">
+        <v>1</v>
+      </c>
+      <c r="D7" s="48">
+        <f t="shared" ref="D7:D25" si="0">$I$12+A7*EXP(A7/10)</f>
+        <v>72.442805516320334</v>
+      </c>
+      <c r="E7" s="102"/>
+      <c r="H7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="49">
+        <f t="shared" ref="B8:B15" si="1">B7+0.05</f>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="C8" s="101">
+        <v>2</v>
+      </c>
+      <c r="D8" s="48">
+        <f t="shared" si="0"/>
+        <v>74.049576422728009</v>
+      </c>
+      <c r="E8" s="102"/>
+      <c r="H8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="49">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="C9" s="101">
+        <v>2</v>
+      </c>
+      <c r="D9" s="48">
+        <f t="shared" si="0"/>
+        <v>75.967298790565081</v>
+      </c>
+      <c r="E9" s="102"/>
+      <c r="H9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="49">
+        <f t="shared" si="1"/>
+        <v>1.2500000000000002</v>
+      </c>
+      <c r="C10" s="101">
+        <v>3</v>
+      </c>
+      <c r="D10" s="48">
+        <f t="shared" si="0"/>
+        <v>78.243606353500638</v>
+      </c>
+      <c r="E10" s="102"/>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="49">
+        <f t="shared" si="1"/>
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="C11" s="101">
+        <v>3</v>
+      </c>
+      <c r="D11" s="48">
+        <f t="shared" si="0"/>
+        <v>80.932712802343048</v>
+      </c>
+      <c r="E11" s="102"/>
+      <c r="H11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" s="49">
+        <f t="shared" si="1"/>
+        <v>1.3500000000000003</v>
+      </c>
+      <c r="C12" s="101">
+        <v>4</v>
+      </c>
+      <c r="D12" s="48">
+        <f t="shared" si="0"/>
+        <v>84.096268952293343</v>
+      </c>
+      <c r="E12" s="102"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
+        <f>I6+I7*2+I9+I8*3+I10+I11*2</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="49">
+        <f t="shared" si="1"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="C13" s="101">
+        <v>4</v>
+      </c>
+      <c r="D13" s="48">
+        <f t="shared" si="0"/>
+        <v>87.804327427939739</v>
+      </c>
+      <c r="E13" s="102"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="49">
+        <f t="shared" si="1"/>
+        <v>1.4500000000000004</v>
+      </c>
+      <c r="C14" s="101">
+        <v>5</v>
+      </c>
+      <c r="D14" s="48">
+        <f t="shared" si="0"/>
+        <v>92.13642800041255</v>
+      </c>
+      <c r="E14" s="102"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="49">
+        <f t="shared" si="1"/>
+        <v>1.5000000000000004</v>
+      </c>
+      <c r="C15" s="101">
+        <v>6</v>
+      </c>
+      <c r="D15" s="48">
+        <f t="shared" si="0"/>
+        <v>97.182818284590454</v>
+      </c>
+      <c r="E15" s="102"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>11</v>
+      </c>
+      <c r="B16" s="49">
+        <f>B15+0.15</f>
+        <v>1.6500000000000004</v>
+      </c>
+      <c r="D16" s="48">
+        <f t="shared" si="0"/>
+        <v>103.04582626341076</v>
+      </c>
+      <c r="E16" s="102"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="B17" s="49">
+        <f>B16+0.15</f>
+        <v>1.8000000000000003</v>
+      </c>
+      <c r="D17" s="48">
+        <f t="shared" si="0"/>
+        <v>109.84140307283857</v>
+      </c>
+      <c r="E17" s="102"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>13</v>
+      </c>
+      <c r="B18" s="49">
+        <f t="shared" ref="B18:B25" si="2">B17+0.15</f>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="D18" s="48">
+        <f t="shared" si="0"/>
+        <v>117.70085667905018</v>
+      </c>
+      <c r="E18" s="102"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>14</v>
+      </c>
+      <c r="B19" s="49">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="D19" s="48">
+        <f t="shared" si="0"/>
+        <v>126.77279953582544</v>
+      </c>
+      <c r="E19" s="102"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>15</v>
+      </c>
+      <c r="B20" s="49">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="D20" s="48">
+        <f t="shared" si="0"/>
+        <v>137.22533605507095</v>
+      </c>
+      <c r="E20" s="102"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>16</v>
+      </c>
+      <c r="B21" s="49">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="D21" s="48">
+        <f t="shared" si="0"/>
+        <v>149.24851879032184</v>
+      </c>
+      <c r="E21" s="102"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>17</v>
+      </c>
+      <c r="B22" s="49">
+        <f t="shared" si="2"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D22" s="48">
+        <f t="shared" si="0"/>
+        <v>163.05710565936238</v>
+      </c>
+      <c r="E22" s="102"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>18</v>
+      </c>
+      <c r="B23" s="49">
+        <f t="shared" si="2"/>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="D23" s="48">
+        <f t="shared" si="0"/>
+        <v>178.89365435943304</v>
+      </c>
+      <c r="E23" s="102"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>19</v>
+      </c>
+      <c r="B24" s="49">
+        <f t="shared" si="2"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="D24" s="48">
+        <f t="shared" si="0"/>
+        <v>197.0319944033061</v>
+      </c>
+      <c r="E24" s="102"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>20</v>
+      </c>
+      <c r="B25" s="49">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="D25" s="48">
+        <f t="shared" si="0"/>
+        <v>217.78112197861302</v>
+      </c>
+      <c r="E25" s="102"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Equilibrage.xlsx
+++ b/Equilibrage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Github\Dukes Of The Realm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60ABEA1D-3050-41E7-A5A7-4C96F018C37F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E8EB42-EAD3-4BA1-8BBD-215C6B0635B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
   <si>
     <t>Coût</t>
   </si>
@@ -207,6 +207,15 @@
   </si>
   <si>
     <t>Starter de base</t>
+  </si>
+  <si>
+    <t>Château</t>
+  </si>
+  <si>
+    <t>(Florin/s)</t>
+  </si>
+  <si>
+    <t>(% de reduc)</t>
   </si>
 </sst>
 </file>
@@ -270,7 +279,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +346,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -760,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -946,11 +961,11 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -967,6 +982,24 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -976,6 +1009,15 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1003,15 +1045,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1019,15 +1052,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1045,20 +1069,22 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1856,7 +1882,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1891,7 +1917,9 @@
       <c r="H2" s="45">
         <v>1.2</v>
       </c>
-      <c r="I2" s="45"/>
+      <c r="I2" s="45">
+        <v>2.5</v>
+      </c>
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
     </row>
@@ -1947,16 +1975,14 @@
         <f>20*H2</f>
         <v>24</v>
       </c>
-      <c r="I4" s="47">
-        <v>0.45</v>
+      <c r="I4" s="106">
+        <f>0.45*I2</f>
+        <v>1.125</v>
       </c>
       <c r="J4" s="47">
         <v>65</v>
       </c>
-      <c r="K4" s="103">
-        <f>F4/F$10</f>
-        <v>0.25</v>
-      </c>
+      <c r="K4" s="66"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
@@ -1983,16 +2009,14 @@
         <f>35*H2</f>
         <v>42</v>
       </c>
-      <c r="I5" s="47">
-        <v>1.5</v>
+      <c r="I5" s="106">
+        <f>1.5*I2</f>
+        <v>3.75</v>
       </c>
       <c r="J5" s="47">
         <v>55</v>
       </c>
-      <c r="K5" s="103">
-        <f t="shared" ref="K5:K9" si="0">F5/F$10</f>
-        <v>0.25</v>
-      </c>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
@@ -2019,16 +2043,14 @@
         <f>85*H2</f>
         <v>102</v>
       </c>
-      <c r="I6" s="47">
-        <v>2.0499999999999998</v>
+      <c r="I6" s="106">
+        <f>2.05*I2</f>
+        <v>5.125</v>
       </c>
       <c r="J6" s="47">
         <v>100</v>
       </c>
-      <c r="K6" s="103">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
+      <c r="K6" s="66"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
@@ -2055,16 +2077,14 @@
         <f>60*H2</f>
         <v>72</v>
       </c>
-      <c r="I7" s="47">
-        <v>0.75</v>
+      <c r="I7" s="106">
+        <f>0.75*I2</f>
+        <v>1.875</v>
       </c>
       <c r="J7" s="47">
         <v>65</v>
       </c>
-      <c r="K7" s="103">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
+      <c r="K7" s="66"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
@@ -2091,16 +2111,14 @@
         <f>30*H2</f>
         <v>36</v>
       </c>
-      <c r="I8" s="47">
-        <v>3</v>
+      <c r="I8" s="106">
+        <f>3*I2</f>
+        <v>7.5</v>
       </c>
       <c r="J8" s="47">
         <v>35</v>
       </c>
-      <c r="K8" s="103">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
+      <c r="K8" s="66"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
@@ -2127,23 +2145,17 @@
         <f>5*H2</f>
         <v>6</v>
       </c>
-      <c r="I9" s="47">
-        <v>0.875</v>
+      <c r="I9" s="106">
+        <f>0.875*I2</f>
+        <v>2.1875</v>
       </c>
       <c r="J9" s="47">
         <v>80</v>
       </c>
-      <c r="K9" s="103">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
+      <c r="K9" s="66"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
-      <c r="F10">
-        <f>SUM(F4:F9)</f>
-        <v>100</v>
-      </c>
       <c r="K10" s="44"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2222,7 +2234,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="54">
-        <f t="shared" ref="F14:F19" si="1">F4</f>
+        <f t="shared" ref="F14:F19" si="0">F4</f>
         <v>25</v>
       </c>
       <c r="G14" s="46">
@@ -2230,12 +2242,12 @@
         <v>320</v>
       </c>
       <c r="H14" s="46">
-        <f t="shared" ref="H14:H19" si="2">H4*B14</f>
+        <f t="shared" ref="H14:H19" si="1">H4*B14</f>
         <v>240</v>
       </c>
-      <c r="I14" s="65">
-        <f t="shared" ref="I14:I19" si="3">I4*B14</f>
-        <v>4.5</v>
+      <c r="I14" s="106">
+        <f t="shared" ref="I14:I19" si="2">I4*B14</f>
+        <v>11.25</v>
       </c>
       <c r="J14" s="46">
         <v>65</v>
@@ -2256,11 +2268,11 @@
         <v>640</v>
       </c>
       <c r="E15" s="46">
-        <f t="shared" ref="E15:E19" si="4">E5*B15</f>
+        <f t="shared" ref="E15:E19" si="3">E5*B15</f>
         <v>5</v>
       </c>
       <c r="F15" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="G15" s="46">
@@ -2268,12 +2280,12 @@
         <v>300</v>
       </c>
       <c r="H15" s="46">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="I15" s="106">
         <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="I15" s="65">
-        <f t="shared" si="3"/>
-        <v>7.5</v>
+        <v>18.75</v>
       </c>
       <c r="J15" s="48">
         <f>J5</f>
@@ -2295,11 +2307,11 @@
         <v>640</v>
       </c>
       <c r="E16" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.8048780487804876</v>
       </c>
       <c r="F16" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G16" s="46">
@@ -2307,12 +2319,12 @@
         <v>240.39024390243901</v>
       </c>
       <c r="H16" s="46">
+        <f t="shared" si="1"/>
+        <v>398.04878048780489</v>
+      </c>
+      <c r="I16" s="106">
         <f t="shared" si="2"/>
-        <v>398.04878048780489</v>
-      </c>
-      <c r="I16" s="65">
-        <f t="shared" si="3"/>
-        <v>7.9999999999999991</v>
+        <v>20</v>
       </c>
       <c r="J16" s="46">
         <v>100</v>
@@ -2332,11 +2344,11 @@
         <v>640</v>
       </c>
       <c r="E17" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F17" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="G17" s="46">
@@ -2344,12 +2356,12 @@
         <v>128</v>
       </c>
       <c r="H17" s="46">
+        <f t="shared" si="1"/>
+        <v>576</v>
+      </c>
+      <c r="I17" s="106">
         <f t="shared" si="2"/>
-        <v>576</v>
-      </c>
-      <c r="I17" s="65">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J17" s="48">
         <f>J7</f>
@@ -2370,11 +2382,11 @@
         <v>640</v>
       </c>
       <c r="E18" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F18" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G18" s="46">
@@ -2382,12 +2394,12 @@
         <v>64.000000000000014</v>
       </c>
       <c r="H18" s="46">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="I18" s="106">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="I18" s="65">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J18" s="46">
         <v>35</v>
@@ -2407,11 +2419,11 @@
         <v>640</v>
       </c>
       <c r="E19" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="F19" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G19" s="46">
@@ -2419,12 +2431,12 @@
         <v>51.2</v>
       </c>
       <c r="H19" s="48">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="I19" s="105">
         <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="I19" s="66">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="J19" s="48">
         <f>J9</f>
@@ -2432,7 +2444,7 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I20" s="63"/>
+      <c r="I20" s="64"/>
     </row>
     <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="59" t="s">
@@ -2444,10 +2456,10 @@
       <c r="E21" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="63"/>
+      <c r="I21" s="64"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I22" s="63"/>
+      <c r="I22" s="64"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="44"/>
@@ -2467,7 +2479,7 @@
       <c r="H23" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="65" t="s">
+      <c r="I23" s="106" t="s">
         <v>10</v>
       </c>
       <c r="J23" s="47" t="s">
@@ -2495,16 +2507,16 @@
         <v>25</v>
       </c>
       <c r="G24" s="47">
-        <f t="shared" ref="G24:H24" si="5">$B$24*G4</f>
+        <f t="shared" ref="G24:H24" si="4">$B$24*G4</f>
         <v>8000</v>
       </c>
       <c r="H24" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6000</v>
       </c>
-      <c r="I24" s="65">
+      <c r="I24" s="106">
         <f>$B$24*I4</f>
-        <v>112.5</v>
+        <v>281.25</v>
       </c>
       <c r="J24" s="46">
         <f>J14</f>
@@ -2515,14 +2527,14 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="46">
-        <f t="shared" ref="B25:B29" si="6">D$21/E5</f>
+        <f t="shared" ref="B25:B29" si="5">D$21/E5</f>
         <v>250</v>
       </c>
       <c r="C25" s="52" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="47">
-        <f t="shared" ref="D25:D28" si="7">B25*D5</f>
+        <f t="shared" ref="D25:D28" si="6">B25*D5</f>
         <v>32000</v>
       </c>
       <c r="E25" s="47">
@@ -2530,37 +2542,37 @@
         <v>250</v>
       </c>
       <c r="F25" s="47">
-        <f t="shared" ref="F25:F29" si="8">F15</f>
+        <f t="shared" ref="F25:F29" si="7">F15</f>
         <v>25</v>
       </c>
       <c r="G25" s="47">
-        <f t="shared" ref="G25:H25" si="9">$B$25*G5</f>
+        <f t="shared" ref="G25:H25" si="8">$B$25*G5</f>
         <v>15000</v>
       </c>
       <c r="H25" s="47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10500</v>
       </c>
-      <c r="I25" s="65">
+      <c r="I25" s="106">
         <f>$B$25*I5</f>
-        <v>375</v>
+        <v>937.5</v>
       </c>
       <c r="J25" s="46">
-        <f t="shared" ref="J25:J29" si="10">J15</f>
+        <f t="shared" ref="J25:J29" si="9">J15</f>
         <v>55</v>
       </c>
       <c r="K25" s="63"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>125</v>
       </c>
       <c r="C26" s="51" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>20500</v>
       </c>
       <c r="E26" s="47">
@@ -2568,23 +2580,23 @@
         <v>250</v>
       </c>
       <c r="F26" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G26" s="47">
-        <f t="shared" ref="G26:I26" si="11">$B$26*G6</f>
+        <f t="shared" ref="G26:I26" si="10">$B$26*G6</f>
         <v>7700</v>
       </c>
       <c r="H26" s="47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>12750</v>
       </c>
-      <c r="I26" s="65">
-        <f t="shared" si="11"/>
-        <v>256.25</v>
+      <c r="I26" s="106">
+        <f t="shared" si="10"/>
+        <v>640.625</v>
       </c>
       <c r="J26" s="46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="K26" s="63"/>
@@ -2592,14 +2604,14 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>250</v>
       </c>
       <c r="C27" s="51" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>20000</v>
       </c>
       <c r="E27" s="47">
@@ -2607,37 +2619,37 @@
         <v>250</v>
       </c>
       <c r="F27" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="G27" s="47">
-        <f t="shared" ref="G27:H27" si="12">$B$27*G7</f>
+        <f t="shared" ref="G27:H27" si="11">$B$27*G7</f>
         <v>4000</v>
       </c>
       <c r="H27" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>18000</v>
       </c>
-      <c r="I27" s="65">
+      <c r="I27" s="106">
         <f>$B$27*I7</f>
-        <v>187.5</v>
+        <v>468.75</v>
       </c>
       <c r="J27" s="46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="K27" s="63"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>83.333333333333329</v>
       </c>
       <c r="C28" s="53" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16000</v>
       </c>
       <c r="E28" s="47">
@@ -2645,30 +2657,30 @@
         <v>250</v>
       </c>
       <c r="F28" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="G28" s="47">
-        <f t="shared" ref="G28:I28" si="13">$B$28*G8</f>
+        <f t="shared" ref="G28:I28" si="12">$B$28*G8</f>
         <v>1600.0000000000002</v>
       </c>
       <c r="H28" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3000</v>
       </c>
-      <c r="I28" s="65">
-        <f t="shared" si="13"/>
-        <v>250</v>
+      <c r="I28" s="106">
+        <f t="shared" si="12"/>
+        <v>625</v>
       </c>
       <c r="J28" s="46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="K28" s="63"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>125</v>
       </c>
       <c r="C29" s="62" t="s">
@@ -2683,23 +2695,23 @@
         <v>250</v>
       </c>
       <c r="F29" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="G29" s="47">
-        <f t="shared" ref="G29:I29" si="14">$B$29*G9</f>
+        <f t="shared" ref="G29:I29" si="13">$B$29*G9</f>
         <v>800</v>
       </c>
       <c r="H29" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>750</v>
       </c>
-      <c r="I29" s="65">
-        <f t="shared" si="14"/>
-        <v>109.375</v>
+      <c r="I29" s="106">
+        <f t="shared" si="13"/>
+        <v>273.4375</v>
       </c>
       <c r="J29" s="46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="K29" s="63"/>
@@ -3082,110 +3094,110 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="100"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="80"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="74"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
       <c r="F6" s="27">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="83"/>
       <c r="F7" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="74"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="83"/>
       <c r="F9" s="22">
         <v>250</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="89"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
       <c r="F10" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="77"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="86"/>
       <c r="F11" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="92"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="29">
         <v>20</v>
       </c>
@@ -3202,78 +3214,78 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
       <c r="F14" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="83"/>
       <c r="F15" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="95"/>
       <c r="F16" s="25">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="86"/>
       <c r="F17" s="32">
         <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="92"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77"/>
       <c r="F18" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="77"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="86"/>
       <c r="F19" s="34">
         <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="98"/>
       <c r="F20" s="30">
         <v>12</v>
       </c>
@@ -3290,34 +3302,29 @@
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="74"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
       <c r="F22" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="83"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="92"/>
       <c r="F23" s="36">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B19:E19"/>
@@ -3334,6 +3341,11 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3342,18 +3354,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7358574A-592A-4C40-9736-421EE2E19A0C}">
-  <dimension ref="A3:I25"/>
+  <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>51</v>
@@ -3364,401 +3382,565 @@
       <c r="D3" t="s">
         <v>53</v>
       </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="49" t="s">
         <v>50</v>
       </c>
+      <c r="E4" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="49">
         <v>0</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="101">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>54</v>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="49">
         <v>1</v>
       </c>
       <c r="B6" s="49">
         <f>B5+0.05</f>
         <v>1.05</v>
       </c>
-      <c r="C6" s="101">
+      <c r="C6" s="65">
         <v>1</v>
       </c>
       <c r="D6" s="48">
-        <f>$I$12+A6*EXP(A6/10)</f>
+        <f>$H$11+A6*EXP(A6/10)</f>
         <v>71.105170918075643</v>
       </c>
-      <c r="E6" s="102"/>
-      <c r="H6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="1">
-        <v>20</v>
+      <c r="E6" s="48">
+        <f>$E$2+A6*$E$2+EXP(A6/4.38)</f>
+        <v>11.256475403350574</v>
+      </c>
+      <c r="F6" s="48">
+        <f>100-EXP(A6/5)+A6</f>
+        <v>99.778597241839833</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="49">
         <v>2</v>
       </c>
       <c r="B7" s="49">
         <f>B6+0.05</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="C7" s="101">
+      <c r="C7" s="65">
         <v>1</v>
       </c>
       <c r="D7" s="48">
-        <f t="shared" ref="D7:D25" si="0">$I$12+A7*EXP(A7/10)</f>
+        <f>$H$11+A7*EXP(A7/10)</f>
         <v>72.442805516320334</v>
       </c>
-      <c r="E7" s="102"/>
-      <c r="H7" s="1" t="s">
+      <c r="E7" s="48">
+        <f t="shared" ref="E7:E25" si="0">$E$2+A7*$E$2+EXP(A7/4.38)</f>
+        <v>16.578730439224987</v>
+      </c>
+      <c r="F7" s="48">
+        <f t="shared" ref="F7:F25" si="1">100-EXP(A7/5)+A7</f>
+        <v>100.50817530235872</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="49">
+        <v>3</v>
+      </c>
+      <c r="B8" s="49">
+        <f t="shared" ref="B8:B15" si="2">B7+0.05</f>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="C8" s="65">
+        <v>2</v>
+      </c>
+      <c r="D8" s="48">
+        <f>$H$11+A8*EXP(A8/10)</f>
+        <v>74.049576422728009</v>
+      </c>
+      <c r="E8" s="48">
+        <f t="shared" si="0"/>
+        <v>21.983635965407043</v>
+      </c>
+      <c r="F8" s="48">
+        <f t="shared" si="1"/>
+        <v>101.17788119960949</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="49">
         <v>4</v>
       </c>
-      <c r="I7" s="1">
+      <c r="B9" s="49">
+        <f t="shared" si="2"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="C9" s="65">
+        <v>2</v>
+      </c>
+      <c r="D9" s="48">
+        <f>$H$11+A9*EXP(A9/10)</f>
+        <v>75.967298790565081</v>
+      </c>
+      <c r="E9" s="48">
+        <f t="shared" si="0"/>
+        <v>27.49238979973552</v>
+      </c>
+      <c r="F9" s="48">
+        <f t="shared" si="1"/>
+        <v>101.77445907150754</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="49">
+        <v>5</v>
+      </c>
+      <c r="B10" s="49">
+        <f t="shared" si="2"/>
+        <v>1.2500000000000002</v>
+      </c>
+      <c r="C10" s="65">
         <v>3</v>
       </c>
-      <c r="B8" s="49">
-        <f t="shared" ref="B8:B15" si="1">B7+0.05</f>
-        <v>1.1500000000000001</v>
-      </c>
-      <c r="C8" s="101">
-        <v>2</v>
-      </c>
-      <c r="D8" s="48">
+      <c r="D10" s="48">
+        <f>$H$11+A10*EXP(A10/10)</f>
+        <v>78.243606353500638</v>
+      </c>
+      <c r="E10" s="48">
         <f t="shared" si="0"/>
-        <v>74.049576422728009</v>
-      </c>
-      <c r="E8" s="102"/>
-      <c r="H8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="1">
+        <v>33.13162647892954</v>
+      </c>
+      <c r="F10" s="48">
+        <f t="shared" si="1"/>
+        <v>102.28171817154096</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="49">
+        <v>6</v>
+      </c>
+      <c r="B11" s="49">
+        <f t="shared" si="2"/>
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="C11" s="65">
+        <v>3</v>
+      </c>
+      <c r="D11" s="48">
+        <f>$H$11+A11*EXP(A11/10)</f>
+        <v>80.932712802343048</v>
+      </c>
+      <c r="E11" s="48">
+        <f t="shared" si="0"/>
+        <v>38.934811643256332</v>
+      </c>
+      <c r="F11" s="48">
+        <f t="shared" si="1"/>
+        <v>102.67988307726345</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <f>H5+H6*2+H8+H7*3+H9+H10*2</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="49">
+        <v>7</v>
+      </c>
+      <c r="B12" s="49">
+        <f t="shared" si="2"/>
+        <v>1.3500000000000003</v>
+      </c>
+      <c r="C12" s="65">
         <v>4</v>
       </c>
-      <c r="B9" s="49">
+      <c r="D12" s="48">
+        <f>$H$11+A12*EXP(A12/10)</f>
+        <v>84.096268952293343</v>
+      </c>
+      <c r="E12" s="48">
+        <f t="shared" si="0"/>
+        <v>44.943994046569038</v>
+      </c>
+      <c r="F12" s="48">
         <f t="shared" si="1"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="C9" s="101">
-        <v>2</v>
-      </c>
-      <c r="D9" s="48">
+        <v>102.94480003315533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="49">
+        <v>8</v>
+      </c>
+      <c r="B13" s="49">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="C13" s="65">
+        <v>4</v>
+      </c>
+      <c r="D13" s="48">
+        <f>$H$11+A13*EXP(A13/10)</f>
+        <v>87.804327427939739</v>
+      </c>
+      <c r="E13" s="48">
         <f t="shared" si="0"/>
-        <v>75.967298790565081</v>
-      </c>
-      <c r="E9" s="102"/>
-      <c r="H9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
-      <c r="B10" s="49">
+        <v>51.212006913825668</v>
+      </c>
+      <c r="F13" s="48">
         <f t="shared" si="1"/>
-        <v>1.2500000000000002</v>
-      </c>
-      <c r="C10" s="101">
-        <v>3</v>
-      </c>
-      <c r="D10" s="48">
-        <f t="shared" si="0"/>
-        <v>78.243606353500638</v>
-      </c>
-      <c r="E10" s="102"/>
-      <c r="H10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>6</v>
-      </c>
-      <c r="B11" s="49">
-        <f t="shared" si="1"/>
-        <v>1.3000000000000003</v>
-      </c>
-      <c r="C11" s="101">
-        <v>3</v>
-      </c>
-      <c r="D11" s="48">
-        <f t="shared" si="0"/>
-        <v>80.932712802343048</v>
-      </c>
-      <c r="E11" s="102"/>
-      <c r="H11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>7</v>
-      </c>
-      <c r="B12" s="49">
-        <f t="shared" si="1"/>
-        <v>1.3500000000000003</v>
-      </c>
-      <c r="C12" s="101">
-        <v>4</v>
-      </c>
-      <c r="D12" s="48">
-        <f t="shared" si="0"/>
-        <v>84.096268952293343</v>
-      </c>
-      <c r="E12" s="102"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1">
-        <f>I6+I7*2+I9+I8*3+I10+I11*2</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>8</v>
-      </c>
-      <c r="B13" s="49">
-        <f t="shared" si="1"/>
-        <v>1.4000000000000004</v>
-      </c>
-      <c r="C13" s="101">
-        <v>4</v>
-      </c>
-      <c r="D13" s="48">
-        <f t="shared" si="0"/>
-        <v>87.804327427939739</v>
-      </c>
-      <c r="E13" s="102"/>
+        <v>103.04696757560488</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="49">
         <v>9</v>
       </c>
       <c r="B14" s="49">
+        <f t="shared" si="2"/>
+        <v>1.4500000000000004</v>
+      </c>
+      <c r="C14" s="65">
+        <v>5</v>
+      </c>
+      <c r="D14" s="48">
+        <f>$H$11+A14*EXP(A14/10)</f>
+        <v>92.13642800041255</v>
+      </c>
+      <c r="E14" s="48">
+        <f t="shared" si="0"/>
+        <v>57.805233892665655</v>
+      </c>
+      <c r="F14" s="48">
         <f t="shared" si="1"/>
-        <v>1.4500000000000004</v>
-      </c>
-      <c r="C14" s="101">
-        <v>5</v>
-      </c>
-      <c r="D14" s="48">
-        <f t="shared" si="0"/>
-        <v>92.13642800041255</v>
-      </c>
-      <c r="E14" s="102"/>
+        <v>102.95035253558706</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="49">
         <v>10</v>
       </c>
       <c r="B15" s="49">
+        <f t="shared" si="2"/>
+        <v>1.5000000000000004</v>
+      </c>
+      <c r="C15" s="65">
+        <v>6</v>
+      </c>
+      <c r="D15" s="48">
+        <f>$H$11+A15*EXP(A15/10)</f>
+        <v>97.182818284590454</v>
+      </c>
+      <c r="E15" s="48">
+        <f t="shared" si="0"/>
+        <v>64.807084403532656</v>
+      </c>
+      <c r="F15" s="48">
         <f t="shared" si="1"/>
-        <v>1.5000000000000004</v>
-      </c>
-      <c r="C15" s="101">
-        <v>6</v>
-      </c>
-      <c r="D15" s="48">
-        <f t="shared" si="0"/>
-        <v>97.182818284590454</v>
-      </c>
-      <c r="E15" s="102"/>
+        <v>102.61094390106935</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="49">
         <v>11</v>
       </c>
       <c r="B16" s="49">
         <f>B15+0.15</f>
         <v>1.6500000000000004</v>
       </c>
+      <c r="C16" s="102"/>
       <c r="D16" s="48">
+        <f>$H$11+A16*EXP(A16/10)</f>
+        <v>103.04582626341076</v>
+      </c>
+      <c r="E16" s="48">
         <f t="shared" si="0"/>
-        <v>103.04582626341076</v>
-      </c>
-      <c r="E16" s="102"/>
+        <v>72.322360331621809</v>
+      </c>
+      <c r="F16" s="48">
+        <f t="shared" si="1"/>
+        <v>101.97498650056588</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="49">
         <v>12</v>
       </c>
       <c r="B17" s="49">
         <f>B16+0.15</f>
         <v>1.8000000000000003</v>
       </c>
+      <c r="C17" s="102"/>
       <c r="D17" s="48">
+        <f>$H$11+A17*EXP(A17/10)</f>
+        <v>109.84140307283857</v>
+      </c>
+      <c r="E17" s="48">
         <f t="shared" si="0"/>
-        <v>109.84140307283857</v>
-      </c>
-      <c r="E17" s="102"/>
+        <v>80.482742667905612</v>
+      </c>
+      <c r="F17" s="48">
+        <f t="shared" si="1"/>
+        <v>100.9768236193584</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="49">
         <v>13</v>
       </c>
       <c r="B18" s="49">
-        <f t="shared" ref="B18:B25" si="2">B17+0.15</f>
+        <f t="shared" ref="B18:B25" si="3">B17+0.15</f>
         <v>1.9500000000000002</v>
       </c>
+      <c r="C18" s="102"/>
       <c r="D18" s="48">
+        <f>$H$11+A18*EXP(A18/10)</f>
+        <v>117.70085667905018</v>
+      </c>
+      <c r="E18" s="48">
         <f t="shared" si="0"/>
-        <v>117.70085667905018</v>
-      </c>
-      <c r="E18" s="102"/>
+        <v>89.453685338629853</v>
+      </c>
+      <c r="F18" s="48">
+        <f t="shared" si="1"/>
+        <v>99.536261964998303</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="49">
         <v>14</v>
       </c>
       <c r="B19" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.1</v>
       </c>
+      <c r="C19" s="102"/>
       <c r="D19" s="48">
+        <f>$H$11+A19*EXP(A19/10)</f>
+        <v>126.77279953582544</v>
+      </c>
+      <c r="E19" s="48">
         <f t="shared" si="0"/>
-        <v>126.77279953582544</v>
-      </c>
-      <c r="E19" s="102"/>
+        <v>99.443077132510084</v>
+      </c>
+      <c r="F19" s="48">
+        <f t="shared" si="1"/>
+        <v>97.555353228902959</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="49">
         <v>15</v>
       </c>
       <c r="B20" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.25</v>
       </c>
+      <c r="C20" s="102"/>
       <c r="D20" s="48">
+        <f>$H$11+A20*EXP(A20/10)</f>
+        <v>137.22533605507095</v>
+      </c>
+      <c r="E20" s="48">
         <f t="shared" si="0"/>
-        <v>137.22533605507095</v>
-      </c>
-      <c r="E20" s="102"/>
+        <v>110.71212519919979</v>
+      </c>
+      <c r="F20" s="48">
+        <f t="shared" si="1"/>
+        <v>94.914463076812325</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="49">
         <v>16</v>
       </c>
       <c r="B21" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
+      <c r="C21" s="102"/>
       <c r="D21" s="48">
+        <f>$H$11+A21*EXP(A21/10)</f>
+        <v>149.24851879032184</v>
+      </c>
+      <c r="E21" s="48">
         <f t="shared" si="0"/>
-        <v>149.24851879032184</v>
-      </c>
-      <c r="E21" s="102"/>
+        <v>123.58902989741787</v>
+      </c>
+      <c r="F21" s="48">
+        <f t="shared" si="1"/>
+        <v>91.467469802890648</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="49">
         <v>17</v>
       </c>
       <c r="B22" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.5499999999999998</v>
       </c>
+      <c r="C22" s="102"/>
       <c r="D22" s="48">
+        <f>$H$11+A22*EXP(A22/10)</f>
+        <v>163.05710565936238</v>
+      </c>
+      <c r="E22" s="48">
         <f t="shared" si="0"/>
-        <v>163.05710565936238</v>
-      </c>
-      <c r="E22" s="102"/>
+        <v>138.48616690526546</v>
+      </c>
+      <c r="F22" s="48">
+        <f t="shared" si="1"/>
+        <v>87.035899952602989</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="49">
         <v>18</v>
       </c>
       <c r="B23" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.6999999999999997</v>
       </c>
+      <c r="C23" s="102"/>
       <c r="D23" s="48">
+        <f>$H$11+A23*EXP(A23/10)</f>
+        <v>178.89365435943304</v>
+      </c>
+      <c r="E23" s="48">
         <f t="shared" si="0"/>
-        <v>178.89365435943304</v>
-      </c>
-      <c r="E23" s="102"/>
+        <v>155.9216761192167</v>
+      </c>
+      <c r="F23" s="48">
+        <f t="shared" si="1"/>
+        <v>81.401765556322005</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="49">
         <v>19</v>
       </c>
       <c r="B24" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8499999999999996</v>
       </c>
+      <c r="C24" s="102"/>
       <c r="D24" s="48">
+        <f>$H$11+A24*EXP(A24/10)</f>
+        <v>197.0319944033061</v>
+      </c>
+      <c r="E24" s="48">
         <f t="shared" si="0"/>
-        <v>197.0319944033061</v>
-      </c>
-      <c r="E24" s="102"/>
+        <v>176.54658757468576</v>
+      </c>
+      <c r="F24" s="48">
+        <f t="shared" si="1"/>
+        <v>74.298815506699185</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="49">
         <v>20</v>
       </c>
       <c r="B25" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9999999999999996</v>
       </c>
+      <c r="C25" s="102"/>
       <c r="D25" s="48">
+        <f>$H$11+A25*EXP(A25/10)</f>
+        <v>217.78112197861302</v>
+      </c>
+      <c r="E25" s="48">
         <f t="shared" si="0"/>
-        <v>217.78112197861302</v>
-      </c>
-      <c r="E25" s="102"/>
+        <v>201.17890449801334</v>
+      </c>
+      <c r="F25" s="48">
+        <f t="shared" si="1"/>
+        <v>65.401849966855764</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Equilibrage.xlsx
+++ b/Equilibrage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Github\Dukes Of The Realm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E8EB42-EAD3-4BA1-8BBD-215C6B0635B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C433F3-DBF0-455A-AA02-AA79F4700FC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equi V.1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
   <si>
     <t>Coût</t>
   </si>
@@ -215,7 +215,25 @@
     <t>(Florin/s)</t>
   </si>
   <si>
-    <t>(% de reduc)</t>
+    <t>(% de tmp de prod)</t>
+  </si>
+  <si>
+    <t>Marché</t>
+  </si>
+  <si>
+    <t>(nb convoyeur)</t>
+  </si>
+  <si>
+    <t>(Florin/min)</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>Per Lvl</t>
+  </si>
+  <si>
+    <t>Cost</t>
   </si>
 </sst>
 </file>
@@ -279,7 +297,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,8 +370,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -771,11 +795,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -967,6 +1015,24 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -982,13 +1048,58 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -998,60 +1109,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1069,23 +1126,41 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1530,14 +1605,14 @@
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="68" t="s">
+      <c r="I9" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -1557,12 +1632,12 @@
       <c r="G10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1592,12 +1667,12 @@
         <f>G3</f>
         <v>65</v>
       </c>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1628,14 +1703,14 @@
         <v>100</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="67" t="s">
+      <c r="I12" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -1666,12 +1741,12 @@
         <v>35</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1682,12 +1757,12 @@
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
@@ -1696,12 +1771,12 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
@@ -1881,7 +1956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1AB80D-11E3-4393-9ABD-01470CEC1085}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -1975,7 +2050,7 @@
         <f>20*H2</f>
         <v>24</v>
       </c>
-      <c r="I4" s="106">
+      <c r="I4" s="72">
         <f>0.45*I2</f>
         <v>1.125</v>
       </c>
@@ -2009,7 +2084,7 @@
         <f>35*H2</f>
         <v>42</v>
       </c>
-      <c r="I5" s="106">
+      <c r="I5" s="72">
         <f>1.5*I2</f>
         <v>3.75</v>
       </c>
@@ -2043,7 +2118,7 @@
         <f>85*H2</f>
         <v>102</v>
       </c>
-      <c r="I6" s="106">
+      <c r="I6" s="72">
         <f>2.05*I2</f>
         <v>5.125</v>
       </c>
@@ -2077,7 +2152,7 @@
         <f>60*H2</f>
         <v>72</v>
       </c>
-      <c r="I7" s="106">
+      <c r="I7" s="72">
         <f>0.75*I2</f>
         <v>1.875</v>
       </c>
@@ -2111,7 +2186,7 @@
         <f>30*H2</f>
         <v>36</v>
       </c>
-      <c r="I8" s="106">
+      <c r="I8" s="72">
         <f>3*I2</f>
         <v>7.5</v>
       </c>
@@ -2145,7 +2220,7 @@
         <f>5*H2</f>
         <v>6</v>
       </c>
-      <c r="I9" s="106">
+      <c r="I9" s="72">
         <f>0.875*I2</f>
         <v>2.1875</v>
       </c>
@@ -2245,7 +2320,7 @@
         <f t="shared" ref="H14:H19" si="1">H4*B14</f>
         <v>240</v>
       </c>
-      <c r="I14" s="106">
+      <c r="I14" s="72">
         <f t="shared" ref="I14:I19" si="2">I4*B14</f>
         <v>11.25</v>
       </c>
@@ -2283,7 +2358,7 @@
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="I15" s="106">
+      <c r="I15" s="72">
         <f t="shared" si="2"/>
         <v>18.75</v>
       </c>
@@ -2322,7 +2397,7 @@
         <f t="shared" si="1"/>
         <v>398.04878048780489</v>
       </c>
-      <c r="I16" s="106">
+      <c r="I16" s="72">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -2359,7 +2434,7 @@
         <f t="shared" si="1"/>
         <v>576</v>
       </c>
-      <c r="I17" s="106">
+      <c r="I17" s="72">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -2397,7 +2472,7 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="I18" s="106">
+      <c r="I18" s="72">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -2434,7 +2509,7 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="I19" s="105">
+      <c r="I19" s="71">
         <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
@@ -2479,7 +2554,7 @@
       <c r="H23" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="106" t="s">
+      <c r="I23" s="72" t="s">
         <v>10</v>
       </c>
       <c r="J23" s="47" t="s">
@@ -2514,7 +2589,7 @@
         <f t="shared" si="4"/>
         <v>6000</v>
       </c>
-      <c r="I24" s="106">
+      <c r="I24" s="72">
         <f>$B$24*I4</f>
         <v>281.25</v>
       </c>
@@ -2553,7 +2628,7 @@
         <f t="shared" si="8"/>
         <v>10500</v>
       </c>
-      <c r="I25" s="106">
+      <c r="I25" s="72">
         <f>$B$25*I5</f>
         <v>937.5</v>
       </c>
@@ -2591,7 +2666,7 @@
         <f t="shared" si="10"/>
         <v>12750</v>
       </c>
-      <c r="I26" s="106">
+      <c r="I26" s="72">
         <f t="shared" si="10"/>
         <v>640.625</v>
       </c>
@@ -2630,7 +2705,7 @@
         <f t="shared" si="11"/>
         <v>18000</v>
       </c>
-      <c r="I27" s="106">
+      <c r="I27" s="72">
         <f>$B$27*I7</f>
         <v>468.75</v>
       </c>
@@ -2668,7 +2743,7 @@
         <f t="shared" si="12"/>
         <v>3000</v>
       </c>
-      <c r="I28" s="106">
+      <c r="I28" s="72">
         <f t="shared" si="12"/>
         <v>625</v>
       </c>
@@ -2706,7 +2781,7 @@
         <f t="shared" si="13"/>
         <v>750</v>
       </c>
-      <c r="I29" s="106">
+      <c r="I29" s="72">
         <f t="shared" si="13"/>
         <v>273.4375</v>
       </c>
@@ -3094,33 +3169,33 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="106"/>
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
       <c r="F4" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="89"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="86"/>
       <c r="F5" s="35">
         <v>1</v>
       </c>
@@ -3137,12 +3212,12 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="83"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="92"/>
       <c r="F7" s="22">
         <v>5</v>
       </c>
@@ -3159,12 +3234,12 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="83"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="92"/>
       <c r="F9" s="22">
         <v>250</v>
       </c>
@@ -3181,34 +3256,34 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="83"/>
       <c r="F11" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="98"/>
       <c r="F12" s="29">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="23">
         <v>10</v>
       </c>
@@ -3225,12 +3300,12 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="83"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="92"/>
       <c r="F15" s="31">
         <v>5</v>
       </c>
@@ -3247,56 +3322,56 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="83"/>
       <c r="F17" s="32">
         <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="77"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="98"/>
       <c r="F18" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="86"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="83"/>
       <c r="F19" s="34">
         <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="98"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="101"/>
       <c r="F20" s="30">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="71"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="77"/>
       <c r="F21" s="23">
         <v>3</v>
       </c>
@@ -3313,18 +3388,23 @@
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="92"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="89"/>
       <c r="F23" s="36">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B19:E19"/>
@@ -3341,11 +3421,6 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3354,25 +3429,44 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7358574A-592A-4C40-9736-421EE2E19A0C}">
-  <dimension ref="A2:I25"/>
+  <dimension ref="A2:X27"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F25"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="113">
+        <v>0</v>
+      </c>
+      <c r="U2" s="113">
+        <v>1</v>
+      </c>
+      <c r="V2" s="113">
+        <v>1</v>
+      </c>
+      <c r="W2" s="113">
+        <v>3</v>
+      </c>
+      <c r="X2" s="113">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>51</v>
       </c>
@@ -3386,10 +3480,52 @@
         <v>56</v>
       </c>
       <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="113">
+        <v>200</v>
+      </c>
+      <c r="N3" s="113">
+        <v>300</v>
+      </c>
+      <c r="O3" s="113">
+        <v>250</v>
+      </c>
+      <c r="P3" s="113">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="113">
+        <v>200</v>
+      </c>
+      <c r="S3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T3" s="113">
+        <v>4</v>
+      </c>
+      <c r="U3" s="113">
+        <v>3</v>
+      </c>
+      <c r="V3" s="113">
+        <v>3</v>
+      </c>
+      <c r="W3" s="113">
+        <v>2</v>
+      </c>
+      <c r="X3" s="113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>48</v>
       </c>
@@ -3402,36 +3538,108 @@
       <c r="D4" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="104" t="s">
+      <c r="E4" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="104" t="s">
+      <c r="F4" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L4" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="115" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="107" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="T4" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="V4" s="107" t="s">
+        <v>55</v>
+      </c>
+      <c r="W4" s="107" t="s">
+        <v>58</v>
+      </c>
+      <c r="X4" s="107" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="49">
         <v>0</v>
       </c>
-      <c r="B5" s="101">
+      <c r="B5" s="67">
         <v>1</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="1" t="s">
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="49">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="110">
+        <f>100 + L6*L6*L6*L6 / 4</f>
+        <v>100.25</v>
+      </c>
+      <c r="Q5" s="48">
+        <f>200*L6 + L5*L5*(L5/2)</f>
+        <v>200</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="110">
+        <v>3</v>
+      </c>
+      <c r="X5" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="49">
         <v>1</v>
       </c>
@@ -3443,25 +3651,74 @@
         <v>1</v>
       </c>
       <c r="D6" s="48">
-        <f>$H$11+A6*EXP(A6/10)</f>
+        <f>$J$11+A6*EXP(A6/10)</f>
         <v>71.105170918075643</v>
       </c>
       <c r="E6" s="48">
-        <f>$E$2+A6*$E$2+EXP(A6/4.38)</f>
-        <v>11.256475403350574</v>
+        <f>$E$2+A6*$E$2+EXP(A6/4)</f>
+        <v>11.284025416687742</v>
       </c>
       <c r="F6" s="48">
-        <f>100-EXP(A6/5)+A6</f>
-        <v>99.778597241839833</v>
-      </c>
-      <c r="G6" s="1" t="s">
+        <f>E6*60</f>
+        <v>677.04152500126452</v>
+      </c>
+      <c r="G6" s="48">
+        <f>100-EXP(A6/6)-A6</f>
+        <v>97.818639587134356</v>
+      </c>
+      <c r="H6" s="48">
+        <f>A6*(A6/2)+A6</f>
+        <v>1.5</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="111">
+        <f>200*L8+L8*L8*L8*L8/7</f>
+        <v>611.57142857142856</v>
+      </c>
+      <c r="N6" s="108">
+        <f>300*L6+L6*L7*L8</f>
+        <v>306</v>
+      </c>
+      <c r="O6" s="114">
+        <f>250*L6+L6*L6*L6</f>
+        <v>251</v>
+      </c>
+      <c r="P6" s="110">
+        <f t="shared" ref="P6:P15" si="0">100 + L7*L7*L7*L7 / 4</f>
+        <v>104</v>
+      </c>
+      <c r="Q6" s="48">
+        <f t="shared" ref="Q6:Q25" si="1">200*L7 + L6*L6*(L6/2)</f>
+        <v>400.5</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="111">
+        <v>4</v>
+      </c>
+      <c r="U6" s="108">
+        <v>4</v>
+      </c>
+      <c r="V6" s="112">
+        <v>4</v>
+      </c>
+      <c r="W6" s="110">
+        <v>5</v>
+      </c>
+      <c r="X6" s="48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="49">
         <v>2</v>
       </c>
@@ -3473,246 +3730,687 @@
         <v>1</v>
       </c>
       <c r="D7" s="48">
-        <f>$H$11+A7*EXP(A7/10)</f>
+        <f>$J$11+A7*EXP(A7/10)</f>
         <v>72.442805516320334</v>
       </c>
       <c r="E7" s="48">
-        <f t="shared" ref="E7:E25" si="0">$E$2+A7*$E$2+EXP(A7/4.38)</f>
-        <v>16.578730439224987</v>
+        <f t="shared" ref="E7:E25" si="2">$E$2+A7*$E$2+EXP(A7/4)</f>
+        <v>16.648721270700129</v>
       </c>
       <c r="F7" s="48">
-        <f t="shared" ref="F7:F25" si="1">100-EXP(A7/5)+A7</f>
-        <v>100.50817530235872</v>
-      </c>
-      <c r="G7" s="1" t="s">
+        <f t="shared" ref="F7:F25" si="3">E7*60</f>
+        <v>998.92327624200777</v>
+      </c>
+      <c r="G7" s="48">
+        <f t="shared" ref="G7:G25" si="4">100-EXP(A7/6)-A7</f>
+        <v>96.604387574913915</v>
+      </c>
+      <c r="H7" s="48">
+        <f t="shared" ref="H7:H15" si="5">A7*(A7/2)+A7</f>
+        <v>4</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="1">
+      <c r="J7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="111">
+        <f t="shared" ref="M7:M15" si="6">200*L9+L9*L9*L9*L9/7</f>
+        <v>836.57142857142856</v>
+      </c>
+      <c r="N7" s="108">
+        <f t="shared" ref="N7:N25" si="7">300*L7+L7*L8*L9</f>
+        <v>624</v>
+      </c>
+      <c r="O7" s="114">
+        <f t="shared" ref="O7:O25" si="8">250*L7+L7*L7*L7</f>
+        <v>508</v>
+      </c>
+      <c r="P7" s="110">
+        <f t="shared" si="0"/>
+        <v>120.25</v>
+      </c>
+      <c r="Q7" s="48">
+        <f t="shared" si="1"/>
+        <v>604</v>
+      </c>
+      <c r="S7" s="1">
+        <v>2</v>
+      </c>
+      <c r="T7" s="111">
+        <v>8</v>
+      </c>
+      <c r="U7" s="108">
+        <v>7</v>
+      </c>
+      <c r="V7" s="112">
+        <v>7</v>
+      </c>
+      <c r="W7" s="110">
+        <v>7</v>
+      </c>
+      <c r="X7" s="48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="49">
         <v>3</v>
       </c>
       <c r="B8" s="49">
-        <f t="shared" ref="B8:B15" si="2">B7+0.05</f>
+        <f t="shared" ref="B8:B15" si="9">B7+0.05</f>
         <v>1.1500000000000001</v>
       </c>
       <c r="C8" s="65">
         <v>2</v>
       </c>
       <c r="D8" s="48">
-        <f>$H$11+A8*EXP(A8/10)</f>
+        <f>$J$11+A8*EXP(A8/10)</f>
         <v>74.049576422728009</v>
       </c>
       <c r="E8" s="48">
+        <f t="shared" si="2"/>
+        <v>22.117000016612675</v>
+      </c>
+      <c r="F8" s="48">
+        <f t="shared" si="3"/>
+        <v>1327.0200009967605</v>
+      </c>
+      <c r="G8" s="48">
+        <f t="shared" si="4"/>
+        <v>95.351278729299878</v>
+      </c>
+      <c r="H8" s="48">
+        <f t="shared" si="5"/>
+        <v>7.5</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="1">
+        <v>20</v>
+      </c>
+      <c r="L8" s="1">
+        <v>3</v>
+      </c>
+      <c r="M8" s="111">
+        <f t="shared" si="6"/>
+        <v>1089.2857142857142</v>
+      </c>
+      <c r="N8" s="108">
+        <f t="shared" si="7"/>
+        <v>960</v>
+      </c>
+      <c r="O8" s="114">
+        <f t="shared" si="8"/>
+        <v>777</v>
+      </c>
+      <c r="P8" s="110">
         <f t="shared" si="0"/>
-        <v>21.983635965407043</v>
-      </c>
-      <c r="F8" s="48">
+        <v>164</v>
+      </c>
+      <c r="Q8" s="48">
         <f t="shared" si="1"/>
-        <v>101.17788119960949</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>813.5</v>
+      </c>
+      <c r="S8" s="1">
+        <v>3</v>
+      </c>
+      <c r="T8" s="111">
+        <v>12</v>
+      </c>
+      <c r="U8" s="108">
+        <v>10</v>
+      </c>
+      <c r="V8" s="112">
+        <v>10</v>
+      </c>
+      <c r="W8" s="110">
+        <v>9</v>
+      </c>
+      <c r="X8" s="48">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="49">
         <v>4</v>
       </c>
       <c r="B9" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.2000000000000002</v>
       </c>
       <c r="C9" s="65">
         <v>2</v>
       </c>
       <c r="D9" s="48">
-        <f>$H$11+A9*EXP(A9/10)</f>
+        <f>$J$11+A9*EXP(A9/10)</f>
         <v>75.967298790565081</v>
       </c>
       <c r="E9" s="48">
+        <f t="shared" si="2"/>
+        <v>27.718281828459045</v>
+      </c>
+      <c r="F9" s="48">
+        <f t="shared" si="3"/>
+        <v>1663.0969097075426</v>
+      </c>
+      <c r="G9" s="48">
+        <f t="shared" si="4"/>
+        <v>94.052265958945327</v>
+      </c>
+      <c r="H9" s="48">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="1">
+        <v>10</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+      <c r="M9" s="111">
+        <f t="shared" si="6"/>
+        <v>1385.1428571428571</v>
+      </c>
+      <c r="N9" s="108">
+        <f t="shared" si="7"/>
+        <v>1320</v>
+      </c>
+      <c r="O9" s="114">
+        <f t="shared" si="8"/>
+        <v>1064</v>
+      </c>
+      <c r="P9" s="110">
         <f t="shared" si="0"/>
-        <v>27.49238979973552</v>
-      </c>
-      <c r="F9" s="48">
+        <v>256.25</v>
+      </c>
+      <c r="Q9" s="48">
         <f t="shared" si="1"/>
-        <v>101.77445907150754</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1032</v>
+      </c>
+      <c r="S9" s="1">
+        <v>4</v>
+      </c>
+      <c r="T9" s="111">
+        <v>16</v>
+      </c>
+      <c r="U9" s="108">
+        <v>13</v>
+      </c>
+      <c r="V9" s="112">
+        <v>13</v>
+      </c>
+      <c r="W9" s="110">
+        <v>11</v>
+      </c>
+      <c r="X9" s="48">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="49">
         <v>5</v>
       </c>
       <c r="B10" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.2500000000000002</v>
       </c>
       <c r="C10" s="65">
         <v>3</v>
       </c>
       <c r="D10" s="48">
-        <f>$H$11+A10*EXP(A10/10)</f>
+        <f>$J$11+A10*EXP(A10/10)</f>
         <v>78.243606353500638</v>
       </c>
       <c r="E10" s="48">
+        <f t="shared" si="2"/>
+        <v>33.490342957461841</v>
+      </c>
+      <c r="F10" s="48">
+        <f t="shared" si="3"/>
+        <v>2009.4205774477105</v>
+      </c>
+      <c r="G10" s="48">
+        <f t="shared" si="4"/>
+        <v>92.699024109107171</v>
+      </c>
+      <c r="H10" s="48">
+        <f t="shared" si="5"/>
+        <v>17.5</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5</v>
+      </c>
+      <c r="M10" s="111">
+        <f t="shared" si="6"/>
+        <v>1743</v>
+      </c>
+      <c r="N10" s="108">
+        <f t="shared" si="7"/>
+        <v>1710</v>
+      </c>
+      <c r="O10" s="114">
+        <f t="shared" si="8"/>
+        <v>1375</v>
+      </c>
+      <c r="P10" s="110">
         <f t="shared" si="0"/>
-        <v>33.13162647892954</v>
-      </c>
-      <c r="F10" s="48">
+        <v>424</v>
+      </c>
+      <c r="Q10" s="48">
         <f t="shared" si="1"/>
-        <v>102.28171817154096</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1262.5</v>
+      </c>
+      <c r="S10" s="1">
+        <v>5</v>
+      </c>
+      <c r="T10" s="111">
+        <v>20</v>
+      </c>
+      <c r="U10" s="108">
+        <v>16</v>
+      </c>
+      <c r="V10" s="112">
+        <v>16</v>
+      </c>
+      <c r="W10" s="110">
+        <v>13</v>
+      </c>
+      <c r="X10" s="48">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="49">
         <v>6</v>
       </c>
       <c r="B11" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.3000000000000003</v>
       </c>
       <c r="C11" s="65">
         <v>3</v>
       </c>
       <c r="D11" s="48">
-        <f>$H$11+A11*EXP(A11/10)</f>
+        <f>$J$11+A11*EXP(A11/10)</f>
         <v>80.932712802343048</v>
       </c>
       <c r="E11" s="48">
+        <f t="shared" si="2"/>
+        <v>39.481689070338064</v>
+      </c>
+      <c r="F11" s="48">
+        <f t="shared" si="3"/>
+        <v>2368.901344220284</v>
+      </c>
+      <c r="G11" s="48">
+        <f t="shared" si="4"/>
+        <v>91.281718171540959</v>
+      </c>
+      <c r="H11" s="48">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
+        <f>J5+J6*2+J8+J7*3+J9+J10*2</f>
+        <v>70</v>
+      </c>
+      <c r="L11" s="1">
+        <v>6</v>
+      </c>
+      <c r="M11" s="111">
+        <f t="shared" si="6"/>
+        <v>2185.1428571428569</v>
+      </c>
+      <c r="N11" s="108">
+        <f t="shared" si="7"/>
+        <v>2136</v>
+      </c>
+      <c r="O11" s="114">
+        <f t="shared" si="8"/>
+        <v>1716</v>
+      </c>
+      <c r="P11" s="110">
         <f t="shared" si="0"/>
-        <v>38.934811643256332</v>
-      </c>
-      <c r="F11" s="48">
+        <v>700.25</v>
+      </c>
+      <c r="Q11" s="48">
         <f t="shared" si="1"/>
-        <v>102.67988307726345</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1">
-        <f>H5+H6*2+H8+H7*3+H9+H10*2</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1508</v>
+      </c>
+      <c r="S11" s="1">
+        <v>6</v>
+      </c>
+      <c r="T11" s="111">
+        <v>24</v>
+      </c>
+      <c r="U11" s="108">
+        <v>19</v>
+      </c>
+      <c r="V11" s="112">
+        <v>19</v>
+      </c>
+      <c r="W11" s="110">
+        <v>15</v>
+      </c>
+      <c r="X11" s="48">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="49">
         <v>7</v>
       </c>
       <c r="B12" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.3500000000000003</v>
       </c>
       <c r="C12" s="65">
         <v>4</v>
       </c>
       <c r="D12" s="48">
-        <f>$H$11+A12*EXP(A12/10)</f>
+        <f>$J$11+A12*EXP(A12/10)</f>
         <v>84.096268952293343</v>
       </c>
       <c r="E12" s="48">
+        <f t="shared" si="2"/>
+        <v>45.754602676005732</v>
+      </c>
+      <c r="F12" s="48">
+        <f t="shared" si="3"/>
+        <v>2745.2761605603437</v>
+      </c>
+      <c r="G12" s="48">
+        <f t="shared" si="4"/>
+        <v>89.78872945684644</v>
+      </c>
+      <c r="H12" s="48">
+        <f t="shared" si="5"/>
+        <v>31.5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>7</v>
+      </c>
+      <c r="M12" s="111">
+        <f t="shared" si="6"/>
+        <v>2737.2857142857142</v>
+      </c>
+      <c r="N12" s="108">
+        <f t="shared" si="7"/>
+        <v>2604</v>
+      </c>
+      <c r="O12" s="114">
+        <f t="shared" si="8"/>
+        <v>2093</v>
+      </c>
+      <c r="P12" s="110">
         <f t="shared" si="0"/>
-        <v>44.943994046569038</v>
-      </c>
-      <c r="F12" s="48">
+        <v>1124</v>
+      </c>
+      <c r="Q12" s="48">
         <f t="shared" si="1"/>
-        <v>102.94480003315533</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1771.5</v>
+      </c>
+      <c r="S12" s="1">
+        <v>7</v>
+      </c>
+      <c r="T12" s="111">
+        <v>28</v>
+      </c>
+      <c r="U12" s="108">
+        <v>22</v>
+      </c>
+      <c r="V12" s="112">
+        <v>22</v>
+      </c>
+      <c r="W12" s="110">
+        <v>17</v>
+      </c>
+      <c r="X12" s="48">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="49">
         <v>8</v>
       </c>
       <c r="B13" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.4000000000000004</v>
       </c>
       <c r="C13" s="65">
         <v>4</v>
       </c>
       <c r="D13" s="48">
-        <f>$H$11+A13*EXP(A13/10)</f>
+        <f>$J$11+A13*EXP(A13/10)</f>
         <v>87.804327427939739</v>
       </c>
       <c r="E13" s="48">
+        <f t="shared" si="2"/>
+        <v>52.389056098930652</v>
+      </c>
+      <c r="F13" s="48">
+        <f t="shared" si="3"/>
+        <v>3143.3433659358393</v>
+      </c>
+      <c r="G13" s="48">
+        <f t="shared" si="4"/>
+        <v>88.206332105316818</v>
+      </c>
+      <c r="H13" s="48">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="L13" s="1">
+        <v>8</v>
+      </c>
+      <c r="M13" s="111">
+        <f t="shared" si="6"/>
+        <v>3428.5714285714284</v>
+      </c>
+      <c r="N13" s="108">
+        <f t="shared" si="7"/>
+        <v>3120</v>
+      </c>
+      <c r="O13" s="114">
+        <f t="shared" si="8"/>
+        <v>2512</v>
+      </c>
+      <c r="P13" s="110">
         <f t="shared" si="0"/>
-        <v>51.212006913825668</v>
-      </c>
-      <c r="F13" s="48">
+        <v>1740.25</v>
+      </c>
+      <c r="Q13" s="48">
         <f t="shared" si="1"/>
-        <v>103.04696757560488</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2056</v>
+      </c>
+      <c r="S13" s="1">
+        <v>8</v>
+      </c>
+      <c r="T13" s="111">
+        <v>32</v>
+      </c>
+      <c r="U13" s="108">
+        <v>25</v>
+      </c>
+      <c r="V13" s="112">
+        <v>25</v>
+      </c>
+      <c r="W13" s="110">
+        <v>19</v>
+      </c>
+      <c r="X13" s="48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="49">
         <v>9</v>
       </c>
       <c r="B14" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.4500000000000004</v>
       </c>
       <c r="C14" s="65">
         <v>5</v>
       </c>
       <c r="D14" s="48">
-        <f>$H$11+A14*EXP(A14/10)</f>
+        <f>$J$11+A14*EXP(A14/10)</f>
         <v>92.13642800041255</v>
       </c>
       <c r="E14" s="48">
+        <f t="shared" si="2"/>
+        <v>59.487735836358524</v>
+      </c>
+      <c r="F14" s="48">
+        <f t="shared" si="3"/>
+        <v>3569.2641501815115</v>
+      </c>
+      <c r="G14" s="48">
+        <f t="shared" si="4"/>
+        <v>86.518310929661936</v>
+      </c>
+      <c r="H14" s="48">
+        <f t="shared" si="5"/>
+        <v>49.5</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="L14" s="1">
+        <v>9</v>
+      </c>
+      <c r="M14" s="111">
+        <f t="shared" si="6"/>
+        <v>4291.5714285714284</v>
+      </c>
+      <c r="N14" s="108">
+        <f t="shared" si="7"/>
+        <v>3690</v>
+      </c>
+      <c r="O14" s="114">
+        <f t="shared" si="8"/>
+        <v>2979</v>
+      </c>
+      <c r="P14" s="110">
         <f t="shared" si="0"/>
-        <v>57.805233892665655</v>
-      </c>
-      <c r="F14" s="48">
+        <v>2600</v>
+      </c>
+      <c r="Q14" s="48">
         <f t="shared" si="1"/>
-        <v>102.95035253558706</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2364.5</v>
+      </c>
+      <c r="S14" s="1">
+        <v>9</v>
+      </c>
+      <c r="T14" s="111">
+        <v>36</v>
+      </c>
+      <c r="U14" s="108">
+        <v>28</v>
+      </c>
+      <c r="V14" s="112">
+        <v>28</v>
+      </c>
+      <c r="W14" s="110">
+        <v>21</v>
+      </c>
+      <c r="X14" s="48">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="49">
         <v>10</v>
       </c>
       <c r="B15" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.5000000000000004</v>
       </c>
       <c r="C15" s="65">
         <v>6</v>
       </c>
       <c r="D15" s="48">
-        <f>$H$11+A15*EXP(A15/10)</f>
+        <f>$J$11+A15*EXP(A15/10)</f>
         <v>97.182818284590454</v>
       </c>
       <c r="E15" s="48">
+        <f t="shared" si="2"/>
+        <v>67.182493960703468</v>
+      </c>
+      <c r="F15" s="48">
+        <f t="shared" si="3"/>
+        <v>4030.949637642208</v>
+      </c>
+      <c r="G15" s="48">
+        <f t="shared" si="4"/>
+        <v>84.705509949529969</v>
+      </c>
+      <c r="H15" s="48">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="L15" s="1">
+        <v>10</v>
+      </c>
+      <c r="M15" s="111">
+        <f t="shared" si="6"/>
+        <v>5362.2857142857138</v>
+      </c>
+      <c r="N15" s="108">
+        <f t="shared" si="7"/>
+        <v>4320</v>
+      </c>
+      <c r="O15" s="114">
+        <f t="shared" si="8"/>
+        <v>3500</v>
+      </c>
+      <c r="P15" s="110">
         <f t="shared" si="0"/>
-        <v>64.807084403532656</v>
-      </c>
-      <c r="F15" s="48">
+        <v>3760.25</v>
+      </c>
+      <c r="Q15" s="48">
         <f t="shared" si="1"/>
-        <v>102.61094390106935</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2700</v>
+      </c>
+      <c r="S15" s="1">
+        <v>10</v>
+      </c>
+      <c r="T15" s="111">
+        <v>40</v>
+      </c>
+      <c r="U15" s="108">
+        <v>31</v>
+      </c>
+      <c r="V15" s="112">
+        <v>31</v>
+      </c>
+      <c r="W15" s="110">
+        <v>23</v>
+      </c>
+      <c r="X15" s="48">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="49">
         <v>11</v>
       </c>
@@ -3720,23 +4418,58 @@
         <f>B15+0.15</f>
         <v>1.6500000000000004</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="48">
-        <f>$H$11+A16*EXP(A16/10)</f>
+        <f>$J$11+A16*EXP(A16/10)</f>
         <v>103.04582626341076</v>
       </c>
       <c r="E16" s="48">
-        <f t="shared" si="0"/>
-        <v>72.322360331621809</v>
+        <f t="shared" si="2"/>
+        <v>75.642631884188177</v>
       </c>
       <c r="F16" s="48">
+        <f t="shared" si="3"/>
+        <v>4538.5579130512906</v>
+      </c>
+      <c r="G16" s="48">
+        <f t="shared" si="4"/>
+        <v>82.745299048063671</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="L16" s="1">
+        <v>11</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="108">
+        <f t="shared" si="7"/>
+        <v>5016</v>
+      </c>
+      <c r="O16" s="114">
+        <f t="shared" si="8"/>
+        <v>4081</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="48">
         <f t="shared" si="1"/>
-        <v>101.97498650056588</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3065.5</v>
+      </c>
+      <c r="S16" s="1">
+        <v>11</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="108">
+        <v>34</v>
+      </c>
+      <c r="V16" s="112">
+        <v>34</v>
+      </c>
+      <c r="W16" s="1"/>
+      <c r="X16" s="48">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="49">
         <v>12</v>
       </c>
@@ -3744,205 +4477,539 @@
         <f>B16+0.15</f>
         <v>1.8000000000000003</v>
       </c>
-      <c r="C17" s="102"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="48">
-        <f>$H$11+A17*EXP(A17/10)</f>
+        <f>$J$11+A17*EXP(A17/10)</f>
         <v>109.84140307283857</v>
       </c>
       <c r="E17" s="48">
-        <f t="shared" si="0"/>
-        <v>80.482742667905612</v>
+        <f t="shared" si="2"/>
+        <v>85.085536923187675</v>
       </c>
       <c r="F17" s="48">
+        <f t="shared" si="3"/>
+        <v>5105.1322153912606</v>
+      </c>
+      <c r="G17" s="48">
+        <f t="shared" si="4"/>
+        <v>80.610943901069348</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="L17" s="1">
+        <v>12</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="108">
+        <f t="shared" si="7"/>
+        <v>5784</v>
+      </c>
+      <c r="O17" s="114">
+        <f t="shared" si="8"/>
+        <v>4728</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="48">
         <f t="shared" si="1"/>
-        <v>100.9768236193584</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3464</v>
+      </c>
+      <c r="S17" s="1">
+        <v>12</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="108">
+        <v>37</v>
+      </c>
+      <c r="V17" s="112">
+        <v>37</v>
+      </c>
+      <c r="W17" s="1"/>
+      <c r="X17" s="48">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="49">
         <v>13</v>
       </c>
       <c r="B18" s="49">
-        <f t="shared" ref="B18:B25" si="3">B17+0.15</f>
+        <f t="shared" ref="B18:B25" si="10">B17+0.15</f>
         <v>1.9500000000000002</v>
       </c>
-      <c r="C18" s="102"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="48">
-        <f>$H$11+A18*EXP(A18/10)</f>
+        <f>$J$11+A18*EXP(A18/10)</f>
         <v>117.70085667905018</v>
       </c>
       <c r="E18" s="48">
-        <f t="shared" si="0"/>
-        <v>89.453685338629853</v>
+        <f t="shared" si="2"/>
+        <v>95.790339917193066</v>
       </c>
       <c r="F18" s="48">
+        <f t="shared" si="3"/>
+        <v>5747.4203950315841</v>
+      </c>
+      <c r="G18" s="48">
+        <f t="shared" si="4"/>
+        <v>78.270861636279875</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="L18" s="1">
+        <v>13</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="108">
+        <f t="shared" si="7"/>
+        <v>6630</v>
+      </c>
+      <c r="O18" s="114">
+        <f t="shared" si="8"/>
+        <v>5447</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="48">
         <f t="shared" si="1"/>
-        <v>99.536261964998303</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3898.5</v>
+      </c>
+      <c r="S18" s="1">
+        <v>13</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="108">
+        <v>40</v>
+      </c>
+      <c r="V18" s="112">
+        <v>40</v>
+      </c>
+      <c r="W18" s="1"/>
+      <c r="X18" s="48">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="49">
         <v>14</v>
       </c>
       <c r="B19" s="49">
+        <f t="shared" si="10"/>
+        <v>2.1</v>
+      </c>
+      <c r="C19" s="68"/>
+      <c r="D19" s="48">
+        <f>$J$11+A19*EXP(A19/10)</f>
+        <v>126.77279953582544</v>
+      </c>
+      <c r="E19" s="48">
+        <f t="shared" si="2"/>
+        <v>108.11545195869232</v>
+      </c>
+      <c r="F19" s="48">
         <f t="shared" si="3"/>
-        <v>2.1</v>
-      </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="48">
-        <f>$H$11+A19*EXP(A19/10)</f>
-        <v>126.77279953582544</v>
-      </c>
-      <c r="E19" s="48">
-        <f t="shared" si="0"/>
-        <v>99.443077132510084</v>
-      </c>
-      <c r="F19" s="48">
+        <v>6486.927117521539</v>
+      </c>
+      <c r="G19" s="48">
+        <f t="shared" si="4"/>
+        <v>75.687741498674228</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="L19" s="1">
+        <v>14</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="108">
+        <f t="shared" si="7"/>
+        <v>7560</v>
+      </c>
+      <c r="O19" s="114">
+        <f t="shared" si="8"/>
+        <v>6244</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="48">
         <f t="shared" si="1"/>
-        <v>97.555353228902959</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4372</v>
+      </c>
+      <c r="S19" s="1">
+        <v>14</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="108">
+        <v>43</v>
+      </c>
+      <c r="V19" s="112">
+        <v>43</v>
+      </c>
+      <c r="W19" s="1"/>
+      <c r="X19" s="48">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="49">
         <v>15</v>
       </c>
       <c r="B20" s="49">
+        <f t="shared" si="10"/>
+        <v>2.25</v>
+      </c>
+      <c r="C20" s="68"/>
+      <c r="D20" s="48">
+        <f>$J$11+A20*EXP(A20/10)</f>
+        <v>137.22533605507095</v>
+      </c>
+      <c r="E20" s="48">
+        <f t="shared" si="2"/>
+        <v>122.52108200006279</v>
+      </c>
+      <c r="F20" s="48">
         <f t="shared" si="3"/>
-        <v>2.25</v>
-      </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="48">
-        <f>$H$11+A20*EXP(A20/10)</f>
-        <v>137.22533605507095</v>
-      </c>
-      <c r="E20" s="48">
-        <f t="shared" si="0"/>
-        <v>110.71212519919979</v>
-      </c>
-      <c r="F20" s="48">
+        <v>7351.2649200037677</v>
+      </c>
+      <c r="G20" s="48">
+        <f t="shared" si="4"/>
+        <v>72.817506039296532</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="L20" s="1">
+        <v>15</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="108">
+        <f t="shared" si="7"/>
+        <v>8580</v>
+      </c>
+      <c r="O20" s="114">
+        <f t="shared" si="8"/>
+        <v>7125</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="48">
         <f t="shared" si="1"/>
-        <v>94.914463076812325</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4887.5</v>
+      </c>
+      <c r="S20" s="1">
+        <v>15</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="108">
+        <v>46</v>
+      </c>
+      <c r="V20" s="112">
+        <v>46</v>
+      </c>
+      <c r="W20" s="1"/>
+      <c r="X20" s="48">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="49">
         <v>16</v>
       </c>
       <c r="B21" s="49">
+        <f t="shared" si="10"/>
+        <v>2.4</v>
+      </c>
+      <c r="C21" s="68"/>
+      <c r="D21" s="48">
+        <f>$J$11+A21*EXP(A21/10)</f>
+        <v>149.24851879032184</v>
+      </c>
+      <c r="E21" s="48">
+        <f t="shared" si="2"/>
+        <v>139.59815003314424</v>
+      </c>
+      <c r="F21" s="48">
         <f t="shared" si="3"/>
-        <v>2.4</v>
-      </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="48">
-        <f>$H$11+A21*EXP(A21/10)</f>
-        <v>149.24851879032184</v>
-      </c>
-      <c r="E21" s="48">
-        <f t="shared" si="0"/>
-        <v>123.58902989741787</v>
-      </c>
-      <c r="F21" s="48">
+        <v>8375.8890019886549</v>
+      </c>
+      <c r="G21" s="48">
+        <f t="shared" si="4"/>
+        <v>69.608083904850105</v>
+      </c>
+      <c r="L21" s="1">
+        <v>16</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="108">
+        <f t="shared" si="7"/>
+        <v>9696</v>
+      </c>
+      <c r="O21" s="114">
+        <f t="shared" si="8"/>
+        <v>8096</v>
+      </c>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="48">
         <f t="shared" si="1"/>
-        <v>91.467469802890648</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5448</v>
+      </c>
+      <c r="S21" s="1">
+        <v>16</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="108">
+        <v>49</v>
+      </c>
+      <c r="V21" s="112">
+        <v>49</v>
+      </c>
+      <c r="W21" s="1"/>
+      <c r="X21" s="48">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="49">
         <v>17</v>
       </c>
       <c r="B22" s="49">
+        <f t="shared" si="10"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C22" s="68"/>
+      <c r="D22" s="48">
+        <f>$J$11+A22*EXP(A22/10)</f>
+        <v>163.05710565936238</v>
+      </c>
+      <c r="E22" s="48">
+        <f t="shared" si="2"/>
+        <v>160.10541234668784</v>
+      </c>
+      <c r="F22" s="48">
         <f t="shared" si="3"/>
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="C22" s="102"/>
-      <c r="D22" s="48">
-        <f>$H$11+A22*EXP(A22/10)</f>
-        <v>163.05710565936238</v>
-      </c>
-      <c r="E22" s="48">
-        <f t="shared" si="0"/>
-        <v>138.48616690526546</v>
-      </c>
-      <c r="F22" s="48">
+        <v>9606.3247408012703</v>
+      </c>
+      <c r="G22" s="48">
+        <f t="shared" si="4"/>
+        <v>65.997960059905978</v>
+      </c>
+      <c r="L22" s="1">
+        <v>17</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="108">
+        <f t="shared" si="7"/>
+        <v>10914</v>
+      </c>
+      <c r="O22" s="114">
+        <f t="shared" si="8"/>
+        <v>9163</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="48">
         <f t="shared" si="1"/>
-        <v>87.035899952602989</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6056.5</v>
+      </c>
+      <c r="S22" s="1">
+        <v>17</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="108">
+        <v>52</v>
+      </c>
+      <c r="V22" s="112">
+        <v>52</v>
+      </c>
+      <c r="W22" s="1"/>
+      <c r="X22" s="48">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="49">
         <v>18</v>
       </c>
       <c r="B23" s="49">
+        <f t="shared" si="10"/>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="C23" s="68"/>
+      <c r="D23" s="48">
+        <f>$J$11+A23*EXP(A23/10)</f>
+        <v>178.89365435943304</v>
+      </c>
+      <c r="E23" s="48">
+        <f t="shared" si="2"/>
+        <v>185.01713130052181</v>
+      </c>
+      <c r="F23" s="48">
         <f t="shared" si="3"/>
-        <v>2.6999999999999997</v>
-      </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="48">
-        <f>$H$11+A23*EXP(A23/10)</f>
-        <v>178.89365435943304</v>
-      </c>
-      <c r="E23" s="48">
-        <f t="shared" si="0"/>
-        <v>155.9216761192167</v>
-      </c>
-      <c r="F23" s="48">
+        <v>11101.027878031309</v>
+      </c>
+      <c r="G23" s="48">
+        <f t="shared" si="4"/>
+        <v>61.914463076812325</v>
+      </c>
+      <c r="L23" s="1">
+        <v>18</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="108">
+        <f t="shared" si="7"/>
+        <v>12240</v>
+      </c>
+      <c r="O23" s="114">
+        <f t="shared" si="8"/>
+        <v>10332</v>
+      </c>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="48">
         <f t="shared" si="1"/>
-        <v>81.401765556322005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6716</v>
+      </c>
+      <c r="S23" s="1">
+        <v>18</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="108">
+        <v>55</v>
+      </c>
+      <c r="V23" s="112">
+        <v>55</v>
+      </c>
+      <c r="W23" s="1"/>
+      <c r="X23" s="48">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="49">
         <v>19</v>
       </c>
       <c r="B24" s="49">
+        <f t="shared" si="10"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="C24" s="68"/>
+      <c r="D24" s="48">
+        <f>$J$11+A24*EXP(A24/10)</f>
+        <v>197.0319944033061</v>
+      </c>
+      <c r="E24" s="48">
+        <f t="shared" si="2"/>
+        <v>215.58428452718766</v>
+      </c>
+      <c r="F24" s="48">
         <f t="shared" si="3"/>
-        <v>2.8499999999999996</v>
-      </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="48">
-        <f>$H$11+A24*EXP(A24/10)</f>
-        <v>197.0319944033061</v>
-      </c>
-      <c r="E24" s="48">
-        <f t="shared" si="0"/>
-        <v>176.54658757468576</v>
-      </c>
-      <c r="F24" s="48">
+        <v>12935.05707163126</v>
+      </c>
+      <c r="G24" s="48">
+        <f t="shared" si="4"/>
+        <v>57.271741807794839</v>
+      </c>
+      <c r="L24" s="1">
+        <v>19</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="108">
+        <f t="shared" si="7"/>
+        <v>13680</v>
+      </c>
+      <c r="O24" s="114">
+        <f t="shared" si="8"/>
+        <v>11609</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="48">
         <f t="shared" si="1"/>
-        <v>74.298815506699185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7429.5</v>
+      </c>
+      <c r="S24" s="1">
+        <v>19</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="108">
+        <v>58</v>
+      </c>
+      <c r="V24" s="112">
+        <v>58</v>
+      </c>
+      <c r="W24" s="1"/>
+      <c r="X24" s="48">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="49">
         <v>20</v>
       </c>
       <c r="B25" s="49">
+        <f t="shared" si="10"/>
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="C25" s="68"/>
+      <c r="D25" s="48">
+        <f>$J$11+A25*EXP(A25/10)</f>
+        <v>217.78112197861302</v>
+      </c>
+      <c r="E25" s="48">
+        <f t="shared" si="2"/>
+        <v>253.4131591025766</v>
+      </c>
+      <c r="F25" s="48">
         <f t="shared" si="3"/>
-        <v>2.9999999999999996</v>
-      </c>
-      <c r="C25" s="102"/>
-      <c r="D25" s="48">
-        <f>$H$11+A25*EXP(A25/10)</f>
-        <v>217.78112197861302</v>
-      </c>
-      <c r="E25" s="48">
-        <f t="shared" si="0"/>
-        <v>201.17890449801334</v>
-      </c>
-      <c r="F25" s="48">
+        <v>15204.789546154596</v>
+      </c>
+      <c r="G25" s="48">
+        <f t="shared" si="4"/>
+        <v>51.968375105473854</v>
+      </c>
+      <c r="L25" s="1">
+        <v>20</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="108">
+        <f t="shared" si="7"/>
+        <v>15240</v>
+      </c>
+      <c r="O25" s="114">
+        <f t="shared" si="8"/>
+        <v>13000</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="48">
         <f t="shared" si="1"/>
-        <v>65.401849966855764</v>
+        <v>8200</v>
+      </c>
+      <c r="S25" s="1">
+        <v>20</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="108">
+        <v>61</v>
+      </c>
+      <c r="V25" s="112">
+        <v>61</v>
+      </c>
+      <c r="W25" s="1"/>
+      <c r="X25" s="48">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L26" s="1">
+        <v>21</v>
+      </c>
+      <c r="O26" s="107"/>
+      <c r="S26" s="1">
+        <v>21</v>
+      </c>
+      <c r="V26" s="107"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L27" s="1">
+        <v>22</v>
+      </c>
+      <c r="S27" s="1">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Equilibrage.xlsx
+++ b/Equilibrage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Github\Dukes Of The Realm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C433F3-DBF0-455A-AA02-AA79F4700FC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB40CB2-8BCB-4C93-AB2D-FCD93B869BDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1033,6 +1033,33 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1048,6 +1075,24 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1057,6 +1102,15 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1084,15 +1138,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1100,15 +1145,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1125,42 +1161,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1605,14 +1605,14 @@
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="74" t="s">
+      <c r="I9" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -1632,12 +1632,12 @@
       <c r="G10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1667,12 +1667,12 @@
         <f>G3</f>
         <v>65</v>
       </c>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1703,14 +1703,14 @@
         <v>100</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="73" t="s">
+      <c r="I12" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -1741,12 +1741,12 @@
         <v>35</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1757,12 +1757,12 @@
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
@@ -1771,12 +1771,12 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
@@ -3169,242 +3169,237 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="106"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="89"/>
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="104"/>
       <c r="F5" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="95"/>
       <c r="F6" s="27">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="92"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="98"/>
       <c r="F7" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="95"/>
       <c r="F8" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="92"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="98"/>
       <c r="F9" s="22">
         <v>250</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="110"/>
       <c r="F10" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="83"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="101"/>
       <c r="F11" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="98"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
       <c r="F12" s="29">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
       <c r="F13" s="23">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="80"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="95"/>
       <c r="F14" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="92"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="98"/>
       <c r="F15" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="95"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="110"/>
       <c r="F16" s="25">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="83"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101"/>
       <c r="F17" s="32">
         <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="98"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="92"/>
       <c r="F18" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="83"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="101"/>
       <c r="F19" s="34">
         <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="101"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="113"/>
       <c r="F20" s="30">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="77"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="86"/>
       <c r="F21" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="80"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="95"/>
       <c r="F22" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="107"/>
       <c r="F23" s="36">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B19:E19"/>
@@ -3421,6 +3416,11 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3429,10 +3429,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7358574A-592A-4C40-9736-421EE2E19A0C}">
-  <dimension ref="A2:X27"/>
+  <dimension ref="A2:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3450,19 +3450,19 @@
       <c r="S2" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="113">
+      <c r="T2" s="79">
         <v>0</v>
       </c>
-      <c r="U2" s="113">
+      <c r="U2" s="79">
         <v>1</v>
       </c>
-      <c r="V2" s="113">
+      <c r="V2" s="79">
         <v>1</v>
       </c>
-      <c r="W2" s="113">
+      <c r="W2" s="79">
         <v>3</v>
       </c>
-      <c r="X2" s="113">
+      <c r="X2" s="79">
         <v>6</v>
       </c>
     </row>
@@ -3491,37 +3491,37 @@
       <c r="L3" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="113">
+      <c r="M3" s="79">
         <v>200</v>
       </c>
-      <c r="N3" s="113">
+      <c r="N3" s="79">
         <v>300</v>
       </c>
-      <c r="O3" s="113">
+      <c r="O3" s="79">
         <v>250</v>
       </c>
-      <c r="P3" s="113">
+      <c r="P3" s="79">
         <v>100</v>
       </c>
-      <c r="Q3" s="113">
+      <c r="Q3" s="79">
         <v>200</v>
       </c>
       <c r="S3" t="s">
         <v>62</v>
       </c>
-      <c r="T3" s="113">
+      <c r="T3" s="79">
         <v>4</v>
       </c>
-      <c r="U3" s="113">
+      <c r="U3" s="79">
         <v>3</v>
       </c>
-      <c r="V3" s="113">
+      <c r="V3" s="79">
         <v>3</v>
       </c>
-      <c r="W3" s="113">
+      <c r="W3" s="79">
         <v>2</v>
       </c>
-      <c r="X3" s="113">
+      <c r="X3" s="79">
         <v>5</v>
       </c>
     </row>
@@ -3554,40 +3554,40 @@
       <c r="J4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="107" t="s">
+      <c r="L4" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="107" t="s">
+      <c r="M4" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="107" t="s">
+      <c r="N4" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="115" t="s">
+      <c r="O4" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="107" t="s">
+      <c r="P4" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="Q4" s="107" t="s">
+      <c r="Q4" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="107" t="s">
+      <c r="S4" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="T4" s="107" t="s">
+      <c r="T4" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="U4" s="107" t="s">
+      <c r="U4" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="V4" s="107" t="s">
+      <c r="V4" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="W4" s="107" t="s">
+      <c r="W4" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="X4" s="107" t="s">
+      <c r="X4" s="73" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3610,15 +3610,15 @@
         <v>3</v>
       </c>
       <c r="J5" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
       </c>
       <c r="M5" s="69"/>
       <c r="N5" s="69"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="110">
+      <c r="O5" s="75"/>
+      <c r="P5" s="76">
         <f>100 + L6*L6*L6*L6 / 4</f>
         <v>100.25</v>
       </c>
@@ -3631,8 +3631,8 @@
       </c>
       <c r="T5" s="69"/>
       <c r="U5" s="69"/>
-      <c r="V5" s="109"/>
-      <c r="W5" s="110">
+      <c r="V5" s="75"/>
+      <c r="W5" s="76">
         <v>3</v>
       </c>
       <c r="X5" s="48">
@@ -3651,8 +3651,8 @@
         <v>1</v>
       </c>
       <c r="D6" s="48">
-        <f>$J$11+A6*EXP(A6/10)</f>
-        <v>71.105170918075643</v>
+        <f>80+6*A6</f>
+        <v>86</v>
       </c>
       <c r="E6" s="48">
         <f>$E$2+A6*$E$2+EXP(A6/4)</f>
@@ -3679,19 +3679,19 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="111">
+      <c r="M6" s="77">
         <f>200*L8+L8*L8*L8*L8/7</f>
         <v>611.57142857142856</v>
       </c>
-      <c r="N6" s="108">
+      <c r="N6" s="74">
         <f>300*L6+L6*L7*L8</f>
         <v>306</v>
       </c>
-      <c r="O6" s="114">
+      <c r="O6" s="80">
         <f>250*L6+L6*L6*L6</f>
         <v>251</v>
       </c>
-      <c r="P6" s="110">
+      <c r="P6" s="76">
         <f t="shared" ref="P6:P15" si="0">100 + L7*L7*L7*L7 / 4</f>
         <v>104</v>
       </c>
@@ -3699,19 +3699,23 @@
         <f t="shared" ref="Q6:Q25" si="1">200*L7 + L6*L6*(L6/2)</f>
         <v>400.5</v>
       </c>
+      <c r="R6" s="64">
+        <f>V6*G6/100</f>
+        <v>3.9127455834853744</v>
+      </c>
       <c r="S6" s="1">
         <v>1</v>
       </c>
-      <c r="T6" s="111">
+      <c r="T6" s="77">
         <v>4</v>
       </c>
-      <c r="U6" s="108">
+      <c r="U6" s="74">
         <v>4</v>
       </c>
-      <c r="V6" s="112">
+      <c r="V6" s="78">
         <v>4</v>
       </c>
-      <c r="W6" s="110">
+      <c r="W6" s="76">
         <v>5</v>
       </c>
       <c r="X6" s="48">
@@ -3730,23 +3734,23 @@
         <v>1</v>
       </c>
       <c r="D7" s="48">
-        <f>$J$11+A7*EXP(A7/10)</f>
-        <v>72.442805516320334</v>
+        <f t="shared" ref="D7:D25" si="2">80+6*A7</f>
+        <v>92</v>
       </c>
       <c r="E7" s="48">
-        <f t="shared" ref="E7:E25" si="2">$E$2+A7*$E$2+EXP(A7/4)</f>
+        <f t="shared" ref="E7:E25" si="3">$E$2+A7*$E$2+EXP(A7/4)</f>
         <v>16.648721270700129</v>
       </c>
       <c r="F7" s="48">
-        <f t="shared" ref="F7:F25" si="3">E7*60</f>
+        <f t="shared" ref="F7:F25" si="4">E7*60</f>
         <v>998.92327624200777</v>
       </c>
       <c r="G7" s="48">
-        <f t="shared" ref="G7:G25" si="4">100-EXP(A7/6)-A7</f>
+        <f t="shared" ref="G7:G25" si="5">100-EXP(A7/6)-A7</f>
         <v>96.604387574913915</v>
       </c>
       <c r="H7" s="48">
-        <f t="shared" ref="H7:H15" si="5">A7*(A7/2)+A7</f>
+        <f t="shared" ref="H7:H15" si="6">A7*(A7/2)+A7</f>
         <v>4</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -3758,19 +3762,19 @@
       <c r="L7" s="1">
         <v>2</v>
       </c>
-      <c r="M7" s="111">
-        <f t="shared" ref="M7:M15" si="6">200*L9+L9*L9*L9*L9/7</f>
+      <c r="M7" s="77">
+        <f t="shared" ref="M7:M15" si="7">200*L9+L9*L9*L9*L9/7</f>
         <v>836.57142857142856</v>
       </c>
-      <c r="N7" s="108">
-        <f t="shared" ref="N7:N25" si="7">300*L7+L7*L8*L9</f>
+      <c r="N7" s="74">
+        <f t="shared" ref="N7:N25" si="8">300*L7+L7*L8*L9</f>
         <v>624</v>
       </c>
-      <c r="O7" s="114">
-        <f t="shared" ref="O7:O25" si="8">250*L7+L7*L7*L7</f>
+      <c r="O7" s="80">
+        <f t="shared" ref="O7:O25" si="9">250*L7+L7*L7*L7</f>
         <v>508</v>
       </c>
-      <c r="P7" s="110">
+      <c r="P7" s="76">
         <f t="shared" si="0"/>
         <v>120.25</v>
       </c>
@@ -3778,19 +3782,23 @@
         <f t="shared" si="1"/>
         <v>604</v>
       </c>
+      <c r="R7" s="64">
+        <f t="shared" ref="R7:R25" si="10">V7*G7/100</f>
+        <v>6.7623071302439737</v>
+      </c>
       <c r="S7" s="1">
         <v>2</v>
       </c>
-      <c r="T7" s="111">
+      <c r="T7" s="77">
         <v>8</v>
       </c>
-      <c r="U7" s="108">
+      <c r="U7" s="74">
         <v>7</v>
       </c>
-      <c r="V7" s="112">
+      <c r="V7" s="78">
         <v>7</v>
       </c>
-      <c r="W7" s="110">
+      <c r="W7" s="76">
         <v>7</v>
       </c>
       <c r="X7" s="48">
@@ -3802,30 +3810,30 @@
         <v>3</v>
       </c>
       <c r="B8" s="49">
-        <f t="shared" ref="B8:B15" si="9">B7+0.05</f>
+        <f t="shared" ref="B8:B15" si="11">B7+0.05</f>
         <v>1.1500000000000001</v>
       </c>
       <c r="C8" s="65">
         <v>2</v>
       </c>
       <c r="D8" s="48">
-        <f>$J$11+A8*EXP(A8/10)</f>
-        <v>74.049576422728009</v>
+        <f t="shared" si="2"/>
+        <v>98</v>
       </c>
       <c r="E8" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.117000016612675</v>
       </c>
       <c r="F8" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1327.0200009967605</v>
       </c>
       <c r="G8" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>95.351278729299878</v>
       </c>
       <c r="H8" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.5</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -3837,19 +3845,19 @@
       <c r="L8" s="1">
         <v>3</v>
       </c>
-      <c r="M8" s="111">
-        <f t="shared" si="6"/>
+      <c r="M8" s="77">
+        <f t="shared" si="7"/>
         <v>1089.2857142857142</v>
       </c>
-      <c r="N8" s="108">
-        <f t="shared" si="7"/>
+      <c r="N8" s="74">
+        <f t="shared" si="8"/>
         <v>960</v>
       </c>
-      <c r="O8" s="114">
-        <f t="shared" si="8"/>
+      <c r="O8" s="80">
+        <f t="shared" si="9"/>
         <v>777</v>
       </c>
-      <c r="P8" s="110">
+      <c r="P8" s="76">
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
@@ -3857,19 +3865,23 @@
         <f t="shared" si="1"/>
         <v>813.5</v>
       </c>
+      <c r="R8" s="64">
+        <f t="shared" si="10"/>
+        <v>9.5351278729299889</v>
+      </c>
       <c r="S8" s="1">
         <v>3</v>
       </c>
-      <c r="T8" s="111">
+      <c r="T8" s="77">
         <v>12</v>
       </c>
-      <c r="U8" s="108">
+      <c r="U8" s="74">
         <v>10</v>
       </c>
-      <c r="V8" s="112">
+      <c r="V8" s="78">
         <v>10</v>
       </c>
-      <c r="W8" s="110">
+      <c r="W8" s="76">
         <v>9</v>
       </c>
       <c r="X8" s="48">
@@ -3881,30 +3893,30 @@
         <v>4</v>
       </c>
       <c r="B9" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.2000000000000002</v>
       </c>
       <c r="C9" s="65">
         <v>2</v>
       </c>
       <c r="D9" s="48">
-        <f>$J$11+A9*EXP(A9/10)</f>
-        <v>75.967298790565081</v>
+        <f t="shared" si="2"/>
+        <v>104</v>
       </c>
       <c r="E9" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27.718281828459045</v>
       </c>
       <c r="F9" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1663.0969097075426</v>
       </c>
       <c r="G9" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>94.052265958945327</v>
       </c>
       <c r="H9" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -3916,19 +3928,19 @@
       <c r="L9" s="1">
         <v>4</v>
       </c>
-      <c r="M9" s="111">
-        <f t="shared" si="6"/>
+      <c r="M9" s="77">
+        <f t="shared" si="7"/>
         <v>1385.1428571428571</v>
       </c>
-      <c r="N9" s="108">
-        <f t="shared" si="7"/>
+      <c r="N9" s="74">
+        <f t="shared" si="8"/>
         <v>1320</v>
       </c>
-      <c r="O9" s="114">
-        <f t="shared" si="8"/>
+      <c r="O9" s="80">
+        <f t="shared" si="9"/>
         <v>1064</v>
       </c>
-      <c r="P9" s="110">
+      <c r="P9" s="76">
         <f t="shared" si="0"/>
         <v>256.25</v>
       </c>
@@ -3936,19 +3948,23 @@
         <f t="shared" si="1"/>
         <v>1032</v>
       </c>
+      <c r="R9" s="64">
+        <f t="shared" si="10"/>
+        <v>12.226794574662893</v>
+      </c>
       <c r="S9" s="1">
         <v>4</v>
       </c>
-      <c r="T9" s="111">
+      <c r="T9" s="77">
         <v>16</v>
       </c>
-      <c r="U9" s="108">
+      <c r="U9" s="74">
         <v>13</v>
       </c>
-      <c r="V9" s="112">
+      <c r="V9" s="78">
         <v>13</v>
       </c>
-      <c r="W9" s="110">
+      <c r="W9" s="76">
         <v>11</v>
       </c>
       <c r="X9" s="48">
@@ -3960,30 +3976,30 @@
         <v>5</v>
       </c>
       <c r="B10" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.2500000000000002</v>
       </c>
       <c r="C10" s="65">
         <v>3</v>
       </c>
       <c r="D10" s="48">
-        <f>$J$11+A10*EXP(A10/10)</f>
-        <v>78.243606353500638</v>
+        <f t="shared" si="2"/>
+        <v>110</v>
       </c>
       <c r="E10" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33.490342957461841</v>
       </c>
       <c r="F10" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2009.4205774477105</v>
       </c>
       <c r="G10" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>92.699024109107171</v>
       </c>
       <c r="H10" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.5</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -3995,19 +4011,19 @@
       <c r="L10" s="1">
         <v>5</v>
       </c>
-      <c r="M10" s="111">
-        <f t="shared" si="6"/>
+      <c r="M10" s="77">
+        <f t="shared" si="7"/>
         <v>1743</v>
       </c>
-      <c r="N10" s="108">
-        <f t="shared" si="7"/>
+      <c r="N10" s="74">
+        <f t="shared" si="8"/>
         <v>1710</v>
       </c>
-      <c r="O10" s="114">
-        <f t="shared" si="8"/>
+      <c r="O10" s="80">
+        <f t="shared" si="9"/>
         <v>1375</v>
       </c>
-      <c r="P10" s="110">
+      <c r="P10" s="76">
         <f t="shared" si="0"/>
         <v>424</v>
       </c>
@@ -4015,19 +4031,23 @@
         <f t="shared" si="1"/>
         <v>1262.5</v>
       </c>
+      <c r="R10" s="64">
+        <f t="shared" si="10"/>
+        <v>14.831843857457148</v>
+      </c>
       <c r="S10" s="1">
         <v>5</v>
       </c>
-      <c r="T10" s="111">
+      <c r="T10" s="77">
         <v>20</v>
       </c>
-      <c r="U10" s="108">
+      <c r="U10" s="74">
         <v>16</v>
       </c>
-      <c r="V10" s="112">
+      <c r="V10" s="78">
         <v>16</v>
       </c>
-      <c r="W10" s="110">
+      <c r="W10" s="76">
         <v>13</v>
       </c>
       <c r="X10" s="48">
@@ -4039,53 +4059,53 @@
         <v>6</v>
       </c>
       <c r="B11" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.3000000000000003</v>
       </c>
       <c r="C11" s="65">
         <v>3</v>
       </c>
       <c r="D11" s="48">
-        <f>$J$11+A11*EXP(A11/10)</f>
-        <v>80.932712802343048</v>
+        <f t="shared" si="2"/>
+        <v>116</v>
       </c>
       <c r="E11" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39.481689070338064</v>
       </c>
       <c r="F11" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2368.901344220284</v>
       </c>
       <c r="G11" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>91.281718171540959</v>
       </c>
       <c r="H11" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1">
-        <f>J5+J6*2+J8+J7*3+J9+J10*2</f>
-        <v>70</v>
+        <f>J5+J6*2+J7*3+J8+J9+J10*2</f>
+        <v>67</v>
       </c>
       <c r="L11" s="1">
         <v>6</v>
       </c>
-      <c r="M11" s="111">
-        <f t="shared" si="6"/>
+      <c r="M11" s="77">
+        <f t="shared" si="7"/>
         <v>2185.1428571428569</v>
       </c>
-      <c r="N11" s="108">
-        <f t="shared" si="7"/>
+      <c r="N11" s="74">
+        <f t="shared" si="8"/>
         <v>2136</v>
       </c>
-      <c r="O11" s="114">
-        <f t="shared" si="8"/>
+      <c r="O11" s="80">
+        <f t="shared" si="9"/>
         <v>1716</v>
       </c>
-      <c r="P11" s="110">
+      <c r="P11" s="76">
         <f t="shared" si="0"/>
         <v>700.25</v>
       </c>
@@ -4093,19 +4113,23 @@
         <f t="shared" si="1"/>
         <v>1508</v>
       </c>
+      <c r="R11" s="64">
+        <f t="shared" si="10"/>
+        <v>17.343526452592783</v>
+      </c>
       <c r="S11" s="1">
         <v>6</v>
       </c>
-      <c r="T11" s="111">
+      <c r="T11" s="77">
         <v>24</v>
       </c>
-      <c r="U11" s="108">
+      <c r="U11" s="74">
         <v>19</v>
       </c>
-      <c r="V11" s="112">
+      <c r="V11" s="78">
         <v>19</v>
       </c>
-      <c r="W11" s="110">
+      <c r="W11" s="76">
         <v>15</v>
       </c>
       <c r="X11" s="48">
@@ -4117,48 +4141,48 @@
         <v>7</v>
       </c>
       <c r="B12" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.3500000000000003</v>
       </c>
       <c r="C12" s="65">
         <v>4</v>
       </c>
       <c r="D12" s="48">
-        <f>$J$11+A12*EXP(A12/10)</f>
-        <v>84.096268952293343</v>
+        <f t="shared" si="2"/>
+        <v>122</v>
       </c>
       <c r="E12" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45.754602676005732</v>
       </c>
       <c r="F12" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2745.2761605603437</v>
       </c>
       <c r="G12" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>89.78872945684644</v>
       </c>
       <c r="H12" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>31.5</v>
       </c>
       <c r="L12" s="1">
         <v>7</v>
       </c>
-      <c r="M12" s="111">
-        <f t="shared" si="6"/>
+      <c r="M12" s="77">
+        <f t="shared" si="7"/>
         <v>2737.2857142857142</v>
       </c>
-      <c r="N12" s="108">
-        <f t="shared" si="7"/>
+      <c r="N12" s="74">
+        <f t="shared" si="8"/>
         <v>2604</v>
       </c>
-      <c r="O12" s="114">
-        <f t="shared" si="8"/>
+      <c r="O12" s="80">
+        <f t="shared" si="9"/>
         <v>2093</v>
       </c>
-      <c r="P12" s="110">
+      <c r="P12" s="76">
         <f t="shared" si="0"/>
         <v>1124</v>
       </c>
@@ -4166,19 +4190,23 @@
         <f t="shared" si="1"/>
         <v>1771.5</v>
       </c>
+      <c r="R12" s="64">
+        <f t="shared" si="10"/>
+        <v>19.753520480506218</v>
+      </c>
       <c r="S12" s="1">
         <v>7</v>
       </c>
-      <c r="T12" s="111">
+      <c r="T12" s="77">
         <v>28</v>
       </c>
-      <c r="U12" s="108">
+      <c r="U12" s="74">
         <v>22</v>
       </c>
-      <c r="V12" s="112">
+      <c r="V12" s="78">
         <v>22</v>
       </c>
-      <c r="W12" s="110">
+      <c r="W12" s="76">
         <v>17</v>
       </c>
       <c r="X12" s="48">
@@ -4190,30 +4218,30 @@
         <v>8</v>
       </c>
       <c r="B13" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.4000000000000004</v>
       </c>
       <c r="C13" s="65">
         <v>4</v>
       </c>
       <c r="D13" s="48">
-        <f>$J$11+A13*EXP(A13/10)</f>
-        <v>87.804327427939739</v>
+        <f t="shared" si="2"/>
+        <v>128</v>
       </c>
       <c r="E13" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52.389056098930652</v>
       </c>
       <c r="F13" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3143.3433659358393</v>
       </c>
       <c r="G13" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>88.206332105316818</v>
       </c>
       <c r="H13" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="I13" s="1"/>
@@ -4221,19 +4249,19 @@
       <c r="L13" s="1">
         <v>8</v>
       </c>
-      <c r="M13" s="111">
-        <f t="shared" si="6"/>
+      <c r="M13" s="77">
+        <f t="shared" si="7"/>
         <v>3428.5714285714284</v>
       </c>
-      <c r="N13" s="108">
-        <f t="shared" si="7"/>
+      <c r="N13" s="74">
+        <f t="shared" si="8"/>
         <v>3120</v>
       </c>
-      <c r="O13" s="114">
-        <f t="shared" si="8"/>
+      <c r="O13" s="80">
+        <f t="shared" si="9"/>
         <v>2512</v>
       </c>
-      <c r="P13" s="110">
+      <c r="P13" s="76">
         <f t="shared" si="0"/>
         <v>1740.25</v>
       </c>
@@ -4241,19 +4269,23 @@
         <f t="shared" si="1"/>
         <v>2056</v>
       </c>
+      <c r="R13" s="64">
+        <f t="shared" si="10"/>
+        <v>22.051583026329205</v>
+      </c>
       <c r="S13" s="1">
         <v>8</v>
       </c>
-      <c r="T13" s="111">
+      <c r="T13" s="77">
         <v>32</v>
       </c>
-      <c r="U13" s="108">
+      <c r="U13" s="74">
         <v>25</v>
       </c>
-      <c r="V13" s="112">
+      <c r="V13" s="78">
         <v>25</v>
       </c>
-      <c r="W13" s="110">
+      <c r="W13" s="76">
         <v>19</v>
       </c>
       <c r="X13" s="48">
@@ -4265,30 +4297,30 @@
         <v>9</v>
       </c>
       <c r="B14" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.4500000000000004</v>
       </c>
       <c r="C14" s="65">
         <v>5</v>
       </c>
       <c r="D14" s="48">
-        <f>$J$11+A14*EXP(A14/10)</f>
-        <v>92.13642800041255</v>
+        <f t="shared" si="2"/>
+        <v>134</v>
       </c>
       <c r="E14" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>59.487735836358524</v>
       </c>
       <c r="F14" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3569.2641501815115</v>
       </c>
       <c r="G14" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86.518310929661936</v>
       </c>
       <c r="H14" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>49.5</v>
       </c>
       <c r="I14" s="1"/>
@@ -4296,19 +4328,19 @@
       <c r="L14" s="1">
         <v>9</v>
       </c>
-      <c r="M14" s="111">
-        <f t="shared" si="6"/>
+      <c r="M14" s="77">
+        <f t="shared" si="7"/>
         <v>4291.5714285714284</v>
       </c>
-      <c r="N14" s="108">
-        <f t="shared" si="7"/>
+      <c r="N14" s="74">
+        <f t="shared" si="8"/>
         <v>3690</v>
       </c>
-      <c r="O14" s="114">
-        <f t="shared" si="8"/>
+      <c r="O14" s="80">
+        <f t="shared" si="9"/>
         <v>2979</v>
       </c>
-      <c r="P14" s="110">
+      <c r="P14" s="76">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
@@ -4316,19 +4348,23 @@
         <f t="shared" si="1"/>
         <v>2364.5</v>
       </c>
+      <c r="R14" s="64">
+        <f t="shared" si="10"/>
+        <v>24.22512706030534</v>
+      </c>
       <c r="S14" s="1">
         <v>9</v>
       </c>
-      <c r="T14" s="111">
+      <c r="T14" s="77">
         <v>36</v>
       </c>
-      <c r="U14" s="108">
+      <c r="U14" s="74">
         <v>28</v>
       </c>
-      <c r="V14" s="112">
+      <c r="V14" s="78">
         <v>28</v>
       </c>
-      <c r="W14" s="110">
+      <c r="W14" s="76">
         <v>21</v>
       </c>
       <c r="X14" s="48">
@@ -4340,30 +4376,30 @@
         <v>10</v>
       </c>
       <c r="B15" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.5000000000000004</v>
       </c>
       <c r="C15" s="65">
         <v>6</v>
       </c>
       <c r="D15" s="48">
-        <f>$J$11+A15*EXP(A15/10)</f>
-        <v>97.182818284590454</v>
+        <f t="shared" si="2"/>
+        <v>140</v>
       </c>
       <c r="E15" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>67.182493960703468</v>
       </c>
       <c r="F15" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4030.949637642208</v>
       </c>
       <c r="G15" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>84.705509949529969</v>
       </c>
       <c r="H15" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="I15" s="1"/>
@@ -4371,19 +4407,19 @@
       <c r="L15" s="1">
         <v>10</v>
       </c>
-      <c r="M15" s="111">
-        <f t="shared" si="6"/>
+      <c r="M15" s="77">
+        <f t="shared" si="7"/>
         <v>5362.2857142857138</v>
       </c>
-      <c r="N15" s="108">
-        <f t="shared" si="7"/>
+      <c r="N15" s="74">
+        <f t="shared" si="8"/>
         <v>4320</v>
       </c>
-      <c r="O15" s="114">
-        <f t="shared" si="8"/>
+      <c r="O15" s="80">
+        <f t="shared" si="9"/>
         <v>3500</v>
       </c>
-      <c r="P15" s="110">
+      <c r="P15" s="76">
         <f t="shared" si="0"/>
         <v>3760.25</v>
       </c>
@@ -4391,19 +4427,23 @@
         <f t="shared" si="1"/>
         <v>2700</v>
       </c>
+      <c r="R15" s="64">
+        <f t="shared" si="10"/>
+        <v>26.258708084354289</v>
+      </c>
       <c r="S15" s="1">
         <v>10</v>
       </c>
-      <c r="T15" s="111">
+      <c r="T15" s="77">
         <v>40</v>
       </c>
-      <c r="U15" s="108">
+      <c r="U15" s="74">
         <v>31</v>
       </c>
-      <c r="V15" s="112">
+      <c r="V15" s="78">
         <v>31</v>
       </c>
-      <c r="W15" s="110">
+      <c r="W15" s="76">
         <v>23</v>
       </c>
       <c r="X15" s="48">
@@ -4420,19 +4460,19 @@
       </c>
       <c r="C16" s="68"/>
       <c r="D16" s="48">
-        <f>$J$11+A16*EXP(A16/10)</f>
-        <v>103.04582626341076</v>
+        <f t="shared" si="2"/>
+        <v>146</v>
       </c>
       <c r="E16" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>75.642631884188177</v>
       </c>
       <c r="F16" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4538.5579130512906</v>
       </c>
       <c r="G16" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>82.745299048063671</v>
       </c>
       <c r="I16" s="1"/>
@@ -4441,12 +4481,12 @@
         <v>11</v>
       </c>
       <c r="M16" s="1"/>
-      <c r="N16" s="108">
-        <f t="shared" si="7"/>
+      <c r="N16" s="74">
+        <f t="shared" si="8"/>
         <v>5016</v>
       </c>
-      <c r="O16" s="114">
-        <f t="shared" si="8"/>
+      <c r="O16" s="80">
+        <f t="shared" si="9"/>
         <v>4081</v>
       </c>
       <c r="P16" s="1"/>
@@ -4454,14 +4494,18 @@
         <f t="shared" si="1"/>
         <v>3065.5</v>
       </c>
+      <c r="R16" s="64">
+        <f t="shared" si="10"/>
+        <v>28.133401676341649</v>
+      </c>
       <c r="S16" s="1">
         <v>11</v>
       </c>
       <c r="T16" s="1"/>
-      <c r="U16" s="108">
+      <c r="U16" s="74">
         <v>34</v>
       </c>
-      <c r="V16" s="112">
+      <c r="V16" s="78">
         <v>34</v>
       </c>
       <c r="W16" s="1"/>
@@ -4479,19 +4523,19 @@
       </c>
       <c r="C17" s="68"/>
       <c r="D17" s="48">
-        <f>$J$11+A17*EXP(A17/10)</f>
-        <v>109.84140307283857</v>
+        <f t="shared" si="2"/>
+        <v>152</v>
       </c>
       <c r="E17" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85.085536923187675</v>
       </c>
       <c r="F17" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5105.1322153912606</v>
       </c>
       <c r="G17" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80.610943901069348</v>
       </c>
       <c r="I17" s="1"/>
@@ -4500,12 +4544,12 @@
         <v>12</v>
       </c>
       <c r="M17" s="1"/>
-      <c r="N17" s="108">
-        <f t="shared" si="7"/>
+      <c r="N17" s="74">
+        <f t="shared" si="8"/>
         <v>5784</v>
       </c>
-      <c r="O17" s="114">
-        <f t="shared" si="8"/>
+      <c r="O17" s="80">
+        <f t="shared" si="9"/>
         <v>4728</v>
       </c>
       <c r="P17" s="1"/>
@@ -4513,14 +4557,18 @@
         <f t="shared" si="1"/>
         <v>3464</v>
       </c>
+      <c r="R17" s="64">
+        <f t="shared" si="10"/>
+        <v>29.826049243395659</v>
+      </c>
       <c r="S17" s="1">
         <v>12</v>
       </c>
       <c r="T17" s="1"/>
-      <c r="U17" s="108">
+      <c r="U17" s="74">
         <v>37</v>
       </c>
-      <c r="V17" s="112">
+      <c r="V17" s="78">
         <v>37</v>
       </c>
       <c r="W17" s="1"/>
@@ -4533,24 +4581,24 @@
         <v>13</v>
       </c>
       <c r="B18" s="49">
-        <f t="shared" ref="B18:B25" si="10">B17+0.15</f>
+        <f t="shared" ref="B18:B25" si="12">B17+0.15</f>
         <v>1.9500000000000002</v>
       </c>
       <c r="C18" s="68"/>
       <c r="D18" s="48">
-        <f>$J$11+A18*EXP(A18/10)</f>
-        <v>117.70085667905018</v>
+        <f t="shared" si="2"/>
+        <v>158</v>
       </c>
       <c r="E18" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>95.790339917193066</v>
       </c>
       <c r="F18" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5747.4203950315841</v>
       </c>
       <c r="G18" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>78.270861636279875</v>
       </c>
       <c r="I18" s="1"/>
@@ -4559,12 +4607,12 @@
         <v>13</v>
       </c>
       <c r="M18" s="1"/>
-      <c r="N18" s="108">
-        <f t="shared" si="7"/>
+      <c r="N18" s="74">
+        <f t="shared" si="8"/>
         <v>6630</v>
       </c>
-      <c r="O18" s="114">
-        <f t="shared" si="8"/>
+      <c r="O18" s="80">
+        <f t="shared" si="9"/>
         <v>5447</v>
       </c>
       <c r="P18" s="1"/>
@@ -4572,14 +4620,18 @@
         <f t="shared" si="1"/>
         <v>3898.5</v>
       </c>
+      <c r="R18" s="64">
+        <f t="shared" si="10"/>
+        <v>31.308344654511949</v>
+      </c>
       <c r="S18" s="1">
         <v>13</v>
       </c>
       <c r="T18" s="1"/>
-      <c r="U18" s="108">
+      <c r="U18" s="74">
         <v>40</v>
       </c>
-      <c r="V18" s="112">
+      <c r="V18" s="78">
         <v>40</v>
       </c>
       <c r="W18" s="1"/>
@@ -4592,24 +4644,24 @@
         <v>14</v>
       </c>
       <c r="B19" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.1</v>
       </c>
       <c r="C19" s="68"/>
       <c r="D19" s="48">
-        <f>$J$11+A19*EXP(A19/10)</f>
-        <v>126.77279953582544</v>
+        <f t="shared" si="2"/>
+        <v>164</v>
       </c>
       <c r="E19" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>108.11545195869232</v>
       </c>
       <c r="F19" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6486.927117521539</v>
       </c>
       <c r="G19" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.687741498674228</v>
       </c>
       <c r="I19" s="1"/>
@@ -4618,12 +4670,12 @@
         <v>14</v>
       </c>
       <c r="M19" s="1"/>
-      <c r="N19" s="108">
-        <f t="shared" si="7"/>
+      <c r="N19" s="74">
+        <f t="shared" si="8"/>
         <v>7560</v>
       </c>
-      <c r="O19" s="114">
-        <f t="shared" si="8"/>
+      <c r="O19" s="80">
+        <f t="shared" si="9"/>
         <v>6244</v>
       </c>
       <c r="P19" s="1"/>
@@ -4631,14 +4683,18 @@
         <f t="shared" si="1"/>
         <v>4372</v>
       </c>
+      <c r="R19" s="64">
+        <f t="shared" si="10"/>
+        <v>32.545728844429917</v>
+      </c>
       <c r="S19" s="1">
         <v>14</v>
       </c>
       <c r="T19" s="1"/>
-      <c r="U19" s="108">
+      <c r="U19" s="74">
         <v>43</v>
       </c>
-      <c r="V19" s="112">
+      <c r="V19" s="78">
         <v>43</v>
       </c>
       <c r="W19" s="1"/>
@@ -4651,24 +4707,24 @@
         <v>15</v>
       </c>
       <c r="B20" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.25</v>
       </c>
       <c r="C20" s="68"/>
       <c r="D20" s="48">
-        <f>$J$11+A20*EXP(A20/10)</f>
-        <v>137.22533605507095</v>
+        <f t="shared" si="2"/>
+        <v>170</v>
       </c>
       <c r="E20" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>122.52108200006279</v>
       </c>
       <c r="F20" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7351.2649200037677</v>
       </c>
       <c r="G20" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>72.817506039296532</v>
       </c>
       <c r="I20" s="1"/>
@@ -4677,12 +4733,12 @@
         <v>15</v>
       </c>
       <c r="M20" s="1"/>
-      <c r="N20" s="108">
-        <f t="shared" si="7"/>
+      <c r="N20" s="74">
+        <f t="shared" si="8"/>
         <v>8580</v>
       </c>
-      <c r="O20" s="114">
-        <f t="shared" si="8"/>
+      <c r="O20" s="80">
+        <f t="shared" si="9"/>
         <v>7125</v>
       </c>
       <c r="P20" s="1"/>
@@ -4690,14 +4746,18 @@
         <f t="shared" si="1"/>
         <v>4887.5</v>
       </c>
+      <c r="R20" s="64">
+        <f t="shared" si="10"/>
+        <v>33.496052778076404</v>
+      </c>
       <c r="S20" s="1">
         <v>15</v>
       </c>
       <c r="T20" s="1"/>
-      <c r="U20" s="108">
+      <c r="U20" s="74">
         <v>46</v>
       </c>
-      <c r="V20" s="112">
+      <c r="V20" s="78">
         <v>46</v>
       </c>
       <c r="W20" s="1"/>
@@ -4710,36 +4770,36 @@
         <v>16</v>
       </c>
       <c r="B21" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.4</v>
       </c>
       <c r="C21" s="68"/>
       <c r="D21" s="48">
-        <f>$J$11+A21*EXP(A21/10)</f>
-        <v>149.24851879032184</v>
+        <f t="shared" si="2"/>
+        <v>176</v>
       </c>
       <c r="E21" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>139.59815003314424</v>
       </c>
       <c r="F21" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8375.8890019886549</v>
       </c>
       <c r="G21" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>69.608083904850105</v>
       </c>
       <c r="L21" s="1">
         <v>16</v>
       </c>
       <c r="M21" s="1"/>
-      <c r="N21" s="108">
-        <f t="shared" si="7"/>
+      <c r="N21" s="74">
+        <f t="shared" si="8"/>
         <v>9696</v>
       </c>
-      <c r="O21" s="114">
-        <f t="shared" si="8"/>
+      <c r="O21" s="80">
+        <f t="shared" si="9"/>
         <v>8096</v>
       </c>
       <c r="P21" s="1"/>
@@ -4747,14 +4807,18 @@
         <f t="shared" si="1"/>
         <v>5448</v>
       </c>
+      <c r="R21" s="64">
+        <f t="shared" si="10"/>
+        <v>34.107961113376547</v>
+      </c>
       <c r="S21" s="1">
         <v>16</v>
       </c>
       <c r="T21" s="1"/>
-      <c r="U21" s="108">
+      <c r="U21" s="74">
         <v>49</v>
       </c>
-      <c r="V21" s="112">
+      <c r="V21" s="78">
         <v>49</v>
       </c>
       <c r="W21" s="1"/>
@@ -4767,36 +4831,36 @@
         <v>17</v>
       </c>
       <c r="B22" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="C22" s="68"/>
       <c r="D22" s="48">
-        <f>$J$11+A22*EXP(A22/10)</f>
-        <v>163.05710565936238</v>
+        <f t="shared" si="2"/>
+        <v>182</v>
       </c>
       <c r="E22" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160.10541234668784</v>
       </c>
       <c r="F22" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9606.3247408012703</v>
       </c>
       <c r="G22" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.997960059905978</v>
       </c>
       <c r="L22" s="1">
         <v>17</v>
       </c>
       <c r="M22" s="1"/>
-      <c r="N22" s="108">
-        <f t="shared" si="7"/>
+      <c r="N22" s="74">
+        <f t="shared" si="8"/>
         <v>10914</v>
       </c>
-      <c r="O22" s="114">
-        <f t="shared" si="8"/>
+      <c r="O22" s="80">
+        <f t="shared" si="9"/>
         <v>9163</v>
       </c>
       <c r="P22" s="1"/>
@@ -4804,14 +4868,18 @@
         <f t="shared" si="1"/>
         <v>6056.5</v>
       </c>
+      <c r="R22" s="64">
+        <f t="shared" si="10"/>
+        <v>34.318939231151106</v>
+      </c>
       <c r="S22" s="1">
         <v>17</v>
       </c>
       <c r="T22" s="1"/>
-      <c r="U22" s="108">
+      <c r="U22" s="74">
         <v>52</v>
       </c>
-      <c r="V22" s="112">
+      <c r="V22" s="78">
         <v>52</v>
       </c>
       <c r="W22" s="1"/>
@@ -4824,36 +4892,36 @@
         <v>18</v>
       </c>
       <c r="B23" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.6999999999999997</v>
       </c>
       <c r="C23" s="68"/>
       <c r="D23" s="48">
-        <f>$J$11+A23*EXP(A23/10)</f>
-        <v>178.89365435943304</v>
+        <f t="shared" si="2"/>
+        <v>188</v>
       </c>
       <c r="E23" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>185.01713130052181</v>
       </c>
       <c r="F23" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11101.027878031309</v>
       </c>
       <c r="G23" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.914463076812325</v>
       </c>
       <c r="L23" s="1">
         <v>18</v>
       </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="108">
-        <f t="shared" si="7"/>
+      <c r="N23" s="74">
+        <f t="shared" si="8"/>
         <v>12240</v>
       </c>
-      <c r="O23" s="114">
-        <f t="shared" si="8"/>
+      <c r="O23" s="80">
+        <f t="shared" si="9"/>
         <v>10332</v>
       </c>
       <c r="P23" s="1"/>
@@ -4861,14 +4929,18 @@
         <f t="shared" si="1"/>
         <v>6716</v>
       </c>
+      <c r="R23" s="64">
+        <f t="shared" si="10"/>
+        <v>34.052954692246779</v>
+      </c>
       <c r="S23" s="1">
         <v>18</v>
       </c>
       <c r="T23" s="1"/>
-      <c r="U23" s="108">
+      <c r="U23" s="74">
         <v>55</v>
       </c>
-      <c r="V23" s="112">
+      <c r="V23" s="78">
         <v>55</v>
       </c>
       <c r="W23" s="1"/>
@@ -4881,36 +4953,36 @@
         <v>19</v>
       </c>
       <c r="B24" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.8499999999999996</v>
       </c>
       <c r="C24" s="68"/>
       <c r="D24" s="48">
-        <f>$J$11+A24*EXP(A24/10)</f>
-        <v>197.0319944033061</v>
+        <f t="shared" si="2"/>
+        <v>194</v>
       </c>
       <c r="E24" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>215.58428452718766</v>
       </c>
       <c r="F24" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12935.05707163126</v>
       </c>
       <c r="G24" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.271741807794839</v>
       </c>
       <c r="L24" s="1">
         <v>19</v>
       </c>
       <c r="M24" s="1"/>
-      <c r="N24" s="108">
-        <f t="shared" si="7"/>
+      <c r="N24" s="74">
+        <f t="shared" si="8"/>
         <v>13680</v>
       </c>
-      <c r="O24" s="114">
-        <f t="shared" si="8"/>
+      <c r="O24" s="80">
+        <f t="shared" si="9"/>
         <v>11609</v>
       </c>
       <c r="P24" s="1"/>
@@ -4918,14 +4990,18 @@
         <f t="shared" si="1"/>
         <v>7429.5</v>
       </c>
+      <c r="R24" s="64">
+        <f t="shared" si="10"/>
+        <v>33.217610248521005</v>
+      </c>
       <c r="S24" s="1">
         <v>19</v>
       </c>
       <c r="T24" s="1"/>
-      <c r="U24" s="108">
+      <c r="U24" s="74">
         <v>58</v>
       </c>
-      <c r="V24" s="112">
+      <c r="V24" s="78">
         <v>58</v>
       </c>
       <c r="W24" s="1"/>
@@ -4938,36 +5014,36 @@
         <v>20</v>
       </c>
       <c r="B25" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.9999999999999996</v>
       </c>
       <c r="C25" s="68"/>
       <c r="D25" s="48">
-        <f>$J$11+A25*EXP(A25/10)</f>
-        <v>217.78112197861302</v>
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="E25" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>253.4131591025766</v>
       </c>
       <c r="F25" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15204.789546154596</v>
       </c>
       <c r="G25" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51.968375105473854</v>
       </c>
       <c r="L25" s="1">
         <v>20</v>
       </c>
       <c r="M25" s="1"/>
-      <c r="N25" s="108">
-        <f t="shared" si="7"/>
+      <c r="N25" s="74">
+        <f t="shared" si="8"/>
         <v>15240</v>
       </c>
-      <c r="O25" s="114">
-        <f t="shared" si="8"/>
+      <c r="O25" s="80">
+        <f t="shared" si="9"/>
         <v>13000</v>
       </c>
       <c r="P25" s="1"/>
@@ -4975,14 +5051,18 @@
         <f t="shared" si="1"/>
         <v>8200</v>
       </c>
+      <c r="R25" s="64">
+        <f t="shared" si="10"/>
+        <v>31.700708814339052</v>
+      </c>
       <c r="S25" s="1">
         <v>20</v>
       </c>
       <c r="T25" s="1"/>
-      <c r="U25" s="108">
+      <c r="U25" s="74">
         <v>61</v>
       </c>
-      <c r="V25" s="112">
+      <c r="V25" s="78">
         <v>61</v>
       </c>
       <c r="W25" s="1"/>
@@ -4994,11 +5074,11 @@
       <c r="L26" s="1">
         <v>21</v>
       </c>
-      <c r="O26" s="107"/>
+      <c r="O26" s="73"/>
       <c r="S26" s="1">
         <v>21</v>
       </c>
-      <c r="V26" s="107"/>
+      <c r="V26" s="73"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="L27" s="1">
@@ -5007,6 +5087,9 @@
       <c r="S27" s="1">
         <v>22</v>
       </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R28" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Equilibrage.xlsx
+++ b/Equilibrage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Github\Dukes Of The Realm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB40CB2-8BCB-4C93-AB2D-FCD93B869BDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B2F46C-28ED-4A99-BEA6-62FBBD4033E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equi V.1" sheetId="1" r:id="rId1"/>
@@ -823,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -953,9 +953,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1027,12 +1024,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1075,13 +1066,58 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1091,60 +1127,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1161,6 +1143,30 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1605,14 +1611,14 @@
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="83" t="s">
+      <c r="I9" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -1632,12 +1638,12 @@
       <c r="G10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1667,12 +1673,12 @@
         <f>G3</f>
         <v>65</v>
       </c>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1703,14 +1709,14 @@
         <v>100</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="82" t="s">
+      <c r="I12" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -1741,12 +1747,12 @@
         <v>35</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1757,12 +1763,12 @@
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
@@ -1771,12 +1777,12 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
@@ -1956,8 +1962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1AB80D-11E3-4393-9ABD-01470CEC1085}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1986,14 +1992,14 @@
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
-      <c r="G2" s="44">
+      <c r="G2" s="117">
         <v>0.8</v>
       </c>
-      <c r="H2" s="45">
+      <c r="H2" s="116">
         <v>1.2</v>
       </c>
-      <c r="I2" s="45">
-        <v>2.5</v>
+      <c r="I2" s="116">
+        <v>1.5</v>
       </c>
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
@@ -2002,252 +2008,253 @@
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="49" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="46">
         <v>64</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="46">
         <v>1</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F4" s="53">
         <v>25</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="45">
         <f>(40*G2)*G1</f>
         <v>32</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="45">
         <f>20*H2</f>
         <v>24</v>
       </c>
-      <c r="I4" s="72">
+      <c r="I4" s="113">
         <f>0.45*I2</f>
-        <v>1.125</v>
-      </c>
-      <c r="J4" s="47">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="J4" s="46">
         <v>65</v>
       </c>
-      <c r="K4" s="66"/>
+      <c r="K4" s="65"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="46">
         <v>128</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="46">
         <v>1</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="53">
         <v>25</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="45">
         <f>(75*G2)*G1</f>
         <v>60</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="45">
         <f>35*H2</f>
         <v>42</v>
       </c>
-      <c r="I5" s="72">
+      <c r="I5" s="113">
         <f>1.5*I2</f>
-        <v>3.75</v>
-      </c>
-      <c r="J5" s="47">
+        <v>2.25</v>
+      </c>
+      <c r="J5" s="46">
         <v>55</v>
       </c>
-      <c r="K5" s="66"/>
+      <c r="K5" s="65"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="46">
         <v>164</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="46">
         <v>2</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="53">
         <v>20</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="45">
         <f>(77*G2)*G1</f>
         <v>61.6</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="45">
         <f>85*H2</f>
         <v>102</v>
       </c>
-      <c r="I6" s="72">
+      <c r="I6" s="113">
         <f>2.05*I2</f>
-        <v>5.125</v>
-      </c>
-      <c r="J6" s="47">
+        <v>3.0749999999999997</v>
+      </c>
+      <c r="J6" s="46">
         <v>100</v>
       </c>
-      <c r="K6" s="66"/>
+      <c r="K6" s="65"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="46">
         <v>80</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="46">
         <v>1</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="53">
         <v>15</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="45">
         <f>(20*G2)*G1</f>
         <v>16</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="45">
         <f>60*H2</f>
         <v>72</v>
       </c>
-      <c r="I7" s="72">
+      <c r="I7" s="113">
         <f>0.75*I2</f>
-        <v>1.875</v>
-      </c>
-      <c r="J7" s="47">
+        <v>1.125</v>
+      </c>
+      <c r="J7" s="46">
         <v>65</v>
       </c>
-      <c r="K7" s="66"/>
+      <c r="K7" s="65"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="46">
         <v>192</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="46">
         <v>3</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="53">
         <v>10</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="45">
         <f>(24*G2)*G1</f>
         <v>19.200000000000003</v>
       </c>
-      <c r="H8" s="46">
-        <f>30*H2</f>
-        <v>36</v>
-      </c>
-      <c r="I8" s="72">
+      <c r="H8" s="45">
+        <f>8*H2</f>
+        <v>9.6</v>
+      </c>
+      <c r="I8" s="113">
         <f>3*I2</f>
-        <v>7.5</v>
-      </c>
-      <c r="J8" s="47">
+        <v>4.5</v>
+      </c>
+      <c r="J8" s="46">
         <v>35</v>
       </c>
-      <c r="K8" s="66"/>
+      <c r="K8" s="65"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="46">
         <v>80</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="46">
         <v>2</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="53">
         <v>5</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="45">
         <f>(8*G2)*G1</f>
         <v>6.4</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="45">
         <f>5*H2</f>
         <v>6</v>
       </c>
-      <c r="I9" s="72">
+      <c r="I9" s="113">
         <f>0.875*I2</f>
-        <v>2.1875</v>
-      </c>
-      <c r="J9" s="47">
+        <v>1.3125</v>
+      </c>
+      <c r="J9" s="46">
         <v>80</v>
       </c>
-      <c r="K9" s="66"/>
+      <c r="K9" s="65"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
+      <c r="I10" s="62"/>
       <c r="K10" s="44"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="56">
         <v>640</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="55"/>
+      <c r="F11" s="54"/>
       <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
+      <c r="I11" s="114"/>
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
     </row>
@@ -2257,10 +2264,10 @@
       <c r="C12" s="44"/>
       <c r="D12" s="44"/>
       <c r="E12" s="44"/>
-      <c r="F12" s="55"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
+      <c r="I12" s="114"/>
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
     </row>
@@ -2268,101 +2275,101 @@
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="47" t="s">
+      <c r="I13" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="47" t="s">
+      <c r="J13" s="46" t="s">
         <v>8</v>
       </c>
       <c r="K13" s="44"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
-      <c r="B14" s="46">
+      <c r="B14" s="45">
         <f>D11/D4</f>
         <v>10</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="46">
         <f>D4*B14</f>
         <v>640</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <f>E4*B14</f>
         <v>10</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="53">
         <f t="shared" ref="F14:F19" si="0">F4</f>
         <v>25</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="45">
         <f>$B14*G4</f>
         <v>320</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="45">
         <f t="shared" ref="H14:H19" si="1">H4*B14</f>
         <v>240</v>
       </c>
-      <c r="I14" s="72">
+      <c r="I14" s="113">
         <f t="shared" ref="I14:I19" si="2">I4*B14</f>
-        <v>11.25</v>
-      </c>
-      <c r="J14" s="46">
+        <v>6.75</v>
+      </c>
+      <c r="J14" s="45">
         <v>65</v>
       </c>
       <c r="K14" s="44"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
-      <c r="B15" s="48">
+      <c r="B15" s="47">
         <f>D11/D5</f>
         <v>5</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="48">
         <f>B15*D5</f>
         <v>640</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="45">
         <f t="shared" ref="E15:E19" si="3">E5*B15</f>
         <v>5</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="53">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="45">
         <f>$B15*G5</f>
         <v>300</v>
       </c>
-      <c r="H15" s="46">
+      <c r="H15" s="45">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="I15" s="72">
+      <c r="I15" s="113">
         <f t="shared" si="2"/>
-        <v>18.75</v>
-      </c>
-      <c r="J15" s="48">
+        <v>11.25</v>
+      </c>
+      <c r="J15" s="47">
         <f>J5</f>
         <v>55</v>
       </c>
@@ -2370,426 +2377,426 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
-      <c r="B16" s="46">
+      <c r="B16" s="45">
         <f>D11/D6</f>
         <v>3.9024390243902438</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="46">
         <f>D6*B16</f>
         <v>640</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="45">
         <f t="shared" si="3"/>
         <v>7.8048780487804876</v>
       </c>
-      <c r="F16" s="54">
+      <c r="F16" s="53">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="45">
         <f>$B16*G6</f>
         <v>240.39024390243901</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="45">
         <f t="shared" si="1"/>
         <v>398.04878048780489</v>
       </c>
-      <c r="I16" s="72">
+      <c r="I16" s="113">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="J16" s="46">
+        <v>11.999999999999998</v>
+      </c>
+      <c r="J16" s="45">
         <v>100</v>
       </c>
       <c r="K16" s="44"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="48">
+      <c r="B17" s="47">
         <f>D11/D7</f>
         <v>8</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="48">
         <f>B17*D7</f>
         <v>640</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="45">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="53">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="45">
         <f>$B17*G7</f>
         <v>128</v>
       </c>
-      <c r="H17" s="46">
+      <c r="H17" s="45">
         <f t="shared" si="1"/>
         <v>576</v>
       </c>
-      <c r="I17" s="72">
+      <c r="I17" s="113">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="J17" s="47">
+        <f>J7</f>
+        <v>65</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="45">
+        <f>D11/D8</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="46">
+        <f>D8*B18</f>
+        <v>640</v>
+      </c>
+      <c r="E18" s="45">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="F18" s="53">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G18" s="45">
+        <f>$B18*G8</f>
+        <v>64.000000000000014</v>
+      </c>
+      <c r="H18" s="45">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I18" s="113">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="J17" s="48">
-        <f>J7</f>
-        <v>65</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="46">
-        <f>D11/D8</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="47">
-        <f>D8*B18</f>
-        <v>640</v>
-      </c>
-      <c r="E18" s="46">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="F18" s="54">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G18" s="46">
-        <f>$B18*G8</f>
-        <v>64.000000000000014</v>
-      </c>
-      <c r="H18" s="46">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="I18" s="72">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="J18" s="46">
+      <c r="J18" s="45">
         <v>35</v>
       </c>
       <c r="K18" s="44"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="48">
+      <c r="B19" s="47">
         <f>D11/D9</f>
         <v>8</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D19" s="48">
         <f>B19*D9</f>
         <v>640</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="45">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="53">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="45">
         <f>G9*B19</f>
         <v>51.2</v>
       </c>
-      <c r="H19" s="48">
+      <c r="H19" s="47">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="I19" s="71">
+      <c r="I19" s="115">
         <f t="shared" si="2"/>
-        <v>17.5</v>
-      </c>
-      <c r="J19" s="48">
+        <v>10.5</v>
+      </c>
+      <c r="J19" s="47">
         <f>J9</f>
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I20" s="64"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="60">
+      <c r="D21" s="59">
         <v>250</v>
       </c>
-      <c r="E21" s="61" t="s">
+      <c r="E21" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="64"/>
+      <c r="I21" s="62"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I22" s="64"/>
+      <c r="I22" s="62"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="54" t="s">
+      <c r="F23" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H23" s="47" t="s">
+      <c r="H23" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="72" t="s">
+      <c r="I23" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="47" t="s">
+      <c r="J23" s="46" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="46">
+      <c r="B24" s="45">
         <f>D$21/E4</f>
         <v>250</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="47">
+      <c r="D24" s="46">
         <f>$B$24*D4</f>
         <v>16000</v>
       </c>
-      <c r="E24" s="47">
+      <c r="E24" s="46">
         <f>$B24*E4</f>
         <v>250</v>
       </c>
-      <c r="F24" s="47">
+      <c r="F24" s="46">
         <f>F14</f>
         <v>25</v>
       </c>
-      <c r="G24" s="47">
+      <c r="G24" s="46">
         <f t="shared" ref="G24:H24" si="4">$B$24*G4</f>
         <v>8000</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="46">
         <f t="shared" si="4"/>
         <v>6000</v>
       </c>
-      <c r="I24" s="72">
+      <c r="I24" s="113">
         <f>$B$24*I4</f>
-        <v>281.25</v>
-      </c>
-      <c r="J24" s="46">
+        <v>168.75</v>
+      </c>
+      <c r="J24" s="45">
         <f>J14</f>
         <v>65</v>
       </c>
-      <c r="K24" s="63"/>
-      <c r="L24" s="64"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="63"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="46">
+      <c r="B25" s="45">
         <f t="shared" ref="B25:B29" si="5">D$21/E5</f>
         <v>250</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="46">
         <f t="shared" ref="D25:D28" si="6">B25*D5</f>
         <v>32000</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="46">
         <f>$B$25*E5</f>
         <v>250</v>
       </c>
-      <c r="F25" s="47">
+      <c r="F25" s="46">
         <f t="shared" ref="F25:F29" si="7">F15</f>
         <v>25</v>
       </c>
-      <c r="G25" s="47">
+      <c r="G25" s="46">
         <f t="shared" ref="G25:H25" si="8">$B$25*G5</f>
         <v>15000</v>
       </c>
-      <c r="H25" s="47">
+      <c r="H25" s="46">
         <f t="shared" si="8"/>
         <v>10500</v>
       </c>
-      <c r="I25" s="72">
+      <c r="I25" s="113">
         <f>$B$25*I5</f>
-        <v>937.5</v>
-      </c>
-      <c r="J25" s="46">
+        <v>562.5</v>
+      </c>
+      <c r="J25" s="45">
         <f t="shared" ref="J25:J29" si="9">J15</f>
         <v>55</v>
       </c>
-      <c r="K25" s="63"/>
+      <c r="K25" s="62"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="46">
+      <c r="B26" s="45">
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="46">
         <f t="shared" si="6"/>
         <v>20500</v>
       </c>
-      <c r="E26" s="47">
+      <c r="E26" s="46">
         <f>$B$26*E6</f>
         <v>250</v>
       </c>
-      <c r="F26" s="47">
+      <c r="F26" s="46">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="G26" s="47">
+      <c r="G26" s="46">
         <f t="shared" ref="G26:I26" si="10">$B$26*G6</f>
         <v>7700</v>
       </c>
-      <c r="H26" s="47">
+      <c r="H26" s="46">
         <f t="shared" si="10"/>
         <v>12750</v>
       </c>
-      <c r="I26" s="72">
+      <c r="I26" s="113">
         <f t="shared" si="10"/>
-        <v>640.625</v>
-      </c>
-      <c r="J26" s="46">
+        <v>384.37499999999994</v>
+      </c>
+      <c r="J26" s="45">
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="K26" s="63"/>
-      <c r="L26" s="64"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="63"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="46">
+      <c r="B27" s="45">
         <f t="shared" si="5"/>
         <v>250</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="47">
+      <c r="D27" s="46">
         <f t="shared" si="6"/>
         <v>20000</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="46">
         <f>$B$27*E7</f>
         <v>250</v>
       </c>
-      <c r="F27" s="47">
+      <c r="F27" s="46">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="G27" s="47">
+      <c r="G27" s="46">
         <f t="shared" ref="G27:H27" si="11">$B$27*G7</f>
         <v>4000</v>
       </c>
-      <c r="H27" s="47">
+      <c r="H27" s="46">
         <f t="shared" si="11"/>
         <v>18000</v>
       </c>
-      <c r="I27" s="72">
+      <c r="I27" s="113">
         <f>$B$27*I7</f>
-        <v>468.75</v>
-      </c>
-      <c r="J27" s="46">
+        <v>281.25</v>
+      </c>
+      <c r="J27" s="45">
         <f t="shared" si="9"/>
         <v>65</v>
       </c>
-      <c r="K27" s="63"/>
+      <c r="K27" s="62"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="46">
+      <c r="B28" s="45">
         <f t="shared" si="5"/>
         <v>83.333333333333329</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="47">
+      <c r="D28" s="46">
         <f t="shared" si="6"/>
         <v>16000</v>
       </c>
-      <c r="E28" s="47">
+      <c r="E28" s="46">
         <f>$B$28*E8</f>
         <v>250</v>
       </c>
-      <c r="F28" s="47">
+      <c r="F28" s="46">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="G28" s="47">
+      <c r="G28" s="46">
         <f t="shared" ref="G28:I28" si="12">$B$28*G8</f>
         <v>1600.0000000000002</v>
       </c>
-      <c r="H28" s="47">
+      <c r="H28" s="46">
         <f t="shared" si="12"/>
-        <v>3000</v>
-      </c>
-      <c r="I28" s="72">
+        <v>799.99999999999989</v>
+      </c>
+      <c r="I28" s="113">
         <f t="shared" si="12"/>
-        <v>625</v>
-      </c>
-      <c r="J28" s="46">
+        <v>375</v>
+      </c>
+      <c r="J28" s="45">
         <f t="shared" si="9"/>
         <v>35</v>
       </c>
-      <c r="K28" s="63"/>
+      <c r="K28" s="62"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="46">
+      <c r="B29" s="45">
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="47">
+      <c r="D29" s="46">
         <f>B29*D9</f>
         <v>10000</v>
       </c>
-      <c r="E29" s="47">
+      <c r="E29" s="46">
         <f>$B$29*E9</f>
         <v>250</v>
       </c>
-      <c r="F29" s="47">
+      <c r="F29" s="46">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="G29" s="47">
+      <c r="G29" s="46">
         <f t="shared" ref="G29:I29" si="13">$B$29*G9</f>
         <v>800</v>
       </c>
-      <c r="H29" s="47">
+      <c r="H29" s="46">
         <f t="shared" si="13"/>
         <v>750</v>
       </c>
-      <c r="I29" s="72">
+      <c r="I29" s="113">
         <f t="shared" si="13"/>
-        <v>273.4375</v>
-      </c>
-      <c r="J29" s="46">
+        <v>164.0625</v>
+      </c>
+      <c r="J29" s="45">
         <f t="shared" si="9"/>
         <v>80</v>
       </c>
-      <c r="K29" s="63"/>
+      <c r="K29" s="62"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G14:G19">
@@ -3169,44 +3176,44 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="112"/>
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="104"/>
       <c r="F4" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="104"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="95"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="86"/>
       <c r="F6" s="27">
         <v>6</v>
       </c>
@@ -3223,18 +3230,18 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="95"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="86"/>
       <c r="F8" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="108" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="97"/>
@@ -3245,56 +3252,56 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="110"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="101"/>
       <c r="F10" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="101"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="89"/>
       <c r="F11" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="92"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="104"/>
       <c r="F12" s="29">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="83"/>
       <c r="F13" s="23">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="95"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="86"/>
       <c r="F14" s="24">
         <v>0</v>
       </c>
@@ -3311,95 +3318,100 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="110"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="101"/>
       <c r="F16" s="25">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="89"/>
       <c r="F17" s="32">
         <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="92"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="104"/>
       <c r="F18" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="101"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="89"/>
       <c r="F19" s="34">
         <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="111" t="s">
+      <c r="B20" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="113"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="107"/>
       <c r="F20" s="30">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="86"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="83"/>
       <c r="F21" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="95"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="86"/>
       <c r="F22" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="107"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="95"/>
       <c r="F23" s="36">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B19:E19"/>
@@ -3416,11 +3428,6 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3431,8 +3438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7358574A-592A-4C40-9736-421EE2E19A0C}">
   <dimension ref="A2:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="H1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3450,19 +3457,19 @@
       <c r="S2" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="79">
+      <c r="T2" s="76">
         <v>0</v>
       </c>
-      <c r="U2" s="79">
+      <c r="U2" s="76">
         <v>1</v>
       </c>
-      <c r="V2" s="79">
+      <c r="V2" s="76">
         <v>1</v>
       </c>
-      <c r="W2" s="79">
+      <c r="W2" s="76">
         <v>3</v>
       </c>
-      <c r="X2" s="79">
+      <c r="X2" s="76">
         <v>6</v>
       </c>
     </row>
@@ -3491,182 +3498,182 @@
       <c r="L3" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="79">
+      <c r="M3" s="76">
         <v>200</v>
       </c>
-      <c r="N3" s="79">
+      <c r="N3" s="76">
         <v>300</v>
       </c>
-      <c r="O3" s="79">
+      <c r="O3" s="76">
         <v>250</v>
       </c>
-      <c r="P3" s="79">
+      <c r="P3" s="76">
         <v>100</v>
       </c>
-      <c r="Q3" s="79">
+      <c r="Q3" s="76">
         <v>200</v>
       </c>
       <c r="S3" t="s">
         <v>62</v>
       </c>
-      <c r="T3" s="79">
+      <c r="T3" s="76">
         <v>4</v>
       </c>
-      <c r="U3" s="79">
+      <c r="U3" s="76">
         <v>3</v>
       </c>
-      <c r="V3" s="79">
+      <c r="V3" s="76">
         <v>3</v>
       </c>
-      <c r="W3" s="79">
+      <c r="W3" s="76">
         <v>2</v>
       </c>
-      <c r="X3" s="79">
+      <c r="X3" s="76">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="69" t="s">
         <v>58</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="73" t="s">
+      <c r="L4" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="73" t="s">
+      <c r="M4" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="T4" s="73" t="s">
+      <c r="T4" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="W4" s="73" t="s">
+      <c r="W4" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="X4" s="73" t="s">
+      <c r="X4" s="70" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="49">
+      <c r="A5" s="48">
         <v>0</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B5" s="66">
         <v>1</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="49">
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="48">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76">
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="73">
         <f>100 + L6*L6*L6*L6 / 4</f>
         <v>100.25</v>
       </c>
-      <c r="Q5" s="48">
+      <c r="Q5" s="47">
         <f>200*L6 + L5*L5*(L5/2)</f>
         <v>200</v>
       </c>
       <c r="S5" s="1">
         <v>0</v>
       </c>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="76">
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="73">
         <v>3</v>
       </c>
-      <c r="X5" s="48">
+      <c r="X5" s="47">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="49">
+      <c r="A6" s="48">
         <v>1</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="48">
         <f>B5+0.05</f>
         <v>1.05</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="64">
         <v>1</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="47">
         <f>80+6*A6</f>
         <v>86</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="47">
         <f>$E$2+A6*$E$2+EXP(A6/4)</f>
         <v>11.284025416687742</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="47">
         <f>E6*60</f>
         <v>677.04152500126452</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="47">
         <f>100-EXP(A6/6)-A6</f>
         <v>97.818639587134356</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="47">
         <f>A6*(A6/2)+A6</f>
         <v>1.5</v>
       </c>
@@ -3679,77 +3686,77 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="77">
+      <c r="M6" s="74">
         <f>200*L8+L8*L8*L8*L8/7</f>
         <v>611.57142857142856</v>
       </c>
-      <c r="N6" s="74">
+      <c r="N6" s="71">
         <f>300*L6+L6*L7*L8</f>
         <v>306</v>
       </c>
-      <c r="O6" s="80">
+      <c r="O6" s="77">
         <f>250*L6+L6*L6*L6</f>
         <v>251</v>
       </c>
-      <c r="P6" s="76">
+      <c r="P6" s="73">
         <f t="shared" ref="P6:P15" si="0">100 + L7*L7*L7*L7 / 4</f>
         <v>104</v>
       </c>
-      <c r="Q6" s="48">
+      <c r="Q6" s="47">
         <f t="shared" ref="Q6:Q25" si="1">200*L7 + L6*L6*(L6/2)</f>
         <v>400.5</v>
       </c>
-      <c r="R6" s="64">
+      <c r="R6" s="63">
         <f>V6*G6/100</f>
         <v>3.9127455834853744</v>
       </c>
       <c r="S6" s="1">
         <v>1</v>
       </c>
-      <c r="T6" s="77">
+      <c r="T6" s="74">
         <v>4</v>
       </c>
-      <c r="U6" s="74">
+      <c r="U6" s="71">
         <v>4</v>
       </c>
-      <c r="V6" s="78">
+      <c r="V6" s="75">
         <v>4</v>
       </c>
-      <c r="W6" s="76">
+      <c r="W6" s="73">
         <v>5</v>
       </c>
-      <c r="X6" s="48">
+      <c r="X6" s="47">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="49">
+      <c r="A7" s="48">
         <v>2</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="48">
         <f>B6+0.05</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="64">
         <v>1</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="47">
         <f t="shared" ref="D7:D25" si="2">80+6*A7</f>
         <v>92</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="47">
         <f t="shared" ref="E7:E25" si="3">$E$2+A7*$E$2+EXP(A7/4)</f>
         <v>16.648721270700129</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="47">
         <f t="shared" ref="F7:F25" si="4">E7*60</f>
         <v>998.92327624200777</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="47">
         <f t="shared" ref="G7:G25" si="5">100-EXP(A7/6)-A7</f>
         <v>96.604387574913915</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="47">
         <f t="shared" ref="H7:H15" si="6">A7*(A7/2)+A7</f>
         <v>4</v>
       </c>
@@ -3762,77 +3769,77 @@
       <c r="L7" s="1">
         <v>2</v>
       </c>
-      <c r="M7" s="77">
+      <c r="M7" s="74">
         <f t="shared" ref="M7:M15" si="7">200*L9+L9*L9*L9*L9/7</f>
         <v>836.57142857142856</v>
       </c>
-      <c r="N7" s="74">
+      <c r="N7" s="71">
         <f t="shared" ref="N7:N25" si="8">300*L7+L7*L8*L9</f>
         <v>624</v>
       </c>
-      <c r="O7" s="80">
+      <c r="O7" s="77">
         <f t="shared" ref="O7:O25" si="9">250*L7+L7*L7*L7</f>
         <v>508</v>
       </c>
-      <c r="P7" s="76">
+      <c r="P7" s="73">
         <f t="shared" si="0"/>
         <v>120.25</v>
       </c>
-      <c r="Q7" s="48">
+      <c r="Q7" s="47">
         <f t="shared" si="1"/>
         <v>604</v>
       </c>
-      <c r="R7" s="64">
+      <c r="R7" s="63">
         <f t="shared" ref="R7:R25" si="10">V7*G7/100</f>
         <v>6.7623071302439737</v>
       </c>
       <c r="S7" s="1">
         <v>2</v>
       </c>
-      <c r="T7" s="77">
+      <c r="T7" s="74">
         <v>8</v>
       </c>
-      <c r="U7" s="74">
+      <c r="U7" s="71">
         <v>7</v>
       </c>
-      <c r="V7" s="78">
+      <c r="V7" s="75">
         <v>7</v>
       </c>
-      <c r="W7" s="76">
+      <c r="W7" s="73">
         <v>7</v>
       </c>
-      <c r="X7" s="48">
+      <c r="X7" s="47">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="49">
+      <c r="A8" s="48">
         <v>3</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="48">
         <f t="shared" ref="B8:B15" si="11">B7+0.05</f>
         <v>1.1500000000000001</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="64">
         <v>2</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="47">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="47">
         <f t="shared" si="3"/>
         <v>22.117000016612675</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="47">
         <f t="shared" si="4"/>
         <v>1327.0200009967605</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="47">
         <f t="shared" si="5"/>
         <v>95.351278729299878</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="47">
         <f t="shared" si="6"/>
         <v>7.5</v>
       </c>
@@ -3845,77 +3852,77 @@
       <c r="L8" s="1">
         <v>3</v>
       </c>
-      <c r="M8" s="77">
+      <c r="M8" s="74">
         <f t="shared" si="7"/>
         <v>1089.2857142857142</v>
       </c>
-      <c r="N8" s="74">
+      <c r="N8" s="71">
         <f t="shared" si="8"/>
         <v>960</v>
       </c>
-      <c r="O8" s="80">
+      <c r="O8" s="77">
         <f t="shared" si="9"/>
         <v>777</v>
       </c>
-      <c r="P8" s="76">
+      <c r="P8" s="73">
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
-      <c r="Q8" s="48">
+      <c r="Q8" s="47">
         <f t="shared" si="1"/>
         <v>813.5</v>
       </c>
-      <c r="R8" s="64">
+      <c r="R8" s="63">
         <f t="shared" si="10"/>
         <v>9.5351278729299889</v>
       </c>
       <c r="S8" s="1">
         <v>3</v>
       </c>
-      <c r="T8" s="77">
+      <c r="T8" s="74">
         <v>12</v>
       </c>
-      <c r="U8" s="74">
+      <c r="U8" s="71">
         <v>10</v>
       </c>
-      <c r="V8" s="78">
+      <c r="V8" s="75">
         <v>10</v>
       </c>
-      <c r="W8" s="76">
+      <c r="W8" s="73">
         <v>9</v>
       </c>
-      <c r="X8" s="48">
+      <c r="X8" s="47">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="49">
+      <c r="A9" s="48">
         <v>4</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="48">
         <f t="shared" si="11"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="64">
         <v>2</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="47">
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="47">
         <f t="shared" si="3"/>
         <v>27.718281828459045</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="47">
         <f t="shared" si="4"/>
         <v>1663.0969097075426</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="47">
         <f t="shared" si="5"/>
         <v>94.052265958945327</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="47">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
@@ -3928,77 +3935,77 @@
       <c r="L9" s="1">
         <v>4</v>
       </c>
-      <c r="M9" s="77">
+      <c r="M9" s="74">
         <f t="shared" si="7"/>
         <v>1385.1428571428571</v>
       </c>
-      <c r="N9" s="74">
+      <c r="N9" s="71">
         <f t="shared" si="8"/>
         <v>1320</v>
       </c>
-      <c r="O9" s="80">
+      <c r="O9" s="77">
         <f t="shared" si="9"/>
         <v>1064</v>
       </c>
-      <c r="P9" s="76">
+      <c r="P9" s="73">
         <f t="shared" si="0"/>
         <v>256.25</v>
       </c>
-      <c r="Q9" s="48">
+      <c r="Q9" s="47">
         <f t="shared" si="1"/>
         <v>1032</v>
       </c>
-      <c r="R9" s="64">
+      <c r="R9" s="63">
         <f t="shared" si="10"/>
         <v>12.226794574662893</v>
       </c>
       <c r="S9" s="1">
         <v>4</v>
       </c>
-      <c r="T9" s="77">
+      <c r="T9" s="74">
         <v>16</v>
       </c>
-      <c r="U9" s="74">
+      <c r="U9" s="71">
         <v>13</v>
       </c>
-      <c r="V9" s="78">
+      <c r="V9" s="75">
         <v>13</v>
       </c>
-      <c r="W9" s="76">
+      <c r="W9" s="73">
         <v>11</v>
       </c>
-      <c r="X9" s="48">
+      <c r="X9" s="47">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="49">
+      <c r="A10" s="48">
         <v>5</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="48">
         <f t="shared" si="11"/>
         <v>1.2500000000000002</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="64">
         <v>3</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="47">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="47">
         <f t="shared" si="3"/>
         <v>33.490342957461841</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="47">
         <f t="shared" si="4"/>
         <v>2009.4205774477105</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="47">
         <f t="shared" si="5"/>
         <v>92.699024109107171</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="47">
         <f t="shared" si="6"/>
         <v>17.5</v>
       </c>
@@ -4011,236 +4018,236 @@
       <c r="L10" s="1">
         <v>5</v>
       </c>
-      <c r="M10" s="77">
+      <c r="M10" s="74">
         <f t="shared" si="7"/>
         <v>1743</v>
       </c>
-      <c r="N10" s="74">
+      <c r="N10" s="71">
         <f t="shared" si="8"/>
         <v>1710</v>
       </c>
-      <c r="O10" s="80">
+      <c r="O10" s="77">
         <f t="shared" si="9"/>
         <v>1375</v>
       </c>
-      <c r="P10" s="76">
+      <c r="P10" s="73">
         <f t="shared" si="0"/>
         <v>424</v>
       </c>
-      <c r="Q10" s="48">
+      <c r="Q10" s="47">
         <f t="shared" si="1"/>
         <v>1262.5</v>
       </c>
-      <c r="R10" s="64">
+      <c r="R10" s="63">
         <f t="shared" si="10"/>
         <v>14.831843857457148</v>
       </c>
       <c r="S10" s="1">
         <v>5</v>
       </c>
-      <c r="T10" s="77">
+      <c r="T10" s="74">
         <v>20</v>
       </c>
-      <c r="U10" s="74">
+      <c r="U10" s="71">
         <v>16</v>
       </c>
-      <c r="V10" s="78">
+      <c r="V10" s="75">
         <v>16</v>
       </c>
-      <c r="W10" s="76">
+      <c r="W10" s="73">
         <v>13</v>
       </c>
-      <c r="X10" s="48">
+      <c r="X10" s="47">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="49">
+      <c r="A11" s="48">
         <v>6</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="48">
         <f t="shared" si="11"/>
         <v>1.3000000000000003</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="64">
         <v>3</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="47">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="47">
         <f t="shared" si="3"/>
         <v>39.481689070338064</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="47">
         <f t="shared" si="4"/>
         <v>2368.901344220284</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="47">
         <f t="shared" si="5"/>
         <v>91.281718171540959</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H11" s="47">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1">
         <f>J5+J6*2+J7*3+J8+J9+J10*2</f>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L11" s="1">
         <v>6</v>
       </c>
-      <c r="M11" s="77">
+      <c r="M11" s="74">
         <f t="shared" si="7"/>
         <v>2185.1428571428569</v>
       </c>
-      <c r="N11" s="74">
+      <c r="N11" s="71">
         <f t="shared" si="8"/>
         <v>2136</v>
       </c>
-      <c r="O11" s="80">
+      <c r="O11" s="77">
         <f t="shared" si="9"/>
         <v>1716</v>
       </c>
-      <c r="P11" s="76">
+      <c r="P11" s="73">
         <f t="shared" si="0"/>
         <v>700.25</v>
       </c>
-      <c r="Q11" s="48">
+      <c r="Q11" s="47">
         <f t="shared" si="1"/>
         <v>1508</v>
       </c>
-      <c r="R11" s="64">
+      <c r="R11" s="63">
         <f t="shared" si="10"/>
         <v>17.343526452592783</v>
       </c>
       <c r="S11" s="1">
         <v>6</v>
       </c>
-      <c r="T11" s="77">
+      <c r="T11" s="74">
         <v>24</v>
       </c>
-      <c r="U11" s="74">
+      <c r="U11" s="71">
         <v>19</v>
       </c>
-      <c r="V11" s="78">
+      <c r="V11" s="75">
         <v>19</v>
       </c>
-      <c r="W11" s="76">
+      <c r="W11" s="73">
         <v>15</v>
       </c>
-      <c r="X11" s="48">
+      <c r="X11" s="47">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="49">
+      <c r="A12" s="48">
         <v>7</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="48">
         <f t="shared" si="11"/>
         <v>1.3500000000000003</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="64">
         <v>4</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="47">
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="47">
         <f t="shared" si="3"/>
         <v>45.754602676005732</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="47">
         <f t="shared" si="4"/>
         <v>2745.2761605603437</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="47">
         <f t="shared" si="5"/>
         <v>89.78872945684644</v>
       </c>
-      <c r="H12" s="48">
+      <c r="H12" s="47">
         <f t="shared" si="6"/>
         <v>31.5</v>
       </c>
       <c r="L12" s="1">
         <v>7</v>
       </c>
-      <c r="M12" s="77">
+      <c r="M12" s="74">
         <f t="shared" si="7"/>
         <v>2737.2857142857142</v>
       </c>
-      <c r="N12" s="74">
+      <c r="N12" s="71">
         <f t="shared" si="8"/>
         <v>2604</v>
       </c>
-      <c r="O12" s="80">
+      <c r="O12" s="77">
         <f t="shared" si="9"/>
         <v>2093</v>
       </c>
-      <c r="P12" s="76">
+      <c r="P12" s="73">
         <f t="shared" si="0"/>
         <v>1124</v>
       </c>
-      <c r="Q12" s="48">
+      <c r="Q12" s="47">
         <f t="shared" si="1"/>
         <v>1771.5</v>
       </c>
-      <c r="R12" s="64">
+      <c r="R12" s="63">
         <f t="shared" si="10"/>
         <v>19.753520480506218</v>
       </c>
       <c r="S12" s="1">
         <v>7</v>
       </c>
-      <c r="T12" s="77">
+      <c r="T12" s="74">
         <v>28</v>
       </c>
-      <c r="U12" s="74">
+      <c r="U12" s="71">
         <v>22</v>
       </c>
-      <c r="V12" s="78">
+      <c r="V12" s="75">
         <v>22</v>
       </c>
-      <c r="W12" s="76">
+      <c r="W12" s="73">
         <v>17</v>
       </c>
-      <c r="X12" s="48">
+      <c r="X12" s="47">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="49">
+      <c r="A13" s="48">
         <v>8</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="48">
         <f t="shared" si="11"/>
         <v>1.4000000000000004</v>
       </c>
-      <c r="C13" s="65">
+      <c r="C13" s="64">
         <v>4</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="47">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="47">
         <f t="shared" si="3"/>
         <v>52.389056098930652</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="47">
         <f t="shared" si="4"/>
         <v>3143.3433659358393</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="47">
         <f t="shared" si="5"/>
         <v>88.206332105316818</v>
       </c>
-      <c r="H13" s="48">
+      <c r="H13" s="47">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
@@ -4249,77 +4256,77 @@
       <c r="L13" s="1">
         <v>8</v>
       </c>
-      <c r="M13" s="77">
+      <c r="M13" s="74">
         <f t="shared" si="7"/>
         <v>3428.5714285714284</v>
       </c>
-      <c r="N13" s="74">
+      <c r="N13" s="71">
         <f t="shared" si="8"/>
         <v>3120</v>
       </c>
-      <c r="O13" s="80">
+      <c r="O13" s="77">
         <f t="shared" si="9"/>
         <v>2512</v>
       </c>
-      <c r="P13" s="76">
+      <c r="P13" s="73">
         <f t="shared" si="0"/>
         <v>1740.25</v>
       </c>
-      <c r="Q13" s="48">
+      <c r="Q13" s="47">
         <f t="shared" si="1"/>
         <v>2056</v>
       </c>
-      <c r="R13" s="64">
+      <c r="R13" s="63">
         <f t="shared" si="10"/>
         <v>22.051583026329205</v>
       </c>
       <c r="S13" s="1">
         <v>8</v>
       </c>
-      <c r="T13" s="77">
+      <c r="T13" s="74">
         <v>32</v>
       </c>
-      <c r="U13" s="74">
+      <c r="U13" s="71">
         <v>25</v>
       </c>
-      <c r="V13" s="78">
+      <c r="V13" s="75">
         <v>25</v>
       </c>
-      <c r="W13" s="76">
+      <c r="W13" s="73">
         <v>19</v>
       </c>
-      <c r="X13" s="48">
+      <c r="X13" s="47">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="49">
+      <c r="A14" s="48">
         <v>9</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="48">
         <f t="shared" si="11"/>
         <v>1.4500000000000004</v>
       </c>
-      <c r="C14" s="65">
+      <c r="C14" s="64">
         <v>5</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="47">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="47">
         <f t="shared" si="3"/>
         <v>59.487735836358524</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="47">
         <f t="shared" si="4"/>
         <v>3569.2641501815115</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="47">
         <f t="shared" si="5"/>
         <v>86.518310929661936</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="47">
         <f t="shared" si="6"/>
         <v>49.5</v>
       </c>
@@ -4328,77 +4335,77 @@
       <c r="L14" s="1">
         <v>9</v>
       </c>
-      <c r="M14" s="77">
+      <c r="M14" s="74">
         <f t="shared" si="7"/>
         <v>4291.5714285714284</v>
       </c>
-      <c r="N14" s="74">
+      <c r="N14" s="71">
         <f t="shared" si="8"/>
         <v>3690</v>
       </c>
-      <c r="O14" s="80">
+      <c r="O14" s="77">
         <f t="shared" si="9"/>
         <v>2979</v>
       </c>
-      <c r="P14" s="76">
+      <c r="P14" s="73">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
-      <c r="Q14" s="48">
+      <c r="Q14" s="47">
         <f t="shared" si="1"/>
         <v>2364.5</v>
       </c>
-      <c r="R14" s="64">
+      <c r="R14" s="63">
         <f t="shared" si="10"/>
         <v>24.22512706030534</v>
       </c>
       <c r="S14" s="1">
         <v>9</v>
       </c>
-      <c r="T14" s="77">
+      <c r="T14" s="74">
         <v>36</v>
       </c>
-      <c r="U14" s="74">
+      <c r="U14" s="71">
         <v>28</v>
       </c>
-      <c r="V14" s="78">
+      <c r="V14" s="75">
         <v>28</v>
       </c>
-      <c r="W14" s="76">
+      <c r="W14" s="73">
         <v>21</v>
       </c>
-      <c r="X14" s="48">
+      <c r="X14" s="47">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="49">
+      <c r="A15" s="48">
         <v>10</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="48">
         <f t="shared" si="11"/>
         <v>1.5000000000000004</v>
       </c>
-      <c r="C15" s="65">
+      <c r="C15" s="64">
         <v>6</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="47">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="47">
         <f t="shared" si="3"/>
         <v>67.182493960703468</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="47">
         <f t="shared" si="4"/>
         <v>4030.949637642208</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="47">
         <f t="shared" si="5"/>
         <v>84.705509949529969</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="47">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
@@ -4407,71 +4414,71 @@
       <c r="L15" s="1">
         <v>10</v>
       </c>
-      <c r="M15" s="77">
+      <c r="M15" s="74">
         <f t="shared" si="7"/>
         <v>5362.2857142857138</v>
       </c>
-      <c r="N15" s="74">
+      <c r="N15" s="71">
         <f t="shared" si="8"/>
         <v>4320</v>
       </c>
-      <c r="O15" s="80">
+      <c r="O15" s="77">
         <f t="shared" si="9"/>
         <v>3500</v>
       </c>
-      <c r="P15" s="76">
+      <c r="P15" s="73">
         <f t="shared" si="0"/>
         <v>3760.25</v>
       </c>
-      <c r="Q15" s="48">
+      <c r="Q15" s="47">
         <f t="shared" si="1"/>
         <v>2700</v>
       </c>
-      <c r="R15" s="64">
+      <c r="R15" s="63">
         <f t="shared" si="10"/>
         <v>26.258708084354289</v>
       </c>
       <c r="S15" s="1">
         <v>10</v>
       </c>
-      <c r="T15" s="77">
+      <c r="T15" s="74">
         <v>40</v>
       </c>
-      <c r="U15" s="74">
+      <c r="U15" s="71">
         <v>31</v>
       </c>
-      <c r="V15" s="78">
+      <c r="V15" s="75">
         <v>31</v>
       </c>
-      <c r="W15" s="76">
+      <c r="W15" s="73">
         <v>23</v>
       </c>
-      <c r="X15" s="48">
+      <c r="X15" s="47">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="49">
+      <c r="A16" s="48">
         <v>11</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="48">
         <f>B15+0.15</f>
         <v>1.6500000000000004</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="48">
+      <c r="C16" s="67"/>
+      <c r="D16" s="47">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="47">
         <f t="shared" si="3"/>
         <v>75.642631884188177</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="47">
         <f t="shared" si="4"/>
         <v>4538.5579130512906</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="47">
         <f t="shared" si="5"/>
         <v>82.745299048063671</v>
       </c>
@@ -4481,20 +4488,20 @@
         <v>11</v>
       </c>
       <c r="M16" s="1"/>
-      <c r="N16" s="74">
+      <c r="N16" s="71">
         <f t="shared" si="8"/>
         <v>5016</v>
       </c>
-      <c r="O16" s="80">
+      <c r="O16" s="77">
         <f t="shared" si="9"/>
         <v>4081</v>
       </c>
       <c r="P16" s="1"/>
-      <c r="Q16" s="48">
+      <c r="Q16" s="47">
         <f t="shared" si="1"/>
         <v>3065.5</v>
       </c>
-      <c r="R16" s="64">
+      <c r="R16" s="63">
         <f t="shared" si="10"/>
         <v>28.133401676341649</v>
       </c>
@@ -4502,39 +4509,39 @@
         <v>11</v>
       </c>
       <c r="T16" s="1"/>
-      <c r="U16" s="74">
+      <c r="U16" s="71">
         <v>34</v>
       </c>
-      <c r="V16" s="78">
+      <c r="V16" s="75">
         <v>34</v>
       </c>
       <c r="W16" s="1"/>
-      <c r="X16" s="48">
+      <c r="X16" s="47">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="49">
+      <c r="A17" s="48">
         <v>12</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="48">
         <f>B16+0.15</f>
         <v>1.8000000000000003</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="48">
+      <c r="C17" s="67"/>
+      <c r="D17" s="47">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="47">
         <f t="shared" si="3"/>
         <v>85.085536923187675</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="47">
         <f t="shared" si="4"/>
         <v>5105.1322153912606</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="47">
         <f t="shared" si="5"/>
         <v>80.610943901069348</v>
       </c>
@@ -4544,20 +4551,20 @@
         <v>12</v>
       </c>
       <c r="M17" s="1"/>
-      <c r="N17" s="74">
+      <c r="N17" s="71">
         <f t="shared" si="8"/>
         <v>5784</v>
       </c>
-      <c r="O17" s="80">
+      <c r="O17" s="77">
         <f t="shared" si="9"/>
         <v>4728</v>
       </c>
       <c r="P17" s="1"/>
-      <c r="Q17" s="48">
+      <c r="Q17" s="47">
         <f t="shared" si="1"/>
         <v>3464</v>
       </c>
-      <c r="R17" s="64">
+      <c r="R17" s="63">
         <f t="shared" si="10"/>
         <v>29.826049243395659</v>
       </c>
@@ -4565,39 +4572,39 @@
         <v>12</v>
       </c>
       <c r="T17" s="1"/>
-      <c r="U17" s="74">
+      <c r="U17" s="71">
         <v>37</v>
       </c>
-      <c r="V17" s="78">
+      <c r="V17" s="75">
         <v>37</v>
       </c>
       <c r="W17" s="1"/>
-      <c r="X17" s="48">
+      <c r="X17" s="47">
         <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="49">
+      <c r="A18" s="48">
         <v>13</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="48">
         <f t="shared" ref="B18:B25" si="12">B17+0.15</f>
         <v>1.9500000000000002</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="48">
+      <c r="C18" s="67"/>
+      <c r="D18" s="47">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="47">
         <f t="shared" si="3"/>
         <v>95.790339917193066</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="47">
         <f t="shared" si="4"/>
         <v>5747.4203950315841</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="47">
         <f t="shared" si="5"/>
         <v>78.270861636279875</v>
       </c>
@@ -4607,20 +4614,20 @@
         <v>13</v>
       </c>
       <c r="M18" s="1"/>
-      <c r="N18" s="74">
+      <c r="N18" s="71">
         <f t="shared" si="8"/>
         <v>6630</v>
       </c>
-      <c r="O18" s="80">
+      <c r="O18" s="77">
         <f t="shared" si="9"/>
         <v>5447</v>
       </c>
       <c r="P18" s="1"/>
-      <c r="Q18" s="48">
+      <c r="Q18" s="47">
         <f t="shared" si="1"/>
         <v>3898.5</v>
       </c>
-      <c r="R18" s="64">
+      <c r="R18" s="63">
         <f t="shared" si="10"/>
         <v>31.308344654511949</v>
       </c>
@@ -4628,39 +4635,39 @@
         <v>13</v>
       </c>
       <c r="T18" s="1"/>
-      <c r="U18" s="74">
+      <c r="U18" s="71">
         <v>40</v>
       </c>
-      <c r="V18" s="78">
+      <c r="V18" s="75">
         <v>40</v>
       </c>
       <c r="W18" s="1"/>
-      <c r="X18" s="48">
+      <c r="X18" s="47">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="49">
+      <c r="A19" s="48">
         <v>14</v>
       </c>
-      <c r="B19" s="49">
+      <c r="B19" s="48">
         <f t="shared" si="12"/>
         <v>2.1</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="48">
+      <c r="C19" s="67"/>
+      <c r="D19" s="47">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="47">
         <f t="shared" si="3"/>
         <v>108.11545195869232</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="47">
         <f t="shared" si="4"/>
         <v>6486.927117521539</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="47">
         <f t="shared" si="5"/>
         <v>75.687741498674228</v>
       </c>
@@ -4670,20 +4677,20 @@
         <v>14</v>
       </c>
       <c r="M19" s="1"/>
-      <c r="N19" s="74">
+      <c r="N19" s="71">
         <f t="shared" si="8"/>
         <v>7560</v>
       </c>
-      <c r="O19" s="80">
+      <c r="O19" s="77">
         <f t="shared" si="9"/>
         <v>6244</v>
       </c>
       <c r="P19" s="1"/>
-      <c r="Q19" s="48">
+      <c r="Q19" s="47">
         <f t="shared" si="1"/>
         <v>4372</v>
       </c>
-      <c r="R19" s="64">
+      <c r="R19" s="63">
         <f t="shared" si="10"/>
         <v>32.545728844429917</v>
       </c>
@@ -4691,39 +4698,39 @@
         <v>14</v>
       </c>
       <c r="T19" s="1"/>
-      <c r="U19" s="74">
+      <c r="U19" s="71">
         <v>43</v>
       </c>
-      <c r="V19" s="78">
+      <c r="V19" s="75">
         <v>43</v>
       </c>
       <c r="W19" s="1"/>
-      <c r="X19" s="48">
+      <c r="X19" s="47">
         <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="49">
+      <c r="A20" s="48">
         <v>15</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="48">
         <f t="shared" si="12"/>
         <v>2.25</v>
       </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="48">
+      <c r="C20" s="67"/>
+      <c r="D20" s="47">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="47">
         <f t="shared" si="3"/>
         <v>122.52108200006279</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="47">
         <f t="shared" si="4"/>
         <v>7351.2649200037677</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G20" s="47">
         <f t="shared" si="5"/>
         <v>72.817506039296532</v>
       </c>
@@ -4733,20 +4740,20 @@
         <v>15</v>
       </c>
       <c r="M20" s="1"/>
-      <c r="N20" s="74">
+      <c r="N20" s="71">
         <f t="shared" si="8"/>
         <v>8580</v>
       </c>
-      <c r="O20" s="80">
+      <c r="O20" s="77">
         <f t="shared" si="9"/>
         <v>7125</v>
       </c>
       <c r="P20" s="1"/>
-      <c r="Q20" s="48">
+      <c r="Q20" s="47">
         <f t="shared" si="1"/>
         <v>4887.5</v>
       </c>
-      <c r="R20" s="64">
+      <c r="R20" s="63">
         <f t="shared" si="10"/>
         <v>33.496052778076404</v>
       </c>
@@ -4754,39 +4761,39 @@
         <v>15</v>
       </c>
       <c r="T20" s="1"/>
-      <c r="U20" s="74">
+      <c r="U20" s="71">
         <v>46</v>
       </c>
-      <c r="V20" s="78">
+      <c r="V20" s="75">
         <v>46</v>
       </c>
       <c r="W20" s="1"/>
-      <c r="X20" s="48">
+      <c r="X20" s="47">
         <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="49">
+      <c r="A21" s="48">
         <v>16</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21" s="48">
         <f t="shared" si="12"/>
         <v>2.4</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="48">
+      <c r="C21" s="67"/>
+      <c r="D21" s="47">
         <f t="shared" si="2"/>
         <v>176</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="47">
         <f t="shared" si="3"/>
         <v>139.59815003314424</v>
       </c>
-      <c r="F21" s="48">
+      <c r="F21" s="47">
         <f t="shared" si="4"/>
         <v>8375.8890019886549</v>
       </c>
-      <c r="G21" s="48">
+      <c r="G21" s="47">
         <f t="shared" si="5"/>
         <v>69.608083904850105</v>
       </c>
@@ -4794,20 +4801,20 @@
         <v>16</v>
       </c>
       <c r="M21" s="1"/>
-      <c r="N21" s="74">
+      <c r="N21" s="71">
         <f t="shared" si="8"/>
         <v>9696</v>
       </c>
-      <c r="O21" s="80">
+      <c r="O21" s="77">
         <f t="shared" si="9"/>
         <v>8096</v>
       </c>
       <c r="P21" s="1"/>
-      <c r="Q21" s="48">
+      <c r="Q21" s="47">
         <f t="shared" si="1"/>
         <v>5448</v>
       </c>
-      <c r="R21" s="64">
+      <c r="R21" s="63">
         <f t="shared" si="10"/>
         <v>34.107961113376547</v>
       </c>
@@ -4815,39 +4822,39 @@
         <v>16</v>
       </c>
       <c r="T21" s="1"/>
-      <c r="U21" s="74">
+      <c r="U21" s="71">
         <v>49</v>
       </c>
-      <c r="V21" s="78">
+      <c r="V21" s="75">
         <v>49</v>
       </c>
       <c r="W21" s="1"/>
-      <c r="X21" s="48">
+      <c r="X21" s="47">
         <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="49">
+      <c r="A22" s="48">
         <v>17</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="48">
         <f t="shared" si="12"/>
         <v>2.5499999999999998</v>
       </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="48">
+      <c r="C22" s="67"/>
+      <c r="D22" s="47">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="47">
         <f t="shared" si="3"/>
         <v>160.10541234668784</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="47">
         <f t="shared" si="4"/>
         <v>9606.3247408012703</v>
       </c>
-      <c r="G22" s="48">
+      <c r="G22" s="47">
         <f t="shared" si="5"/>
         <v>65.997960059905978</v>
       </c>
@@ -4855,20 +4862,20 @@
         <v>17</v>
       </c>
       <c r="M22" s="1"/>
-      <c r="N22" s="74">
+      <c r="N22" s="71">
         <f t="shared" si="8"/>
         <v>10914</v>
       </c>
-      <c r="O22" s="80">
+      <c r="O22" s="77">
         <f t="shared" si="9"/>
         <v>9163</v>
       </c>
       <c r="P22" s="1"/>
-      <c r="Q22" s="48">
+      <c r="Q22" s="47">
         <f t="shared" si="1"/>
         <v>6056.5</v>
       </c>
-      <c r="R22" s="64">
+      <c r="R22" s="63">
         <f t="shared" si="10"/>
         <v>34.318939231151106</v>
       </c>
@@ -4876,39 +4883,39 @@
         <v>17</v>
       </c>
       <c r="T22" s="1"/>
-      <c r="U22" s="74">
+      <c r="U22" s="71">
         <v>52</v>
       </c>
-      <c r="V22" s="78">
+      <c r="V22" s="75">
         <v>52</v>
       </c>
       <c r="W22" s="1"/>
-      <c r="X22" s="48">
+      <c r="X22" s="47">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="49">
+      <c r="A23" s="48">
         <v>18</v>
       </c>
-      <c r="B23" s="49">
+      <c r="B23" s="48">
         <f t="shared" si="12"/>
         <v>2.6999999999999997</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="48">
+      <c r="C23" s="67"/>
+      <c r="D23" s="47">
         <f t="shared" si="2"/>
         <v>188</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="47">
         <f t="shared" si="3"/>
         <v>185.01713130052181</v>
       </c>
-      <c r="F23" s="48">
+      <c r="F23" s="47">
         <f t="shared" si="4"/>
         <v>11101.027878031309</v>
       </c>
-      <c r="G23" s="48">
+      <c r="G23" s="47">
         <f t="shared" si="5"/>
         <v>61.914463076812325</v>
       </c>
@@ -4916,20 +4923,20 @@
         <v>18</v>
       </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="74">
+      <c r="N23" s="71">
         <f t="shared" si="8"/>
         <v>12240</v>
       </c>
-      <c r="O23" s="80">
+      <c r="O23" s="77">
         <f t="shared" si="9"/>
         <v>10332</v>
       </c>
       <c r="P23" s="1"/>
-      <c r="Q23" s="48">
+      <c r="Q23" s="47">
         <f t="shared" si="1"/>
         <v>6716</v>
       </c>
-      <c r="R23" s="64">
+      <c r="R23" s="63">
         <f t="shared" si="10"/>
         <v>34.052954692246779</v>
       </c>
@@ -4937,39 +4944,39 @@
         <v>18</v>
       </c>
       <c r="T23" s="1"/>
-      <c r="U23" s="74">
+      <c r="U23" s="71">
         <v>55</v>
       </c>
-      <c r="V23" s="78">
+      <c r="V23" s="75">
         <v>55</v>
       </c>
       <c r="W23" s="1"/>
-      <c r="X23" s="48">
+      <c r="X23" s="47">
         <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="49">
+      <c r="A24" s="48">
         <v>19</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="48">
         <f t="shared" si="12"/>
         <v>2.8499999999999996</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="48">
+      <c r="C24" s="67"/>
+      <c r="D24" s="47">
         <f t="shared" si="2"/>
         <v>194</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="47">
         <f t="shared" si="3"/>
         <v>215.58428452718766</v>
       </c>
-      <c r="F24" s="48">
+      <c r="F24" s="47">
         <f t="shared" si="4"/>
         <v>12935.05707163126</v>
       </c>
-      <c r="G24" s="48">
+      <c r="G24" s="47">
         <f t="shared" si="5"/>
         <v>57.271741807794839</v>
       </c>
@@ -4977,20 +4984,20 @@
         <v>19</v>
       </c>
       <c r="M24" s="1"/>
-      <c r="N24" s="74">
+      <c r="N24" s="71">
         <f t="shared" si="8"/>
         <v>13680</v>
       </c>
-      <c r="O24" s="80">
+      <c r="O24" s="77">
         <f t="shared" si="9"/>
         <v>11609</v>
       </c>
       <c r="P24" s="1"/>
-      <c r="Q24" s="48">
+      <c r="Q24" s="47">
         <f t="shared" si="1"/>
         <v>7429.5</v>
       </c>
-      <c r="R24" s="64">
+      <c r="R24" s="63">
         <f t="shared" si="10"/>
         <v>33.217610248521005</v>
       </c>
@@ -4998,39 +5005,39 @@
         <v>19</v>
       </c>
       <c r="T24" s="1"/>
-      <c r="U24" s="74">
+      <c r="U24" s="71">
         <v>58</v>
       </c>
-      <c r="V24" s="78">
+      <c r="V24" s="75">
         <v>58</v>
       </c>
       <c r="W24" s="1"/>
-      <c r="X24" s="48">
+      <c r="X24" s="47">
         <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="49">
+      <c r="A25" s="48">
         <v>20</v>
       </c>
-      <c r="B25" s="49">
+      <c r="B25" s="48">
         <f t="shared" si="12"/>
         <v>2.9999999999999996</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="48">
+      <c r="C25" s="67"/>
+      <c r="D25" s="47">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="47">
         <f t="shared" si="3"/>
         <v>253.4131591025766</v>
       </c>
-      <c r="F25" s="48">
+      <c r="F25" s="47">
         <f t="shared" si="4"/>
         <v>15204.789546154596</v>
       </c>
-      <c r="G25" s="48">
+      <c r="G25" s="47">
         <f t="shared" si="5"/>
         <v>51.968375105473854</v>
       </c>
@@ -5038,20 +5045,20 @@
         <v>20</v>
       </c>
       <c r="M25" s="1"/>
-      <c r="N25" s="74">
+      <c r="N25" s="71">
         <f t="shared" si="8"/>
         <v>15240</v>
       </c>
-      <c r="O25" s="80">
+      <c r="O25" s="77">
         <f t="shared" si="9"/>
         <v>13000</v>
       </c>
       <c r="P25" s="1"/>
-      <c r="Q25" s="48">
+      <c r="Q25" s="47">
         <f t="shared" si="1"/>
         <v>8200</v>
       </c>
-      <c r="R25" s="64">
+      <c r="R25" s="63">
         <f t="shared" si="10"/>
         <v>31.700708814339052</v>
       </c>
@@ -5059,14 +5066,14 @@
         <v>20</v>
       </c>
       <c r="T25" s="1"/>
-      <c r="U25" s="74">
+      <c r="U25" s="71">
         <v>61</v>
       </c>
-      <c r="V25" s="78">
+      <c r="V25" s="75">
         <v>61</v>
       </c>
       <c r="W25" s="1"/>
-      <c r="X25" s="48">
+      <c r="X25" s="47">
         <v>106</v>
       </c>
     </row>
@@ -5074,11 +5081,11 @@
       <c r="L26" s="1">
         <v>21</v>
       </c>
-      <c r="O26" s="73"/>
+      <c r="O26" s="70"/>
       <c r="S26" s="1">
         <v>21</v>
       </c>
-      <c r="V26" s="73"/>
+      <c r="V26" s="70"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="L27" s="1">
@@ -5089,7 +5096,7 @@
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="R28" s="64"/>
+      <c r="R28" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Equilibrage.xlsx
+++ b/Equilibrage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Github\Dukes Of The Realm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B2F46C-28ED-4A99-BEA6-62FBBD4033E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C26CA83-7234-42F8-BBF5-D5AC042ACE43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1015,9 +1015,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1049,6 +1046,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1152,21 +1167,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1611,14 +1611,14 @@
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="80" t="s">
+      <c r="I9" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -1638,12 +1638,12 @@
       <c r="G10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1673,12 +1673,12 @@
         <f>G3</f>
         <v>65</v>
       </c>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1709,14 +1709,14 @@
         <v>100</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="79" t="s">
+      <c r="I12" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -1747,12 +1747,12 @@
         <v>35</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1763,12 +1763,12 @@
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
@@ -1777,12 +1777,12 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
@@ -1992,13 +1992,13 @@
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
-      <c r="G2" s="117">
+      <c r="G2" s="82">
         <v>0.8</v>
       </c>
-      <c r="H2" s="116">
+      <c r="H2" s="81">
         <v>1.2</v>
       </c>
-      <c r="I2" s="116">
+      <c r="I2" s="81">
         <v>1.5</v>
       </c>
       <c r="J2" s="44"/>
@@ -2056,7 +2056,7 @@
         <f>20*H2</f>
         <v>24</v>
       </c>
-      <c r="I4" s="113">
+      <c r="I4" s="78">
         <f>0.45*I2</f>
         <v>0.67500000000000004</v>
       </c>
@@ -2090,7 +2090,7 @@
         <f>35*H2</f>
         <v>42</v>
       </c>
-      <c r="I5" s="113">
+      <c r="I5" s="78">
         <f>1.5*I2</f>
         <v>2.25</v>
       </c>
@@ -2124,7 +2124,7 @@
         <f>85*H2</f>
         <v>102</v>
       </c>
-      <c r="I6" s="113">
+      <c r="I6" s="78">
         <f>2.05*I2</f>
         <v>3.0749999999999997</v>
       </c>
@@ -2158,7 +2158,7 @@
         <f>60*H2</f>
         <v>72</v>
       </c>
-      <c r="I7" s="113">
+      <c r="I7" s="78">
         <f>0.75*I2</f>
         <v>1.125</v>
       </c>
@@ -2189,10 +2189,10 @@
         <v>19.200000000000003</v>
       </c>
       <c r="H8" s="45">
-        <f>8*H2</f>
-        <v>9.6</v>
-      </c>
-      <c r="I8" s="113">
+        <f>1*H2</f>
+        <v>1.2</v>
+      </c>
+      <c r="I8" s="78">
         <f>3*I2</f>
         <v>4.5</v>
       </c>
@@ -2226,7 +2226,7 @@
         <f>5*H2</f>
         <v>6</v>
       </c>
-      <c r="I9" s="113">
+      <c r="I9" s="78">
         <f>0.875*I2</f>
         <v>1.3125</v>
       </c>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="F11" s="54"/>
       <c r="H11" s="44"/>
-      <c r="I11" s="114"/>
+      <c r="I11" s="79"/>
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
     </row>
@@ -2267,7 +2267,7 @@
       <c r="F12" s="54"/>
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
-      <c r="I12" s="114"/>
+      <c r="I12" s="79"/>
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
     </row>
@@ -2290,7 +2290,7 @@
       <c r="H13" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="113" t="s">
+      <c r="I13" s="78" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="46" t="s">
@@ -2327,7 +2327,7 @@
         <f t="shared" ref="H14:H19" si="1">H4*B14</f>
         <v>240</v>
       </c>
-      <c r="I14" s="113">
+      <c r="I14" s="78">
         <f t="shared" ref="I14:I19" si="2">I4*B14</f>
         <v>6.75</v>
       </c>
@@ -2365,7 +2365,7 @@
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="I15" s="113">
+      <c r="I15" s="78">
         <f t="shared" si="2"/>
         <v>11.25</v>
       </c>
@@ -2404,7 +2404,7 @@
         <f t="shared" si="1"/>
         <v>398.04878048780489</v>
       </c>
-      <c r="I16" s="113">
+      <c r="I16" s="78">
         <f t="shared" si="2"/>
         <v>11.999999999999998</v>
       </c>
@@ -2441,7 +2441,7 @@
         <f t="shared" si="1"/>
         <v>576</v>
       </c>
-      <c r="I17" s="113">
+      <c r="I17" s="78">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -2477,9 +2477,9 @@
       </c>
       <c r="H18" s="45">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="I18" s="113">
+        <v>4</v>
+      </c>
+      <c r="I18" s="78">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -2516,7 +2516,7 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="I19" s="115">
+      <c r="I19" s="80">
         <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
@@ -2561,7 +2561,7 @@
       <c r="H23" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="113" t="s">
+      <c r="I23" s="78" t="s">
         <v>10</v>
       </c>
       <c r="J23" s="46" t="s">
@@ -2596,7 +2596,7 @@
         <f t="shared" si="4"/>
         <v>6000</v>
       </c>
-      <c r="I24" s="113">
+      <c r="I24" s="78">
         <f>$B$24*I4</f>
         <v>168.75</v>
       </c>
@@ -2635,7 +2635,7 @@
         <f t="shared" si="8"/>
         <v>10500</v>
       </c>
-      <c r="I25" s="113">
+      <c r="I25" s="78">
         <f>$B$25*I5</f>
         <v>562.5</v>
       </c>
@@ -2673,7 +2673,7 @@
         <f t="shared" si="10"/>
         <v>12750</v>
       </c>
-      <c r="I26" s="113">
+      <c r="I26" s="78">
         <f t="shared" si="10"/>
         <v>384.37499999999994</v>
       </c>
@@ -2712,7 +2712,7 @@
         <f t="shared" si="11"/>
         <v>18000</v>
       </c>
-      <c r="I27" s="113">
+      <c r="I27" s="78">
         <f>$B$27*I7</f>
         <v>281.25</v>
       </c>
@@ -2748,9 +2748,9 @@
       </c>
       <c r="H28" s="46">
         <f t="shared" si="12"/>
-        <v>799.99999999999989</v>
-      </c>
-      <c r="I28" s="113">
+        <v>99.999999999999986</v>
+      </c>
+      <c r="I28" s="78">
         <f t="shared" si="12"/>
         <v>375</v>
       </c>
@@ -2788,7 +2788,7 @@
         <f t="shared" si="13"/>
         <v>750</v>
       </c>
-      <c r="I29" s="113">
+      <c r="I29" s="78">
         <f t="shared" si="13"/>
         <v>164.0625</v>
       </c>
@@ -3176,231 +3176,231 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="112"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="104"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="92"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
       <c r="F5" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="86"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="91"/>
       <c r="F6" s="27">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="98"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="103"/>
       <c r="F7" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="86"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="91"/>
       <c r="F8" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="98"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="103"/>
       <c r="F9" s="22">
         <v>250</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="101"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="106"/>
       <c r="F10" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="89"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="94"/>
       <c r="F11" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="104"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="109"/>
       <c r="F12" s="29">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="83"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
       <c r="F13" s="23">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="86"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="91"/>
       <c r="F14" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="98"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="103"/>
       <c r="F15" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="101"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="106"/>
       <c r="F16" s="25">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="89"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="94"/>
       <c r="F17" s="32">
         <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="104"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="109"/>
       <c r="F18" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94"/>
       <c r="F19" s="34">
         <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="107"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
       <c r="F20" s="30">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="83"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
       <c r="F21" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="91"/>
       <c r="F22" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="95"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="100"/>
       <c r="F23" s="36">
         <v>1</v>
       </c>
@@ -3438,8 +3438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7358574A-592A-4C40-9736-421EE2E19A0C}">
   <dimension ref="A2:X28"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView topLeftCell="I1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3457,19 +3457,19 @@
       <c r="S2" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="76">
+      <c r="T2" s="75">
         <v>0</v>
       </c>
-      <c r="U2" s="76">
+      <c r="U2" s="75">
         <v>1</v>
       </c>
-      <c r="V2" s="76">
+      <c r="V2" s="75">
         <v>1</v>
       </c>
-      <c r="W2" s="76">
+      <c r="W2" s="75">
         <v>3</v>
       </c>
-      <c r="X2" s="76">
+      <c r="X2" s="75">
         <v>6</v>
       </c>
     </row>
@@ -3498,37 +3498,37 @@
       <c r="L3" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="76">
+      <c r="M3" s="75">
         <v>200</v>
       </c>
-      <c r="N3" s="76">
+      <c r="N3" s="75">
         <v>300</v>
       </c>
-      <c r="O3" s="76">
+      <c r="O3" s="75">
         <v>250</v>
       </c>
-      <c r="P3" s="76">
+      <c r="P3" s="75">
         <v>100</v>
       </c>
-      <c r="Q3" s="76">
+      <c r="Q3" s="75">
         <v>200</v>
       </c>
       <c r="S3" t="s">
         <v>62</v>
       </c>
-      <c r="T3" s="76">
+      <c r="T3" s="75">
         <v>4</v>
       </c>
-      <c r="U3" s="76">
+      <c r="U3" s="75">
+        <v>4</v>
+      </c>
+      <c r="V3" s="75">
         <v>3</v>
       </c>
-      <c r="V3" s="76">
-        <v>3</v>
-      </c>
-      <c r="W3" s="76">
+      <c r="W3" s="75">
         <v>2</v>
       </c>
-      <c r="X3" s="76">
+      <c r="X3" s="75">
         <v>5</v>
       </c>
     </row>
@@ -3545,56 +3545,56 @@
       <c r="D4" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="69" t="s">
+      <c r="H4" s="68" t="s">
         <v>58</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="70" t="s">
+      <c r="L4" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="70" t="s">
+      <c r="M4" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="T4" s="70" t="s">
+      <c r="T4" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="W4" s="70" t="s">
+      <c r="W4" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="X4" s="70" t="s">
+      <c r="X4" s="69" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3605,11 +3605,11 @@
       <c r="B5" s="66">
         <v>1</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
       <c r="H5" s="48">
         <v>0</v>
       </c>
@@ -3622,10 +3622,10 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="73">
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="72">
         <f>100 + L6*L6*L6*L6 / 4</f>
         <v>100.25</v>
       </c>
@@ -3636,10 +3636,10 @@
       <c r="S5" s="1">
         <v>0</v>
       </c>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="73">
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="72">
         <v>3</v>
       </c>
       <c r="X5" s="47">
@@ -3658,8 +3658,8 @@
         <v>1</v>
       </c>
       <c r="D6" s="47">
-        <f>80+6*A6</f>
-        <v>86</v>
+        <f>80+12*A6</f>
+        <v>92</v>
       </c>
       <c r="E6" s="47">
         <f>$E$2+A6*$E$2+EXP(A6/4)</f>
@@ -3686,19 +3686,19 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="74">
+      <c r="M6" s="73">
         <f>200*L8+L8*L8*L8*L8/7</f>
         <v>611.57142857142856</v>
       </c>
-      <c r="N6" s="71">
-        <f>300*L6+L6*L7*L8</f>
-        <v>306</v>
-      </c>
-      <c r="O6" s="77">
+      <c r="N6" s="48">
+        <f>300*L6+L7*L7*L8</f>
+        <v>312</v>
+      </c>
+      <c r="O6" s="76">
         <f>250*L6+L6*L6*L6</f>
         <v>251</v>
       </c>
-      <c r="P6" s="73">
+      <c r="P6" s="72">
         <f t="shared" ref="P6:P15" si="0">100 + L7*L7*L7*L7 / 4</f>
         <v>104</v>
       </c>
@@ -3713,16 +3713,16 @@
       <c r="S6" s="1">
         <v>1</v>
       </c>
-      <c r="T6" s="74">
+      <c r="T6" s="73">
         <v>4</v>
       </c>
-      <c r="U6" s="71">
+      <c r="U6" s="70">
+        <v>5</v>
+      </c>
+      <c r="V6" s="74">
         <v>4</v>
       </c>
-      <c r="V6" s="75">
-        <v>4</v>
-      </c>
-      <c r="W6" s="73">
+      <c r="W6" s="72">
         <v>5</v>
       </c>
       <c r="X6" s="47">
@@ -3741,8 +3741,8 @@
         <v>1</v>
       </c>
       <c r="D7" s="47">
-        <f t="shared" ref="D7:D25" si="2">80+6*A7</f>
-        <v>92</v>
+        <f t="shared" ref="D7:D15" si="2">80+12*A7</f>
+        <v>104</v>
       </c>
       <c r="E7" s="47">
         <f t="shared" ref="E7:E25" si="3">$E$2+A7*$E$2+EXP(A7/4)</f>
@@ -3769,19 +3769,19 @@
       <c r="L7" s="1">
         <v>2</v>
       </c>
-      <c r="M7" s="74">
+      <c r="M7" s="73">
         <f t="shared" ref="M7:M15" si="7">200*L9+L9*L9*L9*L9/7</f>
         <v>836.57142857142856</v>
       </c>
-      <c r="N7" s="71">
-        <f t="shared" ref="N7:N25" si="8">300*L7+L7*L8*L9</f>
-        <v>624</v>
-      </c>
-      <c r="O7" s="77">
+      <c r="N7" s="48">
+        <f t="shared" ref="N7:N15" si="8">300*L7+L8*L8*L9</f>
+        <v>636</v>
+      </c>
+      <c r="O7" s="76">
         <f t="shared" ref="O7:O25" si="9">250*L7+L7*L7*L7</f>
         <v>508</v>
       </c>
-      <c r="P7" s="73">
+      <c r="P7" s="72">
         <f t="shared" si="0"/>
         <v>120.25</v>
       </c>
@@ -3796,16 +3796,16 @@
       <c r="S7" s="1">
         <v>2</v>
       </c>
-      <c r="T7" s="74">
+      <c r="T7" s="73">
         <v>8</v>
       </c>
-      <c r="U7" s="71">
+      <c r="U7" s="70">
+        <v>9</v>
+      </c>
+      <c r="V7" s="74">
         <v>7</v>
       </c>
-      <c r="V7" s="75">
-        <v>7</v>
-      </c>
-      <c r="W7" s="73">
+      <c r="W7" s="72">
         <v>7</v>
       </c>
       <c r="X7" s="47">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="D8" s="47">
         <f t="shared" si="2"/>
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="E8" s="47">
         <f t="shared" si="3"/>
@@ -3852,19 +3852,19 @@
       <c r="L8" s="1">
         <v>3</v>
       </c>
-      <c r="M8" s="74">
+      <c r="M8" s="73">
         <f t="shared" si="7"/>
         <v>1089.2857142857142</v>
       </c>
-      <c r="N8" s="71">
+      <c r="N8" s="48">
         <f t="shared" si="8"/>
-        <v>960</v>
-      </c>
-      <c r="O8" s="77">
+        <v>980</v>
+      </c>
+      <c r="O8" s="76">
         <f t="shared" si="9"/>
         <v>777</v>
       </c>
-      <c r="P8" s="73">
+      <c r="P8" s="72">
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
@@ -3879,16 +3879,16 @@
       <c r="S8" s="1">
         <v>3</v>
       </c>
-      <c r="T8" s="74">
+      <c r="T8" s="73">
         <v>12</v>
       </c>
-      <c r="U8" s="71">
+      <c r="U8" s="70">
+        <v>13</v>
+      </c>
+      <c r="V8" s="74">
         <v>10</v>
       </c>
-      <c r="V8" s="75">
-        <v>10</v>
-      </c>
-      <c r="W8" s="73">
+      <c r="W8" s="72">
         <v>9</v>
       </c>
       <c r="X8" s="47">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="D9" s="47">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="E9" s="47">
         <f t="shared" si="3"/>
@@ -3935,19 +3935,19 @@
       <c r="L9" s="1">
         <v>4</v>
       </c>
-      <c r="M9" s="74">
+      <c r="M9" s="73">
         <f t="shared" si="7"/>
         <v>1385.1428571428571</v>
       </c>
-      <c r="N9" s="71">
+      <c r="N9" s="48">
         <f t="shared" si="8"/>
-        <v>1320</v>
-      </c>
-      <c r="O9" s="77">
+        <v>1350</v>
+      </c>
+      <c r="O9" s="76">
         <f t="shared" si="9"/>
         <v>1064</v>
       </c>
-      <c r="P9" s="73">
+      <c r="P9" s="72">
         <f t="shared" si="0"/>
         <v>256.25</v>
       </c>
@@ -3962,16 +3962,16 @@
       <c r="S9" s="1">
         <v>4</v>
       </c>
-      <c r="T9" s="74">
+      <c r="T9" s="73">
         <v>16</v>
       </c>
-      <c r="U9" s="71">
+      <c r="U9" s="70">
+        <v>17</v>
+      </c>
+      <c r="V9" s="74">
         <v>13</v>
       </c>
-      <c r="V9" s="75">
-        <v>13</v>
-      </c>
-      <c r="W9" s="73">
+      <c r="W9" s="72">
         <v>11</v>
       </c>
       <c r="X9" s="47">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="D10" s="47">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="E10" s="47">
         <f t="shared" si="3"/>
@@ -4018,19 +4018,19 @@
       <c r="L10" s="1">
         <v>5</v>
       </c>
-      <c r="M10" s="74">
+      <c r="M10" s="73">
         <f t="shared" si="7"/>
         <v>1743</v>
       </c>
-      <c r="N10" s="71">
+      <c r="N10" s="48">
         <f t="shared" si="8"/>
-        <v>1710</v>
-      </c>
-      <c r="O10" s="77">
+        <v>1752</v>
+      </c>
+      <c r="O10" s="76">
         <f t="shared" si="9"/>
         <v>1375</v>
       </c>
-      <c r="P10" s="73">
+      <c r="P10" s="72">
         <f t="shared" si="0"/>
         <v>424</v>
       </c>
@@ -4045,16 +4045,16 @@
       <c r="S10" s="1">
         <v>5</v>
       </c>
-      <c r="T10" s="74">
+      <c r="T10" s="73">
         <v>20</v>
       </c>
-      <c r="U10" s="71">
+      <c r="U10" s="70">
+        <v>21</v>
+      </c>
+      <c r="V10" s="74">
         <v>16</v>
       </c>
-      <c r="V10" s="75">
-        <v>16</v>
-      </c>
-      <c r="W10" s="73">
+      <c r="W10" s="72">
         <v>13</v>
       </c>
       <c r="X10" s="47">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="D11" s="47">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="E11" s="47">
         <f t="shared" si="3"/>
@@ -4100,19 +4100,19 @@
       <c r="L11" s="1">
         <v>6</v>
       </c>
-      <c r="M11" s="74">
+      <c r="M11" s="73">
         <f t="shared" si="7"/>
         <v>2185.1428571428569</v>
       </c>
-      <c r="N11" s="71">
+      <c r="N11" s="48">
         <f t="shared" si="8"/>
-        <v>2136</v>
-      </c>
-      <c r="O11" s="77">
+        <v>2192</v>
+      </c>
+      <c r="O11" s="76">
         <f t="shared" si="9"/>
         <v>1716</v>
       </c>
-      <c r="P11" s="73">
+      <c r="P11" s="72">
         <f t="shared" si="0"/>
         <v>700.25</v>
       </c>
@@ -4127,16 +4127,16 @@
       <c r="S11" s="1">
         <v>6</v>
       </c>
-      <c r="T11" s="74">
+      <c r="T11" s="73">
         <v>24</v>
       </c>
-      <c r="U11" s="71">
+      <c r="U11" s="70">
+        <v>25</v>
+      </c>
+      <c r="V11" s="74">
         <v>19</v>
       </c>
-      <c r="V11" s="75">
-        <v>19</v>
-      </c>
-      <c r="W11" s="73">
+      <c r="W11" s="72">
         <v>15</v>
       </c>
       <c r="X11" s="47">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="D12" s="47">
         <f t="shared" si="2"/>
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="E12" s="47">
         <f t="shared" si="3"/>
@@ -4177,19 +4177,19 @@
       <c r="L12" s="1">
         <v>7</v>
       </c>
-      <c r="M12" s="74">
+      <c r="M12" s="73">
         <f t="shared" si="7"/>
         <v>2737.2857142857142</v>
       </c>
-      <c r="N12" s="71">
+      <c r="N12" s="48">
         <f t="shared" si="8"/>
-        <v>2604</v>
-      </c>
-      <c r="O12" s="77">
+        <v>2676</v>
+      </c>
+      <c r="O12" s="76">
         <f t="shared" si="9"/>
         <v>2093</v>
       </c>
-      <c r="P12" s="73">
+      <c r="P12" s="72">
         <f t="shared" si="0"/>
         <v>1124</v>
       </c>
@@ -4204,16 +4204,16 @@
       <c r="S12" s="1">
         <v>7</v>
       </c>
-      <c r="T12" s="74">
+      <c r="T12" s="73">
         <v>28</v>
       </c>
-      <c r="U12" s="71">
+      <c r="U12" s="70">
+        <v>29</v>
+      </c>
+      <c r="V12" s="74">
         <v>22</v>
       </c>
-      <c r="V12" s="75">
-        <v>22</v>
-      </c>
-      <c r="W12" s="73">
+      <c r="W12" s="72">
         <v>17</v>
       </c>
       <c r="X12" s="47">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="D13" s="47">
         <f t="shared" si="2"/>
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="E13" s="47">
         <f t="shared" si="3"/>
@@ -4256,19 +4256,19 @@
       <c r="L13" s="1">
         <v>8</v>
       </c>
-      <c r="M13" s="74">
+      <c r="M13" s="73">
         <f t="shared" si="7"/>
         <v>3428.5714285714284</v>
       </c>
-      <c r="N13" s="71">
+      <c r="N13" s="48">
         <f t="shared" si="8"/>
-        <v>3120</v>
-      </c>
-      <c r="O13" s="77">
+        <v>3210</v>
+      </c>
+      <c r="O13" s="76">
         <f t="shared" si="9"/>
         <v>2512</v>
       </c>
-      <c r="P13" s="73">
+      <c r="P13" s="72">
         <f t="shared" si="0"/>
         <v>1740.25</v>
       </c>
@@ -4283,16 +4283,16 @@
       <c r="S13" s="1">
         <v>8</v>
       </c>
-      <c r="T13" s="74">
+      <c r="T13" s="73">
         <v>32</v>
       </c>
-      <c r="U13" s="71">
+      <c r="U13" s="70">
+        <v>33</v>
+      </c>
+      <c r="V13" s="74">
         <v>25</v>
       </c>
-      <c r="V13" s="75">
-        <v>25</v>
-      </c>
-      <c r="W13" s="73">
+      <c r="W13" s="72">
         <v>19</v>
       </c>
       <c r="X13" s="47">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="D14" s="47">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="E14" s="47">
         <f t="shared" si="3"/>
@@ -4335,19 +4335,19 @@
       <c r="L14" s="1">
         <v>9</v>
       </c>
-      <c r="M14" s="74">
+      <c r="M14" s="73">
         <f t="shared" si="7"/>
         <v>4291.5714285714284</v>
       </c>
-      <c r="N14" s="71">
+      <c r="N14" s="48">
         <f t="shared" si="8"/>
-        <v>3690</v>
-      </c>
-      <c r="O14" s="77">
+        <v>3800</v>
+      </c>
+      <c r="O14" s="76">
         <f t="shared" si="9"/>
         <v>2979</v>
       </c>
-      <c r="P14" s="73">
+      <c r="P14" s="72">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
@@ -4362,16 +4362,16 @@
       <c r="S14" s="1">
         <v>9</v>
       </c>
-      <c r="T14" s="74">
+      <c r="T14" s="73">
         <v>36</v>
       </c>
-      <c r="U14" s="71">
+      <c r="U14" s="70">
+        <v>37</v>
+      </c>
+      <c r="V14" s="74">
         <v>28</v>
       </c>
-      <c r="V14" s="75">
-        <v>28</v>
-      </c>
-      <c r="W14" s="73">
+      <c r="W14" s="72">
         <v>21</v>
       </c>
       <c r="X14" s="47">
@@ -4391,7 +4391,7 @@
       </c>
       <c r="D15" s="47">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="E15" s="47">
         <f t="shared" si="3"/>
@@ -4414,19 +4414,19 @@
       <c r="L15" s="1">
         <v>10</v>
       </c>
-      <c r="M15" s="74">
+      <c r="M15" s="73">
         <f t="shared" si="7"/>
         <v>5362.2857142857138</v>
       </c>
-      <c r="N15" s="71">
+      <c r="N15" s="48">
         <f t="shared" si="8"/>
-        <v>4320</v>
-      </c>
-      <c r="O15" s="77">
+        <v>4452</v>
+      </c>
+      <c r="O15" s="76">
         <f t="shared" si="9"/>
         <v>3500</v>
       </c>
-      <c r="P15" s="73">
+      <c r="P15" s="72">
         <f t="shared" si="0"/>
         <v>3760.25</v>
       </c>
@@ -4441,16 +4441,16 @@
       <c r="S15" s="1">
         <v>10</v>
       </c>
-      <c r="T15" s="74">
+      <c r="T15" s="73">
         <v>40</v>
       </c>
-      <c r="U15" s="71">
+      <c r="U15" s="48">
+        <v>41</v>
+      </c>
+      <c r="V15" s="74">
         <v>31</v>
       </c>
-      <c r="V15" s="75">
-        <v>31</v>
-      </c>
-      <c r="W15" s="73">
+      <c r="W15" s="72">
         <v>23</v>
       </c>
       <c r="X15" s="47">
@@ -4466,10 +4466,7 @@
         <v>1.6500000000000004</v>
       </c>
       <c r="C16" s="67"/>
-      <c r="D16" s="47">
-        <f t="shared" si="2"/>
-        <v>146</v>
-      </c>
+      <c r="D16" s="83"/>
       <c r="E16" s="47">
         <f t="shared" si="3"/>
         <v>75.642631884188177</v>
@@ -4488,11 +4485,8 @@
         <v>11</v>
       </c>
       <c r="M16" s="1"/>
-      <c r="N16" s="71">
-        <f t="shared" si="8"/>
-        <v>5016</v>
-      </c>
-      <c r="O16" s="77">
+      <c r="N16" s="2"/>
+      <c r="O16" s="76">
         <f t="shared" si="9"/>
         <v>4081</v>
       </c>
@@ -4509,10 +4503,8 @@
         <v>11</v>
       </c>
       <c r="T16" s="1"/>
-      <c r="U16" s="71">
-        <v>34</v>
-      </c>
-      <c r="V16" s="75">
+      <c r="U16" s="2"/>
+      <c r="V16" s="74">
         <v>34</v>
       </c>
       <c r="W16" s="1"/>
@@ -4529,10 +4521,7 @@
         <v>1.8000000000000003</v>
       </c>
       <c r="C17" s="67"/>
-      <c r="D17" s="47">
-        <f t="shared" si="2"/>
-        <v>152</v>
-      </c>
+      <c r="D17" s="83"/>
       <c r="E17" s="47">
         <f t="shared" si="3"/>
         <v>85.085536923187675</v>
@@ -4551,11 +4540,8 @@
         <v>12</v>
       </c>
       <c r="M17" s="1"/>
-      <c r="N17" s="71">
-        <f t="shared" si="8"/>
-        <v>5784</v>
-      </c>
-      <c r="O17" s="77">
+      <c r="N17" s="2"/>
+      <c r="O17" s="76">
         <f t="shared" si="9"/>
         <v>4728</v>
       </c>
@@ -4572,10 +4558,8 @@
         <v>12</v>
       </c>
       <c r="T17" s="1"/>
-      <c r="U17" s="71">
-        <v>37</v>
-      </c>
-      <c r="V17" s="75">
+      <c r="U17" s="2"/>
+      <c r="V17" s="74">
         <v>37</v>
       </c>
       <c r="W17" s="1"/>
@@ -4592,10 +4576,7 @@
         <v>1.9500000000000002</v>
       </c>
       <c r="C18" s="67"/>
-      <c r="D18" s="47">
-        <f t="shared" si="2"/>
-        <v>158</v>
-      </c>
+      <c r="D18" s="83"/>
       <c r="E18" s="47">
         <f t="shared" si="3"/>
         <v>95.790339917193066</v>
@@ -4614,11 +4595,8 @@
         <v>13</v>
       </c>
       <c r="M18" s="1"/>
-      <c r="N18" s="71">
-        <f t="shared" si="8"/>
-        <v>6630</v>
-      </c>
-      <c r="O18" s="77">
+      <c r="N18" s="2"/>
+      <c r="O18" s="76">
         <f t="shared" si="9"/>
         <v>5447</v>
       </c>
@@ -4635,10 +4613,8 @@
         <v>13</v>
       </c>
       <c r="T18" s="1"/>
-      <c r="U18" s="71">
-        <v>40</v>
-      </c>
-      <c r="V18" s="75">
+      <c r="U18" s="2"/>
+      <c r="V18" s="74">
         <v>40</v>
       </c>
       <c r="W18" s="1"/>
@@ -4655,10 +4631,7 @@
         <v>2.1</v>
       </c>
       <c r="C19" s="67"/>
-      <c r="D19" s="47">
-        <f t="shared" si="2"/>
-        <v>164</v>
-      </c>
+      <c r="D19" s="83"/>
       <c r="E19" s="47">
         <f t="shared" si="3"/>
         <v>108.11545195869232</v>
@@ -4677,11 +4650,8 @@
         <v>14</v>
       </c>
       <c r="M19" s="1"/>
-      <c r="N19" s="71">
-        <f t="shared" si="8"/>
-        <v>7560</v>
-      </c>
-      <c r="O19" s="77">
+      <c r="N19" s="2"/>
+      <c r="O19" s="76">
         <f t="shared" si="9"/>
         <v>6244</v>
       </c>
@@ -4698,10 +4668,8 @@
         <v>14</v>
       </c>
       <c r="T19" s="1"/>
-      <c r="U19" s="71">
-        <v>43</v>
-      </c>
-      <c r="V19" s="75">
+      <c r="U19" s="2"/>
+      <c r="V19" s="74">
         <v>43</v>
       </c>
       <c r="W19" s="1"/>
@@ -4718,10 +4686,7 @@
         <v>2.25</v>
       </c>
       <c r="C20" s="67"/>
-      <c r="D20" s="47">
-        <f t="shared" si="2"/>
-        <v>170</v>
-      </c>
+      <c r="D20" s="83"/>
       <c r="E20" s="47">
         <f t="shared" si="3"/>
         <v>122.52108200006279</v>
@@ -4740,11 +4705,8 @@
         <v>15</v>
       </c>
       <c r="M20" s="1"/>
-      <c r="N20" s="71">
-        <f t="shared" si="8"/>
-        <v>8580</v>
-      </c>
-      <c r="O20" s="77">
+      <c r="N20" s="2"/>
+      <c r="O20" s="76">
         <f t="shared" si="9"/>
         <v>7125</v>
       </c>
@@ -4761,10 +4723,8 @@
         <v>15</v>
       </c>
       <c r="T20" s="1"/>
-      <c r="U20" s="71">
-        <v>46</v>
-      </c>
-      <c r="V20" s="75">
+      <c r="U20" s="2"/>
+      <c r="V20" s="74">
         <v>46</v>
       </c>
       <c r="W20" s="1"/>
@@ -4781,10 +4741,7 @@
         <v>2.4</v>
       </c>
       <c r="C21" s="67"/>
-      <c r="D21" s="47">
-        <f t="shared" si="2"/>
-        <v>176</v>
-      </c>
+      <c r="D21" s="83"/>
       <c r="E21" s="47">
         <f t="shared" si="3"/>
         <v>139.59815003314424</v>
@@ -4801,11 +4758,8 @@
         <v>16</v>
       </c>
       <c r="M21" s="1"/>
-      <c r="N21" s="71">
-        <f t="shared" si="8"/>
-        <v>9696</v>
-      </c>
-      <c r="O21" s="77">
+      <c r="N21" s="2"/>
+      <c r="O21" s="76">
         <f t="shared" si="9"/>
         <v>8096</v>
       </c>
@@ -4822,10 +4776,8 @@
         <v>16</v>
       </c>
       <c r="T21" s="1"/>
-      <c r="U21" s="71">
-        <v>49</v>
-      </c>
-      <c r="V21" s="75">
+      <c r="U21" s="2"/>
+      <c r="V21" s="74">
         <v>49</v>
       </c>
       <c r="W21" s="1"/>
@@ -4842,10 +4794,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="C22" s="67"/>
-      <c r="D22" s="47">
-        <f t="shared" si="2"/>
-        <v>182</v>
-      </c>
+      <c r="D22" s="83"/>
       <c r="E22" s="47">
         <f t="shared" si="3"/>
         <v>160.10541234668784</v>
@@ -4862,11 +4811,8 @@
         <v>17</v>
       </c>
       <c r="M22" s="1"/>
-      <c r="N22" s="71">
-        <f t="shared" si="8"/>
-        <v>10914</v>
-      </c>
-      <c r="O22" s="77">
+      <c r="N22" s="2"/>
+      <c r="O22" s="76">
         <f t="shared" si="9"/>
         <v>9163</v>
       </c>
@@ -4883,10 +4829,8 @@
         <v>17</v>
       </c>
       <c r="T22" s="1"/>
-      <c r="U22" s="71">
-        <v>52</v>
-      </c>
-      <c r="V22" s="75">
+      <c r="U22" s="2"/>
+      <c r="V22" s="74">
         <v>52</v>
       </c>
       <c r="W22" s="1"/>
@@ -4903,10 +4847,7 @@
         <v>2.6999999999999997</v>
       </c>
       <c r="C23" s="67"/>
-      <c r="D23" s="47">
-        <f t="shared" si="2"/>
-        <v>188</v>
-      </c>
+      <c r="D23" s="83"/>
       <c r="E23" s="47">
         <f t="shared" si="3"/>
         <v>185.01713130052181</v>
@@ -4923,11 +4864,8 @@
         <v>18</v>
       </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="71">
-        <f t="shared" si="8"/>
-        <v>12240</v>
-      </c>
-      <c r="O23" s="77">
+      <c r="N23" s="2"/>
+      <c r="O23" s="76">
         <f t="shared" si="9"/>
         <v>10332</v>
       </c>
@@ -4944,10 +4882,8 @@
         <v>18</v>
       </c>
       <c r="T23" s="1"/>
-      <c r="U23" s="71">
-        <v>55</v>
-      </c>
-      <c r="V23" s="75">
+      <c r="U23" s="2"/>
+      <c r="V23" s="74">
         <v>55</v>
       </c>
       <c r="W23" s="1"/>
@@ -4964,10 +4900,7 @@
         <v>2.8499999999999996</v>
       </c>
       <c r="C24" s="67"/>
-      <c r="D24" s="47">
-        <f t="shared" si="2"/>
-        <v>194</v>
-      </c>
+      <c r="D24" s="83"/>
       <c r="E24" s="47">
         <f t="shared" si="3"/>
         <v>215.58428452718766</v>
@@ -4984,11 +4917,8 @@
         <v>19</v>
       </c>
       <c r="M24" s="1"/>
-      <c r="N24" s="71">
-        <f t="shared" si="8"/>
-        <v>13680</v>
-      </c>
-      <c r="O24" s="77">
+      <c r="N24" s="2"/>
+      <c r="O24" s="76">
         <f t="shared" si="9"/>
         <v>11609</v>
       </c>
@@ -5005,10 +4935,8 @@
         <v>19</v>
       </c>
       <c r="T24" s="1"/>
-      <c r="U24" s="71">
-        <v>58</v>
-      </c>
-      <c r="V24" s="75">
+      <c r="U24" s="2"/>
+      <c r="V24" s="74">
         <v>58</v>
       </c>
       <c r="W24" s="1"/>
@@ -5025,10 +4953,7 @@
         <v>2.9999999999999996</v>
       </c>
       <c r="C25" s="67"/>
-      <c r="D25" s="47">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
+      <c r="D25" s="83"/>
       <c r="E25" s="47">
         <f t="shared" si="3"/>
         <v>253.4131591025766</v>
@@ -5045,11 +4970,8 @@
         <v>20</v>
       </c>
       <c r="M25" s="1"/>
-      <c r="N25" s="71">
-        <f t="shared" si="8"/>
-        <v>15240</v>
-      </c>
-      <c r="O25" s="77">
+      <c r="N25" s="2"/>
+      <c r="O25" s="76">
         <f t="shared" si="9"/>
         <v>13000</v>
       </c>
@@ -5066,10 +4988,8 @@
         <v>20</v>
       </c>
       <c r="T25" s="1"/>
-      <c r="U25" s="71">
-        <v>61</v>
-      </c>
-      <c r="V25" s="75">
+      <c r="U25" s="2"/>
+      <c r="V25" s="74">
         <v>61</v>
       </c>
       <c r="W25" s="1"/>
@@ -5081,11 +5001,11 @@
       <c r="L26" s="1">
         <v>21</v>
       </c>
-      <c r="O26" s="70"/>
+      <c r="O26" s="69"/>
       <c r="S26" s="1">
         <v>21</v>
       </c>
-      <c r="V26" s="70"/>
+      <c r="V26" s="69"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="L27" s="1">

--- a/Equilibrage.xlsx
+++ b/Equilibrage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Github\Dukes Of The Realm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C26CA83-7234-42F8-BBF5-D5AC042ACE43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BF83E6-B4BB-494B-AFCD-26F41E664CCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1081,6 +1081,24 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1090,6 +1108,15 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1117,15 +1144,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1133,15 +1151,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1158,15 +1167,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1963,7 +1963,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,8 +2189,8 @@
         <v>19.200000000000003</v>
       </c>
       <c r="H8" s="45">
-        <f>1*H2</f>
-        <v>1.2</v>
+        <f>8*H2</f>
+        <v>9.6</v>
       </c>
       <c r="I8" s="78">
         <f>3*I2</f>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="H18" s="45">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="I18" s="78">
         <f t="shared" si="2"/>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="H28" s="46">
         <f t="shared" si="12"/>
-        <v>99.999999999999986</v>
+        <v>799.99999999999989</v>
       </c>
       <c r="I28" s="78">
         <f t="shared" si="12"/>
@@ -3176,110 +3176,110 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="117"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91"/>
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="109"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="97"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="106"/>
       <c r="F5" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="91"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
       <c r="F6" s="27">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="103"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="100"/>
       <c r="F7" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="91"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="97"/>
       <c r="F8" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="103"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="100"/>
       <c r="F9" s="22">
         <v>250</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="106"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="94"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="103"/>
       <c r="F11" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="109"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="94"/>
       <c r="F12" s="29">
         <v>20</v>
       </c>
@@ -3296,78 +3296,78 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="91"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
       <c r="F14" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="103"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="100"/>
       <c r="F15" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="106"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="112"/>
       <c r="F16" s="25">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="94"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="103"/>
       <c r="F17" s="32">
         <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="109"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94"/>
       <c r="F18" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="94"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="103"/>
       <c r="F19" s="34">
         <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="110" t="s">
+      <c r="B20" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="30">
         <v>12</v>
       </c>
@@ -3384,34 +3384,29 @@
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="91"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97"/>
       <c r="F22" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="100"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="109"/>
       <c r="F23" s="36">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B19:E19"/>
@@ -3428,6 +3423,11 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Equilibrage.xlsx
+++ b/Equilibrage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Github\Dukes Of The Realm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BF83E6-B4BB-494B-AFCD-26F41E664CCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F60673B-B1B4-4699-9ABB-13AA27FD2598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equi V.1" sheetId="1" r:id="rId1"/>
@@ -823,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1081,13 +1081,58 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1097,60 +1142,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1167,6 +1158,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1962,7 +1965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1AB80D-11E3-4393-9ABD-01470CEC1085}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -3176,110 +3179,110 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="106"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
       <c r="F5" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="97"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="91"/>
       <c r="F6" s="27">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="100"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="103"/>
       <c r="F7" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="91"/>
       <c r="F8" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="100"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="103"/>
       <c r="F9" s="22">
         <v>250</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="112"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="106"/>
       <c r="F10" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="103"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="94"/>
       <c r="F11" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="94"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="109"/>
       <c r="F12" s="29">
         <v>20</v>
       </c>
@@ -3296,78 +3299,78 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="97"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="91"/>
       <c r="F14" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="103"/>
       <c r="F15" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="112"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="106"/>
       <c r="F16" s="25">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="103"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="94"/>
       <c r="F17" s="32">
         <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="109"/>
       <c r="F18" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="103"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94"/>
       <c r="F19" s="34">
         <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="113" t="s">
+      <c r="B20" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
       <c r="F20" s="30">
         <v>12</v>
       </c>
@@ -3384,29 +3387,34 @@
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="97"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="91"/>
       <c r="F22" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="107" t="s">
+      <c r="B23" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="109"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="100"/>
       <c r="F23" s="36">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B19:E19"/>
@@ -3423,11 +3431,6 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3438,8 +3441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7358574A-592A-4C40-9736-421EE2E19A0C}">
   <dimension ref="A2:X28"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6:N15"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3673,8 +3676,8 @@
         <f>100-EXP(A6/6)-A6</f>
         <v>97.818639587134356</v>
       </c>
-      <c r="H6" s="47">
-        <f>A6*(A6/2)+A6</f>
+      <c r="H6" s="118">
+        <f>(A6*A6/2)+A6</f>
         <v>1.5</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -3756,7 +3759,7 @@
         <f t="shared" ref="G7:G25" si="5">100-EXP(A7/6)-A7</f>
         <v>96.604387574913915</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="118">
         <f t="shared" ref="H7:H15" si="6">A7*(A7/2)+A7</f>
         <v>4</v>
       </c>
@@ -3839,7 +3842,7 @@
         <f t="shared" si="5"/>
         <v>95.351278729299878</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="118">
         <f t="shared" si="6"/>
         <v>7.5</v>
       </c>
@@ -3922,7 +3925,7 @@
         <f t="shared" si="5"/>
         <v>94.052265958945327</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="118">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
@@ -4005,7 +4008,7 @@
         <f t="shared" si="5"/>
         <v>92.699024109107171</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="118">
         <f t="shared" si="6"/>
         <v>17.5</v>
       </c>
@@ -4088,7 +4091,7 @@
         <f t="shared" si="5"/>
         <v>91.281718171540959</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="118">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
@@ -4170,7 +4173,7 @@
         <f t="shared" si="5"/>
         <v>89.78872945684644</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="118">
         <f t="shared" si="6"/>
         <v>31.5</v>
       </c>
@@ -4247,7 +4250,7 @@
         <f t="shared" si="5"/>
         <v>88.206332105316818</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="118">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
@@ -4326,7 +4329,7 @@
         <f t="shared" si="5"/>
         <v>86.518310929661936</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="118">
         <f t="shared" si="6"/>
         <v>49.5</v>
       </c>
@@ -4405,7 +4408,7 @@
         <f t="shared" si="5"/>
         <v>84.705509949529969</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="118">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>

--- a/Equilibrage.xlsx
+++ b/Equilibrage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Github\Dukes Of The Realm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F60673B-B1B4-4699-9ABB-13AA27FD2598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97232E2D-0723-40B7-B4A3-E977ED7090B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1066,6 +1066,9 @@
     <xf numFmtId="1" fontId="0" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1166,9 +1169,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1614,14 +1614,14 @@
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="85" t="s">
+      <c r="I9" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -1641,12 +1641,12 @@
       <c r="G10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1676,12 +1676,12 @@
         <f>G3</f>
         <v>65</v>
       </c>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1712,14 +1712,14 @@
         <v>100</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="84" t="s">
+      <c r="I12" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -1750,12 +1750,12 @@
         <v>35</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1766,12 +1766,12 @@
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
@@ -1780,12 +1780,12 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
@@ -3179,231 +3179,231 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="118"/>
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="27">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="104"/>
       <c r="F7" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="92"/>
       <c r="F8" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="22">
         <v>250</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="106"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="107"/>
       <c r="F10" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="95"/>
       <c r="F11" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="110"/>
       <c r="F12" s="29">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="89"/>
       <c r="F13" s="23">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="92"/>
       <c r="F14" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="104"/>
       <c r="F15" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
       <c r="F16" s="25">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="95"/>
       <c r="F17" s="32">
         <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="109"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="110"/>
       <c r="F18" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="95"/>
       <c r="F19" s="34">
         <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="110" t="s">
+      <c r="B20" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="113"/>
       <c r="F20" s="30">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
       <c r="F21" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="92"/>
       <c r="F22" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="101"/>
       <c r="F23" s="36">
         <v>1</v>
       </c>
@@ -3442,7 +3442,7 @@
   <dimension ref="A2:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3473,7 +3473,7 @@
         <v>3</v>
       </c>
       <c r="X2" s="75">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -3520,19 +3520,19 @@
         <v>62</v>
       </c>
       <c r="T3" s="75">
+        <v>3</v>
+      </c>
+      <c r="U3" s="75">
+        <v>3</v>
+      </c>
+      <c r="V3" s="75">
+        <v>2</v>
+      </c>
+      <c r="W3" s="75">
+        <v>1</v>
+      </c>
+      <c r="X3" s="75">
         <v>4</v>
-      </c>
-      <c r="U3" s="75">
-        <v>4</v>
-      </c>
-      <c r="V3" s="75">
-        <v>3</v>
-      </c>
-      <c r="W3" s="75">
-        <v>2</v>
-      </c>
-      <c r="X3" s="75">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -3676,7 +3676,7 @@
         <f>100-EXP(A6/6)-A6</f>
         <v>97.818639587134356</v>
       </c>
-      <c r="H6" s="118">
+      <c r="H6" s="84">
         <f>(A6*A6/2)+A6</f>
         <v>1.5</v>
       </c>
@@ -3759,7 +3759,7 @@
         <f t="shared" ref="G7:G25" si="5">100-EXP(A7/6)-A7</f>
         <v>96.604387574913915</v>
       </c>
-      <c r="H7" s="118">
+      <c r="H7" s="84">
         <f t="shared" ref="H7:H15" si="6">A7*(A7/2)+A7</f>
         <v>4</v>
       </c>
@@ -3842,7 +3842,7 @@
         <f t="shared" si="5"/>
         <v>95.351278729299878</v>
       </c>
-      <c r="H8" s="118">
+      <c r="H8" s="84">
         <f t="shared" si="6"/>
         <v>7.5</v>
       </c>
@@ -3925,7 +3925,7 @@
         <f t="shared" si="5"/>
         <v>94.052265958945327</v>
       </c>
-      <c r="H9" s="118">
+      <c r="H9" s="84">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
@@ -4008,7 +4008,7 @@
         <f t="shared" si="5"/>
         <v>92.699024109107171</v>
       </c>
-      <c r="H10" s="118">
+      <c r="H10" s="84">
         <f t="shared" si="6"/>
         <v>17.5</v>
       </c>
@@ -4091,7 +4091,7 @@
         <f t="shared" si="5"/>
         <v>91.281718171540959</v>
       </c>
-      <c r="H11" s="118">
+      <c r="H11" s="84">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
@@ -4173,7 +4173,7 @@
         <f t="shared" si="5"/>
         <v>89.78872945684644</v>
       </c>
-      <c r="H12" s="118">
+      <c r="H12" s="84">
         <f t="shared" si="6"/>
         <v>31.5</v>
       </c>
@@ -4250,7 +4250,7 @@
         <f t="shared" si="5"/>
         <v>88.206332105316818</v>
       </c>
-      <c r="H13" s="118">
+      <c r="H13" s="84">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
@@ -4329,7 +4329,7 @@
         <f t="shared" si="5"/>
         <v>86.518310929661936</v>
       </c>
-      <c r="H14" s="118">
+      <c r="H14" s="84">
         <f t="shared" si="6"/>
         <v>49.5</v>
       </c>
@@ -4408,7 +4408,7 @@
         <f t="shared" si="5"/>
         <v>84.705509949529969</v>
       </c>
-      <c r="H15" s="118">
+      <c r="H15" s="84">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>

--- a/Equilibrage.xlsx
+++ b/Equilibrage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Github\Dukes Of The Realm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97232E2D-0723-40B7-B4A3-E977ED7090B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12C4F53-D59E-4C5A-BFB8-28F7B62FA32B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1084,6 +1084,24 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1093,6 +1111,15 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1120,15 +1147,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1136,15 +1154,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1161,15 +1170,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1966,7 +1966,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1999,7 +1999,7 @@
         <v>0.8</v>
       </c>
       <c r="H2" s="81">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="I2" s="81">
         <v>1.5</v>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="H4" s="45">
         <f>20*H2</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" s="78">
         <f>0.45*I2</f>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="H5" s="45">
         <f>35*H2</f>
-        <v>42</v>
+        <v>45.5</v>
       </c>
       <c r="I5" s="78">
         <f>1.5*I2</f>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="H6" s="45">
         <f>85*H2</f>
-        <v>102</v>
+        <v>110.5</v>
       </c>
       <c r="I6" s="78">
         <f>2.05*I2</f>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="H7" s="45">
         <f>60*H2</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I7" s="78">
         <f>0.75*I2</f>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="H8" s="45">
         <f>8*H2</f>
-        <v>9.6</v>
+        <v>10.4</v>
       </c>
       <c r="I8" s="78">
         <f>3*I2</f>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="H9" s="45">
         <f>5*H2</f>
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I9" s="78">
         <f>0.875*I2</f>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H14" s="45">
         <f t="shared" ref="H14:H19" si="1">H4*B14</f>
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="I14" s="78">
         <f t="shared" ref="I14:I19" si="2">I4*B14</f>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="H15" s="45">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>227.5</v>
       </c>
       <c r="I15" s="78">
         <f t="shared" si="2"/>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="H16" s="45">
         <f t="shared" si="1"/>
-        <v>398.04878048780489</v>
+        <v>431.21951219512192</v>
       </c>
       <c r="I16" s="78">
         <f t="shared" si="2"/>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="H17" s="45">
         <f t="shared" si="1"/>
-        <v>576</v>
+        <v>624</v>
       </c>
       <c r="I17" s="78">
         <f t="shared" si="2"/>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="H18" s="45">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>34.666666666666671</v>
       </c>
       <c r="I18" s="78">
         <f t="shared" si="2"/>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="H19" s="47">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I19" s="80">
         <f t="shared" si="2"/>
@@ -2536,7 +2536,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="59">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E21" s="60" t="s">
         <v>45</v>
@@ -2574,18 +2574,18 @@
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="45">
         <f>D$21/E4</f>
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="C24" s="51" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="46">
         <f>$B$24*D4</f>
-        <v>16000</v>
+        <v>6400</v>
       </c>
       <c r="E24" s="46">
         <f>$B24*E4</f>
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="F24" s="46">
         <f>F14</f>
@@ -2593,15 +2593,15 @@
       </c>
       <c r="G24" s="46">
         <f t="shared" ref="G24:H24" si="4">$B$24*G4</f>
-        <v>8000</v>
+        <v>3200</v>
       </c>
       <c r="H24" s="46">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>2600</v>
       </c>
       <c r="I24" s="78">
         <f>$B$24*I4</f>
-        <v>168.75</v>
+        <v>67.5</v>
       </c>
       <c r="J24" s="45">
         <f>J14</f>
@@ -2613,18 +2613,18 @@
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="45">
         <f t="shared" ref="B25:B29" si="5">D$21/E5</f>
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="C25" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="46">
         <f t="shared" ref="D25:D28" si="6">B25*D5</f>
-        <v>32000</v>
+        <v>12800</v>
       </c>
       <c r="E25" s="46">
         <f>$B$25*E5</f>
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="F25" s="46">
         <f t="shared" ref="F25:F29" si="7">F15</f>
@@ -2632,15 +2632,15 @@
       </c>
       <c r="G25" s="46">
         <f t="shared" ref="G25:H25" si="8">$B$25*G5</f>
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="H25" s="46">
         <f t="shared" si="8"/>
-        <v>10500</v>
+        <v>4550</v>
       </c>
       <c r="I25" s="78">
         <f>$B$25*I5</f>
-        <v>562.5</v>
+        <v>225</v>
       </c>
       <c r="J25" s="45">
         <f t="shared" ref="J25:J29" si="9">J15</f>
@@ -2651,18 +2651,18 @@
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="45">
         <f t="shared" si="5"/>
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="C26" s="50" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="46">
         <f t="shared" si="6"/>
-        <v>20500</v>
+        <v>8200</v>
       </c>
       <c r="E26" s="46">
         <f>$B$26*E6</f>
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="F26" s="46">
         <f t="shared" si="7"/>
@@ -2670,15 +2670,15 @@
       </c>
       <c r="G26" s="46">
         <f t="shared" ref="G26:I26" si="10">$B$26*G6</f>
-        <v>7700</v>
+        <v>3080</v>
       </c>
       <c r="H26" s="46">
         <f t="shared" si="10"/>
-        <v>12750</v>
+        <v>5525</v>
       </c>
       <c r="I26" s="78">
         <f t="shared" si="10"/>
-        <v>384.37499999999994</v>
+        <v>153.75</v>
       </c>
       <c r="J26" s="45">
         <f t="shared" si="9"/>
@@ -2690,18 +2690,18 @@
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="45">
         <f t="shared" si="5"/>
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="C27" s="50" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="46">
         <f t="shared" si="6"/>
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="E27" s="46">
         <f>$B$27*E7</f>
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="F27" s="46">
         <f t="shared" si="7"/>
@@ -2709,15 +2709,15 @@
       </c>
       <c r="G27" s="46">
         <f t="shared" ref="G27:H27" si="11">$B$27*G7</f>
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="H27" s="46">
         <f t="shared" si="11"/>
-        <v>18000</v>
+        <v>7800</v>
       </c>
       <c r="I27" s="78">
         <f>$B$27*I7</f>
-        <v>281.25</v>
+        <v>112.5</v>
       </c>
       <c r="J27" s="45">
         <f t="shared" si="9"/>
@@ -2728,18 +2728,18 @@
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="45">
         <f t="shared" si="5"/>
-        <v>83.333333333333329</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="C28" s="52" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="46">
         <f t="shared" si="6"/>
-        <v>16000</v>
+        <v>6400</v>
       </c>
       <c r="E28" s="46">
         <f>$B$28*E8</f>
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="F28" s="46">
         <f t="shared" si="7"/>
@@ -2747,15 +2747,15 @@
       </c>
       <c r="G28" s="46">
         <f t="shared" ref="G28:I28" si="12">$B$28*G8</f>
-        <v>1600.0000000000002</v>
+        <v>640.00000000000011</v>
       </c>
       <c r="H28" s="46">
         <f t="shared" si="12"/>
-        <v>799.99999999999989</v>
+        <v>346.66666666666669</v>
       </c>
       <c r="I28" s="78">
         <f t="shared" si="12"/>
-        <v>375</v>
+        <v>150</v>
       </c>
       <c r="J28" s="45">
         <f t="shared" si="9"/>
@@ -2766,18 +2766,18 @@
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="45">
         <f t="shared" si="5"/>
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="C29" s="61" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="46">
         <f>B29*D9</f>
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="E29" s="46">
         <f>$B$29*E9</f>
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="F29" s="46">
         <f t="shared" si="7"/>
@@ -2785,15 +2785,15 @@
       </c>
       <c r="G29" s="46">
         <f t="shared" ref="G29:I29" si="13">$B$29*G9</f>
-        <v>800</v>
+        <v>320</v>
       </c>
       <c r="H29" s="46">
         <f t="shared" si="13"/>
-        <v>750</v>
+        <v>325</v>
       </c>
       <c r="I29" s="78">
         <f t="shared" si="13"/>
-        <v>164.0625</v>
+        <v>65.625</v>
       </c>
       <c r="J29" s="45">
         <f t="shared" si="9"/>
@@ -3179,110 +3179,110 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="118"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="110"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="107"/>
       <c r="F5" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="98"/>
       <c r="F6" s="27">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="104"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="101"/>
       <c r="F7" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="92"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="98"/>
       <c r="F8" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="104"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="101"/>
       <c r="F9" s="22">
         <v>250</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="107"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="113"/>
       <c r="F10" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="95"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="104"/>
       <c r="F11" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="110"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="95"/>
       <c r="F12" s="29">
         <v>20</v>
       </c>
@@ -3299,78 +3299,78 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="92"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="98"/>
       <c r="F14" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="104"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="101"/>
       <c r="F15" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="107"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="113"/>
       <c r="F16" s="25">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="95"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="104"/>
       <c r="F17" s="32">
         <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="110"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95"/>
       <c r="F18" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="95"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="104"/>
       <c r="F19" s="34">
         <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="111" t="s">
+      <c r="B20" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="113"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="116"/>
       <c r="F20" s="30">
         <v>12</v>
       </c>
@@ -3387,34 +3387,29 @@
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="98"/>
       <c r="F22" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="99" t="s">
+      <c r="B23" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="101"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="110"/>
       <c r="F23" s="36">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B19:E19"/>
@@ -3431,6 +3426,11 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3442,7 +3442,7 @@
   <dimension ref="A2:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3455,7 +3455,7 @@
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S2" t="s">
         <v>61</v>
@@ -3664,17 +3664,17 @@
         <f>80+12*A6</f>
         <v>92</v>
       </c>
-      <c r="E6" s="47">
-        <f>$E$2+A6*$E$2+EXP(A6/4)</f>
-        <v>11.284025416687742</v>
+      <c r="E6" s="84">
+        <f>$E$2+A5*$E$2+EXP(A5/4)</f>
+        <v>11</v>
       </c>
       <c r="F6" s="47">
         <f>E6*60</f>
-        <v>677.04152500126452</v>
+        <v>660</v>
       </c>
       <c r="G6" s="47">
-        <f>100-EXP(A6/6)-A6</f>
-        <v>97.818639587134356</v>
+        <f>100-EXP(A6/7)-A6*2</f>
+        <v>96.846435005104894</v>
       </c>
       <c r="H6" s="84">
         <f>(A6*A6/2)+A6</f>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="R6" s="63">
         <f>V6*G6/100</f>
-        <v>3.9127455834853744</v>
+        <v>3.8738574002041957</v>
       </c>
       <c r="S6" s="1">
         <v>1</v>
@@ -3747,17 +3747,17 @@
         <f t="shared" ref="D7:D15" si="2">80+12*A7</f>
         <v>104</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="84">
         <f t="shared" ref="E7:E25" si="3">$E$2+A7*$E$2+EXP(A7/4)</f>
-        <v>16.648721270700129</v>
+        <v>31.648721270700129</v>
       </c>
       <c r="F7" s="47">
         <f t="shared" ref="F7:F25" si="4">E7*60</f>
-        <v>998.92327624200777</v>
+        <v>1898.9232762420077</v>
       </c>
       <c r="G7" s="47">
-        <f t="shared" ref="G7:G25" si="5">100-EXP(A7/6)-A7</f>
-        <v>96.604387574913915</v>
+        <f t="shared" ref="G7:G25" si="5">100-EXP(A7/7)-A7*2</f>
+        <v>94.669287802552645</v>
       </c>
       <c r="H7" s="84">
         <f t="shared" ref="H7:H15" si="6">A7*(A7/2)+A7</f>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="R7" s="63">
         <f t="shared" ref="R7:R25" si="10">V7*G7/100</f>
-        <v>6.7623071302439737</v>
+        <v>6.6268501461786853</v>
       </c>
       <c r="S7" s="1">
         <v>2</v>
@@ -3830,17 +3830,17 @@
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="84">
         <f t="shared" si="3"/>
-        <v>22.117000016612675</v>
+        <v>42.117000016612678</v>
       </c>
       <c r="F8" s="47">
         <f t="shared" si="4"/>
-        <v>1327.0200009967605</v>
+        <v>2527.0200009967607</v>
       </c>
       <c r="G8" s="47">
         <f t="shared" si="5"/>
-        <v>95.351278729299878</v>
+        <v>92.464936990744789</v>
       </c>
       <c r="H8" s="84">
         <f t="shared" si="6"/>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="R8" s="63">
         <f t="shared" si="10"/>
-        <v>9.5351278729299889</v>
+        <v>9.2464936990744793</v>
       </c>
       <c r="S8" s="1">
         <v>3</v>
@@ -3913,17 +3913,17 @@
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="84">
         <f t="shared" si="3"/>
-        <v>27.718281828459045</v>
+        <v>52.718281828459048</v>
       </c>
       <c r="F9" s="47">
         <f t="shared" si="4"/>
-        <v>1663.0969097075426</v>
+        <v>3163.0969097075431</v>
       </c>
       <c r="G9" s="47">
         <f t="shared" si="5"/>
-        <v>94.052265958945327</v>
+        <v>90.229205047564847</v>
       </c>
       <c r="H9" s="84">
         <f t="shared" si="6"/>
@@ -3960,7 +3960,7 @@
       </c>
       <c r="R9" s="63">
         <f t="shared" si="10"/>
-        <v>12.226794574662893</v>
+        <v>11.72979665618343</v>
       </c>
       <c r="S9" s="1">
         <v>4</v>
@@ -3996,17 +3996,17 @@
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="84">
         <f t="shared" si="3"/>
-        <v>33.490342957461841</v>
+        <v>63.490342957461841</v>
       </c>
       <c r="F10" s="47">
         <f t="shared" si="4"/>
-        <v>2009.4205774477105</v>
+        <v>3809.4205774477105</v>
       </c>
       <c r="G10" s="47">
         <f t="shared" si="5"/>
-        <v>92.699024109107171</v>
+        <v>87.957272929733861</v>
       </c>
       <c r="H10" s="84">
         <f t="shared" si="6"/>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="R10" s="63">
         <f t="shared" si="10"/>
-        <v>14.831843857457148</v>
+        <v>14.073163668757418</v>
       </c>
       <c r="S10" s="1">
         <v>5</v>
@@ -4079,17 +4079,17 @@
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="84">
         <f t="shared" si="3"/>
-        <v>39.481689070338064</v>
+        <v>74.481689070338064</v>
       </c>
       <c r="F11" s="47">
         <f t="shared" si="4"/>
-        <v>2368.901344220284</v>
+        <v>4468.901344220284</v>
       </c>
       <c r="G11" s="47">
         <f t="shared" si="5"/>
-        <v>91.281718171540959</v>
+        <v>85.643581557616344</v>
       </c>
       <c r="H11" s="84">
         <f t="shared" si="6"/>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="R11" s="63">
         <f t="shared" si="10"/>
-        <v>17.343526452592783</v>
+        <v>16.272280495947104</v>
       </c>
       <c r="S11" s="1">
         <v>6</v>
@@ -4161,17 +4161,17 @@
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="84">
         <f t="shared" si="3"/>
-        <v>45.754602676005732</v>
+        <v>85.754602676005732</v>
       </c>
       <c r="F12" s="47">
         <f t="shared" si="4"/>
-        <v>2745.2761605603437</v>
+        <v>5145.2761605603437</v>
       </c>
       <c r="G12" s="47">
         <f t="shared" si="5"/>
-        <v>89.78872945684644</v>
+        <v>83.281718171540959</v>
       </c>
       <c r="H12" s="84">
         <f t="shared" si="6"/>
@@ -4202,7 +4202,7 @@
       </c>
       <c r="R12" s="63">
         <f t="shared" si="10"/>
-        <v>19.753520480506218</v>
+        <v>18.321977997739012</v>
       </c>
       <c r="S12" s="1">
         <v>7</v>
@@ -4238,17 +4238,17 @@
         <f t="shared" si="2"/>
         <v>176</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="84">
         <f t="shared" si="3"/>
-        <v>52.389056098930652</v>
+        <v>97.389056098930652</v>
       </c>
       <c r="F13" s="47">
         <f t="shared" si="4"/>
-        <v>3143.3433659358393</v>
+        <v>5843.3433659358388</v>
       </c>
       <c r="G13" s="47">
         <f t="shared" si="5"/>
-        <v>88.206332105316818</v>
+        <v>80.864285236430177</v>
       </c>
       <c r="H13" s="84">
         <f t="shared" si="6"/>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="R13" s="63">
         <f t="shared" si="10"/>
-        <v>22.051583026329205</v>
+        <v>20.216071309107544</v>
       </c>
       <c r="S13" s="1">
         <v>8</v>
@@ -4317,17 +4317,17 @@
         <f t="shared" si="2"/>
         <v>188</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="84">
         <f t="shared" si="3"/>
-        <v>59.487735836358524</v>
+        <v>109.48773583635852</v>
       </c>
       <c r="F14" s="47">
         <f t="shared" si="4"/>
-        <v>3569.2641501815115</v>
+        <v>6569.2641501815115</v>
       </c>
       <c r="G14" s="47">
         <f t="shared" si="5"/>
-        <v>86.518310929661936</v>
+        <v>78.382749214770058</v>
       </c>
       <c r="H14" s="84">
         <f t="shared" si="6"/>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="R14" s="63">
         <f t="shared" si="10"/>
-        <v>24.22512706030534</v>
+        <v>21.947169780135617</v>
       </c>
       <c r="S14" s="1">
         <v>9</v>
@@ -4396,17 +4396,17 @@
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="84">
         <f t="shared" si="3"/>
-        <v>67.182493960703468</v>
+        <v>122.18249396070347</v>
       </c>
       <c r="F15" s="47">
         <f t="shared" si="4"/>
-        <v>4030.949637642208</v>
+        <v>7330.9496376422085</v>
       </c>
       <c r="G15" s="47">
         <f t="shared" si="5"/>
-        <v>84.705509949529969</v>
+        <v>75.827266116401901</v>
       </c>
       <c r="H15" s="84">
         <f t="shared" si="6"/>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="R15" s="63">
         <f t="shared" si="10"/>
-        <v>26.258708084354289</v>
+        <v>23.506452496084588</v>
       </c>
       <c r="S15" s="1">
         <v>10</v>
@@ -4470,17 +4470,17 @@
       </c>
       <c r="C16" s="67"/>
       <c r="D16" s="83"/>
-      <c r="E16" s="47">
+      <c r="E16" s="84">
         <f t="shared" si="3"/>
-        <v>75.642631884188177</v>
+        <v>135.64263188418818</v>
       </c>
       <c r="F16" s="47">
         <f t="shared" si="4"/>
-        <v>4538.5579130512906</v>
+        <v>8138.5579130512906</v>
       </c>
       <c r="G16" s="47">
         <f t="shared" si="5"/>
-        <v>82.745299048063671</v>
+        <v>73.186480258868514</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -4500,7 +4500,7 @@
       </c>
       <c r="R16" s="63">
         <f t="shared" si="10"/>
-        <v>28.133401676341649</v>
+        <v>24.883403288015291</v>
       </c>
       <c r="S16" s="1">
         <v>11</v>
@@ -4525,17 +4525,17 @@
       </c>
       <c r="C17" s="67"/>
       <c r="D17" s="83"/>
-      <c r="E17" s="47">
+      <c r="E17" s="84">
         <f t="shared" si="3"/>
-        <v>85.085536923187675</v>
+        <v>150.08553692318768</v>
       </c>
       <c r="F17" s="47">
         <f t="shared" si="4"/>
-        <v>5105.1322153912606</v>
+        <v>9005.1322153912606</v>
       </c>
       <c r="G17" s="47">
         <f t="shared" si="5"/>
-        <v>80.610943901069348</v>
+        <v>70.447292124394167</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="R17" s="63">
         <f t="shared" si="10"/>
-        <v>29.826049243395659</v>
+        <v>26.065498086025841</v>
       </c>
       <c r="S17" s="1">
         <v>12</v>
@@ -4580,17 +4580,17 @@
       </c>
       <c r="C18" s="67"/>
       <c r="D18" s="83"/>
-      <c r="E18" s="47">
+      <c r="E18" s="84">
         <f t="shared" si="3"/>
-        <v>95.790339917193066</v>
+        <v>165.79033991719305</v>
       </c>
       <c r="F18" s="47">
         <f t="shared" si="4"/>
-        <v>5747.4203950315841</v>
+        <v>9947.4203950315823</v>
       </c>
       <c r="G18" s="47">
         <f t="shared" si="5"/>
-        <v>78.270861636279875</v>
+        <v>67.594590567822735</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -4610,7 +4610,7 @@
       </c>
       <c r="R18" s="63">
         <f t="shared" si="10"/>
-        <v>31.308344654511949</v>
+        <v>27.037836227129091</v>
       </c>
       <c r="S18" s="1">
         <v>13</v>
@@ -4635,17 +4635,17 @@
       </c>
       <c r="C19" s="67"/>
       <c r="D19" s="83"/>
-      <c r="E19" s="47">
+      <c r="E19" s="84">
         <f t="shared" si="3"/>
-        <v>108.11545195869232</v>
+        <v>183.11545195869232</v>
       </c>
       <c r="F19" s="47">
         <f t="shared" si="4"/>
-        <v>6486.927117521539</v>
+        <v>10986.92711752154</v>
       </c>
       <c r="G19" s="47">
         <f t="shared" si="5"/>
-        <v>75.687741498674228</v>
+        <v>64.610943901069348</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="R19" s="63">
         <f t="shared" si="10"/>
-        <v>32.545728844429917</v>
+        <v>27.782705877459822</v>
       </c>
       <c r="S19" s="1">
         <v>14</v>
@@ -4690,17 +4690,17 @@
       </c>
       <c r="C20" s="67"/>
       <c r="D20" s="83"/>
-      <c r="E20" s="47">
+      <c r="E20" s="84">
         <f t="shared" si="3"/>
-        <v>122.52108200006279</v>
+        <v>202.52108200006279</v>
       </c>
       <c r="F20" s="47">
         <f t="shared" si="4"/>
-        <v>7351.2649200037677</v>
+        <v>12151.264920003767</v>
       </c>
       <c r="G20" s="47">
         <f t="shared" si="5"/>
-        <v>72.817506039296532</v>
+        <v>61.476243538957405</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="R20" s="63">
         <f t="shared" si="10"/>
-        <v>33.496052778076404</v>
+        <v>28.279072027920407</v>
       </c>
       <c r="S20" s="1">
         <v>15</v>
@@ -4745,17 +4745,17 @@
       </c>
       <c r="C21" s="67"/>
       <c r="D21" s="83"/>
-      <c r="E21" s="47">
+      <c r="E21" s="84">
         <f t="shared" si="3"/>
-        <v>139.59815003314424</v>
+        <v>224.59815003314424</v>
       </c>
       <c r="F21" s="47">
         <f t="shared" si="4"/>
-        <v>8375.8890019886549</v>
+        <v>13475.889001988655</v>
       </c>
       <c r="G21" s="47">
         <f t="shared" si="5"/>
-        <v>69.608083904850105</v>
+        <v>58.167292921530247</v>
       </c>
       <c r="L21" s="1">
         <v>16</v>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="R21" s="63">
         <f t="shared" si="10"/>
-        <v>34.107961113376547</v>
+        <v>28.501973531549819</v>
       </c>
       <c r="S21" s="1">
         <v>16</v>
@@ -4798,17 +4798,17 @@
       </c>
       <c r="C22" s="67"/>
       <c r="D22" s="83"/>
-      <c r="E22" s="47">
+      <c r="E22" s="84">
         <f t="shared" si="3"/>
-        <v>160.10541234668784</v>
+        <v>250.10541234668784</v>
       </c>
       <c r="F22" s="47">
         <f t="shared" si="4"/>
-        <v>9606.3247408012703</v>
+        <v>15006.32474080127</v>
       </c>
       <c r="G22" s="47">
         <f t="shared" si="5"/>
-        <v>65.997960059905978</v>
+        <v>54.65733330921995</v>
       </c>
       <c r="L22" s="1">
         <v>17</v>
@@ -4826,7 +4826,7 @@
       </c>
       <c r="R22" s="63">
         <f t="shared" si="10"/>
-        <v>34.318939231151106</v>
+        <v>28.421813320794371</v>
       </c>
       <c r="S22" s="1">
         <v>17</v>
@@ -4851,17 +4851,17 @@
       </c>
       <c r="C23" s="67"/>
       <c r="D23" s="83"/>
-      <c r="E23" s="47">
+      <c r="E23" s="84">
         <f t="shared" si="3"/>
-        <v>185.01713130052181</v>
+        <v>280.01713130052178</v>
       </c>
       <c r="F23" s="47">
         <f t="shared" si="4"/>
-        <v>11101.027878031309</v>
+        <v>16801.027878031306</v>
       </c>
       <c r="G23" s="47">
         <f t="shared" si="5"/>
-        <v>61.914463076812325</v>
+        <v>50.915496756753413</v>
       </c>
       <c r="L23" s="1">
         <v>18</v>
@@ -4879,7 +4879,7 @@
       </c>
       <c r="R23" s="63">
         <f t="shared" si="10"/>
-        <v>34.052954692246779</v>
+        <v>28.003523216214376</v>
       </c>
       <c r="S23" s="1">
         <v>18</v>
@@ -4904,17 +4904,17 @@
       </c>
       <c r="C24" s="67"/>
       <c r="D24" s="83"/>
-      <c r="E24" s="47">
+      <c r="E24" s="84">
         <f t="shared" si="3"/>
-        <v>215.58428452718766</v>
+        <v>315.58428452718766</v>
       </c>
       <c r="F24" s="47">
         <f t="shared" si="4"/>
-        <v>12935.05707163126</v>
+        <v>18935.057071631261</v>
       </c>
       <c r="G24" s="47">
         <f t="shared" si="5"/>
-        <v>57.271741807794839</v>
+        <v>46.906175082999226</v>
       </c>
       <c r="L24" s="1">
         <v>19</v>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="R24" s="63">
         <f t="shared" si="10"/>
-        <v>33.217610248521005</v>
+        <v>27.205581548139552</v>
       </c>
       <c r="S24" s="1">
         <v>19</v>
@@ -4957,17 +4957,17 @@
       </c>
       <c r="C25" s="67"/>
       <c r="D25" s="83"/>
-      <c r="E25" s="47">
+      <c r="E25" s="84">
         <f t="shared" si="3"/>
-        <v>253.4131591025766</v>
+        <v>358.41315910257663</v>
       </c>
       <c r="F25" s="47">
         <f t="shared" si="4"/>
-        <v>15204.789546154596</v>
+        <v>21504.7895461546</v>
       </c>
       <c r="G25" s="47">
         <f t="shared" si="5"/>
-        <v>51.968375105473854</v>
+        <v>42.588291936672348</v>
       </c>
       <c r="L25" s="1">
         <v>20</v>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="R25" s="63">
         <f t="shared" si="10"/>
-        <v>31.700708814339052</v>
+        <v>25.978858081370131</v>
       </c>
       <c r="S25" s="1">
         <v>20</v>

--- a/Equilibrage.xlsx
+++ b/Equilibrage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Github\Dukes Of The Realm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12C4F53-D59E-4C5A-BFB8-28F7B62FA32B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBF7AB3-9584-43B5-AB40-27DF0A0F60C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3442,7 +3442,7 @@
   <dimension ref="A2:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3769,19 +3769,23 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
+      <c r="K7" s="63">
+        <f t="shared" ref="K7:K24" si="7">E7-E6</f>
+        <v>20.648721270700129</v>
+      </c>
       <c r="L7" s="1">
         <v>2</v>
       </c>
       <c r="M7" s="73">
-        <f t="shared" ref="M7:M15" si="7">200*L9+L9*L9*L9*L9/7</f>
+        <f t="shared" ref="M7:M15" si="8">200*L9+L9*L9*L9*L9/7</f>
         <v>836.57142857142856</v>
       </c>
       <c r="N7" s="48">
-        <f t="shared" ref="N7:N15" si="8">300*L7+L8*L8*L9</f>
+        <f t="shared" ref="N7:N15" si="9">300*L7+L8*L8*L9</f>
         <v>636</v>
       </c>
       <c r="O7" s="76">
-        <f t="shared" ref="O7:O25" si="9">250*L7+L7*L7*L7</f>
+        <f t="shared" ref="O7:O25" si="10">250*L7+L7*L7*L7</f>
         <v>508</v>
       </c>
       <c r="P7" s="72">
@@ -3793,7 +3797,7 @@
         <v>604</v>
       </c>
       <c r="R7" s="63">
-        <f t="shared" ref="R7:R25" si="10">V7*G7/100</f>
+        <f t="shared" ref="R7:R25" si="11">V7*G7/100</f>
         <v>6.6268501461786853</v>
       </c>
       <c r="S7" s="1">
@@ -3820,7 +3824,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="48">
-        <f t="shared" ref="B8:B15" si="11">B7+0.05</f>
+        <f t="shared" ref="B8:B15" si="12">B7+0.05</f>
         <v>1.1500000000000001</v>
       </c>
       <c r="C8" s="64">
@@ -3852,19 +3856,23 @@
       <c r="J8" s="1">
         <v>20</v>
       </c>
+      <c r="K8" s="63">
+        <f t="shared" si="7"/>
+        <v>10.468278745912549</v>
+      </c>
       <c r="L8" s="1">
         <v>3</v>
       </c>
       <c r="M8" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1089.2857142857142</v>
       </c>
       <c r="N8" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>980</v>
       </c>
       <c r="O8" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>777</v>
       </c>
       <c r="P8" s="72">
@@ -3876,7 +3884,7 @@
         <v>813.5</v>
       </c>
       <c r="R8" s="63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.2464936990744793</v>
       </c>
       <c r="S8" s="1">
@@ -3903,7 +3911,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.2000000000000002</v>
       </c>
       <c r="C9" s="64">
@@ -3935,19 +3943,23 @@
       <c r="J9" s="1">
         <v>10</v>
       </c>
+      <c r="K9" s="63">
+        <f t="shared" si="7"/>
+        <v>10.60128181184637</v>
+      </c>
       <c r="L9" s="1">
         <v>4</v>
       </c>
       <c r="M9" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1385.1428571428571</v>
       </c>
       <c r="N9" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1350</v>
       </c>
       <c r="O9" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1064</v>
       </c>
       <c r="P9" s="72">
@@ -3959,7 +3971,7 @@
         <v>1032</v>
       </c>
       <c r="R9" s="63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11.72979665618343</v>
       </c>
       <c r="S9" s="1">
@@ -3986,7 +3998,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.2500000000000002</v>
       </c>
       <c r="C10" s="64">
@@ -4018,19 +4030,23 @@
       <c r="J10" s="1">
         <v>0</v>
       </c>
+      <c r="K10" s="63">
+        <f t="shared" si="7"/>
+        <v>10.772061129002793</v>
+      </c>
       <c r="L10" s="1">
         <v>5</v>
       </c>
       <c r="M10" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1743</v>
       </c>
       <c r="N10" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1752</v>
       </c>
       <c r="O10" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1375</v>
       </c>
       <c r="P10" s="72">
@@ -4042,7 +4058,7 @@
         <v>1262.5</v>
       </c>
       <c r="R10" s="63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14.073163668757418</v>
       </c>
       <c r="S10" s="1">
@@ -4069,7 +4085,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.3000000000000003</v>
       </c>
       <c r="C11" s="64">
@@ -4100,19 +4116,23 @@
         <f>J5+J6*2+J7*3+J8+J9+J10*2</f>
         <v>70</v>
       </c>
+      <c r="K11" s="63">
+        <f t="shared" si="7"/>
+        <v>10.991346112876222</v>
+      </c>
       <c r="L11" s="1">
         <v>6</v>
       </c>
       <c r="M11" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2185.1428571428569</v>
       </c>
       <c r="N11" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2192</v>
       </c>
       <c r="O11" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1716</v>
       </c>
       <c r="P11" s="72">
@@ -4124,7 +4144,7 @@
         <v>1508</v>
       </c>
       <c r="R11" s="63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16.272280495947104</v>
       </c>
       <c r="S11" s="1">
@@ -4151,7 +4171,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.3500000000000003</v>
       </c>
       <c r="C12" s="64">
@@ -4177,19 +4197,23 @@
         <f t="shared" si="6"/>
         <v>31.5</v>
       </c>
+      <c r="K12" s="63">
+        <f t="shared" si="7"/>
+        <v>11.272913605667668</v>
+      </c>
       <c r="L12" s="1">
         <v>7</v>
       </c>
       <c r="M12" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2737.2857142857142</v>
       </c>
       <c r="N12" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2676</v>
       </c>
       <c r="O12" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2093</v>
       </c>
       <c r="P12" s="72">
@@ -4201,7 +4225,7 @@
         <v>1771.5</v>
       </c>
       <c r="R12" s="63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>18.321977997739012</v>
       </c>
       <c r="S12" s="1">
@@ -4228,7 +4252,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.4000000000000004</v>
       </c>
       <c r="C13" s="64">
@@ -4256,19 +4280,23 @@
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
+      <c r="K13" s="63">
+        <f t="shared" si="7"/>
+        <v>11.634453422924921</v>
+      </c>
       <c r="L13" s="1">
         <v>8</v>
       </c>
       <c r="M13" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3428.5714285714284</v>
       </c>
       <c r="N13" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3210</v>
       </c>
       <c r="O13" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2512</v>
       </c>
       <c r="P13" s="72">
@@ -4280,7 +4308,7 @@
         <v>2056</v>
       </c>
       <c r="R13" s="63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>20.216071309107544</v>
       </c>
       <c r="S13" s="1">
@@ -4307,7 +4335,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.4500000000000004</v>
       </c>
       <c r="C14" s="64">
@@ -4335,19 +4363,23 @@
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
+      <c r="K14" s="63">
+        <f t="shared" si="7"/>
+        <v>12.098679737427872</v>
+      </c>
       <c r="L14" s="1">
         <v>9</v>
       </c>
       <c r="M14" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4291.5714285714284</v>
       </c>
       <c r="N14" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3800</v>
       </c>
       <c r="O14" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2979</v>
       </c>
       <c r="P14" s="72">
@@ -4359,7 +4391,7 @@
         <v>2364.5</v>
       </c>
       <c r="R14" s="63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>21.947169780135617</v>
       </c>
       <c r="S14" s="1">
@@ -4386,7 +4418,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.5000000000000004</v>
       </c>
       <c r="C15" s="64">
@@ -4414,19 +4446,23 @@
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
+      <c r="K15" s="63">
+        <f t="shared" si="7"/>
+        <v>12.694758124344943</v>
+      </c>
       <c r="L15" s="1">
         <v>10</v>
       </c>
       <c r="M15" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5362.2857142857138</v>
       </c>
       <c r="N15" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4452</v>
       </c>
       <c r="O15" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3500</v>
       </c>
       <c r="P15" s="72">
@@ -4438,7 +4474,7 @@
         <v>2700</v>
       </c>
       <c r="R15" s="63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>23.506452496084588</v>
       </c>
       <c r="S15" s="1">
@@ -4484,13 +4520,17 @@
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
+      <c r="K16" s="63">
+        <f t="shared" si="7"/>
+        <v>13.460137923484709</v>
+      </c>
       <c r="L16" s="1">
         <v>11</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="2"/>
       <c r="O16" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4081</v>
       </c>
       <c r="P16" s="1"/>
@@ -4499,7 +4539,7 @@
         <v>3065.5</v>
       </c>
       <c r="R16" s="63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>24.883403288015291</v>
       </c>
       <c r="S16" s="1">
@@ -4539,13 +4579,17 @@
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
+      <c r="K17" s="63">
+        <f t="shared" si="7"/>
+        <v>14.442905038999498</v>
+      </c>
       <c r="L17" s="1">
         <v>12</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="2"/>
       <c r="O17" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4728</v>
       </c>
       <c r="P17" s="1"/>
@@ -4554,7 +4598,7 @@
         <v>3464</v>
       </c>
       <c r="R17" s="63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>26.065498086025841</v>
       </c>
       <c r="S17" s="1">
@@ -4575,7 +4619,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="48">
-        <f t="shared" ref="B18:B25" si="12">B17+0.15</f>
+        <f t="shared" ref="B18:B25" si="13">B17+0.15</f>
         <v>1.9500000000000002</v>
       </c>
       <c r="C18" s="67"/>
@@ -4594,13 +4638,17 @@
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
+      <c r="K18" s="63">
+        <f t="shared" si="7"/>
+        <v>15.704802994005377</v>
+      </c>
       <c r="L18" s="1">
         <v>13</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="2"/>
       <c r="O18" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5447</v>
       </c>
       <c r="P18" s="1"/>
@@ -4609,7 +4657,7 @@
         <v>3898.5</v>
       </c>
       <c r="R18" s="63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>27.037836227129091</v>
       </c>
       <c r="S18" s="1">
@@ -4630,7 +4678,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.1</v>
       </c>
       <c r="C19" s="67"/>
@@ -4649,13 +4697,17 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
+      <c r="K19" s="63">
+        <f t="shared" si="7"/>
+        <v>17.325112041499267</v>
+      </c>
       <c r="L19" s="1">
         <v>14</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="2"/>
       <c r="O19" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6244</v>
       </c>
       <c r="P19" s="1"/>
@@ -4664,7 +4716,7 @@
         <v>4372</v>
       </c>
       <c r="R19" s="63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>27.782705877459822</v>
       </c>
       <c r="S19" s="1">
@@ -4685,7 +4737,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.25</v>
       </c>
       <c r="C20" s="67"/>
@@ -4704,13 +4756,17 @@
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
+      <c r="K20" s="63">
+        <f t="shared" si="7"/>
+        <v>19.405630041370472</v>
+      </c>
       <c r="L20" s="1">
         <v>15</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="2"/>
       <c r="O20" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7125</v>
       </c>
       <c r="P20" s="1"/>
@@ -4719,7 +4775,7 @@
         <v>4887.5</v>
       </c>
       <c r="R20" s="63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.279072027920407</v>
       </c>
       <c r="S20" s="1">
@@ -4740,7 +4796,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.4</v>
       </c>
       <c r="C21" s="67"/>
@@ -4757,13 +4813,17 @@
         <f t="shared" si="5"/>
         <v>58.167292921530247</v>
       </c>
+      <c r="K21" s="63">
+        <f t="shared" si="7"/>
+        <v>22.077068033081446</v>
+      </c>
       <c r="L21" s="1">
         <v>16</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="2"/>
       <c r="O21" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8096</v>
       </c>
       <c r="P21" s="1"/>
@@ -4772,7 +4832,7 @@
         <v>5448</v>
       </c>
       <c r="R21" s="63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.501973531549819</v>
       </c>
       <c r="S21" s="1">
@@ -4793,7 +4853,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="C22" s="67"/>
@@ -4810,13 +4870,17 @@
         <f t="shared" si="5"/>
         <v>54.65733330921995</v>
       </c>
+      <c r="K22" s="63">
+        <f t="shared" si="7"/>
+        <v>25.507262313543606</v>
+      </c>
       <c r="L22" s="1">
         <v>17</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="2"/>
       <c r="O22" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9163</v>
       </c>
       <c r="P22" s="1"/>
@@ -4825,7 +4889,7 @@
         <v>6056.5</v>
       </c>
       <c r="R22" s="63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.421813320794371</v>
       </c>
       <c r="S22" s="1">
@@ -4846,7 +4910,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.6999999999999997</v>
       </c>
       <c r="C23" s="67"/>
@@ -4863,13 +4927,17 @@
         <f t="shared" si="5"/>
         <v>50.915496756753413</v>
       </c>
+      <c r="K23" s="63">
+        <f t="shared" si="7"/>
+        <v>29.91171895383394</v>
+      </c>
       <c r="L23" s="1">
         <v>18</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="2"/>
       <c r="O23" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10332</v>
       </c>
       <c r="P23" s="1"/>
@@ -4878,7 +4946,7 @@
         <v>6716</v>
       </c>
       <c r="R23" s="63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.003523216214376</v>
       </c>
       <c r="S23" s="1">
@@ -4899,7 +4967,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.8499999999999996</v>
       </c>
       <c r="C24" s="67"/>
@@ -4916,13 +4984,17 @@
         <f t="shared" si="5"/>
         <v>46.906175082999226</v>
       </c>
+      <c r="K24" s="63">
+        <f t="shared" si="7"/>
+        <v>35.56715322666588</v>
+      </c>
       <c r="L24" s="1">
         <v>19</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="2"/>
       <c r="O24" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11609</v>
       </c>
       <c r="P24" s="1"/>
@@ -4931,7 +5003,7 @@
         <v>7429.5</v>
       </c>
       <c r="R24" s="63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>27.205581548139552</v>
       </c>
       <c r="S24" s="1">
@@ -4952,7 +5024,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.9999999999999996</v>
       </c>
       <c r="C25" s="67"/>
@@ -4969,13 +5041,17 @@
         <f t="shared" si="5"/>
         <v>42.588291936672348</v>
       </c>
+      <c r="K25" s="63">
+        <f>E25-E24</f>
+        <v>42.828874575388966</v>
+      </c>
       <c r="L25" s="1">
         <v>20</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="2"/>
       <c r="O25" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13000</v>
       </c>
       <c r="P25" s="1"/>
@@ -4984,7 +5060,7 @@
         <v>8200</v>
       </c>
       <c r="R25" s="63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>25.978858081370131</v>
       </c>
       <c r="S25" s="1">

--- a/Equilibrage.xlsx
+++ b/Equilibrage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Github\Dukes Of The Realm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBF7AB3-9584-43B5-AB40-27DF0A0F60C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F259C89-AFFD-4A1D-811A-EA8C45FE6508}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equi V.1" sheetId="1" r:id="rId1"/>
@@ -1084,13 +1084,58 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1100,60 +1145,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1170,6 +1161,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1965,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1AB80D-11E3-4393-9ABD-01470CEC1085}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,7 +1992,9 @@
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="D2" s="44">
+        <v>2</v>
+      </c>
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
       <c r="G2" s="82">
@@ -2002,7 +2004,7 @@
         <v>1.3</v>
       </c>
       <c r="I2" s="81">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
@@ -2043,7 +2045,8 @@
         <v>3</v>
       </c>
       <c r="D4" s="46">
-        <v>64</v>
+        <f>64*D2</f>
+        <v>128</v>
       </c>
       <c r="E4" s="46">
         <v>1</v>
@@ -2061,10 +2064,10 @@
       </c>
       <c r="I4" s="78">
         <f>0.45*I2</f>
-        <v>0.67500000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="J4" s="46">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K4" s="65"/>
     </row>
@@ -2077,7 +2080,8 @@
         <v>38</v>
       </c>
       <c r="D5" s="46">
-        <v>128</v>
+        <f>128*D2</f>
+        <v>256</v>
       </c>
       <c r="E5" s="46">
         <v>1</v>
@@ -2095,10 +2099,10 @@
       </c>
       <c r="I5" s="78">
         <f>1.5*I2</f>
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="J5" s="46">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K5" s="65"/>
     </row>
@@ -2111,7 +2115,8 @@
         <v>4</v>
       </c>
       <c r="D6" s="46">
-        <v>164</v>
+        <f>164*D2</f>
+        <v>328</v>
       </c>
       <c r="E6" s="46">
         <v>2</v>
@@ -2129,10 +2134,10 @@
       </c>
       <c r="I6" s="78">
         <f>2.05*I2</f>
-        <v>3.0749999999999997</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J6" s="46">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K6" s="65"/>
     </row>
@@ -2145,7 +2150,8 @@
         <v>44</v>
       </c>
       <c r="D7" s="46">
-        <v>80</v>
+        <f>80*D2</f>
+        <v>160</v>
       </c>
       <c r="E7" s="46">
         <v>1</v>
@@ -2163,10 +2169,10 @@
       </c>
       <c r="I7" s="78">
         <f>0.75*I2</f>
-        <v>1.125</v>
+        <v>1.5</v>
       </c>
       <c r="J7" s="46">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K7" s="65"/>
     </row>
@@ -2179,7 +2185,8 @@
         <v>5</v>
       </c>
       <c r="D8" s="46">
-        <v>192</v>
+        <f>192*D2</f>
+        <v>384</v>
       </c>
       <c r="E8" s="46">
         <v>3</v>
@@ -2188,19 +2195,17 @@
         <v>10</v>
       </c>
       <c r="G8" s="45">
-        <f>(24*G2)*G1</f>
-        <v>19.200000000000003</v>
+        <v>18</v>
       </c>
       <c r="H8" s="45">
-        <f>8*H2</f>
-        <v>10.4</v>
+        <v>1</v>
       </c>
       <c r="I8" s="78">
         <f>3*I2</f>
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="J8" s="46">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K8" s="65"/>
     </row>
@@ -2213,7 +2218,8 @@
         <v>39</v>
       </c>
       <c r="D9" s="46">
-        <v>80</v>
+        <f>80*D2</f>
+        <v>160</v>
       </c>
       <c r="E9" s="46">
         <v>2</v>
@@ -2222,16 +2228,14 @@
         <v>5</v>
       </c>
       <c r="G9" s="45">
-        <f>(8*G2)*G1</f>
-        <v>6.4</v>
+        <v>12</v>
       </c>
       <c r="H9" s="45">
-        <f>5*H2</f>
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="I9" s="78">
         <f>0.875*I2</f>
-        <v>1.3125</v>
+        <v>1.75</v>
       </c>
       <c r="J9" s="46">
         <v>80</v>
@@ -2250,7 +2254,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="56">
-        <v>640</v>
+        <v>9000</v>
       </c>
       <c r="E11" s="57" t="s">
         <v>7</v>
@@ -2305,18 +2309,18 @@
       <c r="A14" s="44"/>
       <c r="B14" s="45">
         <f>D11/D4</f>
-        <v>10</v>
+        <v>70.3125</v>
       </c>
       <c r="C14" s="51" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="46">
         <f>D4*B14</f>
-        <v>640</v>
+        <v>9000</v>
       </c>
       <c r="E14" s="45">
         <f>E4*B14</f>
-        <v>10</v>
+        <v>70.3125</v>
       </c>
       <c r="F14" s="53">
         <f t="shared" ref="F14:F19" si="0">F4</f>
@@ -2324,18 +2328,19 @@
       </c>
       <c r="G14" s="45">
         <f>$B14*G4</f>
-        <v>320</v>
+        <v>2250</v>
       </c>
       <c r="H14" s="45">
         <f t="shared" ref="H14:H19" si="1">H4*B14</f>
-        <v>260</v>
+        <v>1828.125</v>
       </c>
       <c r="I14" s="78">
         <f t="shared" ref="I14:I19" si="2">I4*B14</f>
-        <v>6.75</v>
+        <v>63.28125</v>
       </c>
       <c r="J14" s="45">
-        <v>65</v>
+        <f>J4</f>
+        <v>60</v>
       </c>
       <c r="K14" s="44"/>
     </row>
@@ -2343,18 +2348,18 @@
       <c r="A15" s="44"/>
       <c r="B15" s="47">
         <f>D11/D5</f>
-        <v>5</v>
+        <v>35.15625</v>
       </c>
       <c r="C15" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="48">
         <f>B15*D5</f>
-        <v>640</v>
+        <v>9000</v>
       </c>
       <c r="E15" s="45">
         <f t="shared" ref="E15:E19" si="3">E5*B15</f>
-        <v>5</v>
+        <v>35.15625</v>
       </c>
       <c r="F15" s="53">
         <f t="shared" si="0"/>
@@ -2362,19 +2367,19 @@
       </c>
       <c r="G15" s="45">
         <f>$B15*G5</f>
-        <v>300</v>
+        <v>2109.375</v>
       </c>
       <c r="H15" s="45">
         <f t="shared" si="1"/>
-        <v>227.5</v>
+        <v>1599.609375</v>
       </c>
       <c r="I15" s="78">
         <f t="shared" si="2"/>
-        <v>11.25</v>
-      </c>
-      <c r="J15" s="47">
-        <f>J5</f>
-        <v>55</v>
+        <v>105.46875</v>
+      </c>
+      <c r="J15" s="45">
+        <f t="shared" ref="J15:J19" si="4">J5</f>
+        <v>50</v>
       </c>
       <c r="K15" s="44"/>
     </row>
@@ -2382,18 +2387,18 @@
       <c r="A16" s="44"/>
       <c r="B16" s="45">
         <f>D11/D6</f>
-        <v>3.9024390243902438</v>
+        <v>27.439024390243901</v>
       </c>
       <c r="C16" s="50" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="46">
         <f>D6*B16</f>
-        <v>640</v>
+        <v>9000</v>
       </c>
       <c r="E16" s="45">
         <f t="shared" si="3"/>
-        <v>7.8048780487804876</v>
+        <v>54.878048780487802</v>
       </c>
       <c r="F16" s="53">
         <f t="shared" si="0"/>
@@ -2401,36 +2406,37 @@
       </c>
       <c r="G16" s="45">
         <f>$B16*G6</f>
-        <v>240.39024390243901</v>
+        <v>1690.2439024390244</v>
       </c>
       <c r="H16" s="45">
         <f t="shared" si="1"/>
-        <v>431.21951219512192</v>
+        <v>3032.0121951219512</v>
       </c>
       <c r="I16" s="78">
         <f t="shared" si="2"/>
-        <v>11.999999999999998</v>
+        <v>112.49999999999999</v>
       </c>
       <c r="J16" s="45">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>90</v>
       </c>
       <c r="K16" s="44"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="47">
         <f>D11/D7</f>
-        <v>8</v>
+        <v>56.25</v>
       </c>
       <c r="C17" s="50" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="48">
         <f>B17*D7</f>
-        <v>640</v>
+        <v>9000</v>
       </c>
       <c r="E17" s="45">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>56.25</v>
       </c>
       <c r="F17" s="53">
         <f t="shared" si="0"/>
@@ -2438,37 +2444,37 @@
       </c>
       <c r="G17" s="45">
         <f>$B17*G7</f>
-        <v>128</v>
+        <v>900</v>
       </c>
       <c r="H17" s="45">
         <f t="shared" si="1"/>
-        <v>624</v>
+        <v>4387.5</v>
       </c>
       <c r="I17" s="78">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="J17" s="47">
-        <f>J7</f>
-        <v>65</v>
+        <v>84.375</v>
+      </c>
+      <c r="J17" s="45">
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="45">
         <f>D11/D8</f>
-        <v>3.3333333333333335</v>
+        <v>23.4375</v>
       </c>
       <c r="C18" s="52" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="46">
         <f>D8*B18</f>
-        <v>640</v>
+        <v>9000</v>
       </c>
       <c r="E18" s="45">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>70.3125</v>
       </c>
       <c r="F18" s="53">
         <f t="shared" si="0"/>
@@ -2476,36 +2482,37 @@
       </c>
       <c r="G18" s="45">
         <f>$B18*G8</f>
-        <v>64.000000000000014</v>
+        <v>421.875</v>
       </c>
       <c r="H18" s="45">
         <f t="shared" si="1"/>
-        <v>34.666666666666671</v>
+        <v>23.4375</v>
       </c>
       <c r="I18" s="78">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>140.625</v>
       </c>
       <c r="J18" s="45">
-        <v>35</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="K18" s="44"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="47">
         <f>D11/D9</f>
-        <v>8</v>
+        <v>56.25</v>
       </c>
       <c r="C19" s="61" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="48">
         <f>B19*D9</f>
-        <v>640</v>
+        <v>9000</v>
       </c>
       <c r="E19" s="45">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>112.5</v>
       </c>
       <c r="F19" s="53">
         <f t="shared" si="0"/>
@@ -2513,18 +2520,18 @@
       </c>
       <c r="G19" s="45">
         <f>G9*B19</f>
-        <v>51.2</v>
+        <v>675</v>
       </c>
       <c r="H19" s="47">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>56.25</v>
       </c>
       <c r="I19" s="80">
         <f t="shared" si="2"/>
-        <v>10.5</v>
-      </c>
-      <c r="J19" s="47">
-        <f>J9</f>
+        <v>98.4375</v>
+      </c>
+      <c r="J19" s="45">
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
     </row>
@@ -2536,7 +2543,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="59">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E21" s="60" t="s">
         <v>45</v>
@@ -2574,229 +2581,229 @@
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="45">
         <f>D$21/E4</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C24" s="51" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="46">
         <f>$B$24*D4</f>
-        <v>6400</v>
+        <v>25600</v>
       </c>
       <c r="E24" s="46">
         <f>$B24*E4</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F24" s="46">
         <f>F14</f>
         <v>25</v>
       </c>
       <c r="G24" s="46">
-        <f t="shared" ref="G24:H24" si="4">$B$24*G4</f>
-        <v>3200</v>
+        <f t="shared" ref="G24:H24" si="5">$B$24*G4</f>
+        <v>6400</v>
       </c>
       <c r="H24" s="46">
-        <f t="shared" si="4"/>
-        <v>2600</v>
+        <f t="shared" si="5"/>
+        <v>5200</v>
       </c>
       <c r="I24" s="78">
         <f>$B$24*I4</f>
-        <v>67.5</v>
+        <v>180</v>
       </c>
       <c r="J24" s="45">
         <f>J14</f>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K24" s="62"/>
       <c r="L24" s="63"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="45">
-        <f t="shared" ref="B25:B29" si="5">D$21/E5</f>
-        <v>100</v>
+        <f t="shared" ref="B25:B29" si="6">D$21/E5</f>
+        <v>200</v>
       </c>
       <c r="C25" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="46">
-        <f t="shared" ref="D25:D28" si="6">B25*D5</f>
-        <v>12800</v>
+        <f t="shared" ref="D25:D28" si="7">B25*D5</f>
+        <v>51200</v>
       </c>
       <c r="E25" s="46">
         <f>$B$25*E5</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F25" s="46">
-        <f t="shared" ref="F25:F29" si="7">F15</f>
+        <f t="shared" ref="F25:F29" si="8">F15</f>
         <v>25</v>
       </c>
       <c r="G25" s="46">
-        <f t="shared" ref="G25:H25" si="8">$B$25*G5</f>
-        <v>6000</v>
+        <f t="shared" ref="G25:H25" si="9">$B$25*G5</f>
+        <v>12000</v>
       </c>
       <c r="H25" s="46">
-        <f t="shared" si="8"/>
-        <v>4550</v>
+        <f t="shared" si="9"/>
+        <v>9100</v>
       </c>
       <c r="I25" s="78">
         <f>$B$25*I5</f>
-        <v>225</v>
+        <v>600</v>
       </c>
       <c r="J25" s="45">
-        <f t="shared" ref="J25:J29" si="9">J15</f>
-        <v>55</v>
+        <f t="shared" ref="J25:J29" si="10">J15</f>
+        <v>50</v>
       </c>
       <c r="K25" s="62"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="45">
-        <f t="shared" si="5"/>
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="C26" s="50" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="46">
-        <f t="shared" si="6"/>
-        <v>8200</v>
+        <f t="shared" si="7"/>
+        <v>32800</v>
       </c>
       <c r="E26" s="46">
         <f>$B$26*E6</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F26" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="G26" s="46">
-        <f t="shared" ref="G26:I26" si="10">$B$26*G6</f>
-        <v>3080</v>
+        <f t="shared" ref="G26:I26" si="11">$B$26*G6</f>
+        <v>6160</v>
       </c>
       <c r="H26" s="46">
+        <f t="shared" si="11"/>
+        <v>11050</v>
+      </c>
+      <c r="I26" s="78">
+        <f t="shared" si="11"/>
+        <v>409.99999999999994</v>
+      </c>
+      <c r="J26" s="45">
         <f t="shared" si="10"/>
-        <v>5525</v>
-      </c>
-      <c r="I26" s="78">
-        <f t="shared" si="10"/>
-        <v>153.75</v>
-      </c>
-      <c r="J26" s="45">
-        <f t="shared" si="9"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K26" s="62"/>
       <c r="L26" s="63"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="45">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>200</v>
       </c>
       <c r="C27" s="50" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="46">
-        <f t="shared" si="6"/>
-        <v>8000</v>
+        <f t="shared" si="7"/>
+        <v>32000</v>
       </c>
       <c r="E27" s="46">
         <f>$B$27*E7</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F27" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="G27" s="46">
-        <f t="shared" ref="G27:H27" si="11">$B$27*G7</f>
-        <v>1600</v>
+        <f t="shared" ref="G27:H27" si="12">$B$27*G7</f>
+        <v>3200</v>
       </c>
       <c r="H27" s="46">
-        <f t="shared" si="11"/>
-        <v>7800</v>
+        <f t="shared" si="12"/>
+        <v>15600</v>
       </c>
       <c r="I27" s="78">
         <f>$B$27*I7</f>
-        <v>112.5</v>
+        <v>300</v>
       </c>
       <c r="J27" s="45">
-        <f t="shared" si="9"/>
-        <v>65</v>
+        <f t="shared" si="10"/>
+        <v>60</v>
       </c>
       <c r="K27" s="62"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="45">
-        <f t="shared" si="5"/>
-        <v>33.333333333333336</v>
+        <f t="shared" si="6"/>
+        <v>66.666666666666671</v>
       </c>
       <c r="C28" s="52" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="46">
-        <f t="shared" si="6"/>
-        <v>6400</v>
+        <f t="shared" si="7"/>
+        <v>25600</v>
       </c>
       <c r="E28" s="46">
         <f>$B$28*E8</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F28" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="G28" s="46">
-        <f t="shared" ref="G28:I28" si="12">$B$28*G8</f>
-        <v>640.00000000000011</v>
+        <f t="shared" ref="G28:I28" si="13">$B$28*G8</f>
+        <v>1200</v>
       </c>
       <c r="H28" s="46">
-        <f t="shared" si="12"/>
-        <v>346.66666666666669</v>
+        <f t="shared" si="13"/>
+        <v>66.666666666666671</v>
       </c>
       <c r="I28" s="78">
-        <f t="shared" si="12"/>
-        <v>150</v>
+        <f t="shared" si="13"/>
+        <v>400</v>
       </c>
       <c r="J28" s="45">
-        <f t="shared" si="9"/>
-        <v>35</v>
+        <f t="shared" si="10"/>
+        <v>30</v>
       </c>
       <c r="K28" s="62"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="45">
-        <f t="shared" si="5"/>
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="C29" s="61" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="46">
         <f>B29*D9</f>
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="E29" s="46">
         <f>$B$29*E9</f>
+        <v>200</v>
+      </c>
+      <c r="F29" s="46">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="G29" s="46">
+        <f t="shared" ref="G29:I29" si="14">$B$29*G9</f>
+        <v>1200</v>
+      </c>
+      <c r="H29" s="46">
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="F29" s="46">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="G29" s="46">
-        <f t="shared" ref="G29:I29" si="13">$B$29*G9</f>
-        <v>320</v>
-      </c>
-      <c r="H29" s="46">
-        <f t="shared" si="13"/>
-        <v>325</v>
-      </c>
       <c r="I29" s="78">
-        <f t="shared" si="13"/>
-        <v>65.625</v>
+        <f t="shared" si="14"/>
+        <v>175</v>
       </c>
       <c r="J29" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="K29" s="62"/>
@@ -3179,110 +3186,110 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="92"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="118"/>
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="95"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="107"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="98"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="27">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="101"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="104"/>
       <c r="F7" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="92"/>
       <c r="F8" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="101"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="22">
         <v>250</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="107"/>
       <c r="F10" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="104"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="95"/>
       <c r="F11" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="95"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="110"/>
       <c r="F12" s="29">
         <v>20</v>
       </c>
@@ -3299,78 +3306,78 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="98"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="92"/>
       <c r="F14" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="104"/>
       <c r="F15" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="111" t="s">
+      <c r="B16" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="113"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
       <c r="F16" s="25">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="104"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="95"/>
       <c r="F17" s="32">
         <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="95"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="110"/>
       <c r="F18" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="104"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="95"/>
       <c r="F19" s="34">
         <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="116"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="113"/>
       <c r="F20" s="30">
         <v>12</v>
       </c>
@@ -3387,29 +3394,34 @@
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="98"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="92"/>
       <c r="F22" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="110"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="101"/>
       <c r="F23" s="36">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B19:E19"/>
@@ -3426,11 +3438,6 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3441,8 +3448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7358574A-592A-4C40-9736-421EE2E19A0C}">
   <dimension ref="A2:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Equilibrage.xlsx
+++ b/Equilibrage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Github\Dukes Of The Realm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F259C89-AFFD-4A1D-811A-EA8C45FE6508}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A34DA1-B1F4-4B2C-9EC6-AD304978C5B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equi V.1" sheetId="1" r:id="rId1"/>
@@ -1084,6 +1084,24 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1093,6 +1111,15 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1120,15 +1147,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1136,15 +1154,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1161,15 +1170,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1965,7 +1965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1AB80D-11E3-4393-9ABD-01470CEC1085}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -3186,110 +3186,110 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="118"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="110"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="107"/>
       <c r="F5" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="98"/>
       <c r="F6" s="27">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="104"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="101"/>
       <c r="F7" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="92"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="98"/>
       <c r="F8" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="104"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="101"/>
       <c r="F9" s="22">
         <v>250</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="107"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="113"/>
       <c r="F10" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="95"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="104"/>
       <c r="F11" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="110"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="95"/>
       <c r="F12" s="29">
         <v>20</v>
       </c>
@@ -3306,78 +3306,78 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="92"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="98"/>
       <c r="F14" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="104"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="101"/>
       <c r="F15" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="107"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="113"/>
       <c r="F16" s="25">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="95"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="104"/>
       <c r="F17" s="32">
         <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="110"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95"/>
       <c r="F18" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="95"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="104"/>
       <c r="F19" s="34">
         <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="111" t="s">
+      <c r="B20" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="113"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="116"/>
       <c r="F20" s="30">
         <v>12</v>
       </c>
@@ -3394,34 +3394,29 @@
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="98"/>
       <c r="F22" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="99" t="s">
+      <c r="B23" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="101"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="110"/>
       <c r="F23" s="36">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B19:E19"/>
@@ -3438,6 +3433,11 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3448,8 +3448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7358574A-592A-4C40-9736-421EE2E19A0C}">
   <dimension ref="A2:X28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3861,7 +3861,7 @@
         <v>44</v>
       </c>
       <c r="J8" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K8" s="63">
         <f t="shared" si="7"/>
@@ -4121,7 +4121,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1">
         <f>J5+J6*2+J7*3+J8+J9+J10*2</f>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K11" s="63">
         <f t="shared" si="7"/>

--- a/Equilibrage.xlsx
+++ b/Equilibrage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Github\Dukes Of The Realm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A34DA1-B1F4-4B2C-9EC6-AD304978C5B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D961F551-4F1B-48E1-905B-E847BD7B32B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Equi V.2" sheetId="3" r:id="rId2"/>
     <sheet name="Param V.1" sheetId="2" r:id="rId3"/>
     <sheet name="Param V.2" sheetId="4" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
   <si>
     <t>Coût</t>
   </si>
@@ -93,9 +94,6 @@
     <t>Dégâts</t>
   </si>
   <si>
-    <t>Paramètre du jeu</t>
-  </si>
-  <si>
     <t>Florin/s de base</t>
   </si>
   <si>
@@ -139,13 +137,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nombre de joueur </t>
-  </si>
-  <si>
-    <t>Temps d'amélioration de base du château (s)</t>
-  </si>
-  <si>
-    <t>Temps supplémentaire d'amélioration du château 
-par niveau de château(s)</t>
   </si>
   <si>
     <t>Coût supplémentaire d'amélioration du château 
@@ -164,9 +155,6 @@
     <t>Spy</t>
   </si>
   <si>
-    <t>Défense</t>
-  </si>
-  <si>
     <t>Def</t>
   </si>
   <si>
@@ -234,6 +222,77 @@
   </si>
   <si>
     <t>Cost</t>
+  </si>
+  <si>
+    <t>Paramètre du jeu V.1</t>
+  </si>
+  <si>
+    <t>Temps d'amélioration de base du château (x)</t>
+  </si>
+  <si>
+    <t>Temps supplémentaire d'amélioration du château 
+par niveau de château(x)</t>
+  </si>
+  <si>
+    <t>Niveau 
+du bâtiment</t>
+  </si>
+  <si>
+    <t>Florin/s 
+du château</t>
+  </si>
+  <si>
+    <t>Multiplicateur de point de vie du rempart</t>
+  </si>
+  <si>
+    <t>Nombre de villageois 
+maximum du moulin</t>
+  </si>
+  <si>
+    <t>Nombre de production 
+parallèle de la caserne</t>
+  </si>
+  <si>
+    <t>Nombre de convoyeur
+ du marché</t>
+  </si>
+  <si>
+    <t>Multiplicateur de temps de production du château</t>
+  </si>
+  <si>
+    <t>Nombre de joueur</t>
+  </si>
+  <si>
+    <t>Archer de base</t>
+  </si>
+  <si>
+    <t>Berserker de base</t>
+  </si>
+  <si>
+    <t>Spy de base</t>
+  </si>
+  <si>
+    <t>Paramètre du jeu V.2</t>
+  </si>
+  <si>
+    <t>Coût de l'amélioration 
+de la caserne</t>
+  </si>
+  <si>
+    <t>Coût de l'amélioration 
+du moulin</t>
+  </si>
+  <si>
+    <t>Coût de l'amélioration 
+du château</t>
+  </si>
+  <si>
+    <t>Coût de l'amélioration 
+du marché</t>
+  </si>
+  <si>
+    <t>Coût de l'amélioration 
+du rempart</t>
   </si>
 </sst>
 </file>
@@ -281,14 +340,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="10"/>
       <color theme="1"/>
@@ -296,8 +347,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,18 +383,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,88 +422,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -498,104 +475,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -613,170 +493,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -819,11 +539,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -859,214 +592,109 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1075,101 +703,79 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1454,7 +1060,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,7 +1075,7 @@
     <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1477,91 +1083,91 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="55" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="35">
         <f>40*1.6</f>
         <v>64</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="35">
         <v>40</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="35">
         <v>20</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="35">
         <v>0.6</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="35">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="35">
         <f>80*1.6</f>
         <v>128</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="35">
         <v>50</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="35">
         <v>72</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="35">
         <v>1.5</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="35">
         <v>100</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="35">
         <f>120*1.6</f>
         <v>192</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="35">
         <v>24</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="35">
         <v>144</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="35">
         <v>3</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="35">
         <v>35</v>
       </c>
       <c r="H5" s="1"/>
@@ -1614,14 +1220,14 @@
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="86" t="s">
+      <c r="I9" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -1641,12 +1247,12 @@
       <c r="G10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1676,12 +1282,12 @@
         <f>G3</f>
         <v>65</v>
       </c>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1712,14 +1318,14 @@
         <v>100</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="85" t="s">
+      <c r="I12" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -1750,12 +1356,12 @@
         <v>35</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1766,12 +1372,12 @@
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
@@ -1780,12 +1386,12 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
@@ -1963,853 +1569,774 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1AB80D-11E3-4393-9ABD-01470CEC1085}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
-    <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G1" s="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14">
         <v>2</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="82">
+      <c r="E2" s="14"/>
+      <c r="F2" s="52">
         <v>0.8</v>
       </c>
-      <c r="H2" s="81">
+      <c r="G2" s="53">
         <v>1.3</v>
       </c>
-      <c r="I2" s="81">
+      <c r="H2" s="53">
         <v>2</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="46" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="46" t="s">
+      <c r="E3" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="G3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="H3" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="I3" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="44"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="51" t="s">
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="16">
         <f>64*D2</f>
         <v>128</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="16">
         <v>1</v>
       </c>
-      <c r="F4" s="53">
-        <v>25</v>
-      </c>
-      <c r="G4" s="45">
-        <f>(40*G2)*G1</f>
+      <c r="F4" s="15">
+        <f>(40*F2)*F1</f>
         <v>32</v>
       </c>
+      <c r="G4" s="15">
+        <f>20*G2</f>
+        <v>26</v>
+      </c>
       <c r="H4" s="45">
-        <f>20*H2</f>
-        <v>26</v>
-      </c>
-      <c r="I4" s="78">
-        <f>0.45*I2</f>
+        <f>0.45*H2</f>
         <v>0.9</v>
       </c>
-      <c r="J4" s="46">
+      <c r="I4" s="16">
         <v>60</v>
       </c>
-      <c r="K4" s="65"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="46">
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="16">
         <f>128*D2</f>
         <v>256</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="16">
         <v>1</v>
       </c>
-      <c r="F5" s="53">
-        <v>25</v>
-      </c>
-      <c r="G5" s="45">
-        <f>(75*G2)*G1</f>
+      <c r="F5" s="15">
+        <f>(75*F2)*F1</f>
         <v>60</v>
       </c>
+      <c r="G5" s="15">
+        <f>35*G2</f>
+        <v>45.5</v>
+      </c>
       <c r="H5" s="45">
-        <f>35*H2</f>
-        <v>45.5</v>
-      </c>
-      <c r="I5" s="78">
-        <f>1.5*I2</f>
+        <f>1.5*H2</f>
         <v>3</v>
       </c>
-      <c r="J5" s="46">
+      <c r="I5" s="16">
         <v>50</v>
       </c>
-      <c r="K5" s="65"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="50" t="s">
+      <c r="J5" s="32"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="16">
         <f>164*D2</f>
         <v>328</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="16">
         <v>2</v>
       </c>
-      <c r="F6" s="53">
-        <v>20</v>
-      </c>
-      <c r="G6" s="45">
-        <f>(77*G2)*G1</f>
+      <c r="F6" s="15">
+        <f>(77*F2)*F1</f>
         <v>61.6</v>
       </c>
+      <c r="G6" s="15">
+        <f>85*G2</f>
+        <v>110.5</v>
+      </c>
       <c r="H6" s="45">
-        <f>85*H2</f>
-        <v>110.5</v>
-      </c>
-      <c r="I6" s="78">
-        <f>2.05*I2</f>
+        <f>2.05*H2</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="J6" s="46">
+      <c r="I6" s="16">
         <v>90</v>
       </c>
-      <c r="K6" s="65"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="46">
+      <c r="J6" s="32"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="16">
         <f>80*D2</f>
         <v>160</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="16">
         <v>1</v>
       </c>
-      <c r="F7" s="53">
-        <v>15</v>
-      </c>
-      <c r="G7" s="45">
-        <f>(20*G2)*G1</f>
+      <c r="F7" s="15">
+        <f>(20*F2)*F1</f>
         <v>16</v>
       </c>
+      <c r="G7" s="15">
+        <f>60*G2</f>
+        <v>78</v>
+      </c>
       <c r="H7" s="45">
-        <f>60*H2</f>
-        <v>78</v>
-      </c>
-      <c r="I7" s="78">
-        <f>0.75*I2</f>
+        <f>0.75*H2</f>
         <v>1.5</v>
       </c>
-      <c r="J7" s="46">
+      <c r="I7" s="16">
         <v>60</v>
       </c>
-      <c r="K7" s="65"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="52" t="s">
+      <c r="J7" s="32"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="16">
         <f>192*D2</f>
         <v>384</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="16">
         <v>3</v>
       </c>
-      <c r="F8" s="53">
-        <v>10</v>
-      </c>
-      <c r="G8" s="45">
+      <c r="F8" s="15">
         <v>18</v>
       </c>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
       <c r="H8" s="45">
-        <v>1</v>
-      </c>
-      <c r="I8" s="78">
-        <f>3*I2</f>
+        <f>3*H2</f>
         <v>6</v>
       </c>
-      <c r="J8" s="46">
+      <c r="I8" s="16">
         <v>30</v>
       </c>
-      <c r="K8" s="65"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="52" t="s">
+      <c r="J8" s="32"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="46">
+      <c r="C9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="16">
         <f>80*D2</f>
         <v>160</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="16">
         <v>2</v>
       </c>
-      <c r="F9" s="53">
-        <v>5</v>
-      </c>
-      <c r="G9" s="45">
+      <c r="F9" s="15">
         <v>12</v>
       </c>
+      <c r="G9" s="15">
+        <v>1</v>
+      </c>
       <c r="H9" s="45">
+        <f>0.875*H2</f>
+        <v>1.75</v>
+      </c>
+      <c r="I9" s="16">
+        <v>80</v>
+      </c>
+      <c r="J9" s="32"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="H10" s="29"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="23">
+        <v>9000</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="78">
-        <f>0.875*I2</f>
-        <v>1.75</v>
-      </c>
-      <c r="J9" s="46">
-        <v>80</v>
-      </c>
-      <c r="K9" s="65"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="I10" s="62"/>
-      <c r="K10" s="44"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="56">
-        <v>9000</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="54"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="46" t="s">
+      <c r="G13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="78" t="s">
+      <c r="H13" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="46" t="s">
+      <c r="I13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="44"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45">
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15">
         <f>D11/D4</f>
         <v>70.3125</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="16">
         <f>D4*B14</f>
         <v>9000</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="15">
         <f>E4*B14</f>
         <v>70.3125</v>
       </c>
-      <c r="F14" s="53">
-        <f t="shared" ref="F14:F19" si="0">F4</f>
-        <v>25</v>
-      </c>
-      <c r="G14" s="45">
-        <f>$B14*G4</f>
+      <c r="F14" s="15">
+        <f>$B14*F4</f>
         <v>2250</v>
       </c>
+      <c r="G14" s="15">
+        <f>G4*B14</f>
+        <v>1828.125</v>
+      </c>
       <c r="H14" s="45">
-        <f t="shared" ref="H14:H19" si="1">H4*B14</f>
-        <v>1828.125</v>
-      </c>
-      <c r="I14" s="78">
-        <f t="shared" ref="I14:I19" si="2">I4*B14</f>
+        <f>H4*B14</f>
         <v>63.28125</v>
       </c>
-      <c r="J14" s="45">
-        <f>J4</f>
+      <c r="I14" s="15">
+        <f>I4</f>
         <v>60</v>
       </c>
-      <c r="K14" s="44"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="47">
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="17">
         <f>D11/D5</f>
         <v>35.15625</v>
       </c>
-      <c r="C15" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="48">
+      <c r="C15" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="18">
         <f>B15*D5</f>
         <v>9000</v>
       </c>
-      <c r="E15" s="45">
-        <f t="shared" ref="E15:E19" si="3">E5*B15</f>
+      <c r="E15" s="15">
+        <f t="shared" ref="E15:E19" si="0">E5*B15</f>
         <v>35.15625</v>
       </c>
-      <c r="F15" s="53">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="G15" s="45">
-        <f>$B15*G5</f>
+      <c r="F15" s="15">
+        <f>$B15*F5</f>
         <v>2109.375</v>
       </c>
+      <c r="G15" s="15">
+        <f>G5*B15</f>
+        <v>1599.609375</v>
+      </c>
       <c r="H15" s="45">
-        <f t="shared" si="1"/>
-        <v>1599.609375</v>
-      </c>
-      <c r="I15" s="78">
-        <f t="shared" si="2"/>
+        <f>H5*B15</f>
         <v>105.46875</v>
       </c>
-      <c r="J15" s="45">
-        <f t="shared" ref="J15:J19" si="4">J5</f>
+      <c r="I15" s="15">
+        <f t="shared" ref="I15:I19" si="1">I5</f>
         <v>50</v>
       </c>
-      <c r="K15" s="44"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45">
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15">
         <f>D11/D6</f>
         <v>27.439024390243901</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="16">
         <f>D6*B16</f>
         <v>9000</v>
       </c>
-      <c r="E16" s="45">
-        <f t="shared" si="3"/>
+      <c r="E16" s="15">
+        <f t="shared" si="0"/>
         <v>54.878048780487802</v>
       </c>
-      <c r="F16" s="53">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="G16" s="45">
-        <f>$B16*G6</f>
+      <c r="F16" s="15">
+        <f>$B16*F6</f>
         <v>1690.2439024390244</v>
       </c>
+      <c r="G16" s="15">
+        <f>G6*B16</f>
+        <v>3032.0121951219512</v>
+      </c>
       <c r="H16" s="45">
+        <f>H6*B16</f>
+        <v>112.49999999999999</v>
+      </c>
+      <c r="I16" s="15">
         <f t="shared" si="1"/>
-        <v>3032.0121951219512</v>
-      </c>
-      <c r="I16" s="78">
-        <f t="shared" si="2"/>
-        <v>112.49999999999999</v>
-      </c>
-      <c r="J16" s="45">
-        <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="K16" s="44"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="47">
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="17">
         <f>D11/D7</f>
         <v>56.25</v>
       </c>
-      <c r="C17" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="48">
+      <c r="C17" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="18">
         <f>B17*D7</f>
         <v>9000</v>
       </c>
-      <c r="E17" s="45">
-        <f t="shared" si="3"/>
+      <c r="E17" s="15">
+        <f t="shared" si="0"/>
         <v>56.25</v>
       </c>
-      <c r="F17" s="53">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="G17" s="45">
-        <f>$B17*G7</f>
+      <c r="F17" s="15">
+        <f>$B17*F7</f>
         <v>900</v>
       </c>
+      <c r="G17" s="15">
+        <f>G7*B17</f>
+        <v>4387.5</v>
+      </c>
       <c r="H17" s="45">
+        <f>H7*B17</f>
+        <v>84.375</v>
+      </c>
+      <c r="I17" s="15">
         <f t="shared" si="1"/>
-        <v>4387.5</v>
-      </c>
-      <c r="I17" s="78">
-        <f t="shared" si="2"/>
-        <v>84.375</v>
-      </c>
-      <c r="J17" s="45">
-        <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="45">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="15">
         <f>D11/D8</f>
         <v>23.4375</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="16">
         <f>D8*B18</f>
         <v>9000</v>
       </c>
-      <c r="E18" s="45">
-        <f t="shared" si="3"/>
+      <c r="E18" s="15">
+        <f t="shared" si="0"/>
         <v>70.3125</v>
       </c>
-      <c r="F18" s="53">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G18" s="45">
-        <f>$B18*G8</f>
+      <c r="F18" s="15">
+        <f>$B18*F8</f>
         <v>421.875</v>
       </c>
+      <c r="G18" s="15">
+        <f>G8*B18</f>
+        <v>23.4375</v>
+      </c>
       <c r="H18" s="45">
+        <f>H8*B18</f>
+        <v>140.625</v>
+      </c>
+      <c r="I18" s="15">
         <f t="shared" si="1"/>
-        <v>23.4375</v>
-      </c>
-      <c r="I18" s="78">
-        <f t="shared" si="2"/>
-        <v>140.625</v>
-      </c>
-      <c r="J18" s="45">
-        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="K18" s="44"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="47">
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="17">
         <f>D11/D9</f>
         <v>56.25</v>
       </c>
-      <c r="C19" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="48">
+      <c r="C19" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="18">
         <f>B19*D9</f>
         <v>9000</v>
       </c>
-      <c r="E19" s="45">
-        <f t="shared" si="3"/>
+      <c r="E19" s="15">
+        <f t="shared" si="0"/>
         <v>112.5</v>
       </c>
-      <c r="F19" s="53">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G19" s="45">
+      <c r="F19" s="15">
+        <f>F9*B19</f>
+        <v>675</v>
+      </c>
+      <c r="G19" s="17">
         <f>G9*B19</f>
-        <v>675</v>
+        <v>56.25</v>
       </c>
       <c r="H19" s="47">
+        <f>H9*B19</f>
+        <v>98.4375</v>
+      </c>
+      <c r="I19" s="15">
         <f t="shared" si="1"/>
-        <v>56.25</v>
-      </c>
-      <c r="I19" s="80">
-        <f t="shared" si="2"/>
-        <v>98.4375</v>
-      </c>
-      <c r="J19" s="45">
-        <f t="shared" si="4"/>
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I20" s="62"/>
-    </row>
-    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="59">
+    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="26">
         <v>200</v>
       </c>
-      <c r="E21" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="62"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I22" s="62"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="46" t="s">
+      <c r="E21" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="46" t="s">
+      <c r="E23" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H23" s="46" t="s">
+      <c r="G23" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="78" t="s">
+      <c r="H23" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="46" t="s">
+      <c r="I23" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="45">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="15">
         <f>D$21/E4</f>
         <v>200</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="46">
+      <c r="D24" s="16">
         <f>$B$24*D4</f>
         <v>25600</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24" s="16">
         <f>$B24*E4</f>
         <v>200</v>
       </c>
-      <c r="F24" s="46">
-        <f>F14</f>
-        <v>25</v>
-      </c>
-      <c r="G24" s="46">
-        <f t="shared" ref="G24:H24" si="5">$B$24*G4</f>
+      <c r="F24" s="16">
+        <f t="shared" ref="F24:G24" si="2">$B$24*F4</f>
         <v>6400</v>
       </c>
-      <c r="H24" s="46">
-        <f t="shared" si="5"/>
+      <c r="G24" s="16">
+        <f t="shared" si="2"/>
         <v>5200</v>
       </c>
-      <c r="I24" s="78">
-        <f>$B$24*I4</f>
+      <c r="H24" s="45">
+        <f>$B$24*H4</f>
         <v>180</v>
       </c>
-      <c r="J24" s="45">
-        <f>J14</f>
+      <c r="I24" s="15">
+        <f>I14</f>
         <v>60</v>
       </c>
-      <c r="K24" s="62"/>
-      <c r="L24" s="63"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="45">
-        <f t="shared" ref="B25:B29" si="6">D$21/E5</f>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="15">
+        <f t="shared" ref="B25:B29" si="3">D$21/E5</f>
         <v>200</v>
       </c>
-      <c r="C25" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="46">
-        <f t="shared" ref="D25:D28" si="7">B25*D5</f>
+      <c r="C25" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="16">
+        <f t="shared" ref="D25:D28" si="4">B25*D5</f>
         <v>51200</v>
       </c>
-      <c r="E25" s="46">
+      <c r="E25" s="16">
         <f>$B$25*E5</f>
         <v>200</v>
       </c>
-      <c r="F25" s="46">
-        <f t="shared" ref="F25:F29" si="8">F15</f>
-        <v>25</v>
-      </c>
-      <c r="G25" s="46">
-        <f t="shared" ref="G25:H25" si="9">$B$25*G5</f>
+      <c r="F25" s="16">
+        <f t="shared" ref="F25:G25" si="5">$B$25*F5</f>
         <v>12000</v>
       </c>
-      <c r="H25" s="46">
-        <f t="shared" si="9"/>
+      <c r="G25" s="16">
+        <f t="shared" si="5"/>
         <v>9100</v>
       </c>
-      <c r="I25" s="78">
-        <f>$B$25*I5</f>
+      <c r="H25" s="45">
+        <f>$B$25*H5</f>
         <v>600</v>
       </c>
-      <c r="J25" s="45">
-        <f t="shared" ref="J25:J29" si="10">J15</f>
+      <c r="I25" s="15">
+        <f t="shared" ref="I25:I29" si="6">I15</f>
         <v>50</v>
       </c>
-      <c r="K25" s="62"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="45">
-        <f t="shared" si="6"/>
+      <c r="J25" s="29"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="15">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="46">
-        <f t="shared" si="7"/>
+      <c r="D26" s="16">
+        <f t="shared" si="4"/>
         <v>32800</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="16">
         <f>$B$26*E6</f>
         <v>200</v>
       </c>
-      <c r="F26" s="46">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="G26" s="46">
-        <f t="shared" ref="G26:I26" si="11">$B$26*G6</f>
+      <c r="F26" s="16">
+        <f t="shared" ref="F26:H26" si="7">$B$26*F6</f>
         <v>6160</v>
       </c>
-      <c r="H26" s="46">
-        <f t="shared" si="11"/>
+      <c r="G26" s="16">
+        <f t="shared" si="7"/>
         <v>11050</v>
       </c>
-      <c r="I26" s="78">
-        <f t="shared" si="11"/>
+      <c r="H26" s="45">
+        <f t="shared" si="7"/>
         <v>409.99999999999994</v>
       </c>
-      <c r="J26" s="45">
-        <f t="shared" si="10"/>
+      <c r="I26" s="15">
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
-      <c r="K26" s="62"/>
-      <c r="L26" s="63"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="45">
-        <f t="shared" si="6"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="15">
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="C27" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="46">
-        <f t="shared" si="7"/>
+      <c r="C27" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="16">
+        <f t="shared" si="4"/>
         <v>32000</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27" s="16">
         <f>$B$27*E7</f>
         <v>200</v>
       </c>
-      <c r="F27" s="46">
+      <c r="F27" s="16">
+        <f t="shared" ref="F27:G27" si="8">$B$27*F7</f>
+        <v>3200</v>
+      </c>
+      <c r="G27" s="16">
         <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-      <c r="G27" s="46">
-        <f t="shared" ref="G27:H27" si="12">$B$27*G7</f>
-        <v>3200</v>
-      </c>
-      <c r="H27" s="46">
-        <f t="shared" si="12"/>
         <v>15600</v>
       </c>
-      <c r="I27" s="78">
-        <f>$B$27*I7</f>
+      <c r="H27" s="45">
+        <f>$B$27*H7</f>
         <v>300</v>
       </c>
-      <c r="J27" s="45">
-        <f t="shared" si="10"/>
+      <c r="I27" s="15">
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="K27" s="62"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="45">
-        <f t="shared" si="6"/>
+      <c r="J27" s="29"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="15">
+        <f t="shared" si="3"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="46">
-        <f t="shared" si="7"/>
+      <c r="D28" s="16">
+        <f t="shared" si="4"/>
         <v>25600</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="16">
         <f>$B$28*E8</f>
         <v>200</v>
       </c>
-      <c r="F28" s="46">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="G28" s="46">
-        <f t="shared" ref="G28:I28" si="13">$B$28*G8</f>
+      <c r="F28" s="16">
+        <f t="shared" ref="F28:H28" si="9">$B$28*F8</f>
         <v>1200</v>
       </c>
-      <c r="H28" s="46">
-        <f t="shared" si="13"/>
+      <c r="G28" s="16">
+        <f t="shared" si="9"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="I28" s="78">
-        <f t="shared" si="13"/>
+      <c r="H28" s="45">
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
-      <c r="J28" s="45">
-        <f t="shared" si="10"/>
+      <c r="I28" s="15">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="K28" s="62"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="45">
-        <f t="shared" si="6"/>
+      <c r="J28" s="29"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="15">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="C29" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="46">
+      <c r="C29" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="16">
         <f>B29*D9</f>
         <v>16000</v>
       </c>
-      <c r="E29" s="46">
+      <c r="E29" s="16">
         <f>$B$29*E9</f>
         <v>200</v>
       </c>
-      <c r="F29" s="46">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="G29" s="46">
-        <f t="shared" ref="G29:I29" si="14">$B$29*G9</f>
+      <c r="F29" s="16">
+        <f t="shared" ref="F29:H29" si="10">$B$29*F9</f>
         <v>1200</v>
       </c>
-      <c r="H29" s="46">
-        <f t="shared" si="14"/>
+      <c r="G29" s="16">
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="I29" s="78">
-        <f t="shared" si="14"/>
+      <c r="H29" s="45">
+        <f t="shared" si="10"/>
         <v>175</v>
       </c>
-      <c r="J29" s="45">
-        <f t="shared" si="10"/>
+      <c r="I29" s="15">
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="K29" s="62"/>
+      <c r="J29" s="29"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G14:G19">
+  <conditionalFormatting sqref="F14:F19">
     <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="min"/>
@@ -2823,7 +2350,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H19">
+  <conditionalFormatting sqref="G14:G19">
     <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="min"/>
@@ -2837,7 +2364,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I19">
+  <conditionalFormatting sqref="H14:H19">
     <cfRule type="dataBar" priority="48">
       <dataBar>
         <cfvo type="min"/>
@@ -2851,7 +2378,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14:J19">
+  <conditionalFormatting sqref="I14:I19">
     <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="min"/>
@@ -2879,7 +2406,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24:J29">
+  <conditionalFormatting sqref="I24:I29">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
@@ -2921,7 +2448,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G29">
+  <conditionalFormatting sqref="F24:F29">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -2935,7 +2462,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24:H29">
+  <conditionalFormatting sqref="G24:G29">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -2949,7 +2476,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:I29">
+  <conditionalFormatting sqref="H24:H29">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -2963,7 +2490,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24:K29">
+  <conditionalFormatting sqref="J24:J29">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -3007,7 +2534,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G14:G19</xm:sqref>
+          <xm:sqref>F14:F19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F6C176E9-D79E-4FDD-BB72-064AA77B2EA4}">
@@ -3020,7 +2547,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H14:H19</xm:sqref>
+          <xm:sqref>G14:G19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A396167E-C86D-424C-8AD4-9929BCBCDCF3}">
@@ -3033,7 +2560,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I14:I19</xm:sqref>
+          <xm:sqref>H14:H19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5DB14E55-D55C-4D5F-8635-8FA16B103177}">
@@ -3046,7 +2573,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J14:J19</xm:sqref>
+          <xm:sqref>I14:I19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B7B92030-00D1-41CA-BC6F-576549C2A50D}">
@@ -3072,7 +2599,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J24:J29</xm:sqref>
+          <xm:sqref>I24:I29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{628ACAE9-2D0F-40F2-AD82-70B593E128EC}">
@@ -3111,7 +2638,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G24:G29</xm:sqref>
+          <xm:sqref>F24:F29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{85BB8DAF-9397-488D-9E4C-C6DBF1375802}">
@@ -3124,7 +2651,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H24:H29</xm:sqref>
+          <xm:sqref>G24:G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4CB24186-A77E-4E34-93AF-FD08517134F0}">
@@ -3137,7 +2664,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I24:I29</xm:sqref>
+          <xm:sqref>H24:H29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F456EBD8-6768-4FD7-8C30-F2A908742113}">
@@ -3150,7 +2677,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K24:K29</xm:sqref>
+          <xm:sqref>J24:J29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5464AF1F-2547-4B6A-B6A0-96ACE7572AB6}">
@@ -3173,10 +2700,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687FDFBE-E0CD-444E-9C48-EAF49AA577DB}">
-  <dimension ref="B2:G23"/>
+  <dimension ref="B3:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3184,239 +2711,243 @@
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="90" t="s">
+    <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="29">
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="105" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="35">
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="61">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="61">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="96" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="99" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="22">
+    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="35">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="96" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="117" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="22">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="111" t="s">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="63">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="65">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="118" t="s">
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="96" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="102" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="32">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="34">
-        <v>0.66700000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="114" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="30">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="96" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="108" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="36">
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="35">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B19:E19"/>
@@ -3433,11 +2964,6 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3446,10 +2972,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7358574A-592A-4C40-9736-421EE2E19A0C}">
-  <dimension ref="A2:X28"/>
+  <dimension ref="A2:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3460,167 +2986,168 @@
     <col min="10" max="10" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E2">
         <v>10</v>
       </c>
       <c r="S2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T2" s="75">
+        <v>57</v>
+      </c>
+      <c r="T2" s="42">
         <v>0</v>
       </c>
-      <c r="U2" s="75">
+      <c r="U2" s="42">
         <v>1</v>
       </c>
-      <c r="V2" s="75">
+      <c r="V2" s="42">
         <v>1</v>
       </c>
-      <c r="W2" s="75">
+      <c r="W2" s="42">
+        <v>2</v>
+      </c>
+      <c r="X2" s="42">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="77"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="42">
+        <v>200</v>
+      </c>
+      <c r="N3" s="42">
+        <v>300</v>
+      </c>
+      <c r="O3" s="42">
+        <v>250</v>
+      </c>
+      <c r="P3" s="42">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="42">
+        <v>200</v>
+      </c>
+      <c r="S3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="42">
+        <v>4</v>
+      </c>
+      <c r="U3" s="42">
+        <v>4</v>
+      </c>
+      <c r="V3" s="42">
         <v>3</v>
       </c>
-      <c r="X2" s="75">
+      <c r="W3" s="42">
+        <v>2</v>
+      </c>
+      <c r="X3" s="42">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" s="75">
-        <v>200</v>
-      </c>
-      <c r="N3" s="75">
-        <v>300</v>
-      </c>
-      <c r="O3" s="75">
-        <v>250</v>
-      </c>
-      <c r="P3" s="75">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="75">
-        <v>200</v>
-      </c>
-      <c r="S3" t="s">
-        <v>62</v>
-      </c>
-      <c r="T3" s="75">
-        <v>3</v>
-      </c>
-      <c r="U3" s="75">
-        <v>3</v>
-      </c>
-      <c r="V3" s="75">
-        <v>2</v>
-      </c>
-      <c r="W3" s="75">
-        <v>1</v>
-      </c>
-      <c r="X3" s="75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="68" t="s">
-        <v>58</v>
+      <c r="F4" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>54</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="P4" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="S4" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="T4" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="U4" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="V4" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="W4" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="X4" s="69" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="48">
+      <c r="Q4" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
         <v>0</v>
       </c>
-      <c r="B5" s="66">
+      <c r="B5" s="33">
         <v>1</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="48">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="18">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -3632,58 +3159,58 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="72">
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="39">
         <f>100 + L6*L6*L6*L6 / 4</f>
         <v>100.25</v>
       </c>
-      <c r="Q5" s="47">
+      <c r="Q5" s="17">
         <f>200*L6 + L5*L5*(L5/2)</f>
         <v>200</v>
       </c>
       <c r="S5" s="1">
         <v>0</v>
       </c>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="72">
-        <v>3</v>
-      </c>
-      <c r="X5" s="47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="48">
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="39">
+        <v>2</v>
+      </c>
+      <c r="X5" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
         <v>1</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="18">
         <f>B5+0.05</f>
         <v>1.05</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="31">
         <v>1</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="17">
         <f>80+12*A6</f>
         <v>92</v>
       </c>
-      <c r="E6" s="84">
-        <f>$E$2+A5*$E$2+EXP(A5/4)</f>
-        <v>11</v>
-      </c>
-      <c r="F6" s="47">
+      <c r="E6" s="49">
+        <f>$E$2+A6*$E$2+EXP(A6/4)</f>
+        <v>21.28402541668774</v>
+      </c>
+      <c r="F6" s="17">
         <f>E6*60</f>
-        <v>660</v>
-      </c>
-      <c r="G6" s="47">
+        <v>1277.0415250012643</v>
+      </c>
+      <c r="G6" s="49">
         <f>100-EXP(A6/7)-A6*2</f>
         <v>96.846435005104894</v>
       </c>
-      <c r="H6" s="84">
+      <c r="H6" s="49">
         <f>(A6*A6/2)+A6</f>
         <v>1.5</v>
       </c>
@@ -3696,77 +3223,77 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="73">
-        <f>200*L8+L8*L8*L8*L8/7</f>
-        <v>611.57142857142856</v>
-      </c>
-      <c r="N6" s="48">
+      <c r="M6" s="40">
+        <f>200*L8+L8*L8*L8*L8/7-0.11</f>
+        <v>611.46142857142854</v>
+      </c>
+      <c r="N6" s="18">
         <f>300*L6+L7*L7*L8</f>
         <v>312</v>
       </c>
-      <c r="O6" s="76">
+      <c r="O6" s="43">
         <f>250*L6+L6*L6*L6</f>
         <v>251</v>
       </c>
-      <c r="P6" s="72">
+      <c r="P6" s="39">
         <f t="shared" ref="P6:P15" si="0">100 + L7*L7*L7*L7 / 4</f>
         <v>104</v>
       </c>
-      <c r="Q6" s="47">
+      <c r="Q6" s="17">
         <f t="shared" ref="Q6:Q25" si="1">200*L7 + L6*L6*(L6/2)</f>
         <v>400.5</v>
       </c>
-      <c r="R6" s="63">
+      <c r="R6" s="30">
         <f>V6*G6/100</f>
         <v>3.8738574002041957</v>
       </c>
       <c r="S6" s="1">
         <v>1</v>
       </c>
-      <c r="T6" s="73">
+      <c r="T6" s="40">
         <v>4</v>
       </c>
-      <c r="U6" s="70">
+      <c r="U6" s="37">
         <v>5</v>
       </c>
-      <c r="V6" s="74">
+      <c r="V6" s="41">
         <v>4</v>
       </c>
-      <c r="W6" s="72">
-        <v>5</v>
-      </c>
-      <c r="X6" s="47">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="48">
+      <c r="W6" s="39">
+        <v>4</v>
+      </c>
+      <c r="X6" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
         <v>2</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="18">
         <f>B6+0.05</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="31">
         <v>1</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="17">
         <f t="shared" ref="D7:D15" si="2">80+12*A7</f>
         <v>104</v>
       </c>
-      <c r="E7" s="84">
+      <c r="E7" s="49">
         <f t="shared" ref="E7:E25" si="3">$E$2+A7*$E$2+EXP(A7/4)</f>
         <v>31.648721270700129</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="17">
         <f t="shared" ref="F7:F25" si="4">E7*60</f>
         <v>1898.9232762420077</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="49">
         <f t="shared" ref="G7:G25" si="5">100-EXP(A7/7)-A7*2</f>
         <v>94.669287802552645</v>
       </c>
-      <c r="H7" s="84">
+      <c r="H7" s="49">
         <f t="shared" ref="H7:H15" si="6">A7*(A7/2)+A7</f>
         <v>4</v>
       </c>
@@ -3776,345 +3303,333 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="63">
-        <f t="shared" ref="K7:K24" si="7">E7-E6</f>
-        <v>20.648721270700129</v>
-      </c>
+      <c r="K7" s="30"/>
       <c r="L7" s="1">
         <v>2</v>
       </c>
-      <c r="M7" s="73">
-        <f t="shared" ref="M7:M15" si="8">200*L9+L9*L9*L9*L9/7</f>
-        <v>836.57142857142856</v>
-      </c>
-      <c r="N7" s="48">
-        <f t="shared" ref="N7:N15" si="9">300*L7+L8*L8*L9</f>
+      <c r="M7" s="40">
+        <f t="shared" ref="M7:M15" si="7">200*L9+L9*L9*L9*L9/7-0.11</f>
+        <v>836.46142857142854</v>
+      </c>
+      <c r="N7" s="18">
+        <f t="shared" ref="N7:N15" si="8">300*L7+L8*L8*L9</f>
         <v>636</v>
       </c>
-      <c r="O7" s="76">
-        <f t="shared" ref="O7:O25" si="10">250*L7+L7*L7*L7</f>
+      <c r="O7" s="43">
+        <f t="shared" ref="O7:O25" si="9">250*L7+L7*L7*L7</f>
         <v>508</v>
       </c>
-      <c r="P7" s="72">
+      <c r="P7" s="39">
         <f t="shared" si="0"/>
         <v>120.25</v>
       </c>
-      <c r="Q7" s="47">
+      <c r="Q7" s="17">
         <f t="shared" si="1"/>
         <v>604</v>
       </c>
-      <c r="R7" s="63">
-        <f t="shared" ref="R7:R25" si="11">V7*G7/100</f>
+      <c r="R7" s="30">
+        <f t="shared" ref="R7:R25" si="10">V7*G7/100</f>
         <v>6.6268501461786853</v>
       </c>
       <c r="S7" s="1">
         <v>2</v>
       </c>
-      <c r="T7" s="73">
+      <c r="T7" s="40">
         <v>8</v>
       </c>
-      <c r="U7" s="70">
+      <c r="U7" s="37">
         <v>9</v>
       </c>
-      <c r="V7" s="74">
+      <c r="V7" s="41">
         <v>7</v>
       </c>
-      <c r="W7" s="72">
-        <v>7</v>
-      </c>
-      <c r="X7" s="47">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="48">
+      <c r="W7" s="39">
+        <v>6</v>
+      </c>
+      <c r="X7" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
         <v>3</v>
       </c>
-      <c r="B8" s="48">
-        <f t="shared" ref="B8:B15" si="12">B7+0.05</f>
+      <c r="B8" s="18">
+        <f t="shared" ref="B8:B15" si="11">B7+0.05</f>
         <v>1.1500000000000001</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="31">
         <v>2</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="17">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="E8" s="84">
+      <c r="E8" s="49">
         <f t="shared" si="3"/>
         <v>42.117000016612678</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="17">
         <f t="shared" si="4"/>
         <v>2527.0200009967607</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="49">
         <f t="shared" si="5"/>
         <v>92.464936990744789</v>
       </c>
-      <c r="H8" s="84">
+      <c r="H8" s="49">
         <f t="shared" si="6"/>
         <v>7.5</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J8" s="1">
         <v>10</v>
       </c>
-      <c r="K8" s="63">
-        <f t="shared" si="7"/>
-        <v>10.468278745912549</v>
-      </c>
+      <c r="K8" s="30"/>
       <c r="L8" s="1">
         <v>3</v>
       </c>
-      <c r="M8" s="73">
+      <c r="M8" s="40">
+        <f t="shared" si="7"/>
+        <v>1089.1757142857143</v>
+      </c>
+      <c r="N8" s="18">
         <f t="shared" si="8"/>
-        <v>1089.2857142857142</v>
-      </c>
-      <c r="N8" s="48">
+        <v>980</v>
+      </c>
+      <c r="O8" s="43">
         <f t="shared" si="9"/>
-        <v>980</v>
-      </c>
-      <c r="O8" s="76">
-        <f t="shared" si="10"/>
         <v>777</v>
       </c>
-      <c r="P8" s="72">
+      <c r="P8" s="39">
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
-      <c r="Q8" s="47">
+      <c r="Q8" s="17">
         <f t="shared" si="1"/>
         <v>813.5</v>
       </c>
-      <c r="R8" s="63">
-        <f t="shared" si="11"/>
+      <c r="R8" s="30">
+        <f t="shared" si="10"/>
         <v>9.2464936990744793</v>
       </c>
       <c r="S8" s="1">
         <v>3</v>
       </c>
-      <c r="T8" s="73">
+      <c r="T8" s="40">
         <v>12</v>
       </c>
-      <c r="U8" s="70">
+      <c r="U8" s="37">
         <v>13</v>
       </c>
-      <c r="V8" s="74">
+      <c r="V8" s="41">
         <v>10</v>
       </c>
-      <c r="W8" s="72">
-        <v>9</v>
-      </c>
-      <c r="X8" s="47">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="48">
+      <c r="W8" s="39">
+        <v>8</v>
+      </c>
+      <c r="X8" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
         <v>4</v>
       </c>
-      <c r="B9" s="48">
-        <f t="shared" si="12"/>
+      <c r="B9" s="18">
+        <f t="shared" si="11"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="31">
         <v>2</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="17">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="49">
         <f t="shared" si="3"/>
         <v>52.718281828459048</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="17">
         <f t="shared" si="4"/>
         <v>3163.0969097075431</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G9" s="49">
         <f t="shared" si="5"/>
         <v>90.229205047564847</v>
       </c>
-      <c r="H9" s="84">
+      <c r="H9" s="49">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J9" s="1">
         <v>10</v>
       </c>
-      <c r="K9" s="63">
-        <f t="shared" si="7"/>
-        <v>10.60128181184637</v>
-      </c>
+      <c r="K9" s="30"/>
       <c r="L9" s="1">
         <v>4</v>
       </c>
-      <c r="M9" s="73">
+      <c r="M9" s="40">
+        <f t="shared" si="7"/>
+        <v>1385.0328571428572</v>
+      </c>
+      <c r="N9" s="18">
         <f t="shared" si="8"/>
-        <v>1385.1428571428571</v>
-      </c>
-      <c r="N9" s="48">
+        <v>1350</v>
+      </c>
+      <c r="O9" s="43">
         <f t="shared" si="9"/>
-        <v>1350</v>
-      </c>
-      <c r="O9" s="76">
-        <f t="shared" si="10"/>
         <v>1064</v>
       </c>
-      <c r="P9" s="72">
+      <c r="P9" s="39">
         <f t="shared" si="0"/>
         <v>256.25</v>
       </c>
-      <c r="Q9" s="47">
+      <c r="Q9" s="17">
         <f t="shared" si="1"/>
         <v>1032</v>
       </c>
-      <c r="R9" s="63">
-        <f t="shared" si="11"/>
+      <c r="R9" s="30">
+        <f t="shared" si="10"/>
         <v>11.72979665618343</v>
       </c>
       <c r="S9" s="1">
         <v>4</v>
       </c>
-      <c r="T9" s="73">
+      <c r="T9" s="40">
         <v>16</v>
       </c>
-      <c r="U9" s="70">
+      <c r="U9" s="37">
         <v>17</v>
       </c>
-      <c r="V9" s="74">
+      <c r="V9" s="41">
         <v>13</v>
       </c>
-      <c r="W9" s="72">
-        <v>11</v>
-      </c>
-      <c r="X9" s="47">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="48">
+      <c r="W9" s="39">
+        <v>10</v>
+      </c>
+      <c r="X9" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
         <v>5</v>
       </c>
-      <c r="B10" s="48">
-        <f t="shared" si="12"/>
+      <c r="B10" s="18">
+        <f t="shared" si="11"/>
         <v>1.2500000000000002</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="31">
         <v>3</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="17">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="E10" s="84">
+      <c r="E10" s="49">
         <f t="shared" si="3"/>
         <v>63.490342957461841</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="17">
         <f t="shared" si="4"/>
         <v>3809.4205774477105</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="49">
         <f t="shared" si="5"/>
         <v>87.957272929733861</v>
       </c>
-      <c r="H10" s="84">
+      <c r="H10" s="49">
         <f t="shared" si="6"/>
         <v>17.5</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="63">
-        <f t="shared" si="7"/>
-        <v>10.772061129002793</v>
-      </c>
+      <c r="K10" s="30"/>
       <c r="L10" s="1">
         <v>5</v>
       </c>
-      <c r="M10" s="73">
+      <c r="M10" s="40">
+        <f t="shared" si="7"/>
+        <v>1742.89</v>
+      </c>
+      <c r="N10" s="18">
         <f t="shared" si="8"/>
-        <v>1743</v>
-      </c>
-      <c r="N10" s="48">
+        <v>1752</v>
+      </c>
+      <c r="O10" s="43">
         <f t="shared" si="9"/>
-        <v>1752</v>
-      </c>
-      <c r="O10" s="76">
-        <f t="shared" si="10"/>
         <v>1375</v>
       </c>
-      <c r="P10" s="72">
+      <c r="P10" s="39">
         <f t="shared" si="0"/>
         <v>424</v>
       </c>
-      <c r="Q10" s="47">
+      <c r="Q10" s="17">
         <f t="shared" si="1"/>
         <v>1262.5</v>
       </c>
-      <c r="R10" s="63">
-        <f t="shared" si="11"/>
+      <c r="R10" s="30">
+        <f t="shared" si="10"/>
         <v>14.073163668757418</v>
       </c>
       <c r="S10" s="1">
         <v>5</v>
       </c>
-      <c r="T10" s="73">
+      <c r="T10" s="40">
         <v>20</v>
       </c>
-      <c r="U10" s="70">
+      <c r="U10" s="37">
         <v>21</v>
       </c>
-      <c r="V10" s="74">
+      <c r="V10" s="41">
         <v>16</v>
       </c>
-      <c r="W10" s="72">
-        <v>13</v>
-      </c>
-      <c r="X10" s="47">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="48">
+      <c r="W10" s="39">
+        <v>12</v>
+      </c>
+      <c r="X10" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
         <v>6</v>
       </c>
-      <c r="B11" s="48">
-        <f t="shared" si="12"/>
+      <c r="B11" s="18">
+        <f t="shared" si="11"/>
         <v>1.3000000000000003</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="31">
         <v>3</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="17">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="49">
         <f t="shared" si="3"/>
         <v>74.481689070338064</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="17">
         <f t="shared" si="4"/>
         <v>4468.901344220284</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="49">
         <f t="shared" si="5"/>
         <v>85.643581557616344</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="49">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
@@ -4123,430 +3638,412 @@
         <f>J5+J6*2+J7*3+J8+J9+J10*2</f>
         <v>60</v>
       </c>
-      <c r="K11" s="63">
-        <f t="shared" si="7"/>
-        <v>10.991346112876222</v>
-      </c>
+      <c r="K11" s="30"/>
       <c r="L11" s="1">
         <v>6</v>
       </c>
-      <c r="M11" s="73">
+      <c r="M11" s="40">
+        <f t="shared" si="7"/>
+        <v>2185.0328571428568</v>
+      </c>
+      <c r="N11" s="18">
         <f t="shared" si="8"/>
-        <v>2185.1428571428569</v>
-      </c>
-      <c r="N11" s="48">
+        <v>2192</v>
+      </c>
+      <c r="O11" s="43">
         <f t="shared" si="9"/>
-        <v>2192</v>
-      </c>
-      <c r="O11" s="76">
-        <f t="shared" si="10"/>
         <v>1716</v>
       </c>
-      <c r="P11" s="72">
+      <c r="P11" s="39">
         <f t="shared" si="0"/>
         <v>700.25</v>
       </c>
-      <c r="Q11" s="47">
+      <c r="Q11" s="17">
         <f t="shared" si="1"/>
         <v>1508</v>
       </c>
-      <c r="R11" s="63">
-        <f t="shared" si="11"/>
+      <c r="R11" s="30">
+        <f t="shared" si="10"/>
         <v>16.272280495947104</v>
       </c>
       <c r="S11" s="1">
         <v>6</v>
       </c>
-      <c r="T11" s="73">
+      <c r="T11" s="40">
         <v>24</v>
       </c>
-      <c r="U11" s="70">
+      <c r="U11" s="37">
         <v>25</v>
       </c>
-      <c r="V11" s="74">
+      <c r="V11" s="41">
         <v>19</v>
       </c>
-      <c r="W11" s="72">
-        <v>15</v>
-      </c>
-      <c r="X11" s="47">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="48">
+      <c r="W11" s="39">
+        <v>14</v>
+      </c>
+      <c r="X11" s="17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
         <v>7</v>
       </c>
-      <c r="B12" s="48">
-        <f t="shared" si="12"/>
+      <c r="B12" s="18">
+        <f t="shared" si="11"/>
         <v>1.3500000000000003</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="31">
         <v>4</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="17">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="49">
         <f t="shared" si="3"/>
         <v>85.754602676005732</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="17">
         <f t="shared" si="4"/>
         <v>5145.2761605603437</v>
       </c>
-      <c r="G12" s="47">
+      <c r="G12" s="49">
         <f t="shared" si="5"/>
         <v>83.281718171540959</v>
       </c>
-      <c r="H12" s="84">
+      <c r="H12" s="49">
         <f t="shared" si="6"/>
         <v>31.5</v>
       </c>
-      <c r="K12" s="63">
-        <f t="shared" si="7"/>
-        <v>11.272913605667668</v>
-      </c>
+      <c r="K12" s="30"/>
       <c r="L12" s="1">
         <v>7</v>
       </c>
-      <c r="M12" s="73">
+      <c r="M12" s="40">
+        <f t="shared" si="7"/>
+        <v>2737.1757142857141</v>
+      </c>
+      <c r="N12" s="18">
         <f t="shared" si="8"/>
-        <v>2737.2857142857142</v>
-      </c>
-      <c r="N12" s="48">
+        <v>2676</v>
+      </c>
+      <c r="O12" s="43">
         <f t="shared" si="9"/>
-        <v>2676</v>
-      </c>
-      <c r="O12" s="76">
-        <f t="shared" si="10"/>
         <v>2093</v>
       </c>
-      <c r="P12" s="72">
+      <c r="P12" s="39">
         <f t="shared" si="0"/>
         <v>1124</v>
       </c>
-      <c r="Q12" s="47">
+      <c r="Q12" s="17">
         <f t="shared" si="1"/>
         <v>1771.5</v>
       </c>
-      <c r="R12" s="63">
-        <f t="shared" si="11"/>
+      <c r="R12" s="30">
+        <f t="shared" si="10"/>
         <v>18.321977997739012</v>
       </c>
       <c r="S12" s="1">
         <v>7</v>
       </c>
-      <c r="T12" s="73">
+      <c r="T12" s="40">
         <v>28</v>
       </c>
-      <c r="U12" s="70">
+      <c r="U12" s="37">
         <v>29</v>
       </c>
-      <c r="V12" s="74">
+      <c r="V12" s="41">
         <v>22</v>
       </c>
-      <c r="W12" s="72">
-        <v>17</v>
-      </c>
-      <c r="X12" s="47">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="48">
+      <c r="W12" s="39">
+        <v>16</v>
+      </c>
+      <c r="X12" s="17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
         <v>8</v>
       </c>
-      <c r="B13" s="48">
-        <f t="shared" si="12"/>
+      <c r="B13" s="18">
+        <f t="shared" si="11"/>
         <v>1.4000000000000004</v>
       </c>
-      <c r="C13" s="64">
+      <c r="C13" s="31">
         <v>4</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="17">
         <f t="shared" si="2"/>
         <v>176</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="49">
         <f t="shared" si="3"/>
         <v>97.389056098930652</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="17">
         <f t="shared" si="4"/>
         <v>5843.3433659358388</v>
       </c>
-      <c r="G13" s="47">
+      <c r="G13" s="49">
         <f t="shared" si="5"/>
         <v>80.864285236430177</v>
       </c>
-      <c r="H13" s="84">
+      <c r="H13" s="49">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="63">
-        <f t="shared" si="7"/>
-        <v>11.634453422924921</v>
-      </c>
+      <c r="K13" s="30"/>
       <c r="L13" s="1">
         <v>8</v>
       </c>
-      <c r="M13" s="73">
+      <c r="M13" s="40">
+        <f t="shared" si="7"/>
+        <v>3428.4614285714283</v>
+      </c>
+      <c r="N13" s="18">
         <f t="shared" si="8"/>
-        <v>3428.5714285714284</v>
-      </c>
-      <c r="N13" s="48">
+        <v>3210</v>
+      </c>
+      <c r="O13" s="43">
         <f t="shared" si="9"/>
-        <v>3210</v>
-      </c>
-      <c r="O13" s="76">
-        <f t="shared" si="10"/>
         <v>2512</v>
       </c>
-      <c r="P13" s="72">
+      <c r="P13" s="39">
         <f t="shared" si="0"/>
         <v>1740.25</v>
       </c>
-      <c r="Q13" s="47">
+      <c r="Q13" s="17">
         <f t="shared" si="1"/>
         <v>2056</v>
       </c>
-      <c r="R13" s="63">
-        <f t="shared" si="11"/>
+      <c r="R13" s="30">
+        <f t="shared" si="10"/>
         <v>20.216071309107544</v>
       </c>
       <c r="S13" s="1">
         <v>8</v>
       </c>
-      <c r="T13" s="73">
+      <c r="T13" s="40">
         <v>32</v>
       </c>
-      <c r="U13" s="70">
+      <c r="U13" s="37">
         <v>33</v>
       </c>
-      <c r="V13" s="74">
+      <c r="V13" s="41">
         <v>25</v>
       </c>
-      <c r="W13" s="72">
-        <v>19</v>
-      </c>
-      <c r="X13" s="47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="48">
+      <c r="W13" s="39">
+        <v>18</v>
+      </c>
+      <c r="X13" s="17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
         <v>9</v>
       </c>
-      <c r="B14" s="48">
-        <f t="shared" si="12"/>
+      <c r="B14" s="18">
+        <f t="shared" si="11"/>
         <v>1.4500000000000004</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="31">
         <v>5</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="17">
         <f t="shared" si="2"/>
         <v>188</v>
       </c>
-      <c r="E14" s="84">
+      <c r="E14" s="49">
         <f t="shared" si="3"/>
         <v>109.48773583635852</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="17">
         <f t="shared" si="4"/>
         <v>6569.2641501815115</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="49">
         <f t="shared" si="5"/>
         <v>78.382749214770058</v>
       </c>
-      <c r="H14" s="84">
+      <c r="H14" s="49">
         <f t="shared" si="6"/>
         <v>49.5</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="63">
-        <f t="shared" si="7"/>
-        <v>12.098679737427872</v>
-      </c>
+      <c r="K14" s="30"/>
       <c r="L14" s="1">
         <v>9</v>
       </c>
-      <c r="M14" s="73">
+      <c r="M14" s="40">
+        <f t="shared" si="7"/>
+        <v>4291.4614285714288</v>
+      </c>
+      <c r="N14" s="18">
         <f t="shared" si="8"/>
-        <v>4291.5714285714284</v>
-      </c>
-      <c r="N14" s="48">
+        <v>3800</v>
+      </c>
+      <c r="O14" s="43">
         <f t="shared" si="9"/>
-        <v>3800</v>
-      </c>
-      <c r="O14" s="76">
-        <f t="shared" si="10"/>
         <v>2979</v>
       </c>
-      <c r="P14" s="72">
+      <c r="P14" s="39">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
-      <c r="Q14" s="47">
+      <c r="Q14" s="17">
         <f t="shared" si="1"/>
         <v>2364.5</v>
       </c>
-      <c r="R14" s="63">
-        <f t="shared" si="11"/>
+      <c r="R14" s="30">
+        <f t="shared" si="10"/>
         <v>21.947169780135617</v>
       </c>
       <c r="S14" s="1">
         <v>9</v>
       </c>
-      <c r="T14" s="73">
+      <c r="T14" s="40">
         <v>36</v>
       </c>
-      <c r="U14" s="70">
+      <c r="U14" s="37">
         <v>37</v>
       </c>
-      <c r="V14" s="74">
+      <c r="V14" s="41">
         <v>28</v>
       </c>
-      <c r="W14" s="72">
-        <v>21</v>
-      </c>
-      <c r="X14" s="47">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="48">
+      <c r="W14" s="39">
+        <v>20</v>
+      </c>
+      <c r="X14" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
         <v>10</v>
       </c>
-      <c r="B15" s="48">
-        <f t="shared" si="12"/>
+      <c r="B15" s="18">
+        <f t="shared" si="11"/>
         <v>1.5000000000000004</v>
       </c>
-      <c r="C15" s="64">
+      <c r="C15" s="31">
         <v>6</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="17">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="E15" s="84">
+      <c r="E15" s="49">
         <f t="shared" si="3"/>
         <v>122.18249396070347</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="17">
         <f t="shared" si="4"/>
         <v>7330.9496376422085</v>
       </c>
-      <c r="G15" s="47">
+      <c r="G15" s="49">
         <f t="shared" si="5"/>
         <v>75.827266116401901</v>
       </c>
-      <c r="H15" s="84">
+      <c r="H15" s="49">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="63">
-        <f t="shared" si="7"/>
-        <v>12.694758124344943</v>
-      </c>
+      <c r="K15" s="30"/>
       <c r="L15" s="1">
         <v>10</v>
       </c>
-      <c r="M15" s="73">
+      <c r="M15" s="40">
+        <f t="shared" si="7"/>
+        <v>5362.1757142857141</v>
+      </c>
+      <c r="N15" s="18">
         <f t="shared" si="8"/>
-        <v>5362.2857142857138</v>
-      </c>
-      <c r="N15" s="48">
+        <v>4452</v>
+      </c>
+      <c r="O15" s="43">
         <f t="shared" si="9"/>
-        <v>4452</v>
-      </c>
-      <c r="O15" s="76">
-        <f t="shared" si="10"/>
         <v>3500</v>
       </c>
-      <c r="P15" s="72">
+      <c r="P15" s="39">
         <f t="shared" si="0"/>
         <v>3760.25</v>
       </c>
-      <c r="Q15" s="47">
+      <c r="Q15" s="17">
         <f t="shared" si="1"/>
         <v>2700</v>
       </c>
-      <c r="R15" s="63">
-        <f t="shared" si="11"/>
+      <c r="R15" s="30">
+        <f t="shared" si="10"/>
         <v>23.506452496084588</v>
       </c>
       <c r="S15" s="1">
         <v>10</v>
       </c>
-      <c r="T15" s="73">
+      <c r="T15" s="40">
         <v>40</v>
       </c>
-      <c r="U15" s="48">
+      <c r="U15" s="37">
         <v>41</v>
       </c>
-      <c r="V15" s="74">
+      <c r="V15" s="41">
         <v>31</v>
       </c>
-      <c r="W15" s="72">
-        <v>23</v>
-      </c>
-      <c r="X15" s="47">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="48">
+      <c r="W15" s="39">
+        <v>22</v>
+      </c>
+      <c r="X15" s="17">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
         <v>11</v>
       </c>
-      <c r="B16" s="48">
+      <c r="B16" s="18">
         <f>B15+0.15</f>
         <v>1.6500000000000004</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="84">
+      <c r="C16" s="34"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49">
         <f t="shared" si="3"/>
         <v>135.64263188418818</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="17">
         <f t="shared" si="4"/>
         <v>8138.5579130512906</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="49">
         <f t="shared" si="5"/>
         <v>73.186480258868514</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="63">
-        <f t="shared" si="7"/>
-        <v>13.460137923484709</v>
-      </c>
+      <c r="K16" s="30"/>
       <c r="L16" s="1">
         <v>11</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="76">
-        <f t="shared" si="10"/>
+      <c r="O16" s="43">
+        <f t="shared" si="9"/>
         <v>4081</v>
       </c>
       <c r="P16" s="1"/>
-      <c r="Q16" s="47">
+      <c r="Q16" s="17">
         <f t="shared" si="1"/>
         <v>3065.5</v>
       </c>
-      <c r="R16" s="63">
-        <f t="shared" si="11"/>
+      <c r="R16" s="30">
+        <f t="shared" si="10"/>
         <v>24.883403288015291</v>
       </c>
       <c r="S16" s="1">
@@ -4554,58 +4051,55 @@
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="2"/>
-      <c r="V16" s="74">
+      <c r="V16" s="41">
         <v>34</v>
       </c>
       <c r="W16" s="1"/>
-      <c r="X16" s="47">
-        <v>61</v>
+      <c r="X16" s="17">
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="48">
+      <c r="A17" s="18">
         <v>12</v>
       </c>
-      <c r="B17" s="48">
+      <c r="B17" s="18">
         <f>B16+0.15</f>
         <v>1.8000000000000003</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="84">
+      <c r="C17" s="34"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49">
         <f t="shared" si="3"/>
         <v>150.08553692318768</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="17">
         <f t="shared" si="4"/>
         <v>9005.1322153912606</v>
       </c>
-      <c r="G17" s="47">
+      <c r="G17" s="49">
         <f t="shared" si="5"/>
         <v>70.447292124394167</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="63">
-        <f t="shared" si="7"/>
-        <v>14.442905038999498</v>
-      </c>
+      <c r="K17" s="30"/>
       <c r="L17" s="1">
         <v>12</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="76">
-        <f t="shared" si="10"/>
+      <c r="O17" s="43">
+        <f t="shared" si="9"/>
         <v>4728</v>
       </c>
       <c r="P17" s="1"/>
-      <c r="Q17" s="47">
+      <c r="Q17" s="17">
         <f t="shared" si="1"/>
         <v>3464</v>
       </c>
-      <c r="R17" s="63">
-        <f t="shared" si="11"/>
+      <c r="R17" s="30">
+        <f t="shared" si="10"/>
         <v>26.065498086025841</v>
       </c>
       <c r="S17" s="1">
@@ -4613,58 +4107,55 @@
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="2"/>
-      <c r="V17" s="74">
+      <c r="V17" s="41">
         <v>37</v>
       </c>
       <c r="W17" s="1"/>
-      <c r="X17" s="47">
-        <v>66</v>
+      <c r="X17" s="17">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="48">
+      <c r="A18" s="18">
         <v>13</v>
       </c>
-      <c r="B18" s="48">
-        <f t="shared" ref="B18:B25" si="13">B17+0.15</f>
+      <c r="B18" s="18">
+        <f t="shared" ref="B18:B25" si="12">B17+0.15</f>
         <v>1.9500000000000002</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="84">
+      <c r="C18" s="34"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49">
         <f t="shared" si="3"/>
         <v>165.79033991719305</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="17">
         <f t="shared" si="4"/>
         <v>9947.4203950315823</v>
       </c>
-      <c r="G18" s="47">
+      <c r="G18" s="49">
         <f t="shared" si="5"/>
         <v>67.594590567822735</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="63">
-        <f t="shared" si="7"/>
-        <v>15.704802994005377</v>
-      </c>
+      <c r="K18" s="30"/>
       <c r="L18" s="1">
         <v>13</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="76">
-        <f t="shared" si="10"/>
+      <c r="O18" s="43">
+        <f t="shared" si="9"/>
         <v>5447</v>
       </c>
       <c r="P18" s="1"/>
-      <c r="Q18" s="47">
+      <c r="Q18" s="17">
         <f t="shared" si="1"/>
         <v>3898.5</v>
       </c>
-      <c r="R18" s="63">
-        <f t="shared" si="11"/>
+      <c r="R18" s="30">
+        <f t="shared" si="10"/>
         <v>27.037836227129091</v>
       </c>
       <c r="S18" s="1">
@@ -4672,58 +4163,55 @@
       </c>
       <c r="T18" s="1"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="74">
+      <c r="V18" s="41">
         <v>40</v>
       </c>
       <c r="W18" s="1"/>
-      <c r="X18" s="47">
-        <v>71</v>
+      <c r="X18" s="17">
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="48">
+      <c r="A19" s="18">
         <v>14</v>
       </c>
-      <c r="B19" s="48">
-        <f t="shared" si="13"/>
+      <c r="B19" s="18">
+        <f t="shared" si="12"/>
         <v>2.1</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="84">
+      <c r="C19" s="34"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49">
         <f t="shared" si="3"/>
         <v>183.11545195869232</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="17">
         <f t="shared" si="4"/>
         <v>10986.92711752154</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="49">
         <f t="shared" si="5"/>
         <v>64.610943901069348</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="63">
-        <f t="shared" si="7"/>
-        <v>17.325112041499267</v>
-      </c>
+      <c r="K19" s="30"/>
       <c r="L19" s="1">
         <v>14</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="76">
-        <f t="shared" si="10"/>
+      <c r="O19" s="43">
+        <f t="shared" si="9"/>
         <v>6244</v>
       </c>
       <c r="P19" s="1"/>
-      <c r="Q19" s="47">
+      <c r="Q19" s="17">
         <f t="shared" si="1"/>
         <v>4372</v>
       </c>
-      <c r="R19" s="63">
-        <f t="shared" si="11"/>
+      <c r="R19" s="30">
+        <f t="shared" si="10"/>
         <v>27.782705877459822</v>
       </c>
       <c r="S19" s="1">
@@ -4731,58 +4219,55 @@
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="74">
+      <c r="V19" s="41">
         <v>43</v>
       </c>
       <c r="W19" s="1"/>
-      <c r="X19" s="47">
-        <v>76</v>
+      <c r="X19" s="17">
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="48">
+      <c r="A20" s="18">
         <v>15</v>
       </c>
-      <c r="B20" s="48">
-        <f t="shared" si="13"/>
+      <c r="B20" s="18">
+        <f t="shared" si="12"/>
         <v>2.25</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="84">
+      <c r="C20" s="34"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49">
         <f t="shared" si="3"/>
         <v>202.52108200006279</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="17">
         <f t="shared" si="4"/>
         <v>12151.264920003767</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="49">
         <f t="shared" si="5"/>
         <v>61.476243538957405</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="63">
-        <f t="shared" si="7"/>
-        <v>19.405630041370472</v>
-      </c>
+      <c r="K20" s="30"/>
       <c r="L20" s="1">
         <v>15</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="76">
-        <f t="shared" si="10"/>
+      <c r="O20" s="43">
+        <f t="shared" si="9"/>
         <v>7125</v>
       </c>
       <c r="P20" s="1"/>
-      <c r="Q20" s="47">
+      <c r="Q20" s="17">
         <f t="shared" si="1"/>
         <v>4887.5</v>
       </c>
-      <c r="R20" s="63">
-        <f t="shared" si="11"/>
+      <c r="R20" s="30">
+        <f t="shared" si="10"/>
         <v>28.279072027920407</v>
       </c>
       <c r="S20" s="1">
@@ -4790,56 +4275,53 @@
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="2"/>
-      <c r="V20" s="74">
+      <c r="V20" s="41">
         <v>46</v>
       </c>
       <c r="W20" s="1"/>
-      <c r="X20" s="47">
-        <v>81</v>
+      <c r="X20" s="17">
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="48">
+      <c r="A21" s="18">
         <v>16</v>
       </c>
-      <c r="B21" s="48">
-        <f t="shared" si="13"/>
+      <c r="B21" s="18">
+        <f t="shared" si="12"/>
         <v>2.4</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="84">
+      <c r="C21" s="34"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49">
         <f t="shared" si="3"/>
         <v>224.59815003314424</v>
       </c>
-      <c r="F21" s="47">
+      <c r="F21" s="17">
         <f t="shared" si="4"/>
         <v>13475.889001988655</v>
       </c>
-      <c r="G21" s="47">
+      <c r="G21" s="49">
         <f t="shared" si="5"/>
         <v>58.167292921530247</v>
       </c>
-      <c r="K21" s="63">
-        <f t="shared" si="7"/>
-        <v>22.077068033081446</v>
-      </c>
+      <c r="K21" s="30"/>
       <c r="L21" s="1">
         <v>16</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="76">
-        <f t="shared" si="10"/>
+      <c r="O21" s="43">
+        <f t="shared" si="9"/>
         <v>8096</v>
       </c>
       <c r="P21" s="1"/>
-      <c r="Q21" s="47">
+      <c r="Q21" s="17">
         <f t="shared" si="1"/>
         <v>5448</v>
       </c>
-      <c r="R21" s="63">
-        <f t="shared" si="11"/>
+      <c r="R21" s="30">
+        <f t="shared" si="10"/>
         <v>28.501973531549819</v>
       </c>
       <c r="S21" s="1">
@@ -4847,56 +4329,53 @@
       </c>
       <c r="T21" s="1"/>
       <c r="U21" s="2"/>
-      <c r="V21" s="74">
+      <c r="V21" s="41">
         <v>49</v>
       </c>
       <c r="W21" s="1"/>
-      <c r="X21" s="47">
-        <v>86</v>
+      <c r="X21" s="17">
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="48">
+      <c r="A22" s="18">
         <v>17</v>
       </c>
-      <c r="B22" s="48">
-        <f t="shared" si="13"/>
+      <c r="B22" s="18">
+        <f t="shared" si="12"/>
         <v>2.5499999999999998</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="84">
+      <c r="C22" s="34"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49">
         <f t="shared" si="3"/>
         <v>250.10541234668784</v>
       </c>
-      <c r="F22" s="47">
+      <c r="F22" s="17">
         <f t="shared" si="4"/>
         <v>15006.32474080127</v>
       </c>
-      <c r="G22" s="47">
+      <c r="G22" s="49">
         <f t="shared" si="5"/>
         <v>54.65733330921995</v>
       </c>
-      <c r="K22" s="63">
-        <f t="shared" si="7"/>
-        <v>25.507262313543606</v>
-      </c>
+      <c r="K22" s="30"/>
       <c r="L22" s="1">
         <v>17</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="76">
-        <f t="shared" si="10"/>
+      <c r="O22" s="43">
+        <f t="shared" si="9"/>
         <v>9163</v>
       </c>
       <c r="P22" s="1"/>
-      <c r="Q22" s="47">
+      <c r="Q22" s="17">
         <f t="shared" si="1"/>
         <v>6056.5</v>
       </c>
-      <c r="R22" s="63">
-        <f t="shared" si="11"/>
+      <c r="R22" s="30">
+        <f t="shared" si="10"/>
         <v>28.421813320794371</v>
       </c>
       <c r="S22" s="1">
@@ -4904,56 +4383,53 @@
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="2"/>
-      <c r="V22" s="74">
+      <c r="V22" s="41">
         <v>52</v>
       </c>
       <c r="W22" s="1"/>
-      <c r="X22" s="47">
-        <v>91</v>
+      <c r="X22" s="17">
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="48">
+      <c r="A23" s="18">
         <v>18</v>
       </c>
-      <c r="B23" s="48">
-        <f t="shared" si="13"/>
+      <c r="B23" s="18">
+        <f t="shared" si="12"/>
         <v>2.6999999999999997</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="84">
+      <c r="C23" s="34"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49">
         <f t="shared" si="3"/>
         <v>280.01713130052178</v>
       </c>
-      <c r="F23" s="47">
+      <c r="F23" s="17">
         <f t="shared" si="4"/>
         <v>16801.027878031306</v>
       </c>
-      <c r="G23" s="47">
+      <c r="G23" s="49">
         <f t="shared" si="5"/>
         <v>50.915496756753413</v>
       </c>
-      <c r="K23" s="63">
-        <f t="shared" si="7"/>
-        <v>29.91171895383394</v>
-      </c>
+      <c r="K23" s="30"/>
       <c r="L23" s="1">
         <v>18</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="76">
-        <f t="shared" si="10"/>
+      <c r="O23" s="43">
+        <f t="shared" si="9"/>
         <v>10332</v>
       </c>
       <c r="P23" s="1"/>
-      <c r="Q23" s="47">
+      <c r="Q23" s="17">
         <f t="shared" si="1"/>
         <v>6716</v>
       </c>
-      <c r="R23" s="63">
-        <f t="shared" si="11"/>
+      <c r="R23" s="30">
+        <f t="shared" si="10"/>
         <v>28.003523216214376</v>
       </c>
       <c r="S23" s="1">
@@ -4961,56 +4437,53 @@
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="2"/>
-      <c r="V23" s="74">
+      <c r="V23" s="41">
         <v>55</v>
       </c>
       <c r="W23" s="1"/>
-      <c r="X23" s="47">
-        <v>96</v>
+      <c r="X23" s="17">
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="48">
+      <c r="A24" s="18">
         <v>19</v>
       </c>
-      <c r="B24" s="48">
-        <f t="shared" si="13"/>
+      <c r="B24" s="18">
+        <f t="shared" si="12"/>
         <v>2.8499999999999996</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="84">
+      <c r="C24" s="34"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49">
         <f t="shared" si="3"/>
         <v>315.58428452718766</v>
       </c>
-      <c r="F24" s="47">
+      <c r="F24" s="17">
         <f t="shared" si="4"/>
         <v>18935.057071631261</v>
       </c>
-      <c r="G24" s="47">
+      <c r="G24" s="49">
         <f t="shared" si="5"/>
         <v>46.906175082999226</v>
       </c>
-      <c r="K24" s="63">
-        <f t="shared" si="7"/>
-        <v>35.56715322666588</v>
-      </c>
+      <c r="K24" s="30"/>
       <c r="L24" s="1">
         <v>19</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="76">
-        <f t="shared" si="10"/>
+      <c r="O24" s="43">
+        <f t="shared" si="9"/>
         <v>11609</v>
       </c>
       <c r="P24" s="1"/>
-      <c r="Q24" s="47">
+      <c r="Q24" s="17">
         <f t="shared" si="1"/>
         <v>7429.5</v>
       </c>
-      <c r="R24" s="63">
-        <f t="shared" si="11"/>
+      <c r="R24" s="30">
+        <f t="shared" si="10"/>
         <v>27.205581548139552</v>
       </c>
       <c r="S24" s="1">
@@ -5018,56 +4491,53 @@
       </c>
       <c r="T24" s="1"/>
       <c r="U24" s="2"/>
-      <c r="V24" s="74">
+      <c r="V24" s="41">
         <v>58</v>
       </c>
       <c r="W24" s="1"/>
-      <c r="X24" s="47">
-        <v>101</v>
+      <c r="X24" s="17">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="48">
+      <c r="A25" s="18">
         <v>20</v>
       </c>
-      <c r="B25" s="48">
-        <f t="shared" si="13"/>
+      <c r="B25" s="18">
+        <f t="shared" si="12"/>
         <v>2.9999999999999996</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="84">
+      <c r="C25" s="34"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49">
         <f t="shared" si="3"/>
         <v>358.41315910257663</v>
       </c>
-      <c r="F25" s="47">
+      <c r="F25" s="17">
         <f t="shared" si="4"/>
         <v>21504.7895461546</v>
       </c>
-      <c r="G25" s="47">
+      <c r="G25" s="49">
         <f t="shared" si="5"/>
         <v>42.588291936672348</v>
       </c>
-      <c r="K25" s="63">
-        <f>E25-E24</f>
-        <v>42.828874575388966</v>
-      </c>
+      <c r="K25" s="30"/>
       <c r="L25" s="1">
         <v>20</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="76">
-        <f t="shared" si="10"/>
+      <c r="O25" s="43">
+        <f t="shared" si="9"/>
         <v>13000</v>
       </c>
       <c r="P25" s="1"/>
-      <c r="Q25" s="47">
+      <c r="Q25" s="17">
         <f t="shared" si="1"/>
         <v>8200</v>
       </c>
-      <c r="R25" s="63">
-        <f t="shared" si="11"/>
+      <c r="R25" s="30">
+        <f t="shared" si="10"/>
         <v>25.978858081370131</v>
       </c>
       <c r="S25" s="1">
@@ -5075,23 +4545,27 @@
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="2"/>
-      <c r="V25" s="74">
+      <c r="V25" s="41">
         <v>61</v>
       </c>
       <c r="W25" s="1"/>
-      <c r="X25" s="47">
-        <v>106</v>
+      <c r="X25" s="17">
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="L26" s="1">
         <v>21</v>
       </c>
-      <c r="O26" s="69"/>
+      <c r="O26" s="36"/>
       <c r="S26" s="1">
         <v>21</v>
       </c>
-      <c r="V26" s="69"/>
+      <c r="T26" s="76"/>
+      <c r="U26" s="76"/>
+      <c r="V26" s="76"/>
+      <c r="W26" s="76"/>
+      <c r="X26" s="76"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="L27" s="1">
@@ -5102,10 +4576,1233 @@
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="R28" s="63"/>
+      <c r="R28" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA4F8CF-86B3-4F28-A0B3-CE987373175F}">
+  <dimension ref="B1:P49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D1" s="1">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1">
+        <v>80</v>
+      </c>
+      <c r="G1" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="3" spans="2:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="16">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="16">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1.05</v>
+      </c>
+      <c r="D5" s="66">
+        <f>$D$1+B5*$D$1+EXP(B5/4)</f>
+        <v>21.28402541668774</v>
+      </c>
+      <c r="E5" s="45">
+        <f>(100-EXP(B5/7)-B5*2)/100</f>
+        <v>0.96846435005104892</v>
+      </c>
+      <c r="F5" s="16">
+        <f>F1+G1</f>
+        <v>92</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
+      <c r="H5" s="15">
+        <f>B5*B5/2+B5-0.02</f>
+        <v>1.48</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="16">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D6" s="66">
+        <f t="shared" ref="D6:D24" si="0">$D$1+B6*$D$1+EXP(B6/4)</f>
+        <v>31.648721270700129</v>
+      </c>
+      <c r="E6" s="45">
+        <f t="shared" ref="E6:E24" si="1">(100-EXP(B6/7)-B6*2)/100</f>
+        <v>0.94669287802552649</v>
+      </c>
+      <c r="F6" s="16">
+        <f>F5+G1</f>
+        <v>104</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15">
+        <f t="shared" ref="H6:H14" si="2">B6*B6/2+B6-0.02</f>
+        <v>3.98</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="16">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D7" s="66">
+        <f t="shared" si="0"/>
+        <v>42.117000016612678</v>
+      </c>
+      <c r="E7" s="45">
+        <f t="shared" si="1"/>
+        <v>0.92464936990744784</v>
+      </c>
+      <c r="F7" s="16">
+        <f>F6+$G$1</f>
+        <v>116</v>
+      </c>
+      <c r="G7" s="16">
+        <v>2</v>
+      </c>
+      <c r="H7" s="15">
+        <f t="shared" si="2"/>
+        <v>7.48</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="16">
+        <v>4</v>
+      </c>
+      <c r="C8" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="D8" s="66">
+        <f t="shared" si="0"/>
+        <v>52.718281828459048</v>
+      </c>
+      <c r="E8" s="45">
+        <f t="shared" si="1"/>
+        <v>0.90229205047564842</v>
+      </c>
+      <c r="F8" s="16">
+        <f t="shared" ref="F8:F14" si="3">F7+$G$1</f>
+        <v>128</v>
+      </c>
+      <c r="G8" s="16">
+        <v>2</v>
+      </c>
+      <c r="H8" s="15">
+        <f t="shared" si="2"/>
+        <v>11.98</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="16">
+        <v>5</v>
+      </c>
+      <c r="C9" s="16">
+        <v>1.25</v>
+      </c>
+      <c r="D9" s="66">
+        <f t="shared" si="0"/>
+        <v>63.490342957461841</v>
+      </c>
+      <c r="E9" s="45">
+        <f t="shared" si="1"/>
+        <v>0.87957272929733865</v>
+      </c>
+      <c r="F9" s="16">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="G9" s="16">
+        <v>3</v>
+      </c>
+      <c r="H9" s="15">
+        <f t="shared" si="2"/>
+        <v>17.48</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="16">
+        <v>6</v>
+      </c>
+      <c r="C10" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="D10" s="66">
+        <f t="shared" si="0"/>
+        <v>74.481689070338064</v>
+      </c>
+      <c r="E10" s="45">
+        <f t="shared" si="1"/>
+        <v>0.85643581557616344</v>
+      </c>
+      <c r="F10" s="16">
+        <f t="shared" si="3"/>
+        <v>152</v>
+      </c>
+      <c r="G10" s="16">
+        <v>3</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" si="2"/>
+        <v>23.98</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="16">
+        <v>7</v>
+      </c>
+      <c r="C11" s="16">
+        <v>1.35</v>
+      </c>
+      <c r="D11" s="66">
+        <f t="shared" si="0"/>
+        <v>85.754602676005732</v>
+      </c>
+      <c r="E11" s="45">
+        <f t="shared" si="1"/>
+        <v>0.83281718171540964</v>
+      </c>
+      <c r="F11" s="16">
+        <f t="shared" si="3"/>
+        <v>164</v>
+      </c>
+      <c r="G11" s="16">
+        <v>4</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="2"/>
+        <v>31.48</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="16">
+        <v>8</v>
+      </c>
+      <c r="C12" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="D12" s="66">
+        <f t="shared" si="0"/>
+        <v>97.389056098930652</v>
+      </c>
+      <c r="E12" s="45">
+        <f t="shared" si="1"/>
+        <v>0.80864285236430178</v>
+      </c>
+      <c r="F12" s="71">
+        <f t="shared" si="3"/>
+        <v>176</v>
+      </c>
+      <c r="G12" s="16">
+        <v>4</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" si="2"/>
+        <v>39.979999999999997</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="16">
+        <v>9</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1.45</v>
+      </c>
+      <c r="D13" s="66">
+        <f t="shared" si="0"/>
+        <v>109.48773583635852</v>
+      </c>
+      <c r="E13" s="45">
+        <f t="shared" si="1"/>
+        <v>0.78382749214770053</v>
+      </c>
+      <c r="F13" s="71">
+        <f t="shared" si="3"/>
+        <v>188</v>
+      </c>
+      <c r="G13" s="16">
+        <v>5</v>
+      </c>
+      <c r="H13" s="15">
+        <f t="shared" si="2"/>
+        <v>49.48</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="16">
+        <v>10</v>
+      </c>
+      <c r="C14" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="D14" s="66">
+        <f t="shared" si="0"/>
+        <v>122.18249396070347</v>
+      </c>
+      <c r="E14" s="45">
+        <f t="shared" si="1"/>
+        <v>0.75827266116401904</v>
+      </c>
+      <c r="F14" s="16">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="G14" s="16">
+        <v>6</v>
+      </c>
+      <c r="H14" s="15">
+        <f t="shared" si="2"/>
+        <v>59.98</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="16">
+        <v>11</v>
+      </c>
+      <c r="C15" s="16">
+        <v>1.65</v>
+      </c>
+      <c r="D15" s="66">
+        <f t="shared" si="0"/>
+        <v>135.64263188418818</v>
+      </c>
+      <c r="E15" s="45">
+        <f t="shared" si="1"/>
+        <v>0.73186480258868514</v>
+      </c>
+      <c r="F15" s="70"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="63">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="16">
+        <v>12</v>
+      </c>
+      <c r="C16" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="D16" s="66">
+        <f t="shared" si="0"/>
+        <v>150.08553692318768</v>
+      </c>
+      <c r="E16" s="45">
+        <f t="shared" si="1"/>
+        <v>0.70447292124394167</v>
+      </c>
+      <c r="F16" s="70"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="16">
+        <v>13</v>
+      </c>
+      <c r="C17" s="16">
+        <v>1.95</v>
+      </c>
+      <c r="D17" s="66">
+        <f t="shared" si="0"/>
+        <v>165.79033991719305</v>
+      </c>
+      <c r="E17" s="45">
+        <f t="shared" si="1"/>
+        <v>0.67594590567822732</v>
+      </c>
+      <c r="F17" s="70"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="65">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="16">
+        <v>14</v>
+      </c>
+      <c r="C18" s="16">
+        <v>2.1</v>
+      </c>
+      <c r="D18" s="66">
+        <f t="shared" si="0"/>
+        <v>183.11545195869232</v>
+      </c>
+      <c r="E18" s="45">
+        <f t="shared" si="1"/>
+        <v>0.64610943901069351</v>
+      </c>
+      <c r="F18" s="70"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="16">
+        <v>15</v>
+      </c>
+      <c r="C19" s="16">
+        <v>2.25</v>
+      </c>
+      <c r="D19" s="66">
+        <f t="shared" si="0"/>
+        <v>202.52108200006279</v>
+      </c>
+      <c r="E19" s="45">
+        <f t="shared" si="1"/>
+        <v>0.61476243538957409</v>
+      </c>
+      <c r="F19" s="70"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="16">
+        <v>16</v>
+      </c>
+      <c r="C20" s="16">
+        <v>2.4</v>
+      </c>
+      <c r="D20" s="66">
+        <f t="shared" si="0"/>
+        <v>224.59815003314424</v>
+      </c>
+      <c r="E20" s="45">
+        <f t="shared" si="1"/>
+        <v>0.58167292921530245</v>
+      </c>
+      <c r="F20" s="70"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="16">
+        <v>17</v>
+      </c>
+      <c r="C21" s="16">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D21" s="66">
+        <f t="shared" si="0"/>
+        <v>250.10541234668784</v>
+      </c>
+      <c r="E21" s="45">
+        <f t="shared" si="1"/>
+        <v>0.54657333309219946</v>
+      </c>
+      <c r="F21" s="70"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="16">
+        <v>18</v>
+      </c>
+      <c r="C22" s="16">
+        <v>2.7</v>
+      </c>
+      <c r="D22" s="66">
+        <f t="shared" si="0"/>
+        <v>280.01713130052178</v>
+      </c>
+      <c r="E22" s="45">
+        <f t="shared" si="1"/>
+        <v>0.50915496756753409</v>
+      </c>
+      <c r="F22" s="70"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="16">
+        <v>19</v>
+      </c>
+      <c r="C23" s="16">
+        <v>2.85</v>
+      </c>
+      <c r="D23" s="66">
+        <f t="shared" si="0"/>
+        <v>315.58428452718766</v>
+      </c>
+      <c r="E23" s="45">
+        <f t="shared" si="1"/>
+        <v>0.46906175082999224</v>
+      </c>
+      <c r="F23" s="70"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="16">
+        <v>20</v>
+      </c>
+      <c r="C24" s="16">
+        <v>3</v>
+      </c>
+      <c r="D24" s="66">
+        <f t="shared" si="0"/>
+        <v>358.41315910257663</v>
+      </c>
+      <c r="E24" s="45">
+        <f t="shared" si="1"/>
+        <v>0.42588291936672351</v>
+      </c>
+      <c r="F24" s="70"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E26" s="69"/>
+    </row>
+    <row r="27" spans="2:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="18">
+        <v>1</v>
+      </c>
+      <c r="C28" s="17">
+        <f>200*B28 +0 *0*(0/2)</f>
+        <v>200</v>
+      </c>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="17">
+        <f>100 + B28*B28*B28*B28 / 4</f>
+        <v>100.25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="18">
+        <v>2</v>
+      </c>
+      <c r="C29" s="17">
+        <f>200*B29 + B28*B28*(B28/2)</f>
+        <v>400.5</v>
+      </c>
+      <c r="D29" s="35">
+        <f>250*B28+B28*B28*B28</f>
+        <v>251</v>
+      </c>
+      <c r="E29" s="17">
+        <f>200*B30+B30*B30*B30*B30/7-0.11</f>
+        <v>611.46142857142854</v>
+      </c>
+      <c r="F29" s="18">
+        <f>300*B28+B29*B29*B30</f>
+        <v>312</v>
+      </c>
+      <c r="G29" s="17">
+        <f>100 + B29*B29*B29*B29 / 4</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="18">
+        <v>3</v>
+      </c>
+      <c r="C30" s="17">
+        <f>200*B30 + B29*B29*(B29/2)</f>
+        <v>604</v>
+      </c>
+      <c r="D30" s="35">
+        <f>250*B29+B29*B29*B29</f>
+        <v>508</v>
+      </c>
+      <c r="E30" s="17">
+        <f>200*B31+B31*B31*B31*B31/7-0.11</f>
+        <v>836.46142857142854</v>
+      </c>
+      <c r="F30" s="18">
+        <f>300*B29+B30*B30*B31</f>
+        <v>636</v>
+      </c>
+      <c r="G30" s="17">
+        <f>100 + B30*B30*B30*B30 / 4</f>
+        <v>120.25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="18">
+        <v>4</v>
+      </c>
+      <c r="C31" s="17">
+        <f>200*B31 + B30*B30*(B30/2)</f>
+        <v>813.5</v>
+      </c>
+      <c r="D31" s="35">
+        <f>250*B30+B30*B30*B30</f>
+        <v>777</v>
+      </c>
+      <c r="E31" s="17">
+        <f>200*B32+B32*B32*B32*B32/7-0.11</f>
+        <v>1089.1757142857143</v>
+      </c>
+      <c r="F31" s="18">
+        <f>300*B30+B31*B31*B32</f>
+        <v>980</v>
+      </c>
+      <c r="G31" s="17">
+        <f>100 + B31*B31*B31*B31 / 4</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="18">
+        <v>5</v>
+      </c>
+      <c r="C32" s="17">
+        <f>200*B32 + B31*B31*(B31/2)</f>
+        <v>1032</v>
+      </c>
+      <c r="D32" s="35">
+        <f>250*B31+B31*B31*B31</f>
+        <v>1064</v>
+      </c>
+      <c r="E32" s="17">
+        <f>200*B33+B33*B33*B33*B33/7-0.11</f>
+        <v>1385.0328571428572</v>
+      </c>
+      <c r="F32" s="18">
+        <f>300*B31+B32*B32*B33</f>
+        <v>1350</v>
+      </c>
+      <c r="G32" s="17">
+        <f>100 + B32*B32*B32*B32 / 4</f>
+        <v>256.25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="18">
+        <v>6</v>
+      </c>
+      <c r="C33" s="17">
+        <f>200*B33 + B32*B32*(B32/2)</f>
+        <v>1262.5</v>
+      </c>
+      <c r="D33" s="35">
+        <f>250*B32+B32*B32*B32</f>
+        <v>1375</v>
+      </c>
+      <c r="E33" s="17">
+        <f>200*B34+B34*B34*B34*B34/7-0.11</f>
+        <v>1742.89</v>
+      </c>
+      <c r="F33" s="18">
+        <f>300*B32+B33*B33*B34</f>
+        <v>1752</v>
+      </c>
+      <c r="G33" s="17">
+        <f>100 + B33*B33*B33*B33 / 4</f>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="18">
+        <v>7</v>
+      </c>
+      <c r="C34" s="17">
+        <f>200*B34 + B33*B33*(B33/2)</f>
+        <v>1508</v>
+      </c>
+      <c r="D34" s="35">
+        <f>250*B33+B33*B33*B33</f>
+        <v>1716</v>
+      </c>
+      <c r="E34" s="17">
+        <f>200*B35+B35*B35*B35*B35/7-0.11</f>
+        <v>2185.0328571428568</v>
+      </c>
+      <c r="F34" s="18">
+        <f>300*B33+B34*B34*B35</f>
+        <v>2192</v>
+      </c>
+      <c r="G34" s="17">
+        <f>100 + B34*B34*B34*B34 / 4</f>
+        <v>700.25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="18">
+        <v>8</v>
+      </c>
+      <c r="C35" s="17">
+        <f>200*B35 + B34*B34*(B34/2)</f>
+        <v>1771.5</v>
+      </c>
+      <c r="D35" s="35">
+        <f>250*B34+B34*B34*B34</f>
+        <v>2093</v>
+      </c>
+      <c r="E35" s="17">
+        <f>200*B36+B36*B36*B36*B36/7-0.11</f>
+        <v>2737.1757142857141</v>
+      </c>
+      <c r="F35" s="18">
+        <f>300*B34+B35*B35*B36</f>
+        <v>2676</v>
+      </c>
+      <c r="G35" s="17">
+        <f>100 + B35*B35*B35*B35 / 4</f>
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="18">
+        <v>9</v>
+      </c>
+      <c r="C36" s="17">
+        <f>200*B36 + B35*B35*(B35/2)</f>
+        <v>2056</v>
+      </c>
+      <c r="D36" s="35">
+        <f>250*B35+B35*B35*B35</f>
+        <v>2512</v>
+      </c>
+      <c r="E36" s="17">
+        <f>200*B37+B37*B37*B37*B37/7-0.11</f>
+        <v>3428.4614285714283</v>
+      </c>
+      <c r="F36" s="18">
+        <f>300*B35+B36*B36*B37</f>
+        <v>3210</v>
+      </c>
+      <c r="G36" s="17">
+        <f>100 + B36*B36*B36*B36 / 4</f>
+        <v>1740.25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="18">
+        <v>10</v>
+      </c>
+      <c r="C37" s="17">
+        <f>200*B37 + B36*B36*(B36/2)</f>
+        <v>2364.5</v>
+      </c>
+      <c r="D37" s="35">
+        <f>250*B36+B36*B36*B36</f>
+        <v>2979</v>
+      </c>
+      <c r="E37" s="17">
+        <f>200*B38+B38*B38*B38*B38/7-0.11</f>
+        <v>4291.4614285714288</v>
+      </c>
+      <c r="F37" s="18">
+        <f>300*B36+B37*B37*B38</f>
+        <v>3800</v>
+      </c>
+      <c r="G37" s="17">
+        <f>100 + B37*B37*B37*B37 / 4</f>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="18">
+        <v>11</v>
+      </c>
+      <c r="C38" s="17">
+        <f>200*B38 + B37*B37*(B37/2)</f>
+        <v>2700</v>
+      </c>
+      <c r="D38" s="35">
+        <f>250*B37+B37*B37*B37</f>
+        <v>3500</v>
+      </c>
+      <c r="E38" s="17">
+        <f>200*B39+B39*B39*B39*B39/7-0.11</f>
+        <v>5362.1757142857141</v>
+      </c>
+      <c r="F38" s="18">
+        <f>300*B37+B38*B38*B39</f>
+        <v>4452</v>
+      </c>
+      <c r="G38" s="17">
+        <f>100 + B38*B38*B38*B38 / 4</f>
+        <v>3760.25</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="18">
+        <v>12</v>
+      </c>
+      <c r="C39" s="74">
+        <f>200*B39 + B38*B38*(B38/2)</f>
+        <v>3065.5</v>
+      </c>
+      <c r="D39" s="75">
+        <f>250*B38+B38*B38*B38</f>
+        <v>4081</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="18">
+        <v>13</v>
+      </c>
+      <c r="C40" s="17">
+        <f>200*B40 + B39*B39*(B39/2)</f>
+        <v>3464</v>
+      </c>
+      <c r="D40" s="35">
+        <f>250*B39+B39*B39*B39</f>
+        <v>4728</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="18">
+        <v>14</v>
+      </c>
+      <c r="C41" s="17">
+        <f>200*B41 + B40*B40*(B40/2)</f>
+        <v>3898.5</v>
+      </c>
+      <c r="D41" s="35">
+        <f>250*B40+B40*B40*B40</f>
+        <v>5447</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="18">
+        <v>15</v>
+      </c>
+      <c r="C42" s="17">
+        <f>200*B42 + B41*B41*(B41/2)</f>
+        <v>4372</v>
+      </c>
+      <c r="D42" s="35">
+        <f>250*B41+B41*B41*B41</f>
+        <v>6244</v>
+      </c>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="18">
+        <v>16</v>
+      </c>
+      <c r="C43" s="17">
+        <f>200*B43 + B42*B42*(B42/2)</f>
+        <v>4887.5</v>
+      </c>
+      <c r="D43" s="35">
+        <f>250*B42+B42*B42*B42</f>
+        <v>7125</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="18">
+        <v>17</v>
+      </c>
+      <c r="C44" s="17">
+        <f>200*B44 + B43*B43*(B43/2)</f>
+        <v>5448</v>
+      </c>
+      <c r="D44" s="35">
+        <f>250*B43+B43*B43*B43</f>
+        <v>8096</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="18">
+        <v>18</v>
+      </c>
+      <c r="C45" s="17">
+        <f>200*B45 + B44*B44*(B44/2)</f>
+        <v>6056.5</v>
+      </c>
+      <c r="D45" s="35">
+        <f>250*B44+B44*B44*B44</f>
+        <v>9163</v>
+      </c>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="18">
+        <v>19</v>
+      </c>
+      <c r="C46" s="17">
+        <f>200*B46 + B45*B45*(B45/2)</f>
+        <v>6716</v>
+      </c>
+      <c r="D46" s="35">
+        <f>250*B45+B45*B45*B45</f>
+        <v>10332</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="18">
+        <v>20</v>
+      </c>
+      <c r="C47" s="17">
+        <f>200*B47 + B46*B46*(B46/2)</f>
+        <v>7429.5</v>
+      </c>
+      <c r="D47" s="35">
+        <f>250*B46+B46*B46*B46</f>
+        <v>11609</v>
+      </c>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>21</v>
+      </c>
+      <c r="E48" s="36"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="L5:P5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Equilibrage.xlsx
+++ b/Equilibrage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Github\Dukes Of The Realm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D961F551-4F1B-48E1-905B-E847BD7B32B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFF8C14-4EA0-4C6C-9B62-53D078B116E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equi V.1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="85">
   <si>
     <t>Coût</t>
   </si>
@@ -275,24 +275,44 @@
     <t>Paramètre du jeu V.2</t>
   </si>
   <si>
+    <t>Temps d'amélioration 
+de la caserne (s)</t>
+  </si>
+  <si>
+    <t>Temps d'amélioration 
+du moulin (s)</t>
+  </si>
+  <si>
+    <t>Temps d'amélioration 
+du château (s)</t>
+  </si>
+  <si>
+    <t>Temps d'amélioration 
+du marché (s)</t>
+  </si>
+  <si>
+    <t>Temps d'amélioration 
+du rempart (s)</t>
+  </si>
+  <si>
     <t>Coût de l'amélioration 
-de la caserne</t>
+du rempart (Florin)</t>
   </si>
   <si>
     <t>Coût de l'amélioration 
-du moulin</t>
+du château (Florin)</t>
   </si>
   <si>
     <t>Coût de l'amélioration 
-du château</t>
+de la caserne (Florin)</t>
   </si>
   <si>
     <t>Coût de l'amélioration 
-du marché</t>
+du moulin (Florin)</t>
   </si>
   <si>
     <t>Coût de l'amélioration 
-du rempart</t>
+du marché (Florin)</t>
   </si>
 </sst>
 </file>
@@ -556,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -697,12 +717,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -727,19 +741,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -761,20 +766,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1085,26 +1108,26 @@
     </row>
     <row r="2" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="53" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="55" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="35">
@@ -1126,7 +1149,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="56" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="35">
@@ -1151,7 +1174,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="57" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="35">
@@ -1220,14 +1243,14 @@
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -1247,12 +1270,12 @@
       <c r="G10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1282,12 +1305,12 @@
         <f>G3</f>
         <v>65</v>
       </c>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1318,14 +1341,14 @@
         <v>100</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="50" t="s">
+      <c r="I12" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -1356,12 +1379,12 @@
         <v>35</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1372,12 +1395,12 @@
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
@@ -1386,12 +1409,12 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
@@ -1601,38 +1624,38 @@
         <v>2</v>
       </c>
       <c r="E2" s="14"/>
-      <c r="F2" s="52">
+      <c r="F2" s="50">
         <v>0.8</v>
       </c>
-      <c r="G2" s="53">
+      <c r="G2" s="51">
         <v>1.3</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="51">
         <v>2</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="53" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="14"/>
@@ -1905,11 +1928,11 @@
         <v>2250</v>
       </c>
       <c r="G14" s="15">
-        <f>G4*B14</f>
+        <f t="shared" ref="G14:G19" si="0">G4*B14</f>
         <v>1828.125</v>
       </c>
       <c r="H14" s="45">
-        <f>H4*B14</f>
+        <f t="shared" ref="H14:H19" si="1">H4*B14</f>
         <v>63.28125</v>
       </c>
       <c r="I14" s="15">
@@ -1932,7 +1955,7 @@
         <v>9000</v>
       </c>
       <c r="E15" s="15">
-        <f t="shared" ref="E15:E19" si="0">E5*B15</f>
+        <f t="shared" ref="E15:E19" si="2">E5*B15</f>
         <v>35.15625</v>
       </c>
       <c r="F15" s="15">
@@ -1940,15 +1963,15 @@
         <v>2109.375</v>
       </c>
       <c r="G15" s="15">
-        <f>G5*B15</f>
+        <f t="shared" si="0"/>
         <v>1599.609375</v>
       </c>
       <c r="H15" s="45">
-        <f>H5*B15</f>
+        <f t="shared" si="1"/>
         <v>105.46875</v>
       </c>
       <c r="I15" s="15">
-        <f t="shared" ref="I15:I19" si="1">I5</f>
+        <f t="shared" ref="I15:I19" si="3">I5</f>
         <v>50</v>
       </c>
       <c r="J15" s="14"/>
@@ -1967,7 +1990,7 @@
         <v>9000</v>
       </c>
       <c r="E16" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>54.878048780487802</v>
       </c>
       <c r="F16" s="15">
@@ -1975,15 +1998,15 @@
         <v>1690.2439024390244</v>
       </c>
       <c r="G16" s="15">
-        <f>G6*B16</f>
+        <f t="shared" si="0"/>
         <v>3032.0121951219512</v>
       </c>
       <c r="H16" s="45">
-        <f>H6*B16</f>
+        <f t="shared" si="1"/>
         <v>112.49999999999999</v>
       </c>
       <c r="I16" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="J16" s="14"/>
@@ -2001,7 +2024,7 @@
         <v>9000</v>
       </c>
       <c r="E17" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>56.25</v>
       </c>
       <c r="F17" s="15">
@@ -2009,15 +2032,15 @@
         <v>900</v>
       </c>
       <c r="G17" s="15">
-        <f>G7*B17</f>
+        <f t="shared" si="0"/>
         <v>4387.5</v>
       </c>
       <c r="H17" s="45">
-        <f>H7*B17</f>
+        <f t="shared" si="1"/>
         <v>84.375</v>
       </c>
       <c r="I17" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="J17" s="1"/>
@@ -2035,7 +2058,7 @@
         <v>9000</v>
       </c>
       <c r="E18" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>70.3125</v>
       </c>
       <c r="F18" s="15">
@@ -2043,15 +2066,15 @@
         <v>421.875</v>
       </c>
       <c r="G18" s="15">
-        <f>G8*B18</f>
+        <f t="shared" si="0"/>
         <v>23.4375</v>
       </c>
       <c r="H18" s="45">
-        <f>H8*B18</f>
+        <f t="shared" si="1"/>
         <v>140.625</v>
       </c>
       <c r="I18" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="J18" s="14"/>
@@ -2069,7 +2092,7 @@
         <v>9000</v>
       </c>
       <c r="E19" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>112.5</v>
       </c>
       <c r="F19" s="15">
@@ -2077,15 +2100,15 @@
         <v>675</v>
       </c>
       <c r="G19" s="17">
-        <f>G9*B19</f>
+        <f t="shared" si="0"/>
         <v>56.25</v>
       </c>
       <c r="H19" s="47">
-        <f>H9*B19</f>
+        <f t="shared" si="1"/>
         <v>98.4375</v>
       </c>
       <c r="I19" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
     </row>
@@ -2146,11 +2169,11 @@
         <v>200</v>
       </c>
       <c r="F24" s="16">
-        <f t="shared" ref="F24:G24" si="2">$B$24*F4</f>
+        <f t="shared" ref="F24:G24" si="4">$B$24*F4</f>
         <v>6400</v>
       </c>
       <c r="G24" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5200</v>
       </c>
       <c r="H24" s="45">
@@ -2166,14 +2189,14 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="15">
-        <f t="shared" ref="B25:B29" si="3">D$21/E5</f>
+        <f t="shared" ref="B25:B29" si="5">D$21/E5</f>
         <v>200</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="16">
-        <f t="shared" ref="D25:D28" si="4">B25*D5</f>
+        <f t="shared" ref="D25:D28" si="6">B25*D5</f>
         <v>51200</v>
       </c>
       <c r="E25" s="16">
@@ -2181,11 +2204,11 @@
         <v>200</v>
       </c>
       <c r="F25" s="16">
-        <f t="shared" ref="F25:G25" si="5">$B$25*F5</f>
+        <f t="shared" ref="F25:G25" si="7">$B$25*F5</f>
         <v>12000</v>
       </c>
       <c r="G25" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9100</v>
       </c>
       <c r="H25" s="45">
@@ -2193,21 +2216,21 @@
         <v>600</v>
       </c>
       <c r="I25" s="15">
-        <f t="shared" ref="I25:I29" si="6">I15</f>
+        <f t="shared" ref="I25:I29" si="8">I15</f>
         <v>50</v>
       </c>
       <c r="J25" s="29"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>32800</v>
       </c>
       <c r="E26" s="16">
@@ -2215,19 +2238,19 @@
         <v>200</v>
       </c>
       <c r="F26" s="16">
-        <f t="shared" ref="F26:H26" si="7">$B$26*F6</f>
+        <f t="shared" ref="F26:H26" si="9">$B$26*F6</f>
         <v>6160</v>
       </c>
       <c r="G26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11050</v>
       </c>
       <c r="H26" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>409.99999999999994</v>
       </c>
       <c r="I26" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="J26" s="29"/>
@@ -2235,14 +2258,14 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>40</v>
       </c>
       <c r="D27" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>32000</v>
       </c>
       <c r="E27" s="16">
@@ -2250,11 +2273,11 @@
         <v>200</v>
       </c>
       <c r="F27" s="16">
-        <f t="shared" ref="F27:G27" si="8">$B$27*F7</f>
+        <f t="shared" ref="F27:G27" si="10">$B$27*F7</f>
         <v>3200</v>
       </c>
       <c r="G27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15600</v>
       </c>
       <c r="H27" s="45">
@@ -2262,21 +2285,21 @@
         <v>300</v>
       </c>
       <c r="I27" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="J27" s="29"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>66.666666666666671</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25600</v>
       </c>
       <c r="E28" s="16">
@@ -2284,26 +2307,26 @@
         <v>200</v>
       </c>
       <c r="F28" s="16">
-        <f t="shared" ref="F28:H28" si="9">$B$28*F8</f>
+        <f t="shared" ref="F28:H28" si="11">$B$28*F8</f>
         <v>1200</v>
       </c>
       <c r="G28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>66.666666666666671</v>
       </c>
       <c r="H28" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>400</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="J28" s="29"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="C29" s="28" t="s">
@@ -2318,19 +2341,19 @@
         <v>200</v>
       </c>
       <c r="F29" s="16">
-        <f t="shared" ref="F29:H29" si="10">$B$29*F9</f>
+        <f t="shared" ref="F29:H29" si="12">$B$29*F9</f>
         <v>1200</v>
       </c>
       <c r="G29" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="H29" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>175</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="J29" s="29"/>
@@ -2712,242 +2735,237 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="58">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61">
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="58">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61">
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="58">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="58">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61">
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="58">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61">
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="58">
         <v>250</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="61">
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="58">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61">
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="58">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="61">
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="58">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
       <c r="F13" s="35">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
       <c r="F15" s="35">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
       <c r="F16" s="35">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="63">
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="59">
         <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
       <c r="F18" s="35">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="65">
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="60">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
       <c r="F20" s="35">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
       <c r="F21" s="35">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
       <c r="F22" s="35">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
       <c r="F23" s="35">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B19:E19"/>
@@ -2964,6 +2982,11 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2974,8 +2997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7358574A-592A-4C40-9736-421EE2E19A0C}">
   <dimension ref="A2:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+    <sheetView topLeftCell="L3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4:X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3008,7 +3031,7 @@
       <c r="X2" s="42">
         <v>5</v>
       </c>
-      <c r="Z2" s="77"/>
+      <c r="Z2" s="70"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -4561,11 +4584,11 @@
       <c r="S26" s="1">
         <v>21</v>
       </c>
-      <c r="T26" s="76"/>
-      <c r="U26" s="76"/>
-      <c r="V26" s="76"/>
-      <c r="W26" s="76"/>
-      <c r="X26" s="76"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="69"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="L27" s="1">
@@ -4586,10 +4609,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA4F8CF-86B3-4F28-A0B3-CE987373175F}">
-  <dimension ref="B1:P49"/>
+  <dimension ref="B1:P73"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4617,25 +4640,25 @@
       <c r="H1" s="1"/>
     </row>
     <row r="3" spans="2:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="53" t="s">
         <v>68</v>
       </c>
       <c r="I3" s="14"/>
@@ -4651,10 +4674,10 @@
       <c r="C4" s="16">
         <v>1</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
       <c r="H4" s="16">
         <v>0</v>
       </c>
@@ -4671,7 +4694,7 @@
       <c r="C5" s="16">
         <v>1.05</v>
       </c>
-      <c r="D5" s="66">
+      <c r="D5" s="61">
         <f>$D$1+B5*$D$1+EXP(B5/4)</f>
         <v>21.28402541668774</v>
       </c>
@@ -4693,13 +4716,13 @@
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
-      <c r="L5" s="73" t="s">
+      <c r="L5" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
@@ -4708,7 +4731,7 @@
       <c r="C6" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="61">
         <f t="shared" ref="D6:D24" si="0">$D$1+B6*$D$1+EXP(B6/4)</f>
         <v>31.648721270700129</v>
       </c>
@@ -4730,12 +4753,12 @@
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
-      <c r="L6" s="72" t="s">
+      <c r="L6" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
       <c r="P6" s="16">
         <v>5</v>
       </c>
@@ -4747,7 +4770,7 @@
       <c r="C7" s="16">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D7" s="66">
+      <c r="D7" s="61">
         <f t="shared" si="0"/>
         <v>42.117000016612678</v>
       </c>
@@ -4769,12 +4792,12 @@
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
-      <c r="L7" s="72" t="s">
+      <c r="L7" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
       <c r="P7" s="16">
         <v>1</v>
       </c>
@@ -4786,7 +4809,7 @@
       <c r="C8" s="16">
         <v>1.2</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="61">
         <f t="shared" si="0"/>
         <v>52.718281828459048</v>
       </c>
@@ -4808,12 +4831,12 @@
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
-      <c r="L8" s="72" t="s">
+      <c r="L8" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
       <c r="P8" s="16">
         <v>6</v>
       </c>
@@ -4825,7 +4848,7 @@
       <c r="C9" s="16">
         <v>1.25</v>
       </c>
-      <c r="D9" s="66">
+      <c r="D9" s="61">
         <f t="shared" si="0"/>
         <v>63.490342957461841</v>
       </c>
@@ -4847,12 +4870,12 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
-      <c r="L9" s="72" t="s">
+      <c r="L9" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
       <c r="P9" s="16">
         <v>20</v>
       </c>
@@ -4864,7 +4887,7 @@
       <c r="C10" s="16">
         <v>1.3</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="61">
         <f t="shared" si="0"/>
         <v>74.481689070338064</v>
       </c>
@@ -4886,12 +4909,12 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
-      <c r="L10" s="72" t="s">
+      <c r="L10" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
       <c r="P10" s="16">
         <v>10</v>
       </c>
@@ -4903,7 +4926,7 @@
       <c r="C11" s="16">
         <v>1.35</v>
       </c>
-      <c r="D11" s="66">
+      <c r="D11" s="61">
         <f t="shared" si="0"/>
         <v>85.754602676005732</v>
       </c>
@@ -4925,12 +4948,12 @@
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
-      <c r="L11" s="72" t="s">
+      <c r="L11" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
       <c r="P11" s="16">
         <v>0</v>
       </c>
@@ -4942,7 +4965,7 @@
       <c r="C12" s="16">
         <v>1.4</v>
       </c>
-      <c r="D12" s="66">
+      <c r="D12" s="61">
         <f t="shared" si="0"/>
         <v>97.389056098930652</v>
       </c>
@@ -4950,7 +4973,7 @@
         <f t="shared" si="1"/>
         <v>0.80864285236430178</v>
       </c>
-      <c r="F12" s="71">
+      <c r="F12" s="66">
         <f t="shared" si="3"/>
         <v>176</v>
       </c>
@@ -4964,12 +4987,12 @@
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
-      <c r="L12" s="72" t="s">
+      <c r="L12" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
       <c r="P12" s="16">
         <v>10</v>
       </c>
@@ -4981,7 +5004,7 @@
       <c r="C13" s="16">
         <v>1.45</v>
       </c>
-      <c r="D13" s="66">
+      <c r="D13" s="61">
         <f t="shared" si="0"/>
         <v>109.48773583635852</v>
       </c>
@@ -4989,7 +5012,7 @@
         <f t="shared" si="1"/>
         <v>0.78382749214770053</v>
       </c>
-      <c r="F13" s="71">
+      <c r="F13" s="66">
         <f t="shared" si="3"/>
         <v>188</v>
       </c>
@@ -5003,12 +5026,12 @@
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
-      <c r="L13" s="72" t="s">
+      <c r="L13" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
       <c r="P13" s="16">
         <v>10</v>
       </c>
@@ -5020,7 +5043,7 @@
       <c r="C14" s="16">
         <v>1.5</v>
       </c>
-      <c r="D14" s="66">
+      <c r="D14" s="61">
         <f t="shared" si="0"/>
         <v>122.18249396070347</v>
       </c>
@@ -5042,12 +5065,12 @@
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
-      <c r="L14" s="72" t="s">
+      <c r="L14" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
       <c r="P14" s="16">
         <v>0</v>
       </c>
@@ -5059,7 +5082,7 @@
       <c r="C15" s="16">
         <v>1.65</v>
       </c>
-      <c r="D15" s="66">
+      <c r="D15" s="61">
         <f t="shared" si="0"/>
         <v>135.64263188418818</v>
       </c>
@@ -5067,19 +5090,19 @@
         <f t="shared" si="1"/>
         <v>0.73186480258868514</v>
       </c>
-      <c r="F15" s="70"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
-      <c r="L15" s="60" t="s">
+      <c r="L15" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="63">
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="59">
         <v>0.66</v>
       </c>
     </row>
@@ -5090,7 +5113,7 @@
       <c r="C16" s="16">
         <v>1.8</v>
       </c>
-      <c r="D16" s="66">
+      <c r="D16" s="61">
         <f t="shared" si="0"/>
         <v>150.08553692318768</v>
       </c>
@@ -5098,18 +5121,18 @@
         <f t="shared" si="1"/>
         <v>0.70447292124394167</v>
       </c>
-      <c r="F16" s="70"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
-      <c r="L16" s="60" t="s">
+      <c r="L16" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
       <c r="P16" s="35">
         <v>3</v>
       </c>
@@ -5121,7 +5144,7 @@
       <c r="C17" s="16">
         <v>1.95</v>
       </c>
-      <c r="D17" s="66">
+      <c r="D17" s="61">
         <f t="shared" si="0"/>
         <v>165.79033991719305</v>
       </c>
@@ -5129,19 +5152,19 @@
         <f t="shared" si="1"/>
         <v>0.67594590567822732</v>
       </c>
-      <c r="F17" s="70"/>
+      <c r="F17" s="65"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
-      <c r="L17" s="60" t="s">
+      <c r="L17" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="65">
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="60">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -5152,7 +5175,7 @@
       <c r="C18" s="16">
         <v>2.1</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="61">
         <f t="shared" si="0"/>
         <v>183.11545195869232</v>
       </c>
@@ -5160,18 +5183,18 @@
         <f t="shared" si="1"/>
         <v>0.64610943901069351</v>
       </c>
-      <c r="F18" s="70"/>
+      <c r="F18" s="65"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
-      <c r="L18" s="60" t="s">
+      <c r="L18" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
       <c r="P18" s="35">
         <v>12</v>
       </c>
@@ -5183,7 +5206,7 @@
       <c r="C19" s="16">
         <v>2.25</v>
       </c>
-      <c r="D19" s="66">
+      <c r="D19" s="61">
         <f t="shared" si="0"/>
         <v>202.52108200006279</v>
       </c>
@@ -5191,18 +5214,18 @@
         <f t="shared" si="1"/>
         <v>0.61476243538957409</v>
       </c>
-      <c r="F19" s="70"/>
+      <c r="F19" s="65"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
-      <c r="L19" s="60" t="s">
+      <c r="L19" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
       <c r="P19" s="35">
         <v>3</v>
       </c>
@@ -5214,7 +5237,7 @@
       <c r="C20" s="16">
         <v>2.4</v>
       </c>
-      <c r="D20" s="66">
+      <c r="D20" s="61">
         <f t="shared" si="0"/>
         <v>224.59815003314424</v>
       </c>
@@ -5222,18 +5245,18 @@
         <f t="shared" si="1"/>
         <v>0.58167292921530245</v>
       </c>
-      <c r="F20" s="70"/>
+      <c r="F20" s="65"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
-      <c r="L20" s="60" t="s">
+      <c r="L20" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
       <c r="P20" s="35">
         <v>4</v>
       </c>
@@ -5245,7 +5268,7 @@
       <c r="C21" s="16">
         <v>2.5499999999999998</v>
       </c>
-      <c r="D21" s="66">
+      <c r="D21" s="61">
         <f t="shared" si="0"/>
         <v>250.10541234668784</v>
       </c>
@@ -5253,18 +5276,18 @@
         <f t="shared" si="1"/>
         <v>0.54657333309219946</v>
       </c>
-      <c r="F21" s="70"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
-      <c r="L21" s="60" t="s">
+      <c r="L21" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
       <c r="P21" s="35">
         <v>1</v>
       </c>
@@ -5276,7 +5299,7 @@
       <c r="C22" s="16">
         <v>2.7</v>
       </c>
-      <c r="D22" s="66">
+      <c r="D22" s="61">
         <f t="shared" si="0"/>
         <v>280.01713130052178</v>
       </c>
@@ -5284,7 +5307,7 @@
         <f t="shared" si="1"/>
         <v>0.50915496756753409</v>
       </c>
-      <c r="F22" s="70"/>
+      <c r="F22" s="65"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -5300,7 +5323,7 @@
       <c r="C23" s="16">
         <v>2.85</v>
       </c>
-      <c r="D23" s="66">
+      <c r="D23" s="61">
         <f t="shared" si="0"/>
         <v>315.58428452718766</v>
       </c>
@@ -5308,7 +5331,7 @@
         <f t="shared" si="1"/>
         <v>0.46906175082999224</v>
       </c>
-      <c r="F23" s="70"/>
+      <c r="F23" s="65"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -5324,7 +5347,7 @@
       <c r="C24" s="16">
         <v>3</v>
       </c>
-      <c r="D24" s="66">
+      <c r="D24" s="61">
         <f t="shared" si="0"/>
         <v>358.41315910257663</v>
       </c>
@@ -5332,7 +5355,7 @@
         <f t="shared" si="1"/>
         <v>0.42588291936672351</v>
       </c>
-      <c r="F24" s="70"/>
+      <c r="F24" s="65"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -5356,26 +5379,26 @@
       <c r="M25" s="14"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E26" s="69"/>
+      <c r="E26" s="64"/>
     </row>
     <row r="27" spans="2:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="55" t="s">
-        <v>78</v>
+      <c r="C27" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="53" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
@@ -5390,7 +5413,7 @@
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
       <c r="G28" s="17">
-        <f>100 + B28*B28*B28*B28 / 4</f>
+        <f t="shared" ref="G28:G38" si="4">100 + B28*B28*B28*B28 / 4</f>
         <v>100.25</v>
       </c>
     </row>
@@ -5399,23 +5422,23 @@
         <v>2</v>
       </c>
       <c r="C29" s="17">
-        <f>200*B29 + B28*B28*(B28/2)</f>
+        <f t="shared" ref="C29:C47" si="5">200*B29 + B28*B28*(B28/2)</f>
         <v>400.5</v>
       </c>
       <c r="D29" s="35">
-        <f>250*B28+B28*B28*B28</f>
+        <f t="shared" ref="D29:D47" si="6">250*B28+B28*B28*B28</f>
         <v>251</v>
       </c>
       <c r="E29" s="17">
-        <f>200*B30+B30*B30*B30*B30/7-0.11</f>
+        <f t="shared" ref="E29:E38" si="7">200*B30+B30*B30*B30*B30/7-0.11</f>
         <v>611.46142857142854</v>
       </c>
       <c r="F29" s="18">
-        <f>300*B28+B29*B29*B30</f>
+        <f t="shared" ref="F29:F38" si="8">300*B28+B29*B29*B30</f>
         <v>312</v>
       </c>
       <c r="G29" s="17">
-        <f>100 + B29*B29*B29*B29 / 4</f>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
     </row>
@@ -5424,23 +5447,23 @@
         <v>3</v>
       </c>
       <c r="C30" s="17">
-        <f>200*B30 + B29*B29*(B29/2)</f>
+        <f t="shared" si="5"/>
         <v>604</v>
       </c>
       <c r="D30" s="35">
-        <f>250*B29+B29*B29*B29</f>
+        <f t="shared" si="6"/>
         <v>508</v>
       </c>
       <c r="E30" s="17">
-        <f>200*B31+B31*B31*B31*B31/7-0.11</f>
+        <f t="shared" si="7"/>
         <v>836.46142857142854</v>
       </c>
       <c r="F30" s="18">
-        <f>300*B29+B30*B30*B31</f>
+        <f t="shared" si="8"/>
         <v>636</v>
       </c>
       <c r="G30" s="17">
-        <f>100 + B30*B30*B30*B30 / 4</f>
+        <f t="shared" si="4"/>
         <v>120.25</v>
       </c>
     </row>
@@ -5449,23 +5472,23 @@
         <v>4</v>
       </c>
       <c r="C31" s="17">
-        <f>200*B31 + B30*B30*(B30/2)</f>
+        <f t="shared" si="5"/>
         <v>813.5</v>
       </c>
       <c r="D31" s="35">
-        <f>250*B30+B30*B30*B30</f>
+        <f t="shared" si="6"/>
         <v>777</v>
       </c>
       <c r="E31" s="17">
-        <f>200*B32+B32*B32*B32*B32/7-0.11</f>
+        <f t="shared" si="7"/>
         <v>1089.1757142857143</v>
       </c>
       <c r="F31" s="18">
-        <f>300*B30+B31*B31*B32</f>
+        <f t="shared" si="8"/>
         <v>980</v>
       </c>
       <c r="G31" s="17">
-        <f>100 + B31*B31*B31*B31 / 4</f>
+        <f t="shared" si="4"/>
         <v>164</v>
       </c>
     </row>
@@ -5474,23 +5497,23 @@
         <v>5</v>
       </c>
       <c r="C32" s="17">
-        <f>200*B32 + B31*B31*(B31/2)</f>
+        <f t="shared" si="5"/>
         <v>1032</v>
       </c>
       <c r="D32" s="35">
-        <f>250*B31+B31*B31*B31</f>
+        <f t="shared" si="6"/>
         <v>1064</v>
       </c>
       <c r="E32" s="17">
-        <f>200*B33+B33*B33*B33*B33/7-0.11</f>
+        <f t="shared" si="7"/>
         <v>1385.0328571428572</v>
       </c>
       <c r="F32" s="18">
-        <f>300*B31+B32*B32*B33</f>
+        <f t="shared" si="8"/>
         <v>1350</v>
       </c>
       <c r="G32" s="17">
-        <f>100 + B32*B32*B32*B32 / 4</f>
+        <f t="shared" si="4"/>
         <v>256.25</v>
       </c>
     </row>
@@ -5499,23 +5522,23 @@
         <v>6</v>
       </c>
       <c r="C33" s="17">
-        <f>200*B33 + B32*B32*(B32/2)</f>
+        <f t="shared" si="5"/>
         <v>1262.5</v>
       </c>
       <c r="D33" s="35">
-        <f>250*B32+B32*B32*B32</f>
+        <f t="shared" si="6"/>
         <v>1375</v>
       </c>
       <c r="E33" s="17">
-        <f>200*B34+B34*B34*B34*B34/7-0.11</f>
+        <f t="shared" si="7"/>
         <v>1742.89</v>
       </c>
       <c r="F33" s="18">
-        <f>300*B32+B33*B33*B34</f>
+        <f t="shared" si="8"/>
         <v>1752</v>
       </c>
       <c r="G33" s="17">
-        <f>100 + B33*B33*B33*B33 / 4</f>
+        <f t="shared" si="4"/>
         <v>424</v>
       </c>
     </row>
@@ -5524,23 +5547,23 @@
         <v>7</v>
       </c>
       <c r="C34" s="17">
-        <f>200*B34 + B33*B33*(B33/2)</f>
+        <f t="shared" si="5"/>
         <v>1508</v>
       </c>
       <c r="D34" s="35">
-        <f>250*B33+B33*B33*B33</f>
+        <f t="shared" si="6"/>
         <v>1716</v>
       </c>
       <c r="E34" s="17">
-        <f>200*B35+B35*B35*B35*B35/7-0.11</f>
+        <f t="shared" si="7"/>
         <v>2185.0328571428568</v>
       </c>
       <c r="F34" s="18">
-        <f>300*B33+B34*B34*B35</f>
+        <f t="shared" si="8"/>
         <v>2192</v>
       </c>
       <c r="G34" s="17">
-        <f>100 + B34*B34*B34*B34 / 4</f>
+        <f t="shared" si="4"/>
         <v>700.25</v>
       </c>
     </row>
@@ -5549,23 +5572,23 @@
         <v>8</v>
       </c>
       <c r="C35" s="17">
-        <f>200*B35 + B34*B34*(B34/2)</f>
+        <f t="shared" si="5"/>
         <v>1771.5</v>
       </c>
       <c r="D35" s="35">
-        <f>250*B34+B34*B34*B34</f>
+        <f t="shared" si="6"/>
         <v>2093</v>
       </c>
       <c r="E35" s="17">
-        <f>200*B36+B36*B36*B36*B36/7-0.11</f>
+        <f t="shared" si="7"/>
         <v>2737.1757142857141</v>
       </c>
       <c r="F35" s="18">
-        <f>300*B34+B35*B35*B36</f>
+        <f t="shared" si="8"/>
         <v>2676</v>
       </c>
       <c r="G35" s="17">
-        <f>100 + B35*B35*B35*B35 / 4</f>
+        <f t="shared" si="4"/>
         <v>1124</v>
       </c>
     </row>
@@ -5574,23 +5597,23 @@
         <v>9</v>
       </c>
       <c r="C36" s="17">
-        <f>200*B36 + B35*B35*(B35/2)</f>
+        <f t="shared" si="5"/>
         <v>2056</v>
       </c>
       <c r="D36" s="35">
-        <f>250*B35+B35*B35*B35</f>
+        <f t="shared" si="6"/>
         <v>2512</v>
       </c>
       <c r="E36" s="17">
-        <f>200*B37+B37*B37*B37*B37/7-0.11</f>
+        <f t="shared" si="7"/>
         <v>3428.4614285714283</v>
       </c>
       <c r="F36" s="18">
-        <f>300*B35+B36*B36*B37</f>
+        <f t="shared" si="8"/>
         <v>3210</v>
       </c>
       <c r="G36" s="17">
-        <f>100 + B36*B36*B36*B36 / 4</f>
+        <f t="shared" si="4"/>
         <v>1740.25</v>
       </c>
     </row>
@@ -5599,23 +5622,23 @@
         <v>10</v>
       </c>
       <c r="C37" s="17">
-        <f>200*B37 + B36*B36*(B36/2)</f>
+        <f t="shared" si="5"/>
         <v>2364.5</v>
       </c>
       <c r="D37" s="35">
-        <f>250*B36+B36*B36*B36</f>
+        <f t="shared" si="6"/>
         <v>2979</v>
       </c>
       <c r="E37" s="17">
-        <f>200*B38+B38*B38*B38*B38/7-0.11</f>
+        <f t="shared" si="7"/>
         <v>4291.4614285714288</v>
       </c>
       <c r="F37" s="18">
-        <f>300*B36+B37*B37*B38</f>
+        <f t="shared" si="8"/>
         <v>3800</v>
       </c>
       <c r="G37" s="17">
-        <f>100 + B37*B37*B37*B37 / 4</f>
+        <f t="shared" si="4"/>
         <v>2600</v>
       </c>
     </row>
@@ -5624,23 +5647,23 @@
         <v>11</v>
       </c>
       <c r="C38" s="17">
-        <f>200*B38 + B37*B37*(B37/2)</f>
+        <f t="shared" si="5"/>
         <v>2700</v>
       </c>
       <c r="D38" s="35">
-        <f>250*B37+B37*B37*B37</f>
+        <f t="shared" si="6"/>
         <v>3500</v>
       </c>
       <c r="E38" s="17">
-        <f>200*B39+B39*B39*B39*B39/7-0.11</f>
+        <f t="shared" si="7"/>
         <v>5362.1757142857141</v>
       </c>
       <c r="F38" s="18">
-        <f>300*B37+B38*B38*B39</f>
+        <f t="shared" si="8"/>
         <v>4452</v>
       </c>
       <c r="G38" s="17">
-        <f>100 + B38*B38*B38*B38 / 4</f>
+        <f t="shared" si="4"/>
         <v>3760.25</v>
       </c>
       <c r="I38" s="1"/>
@@ -5650,12 +5673,12 @@
       <c r="B39" s="18">
         <v>12</v>
       </c>
-      <c r="C39" s="74">
-        <f>200*B39 + B38*B38*(B38/2)</f>
+      <c r="C39" s="67">
+        <f t="shared" si="5"/>
         <v>3065.5</v>
       </c>
-      <c r="D39" s="75">
-        <f>250*B38+B38*B38*B38</f>
+      <c r="D39" s="68">
+        <f t="shared" si="6"/>
         <v>4081</v>
       </c>
       <c r="F39" s="1"/>
@@ -5665,11 +5688,11 @@
         <v>13</v>
       </c>
       <c r="C40" s="17">
-        <f>200*B40 + B39*B39*(B39/2)</f>
+        <f t="shared" si="5"/>
         <v>3464</v>
       </c>
       <c r="D40" s="35">
-        <f>250*B39+B39*B39*B39</f>
+        <f t="shared" si="6"/>
         <v>4728</v>
       </c>
       <c r="F40" s="1"/>
@@ -5679,11 +5702,11 @@
         <v>14</v>
       </c>
       <c r="C41" s="17">
-        <f>200*B41 + B40*B40*(B40/2)</f>
+        <f t="shared" si="5"/>
         <v>3898.5</v>
       </c>
       <c r="D41" s="35">
-        <f>250*B40+B40*B40*B40</f>
+        <f t="shared" si="6"/>
         <v>5447</v>
       </c>
       <c r="F41" s="1"/>
@@ -5693,11 +5716,11 @@
         <v>15</v>
       </c>
       <c r="C42" s="17">
-        <f>200*B42 + B41*B41*(B41/2)</f>
+        <f t="shared" si="5"/>
         <v>4372</v>
       </c>
       <c r="D42" s="35">
-        <f>250*B41+B41*B41*B41</f>
+        <f t="shared" si="6"/>
         <v>6244</v>
       </c>
       <c r="F42" s="1"/>
@@ -5707,11 +5730,11 @@
         <v>16</v>
       </c>
       <c r="C43" s="17">
-        <f>200*B43 + B42*B42*(B42/2)</f>
+        <f t="shared" si="5"/>
         <v>4887.5</v>
       </c>
       <c r="D43" s="35">
-        <f>250*B42+B42*B42*B42</f>
+        <f t="shared" si="6"/>
         <v>7125</v>
       </c>
       <c r="F43" s="1"/>
@@ -5721,11 +5744,11 @@
         <v>17</v>
       </c>
       <c r="C44" s="17">
-        <f>200*B44 + B43*B43*(B43/2)</f>
+        <f t="shared" si="5"/>
         <v>5448</v>
       </c>
       <c r="D44" s="35">
-        <f>250*B43+B43*B43*B43</f>
+        <f t="shared" si="6"/>
         <v>8096</v>
       </c>
       <c r="F44" s="1"/>
@@ -5735,11 +5758,11 @@
         <v>18</v>
       </c>
       <c r="C45" s="17">
-        <f>200*B45 + B44*B44*(B44/2)</f>
+        <f t="shared" si="5"/>
         <v>6056.5</v>
       </c>
       <c r="D45" s="35">
-        <f>250*B44+B44*B44*B44</f>
+        <f t="shared" si="6"/>
         <v>9163</v>
       </c>
       <c r="F45" s="1"/>
@@ -5749,11 +5772,11 @@
         <v>19</v>
       </c>
       <c r="C46" s="17">
-        <f>200*B46 + B45*B45*(B45/2)</f>
+        <f t="shared" si="5"/>
         <v>6716</v>
       </c>
       <c r="D46" s="35">
-        <f>250*B45+B45*B45*B45</f>
+        <f t="shared" si="6"/>
         <v>10332</v>
       </c>
       <c r="F46" s="1"/>
@@ -5763,11 +5786,11 @@
         <v>20</v>
       </c>
       <c r="C47" s="17">
-        <f>200*B47 + B46*B46*(B46/2)</f>
+        <f t="shared" si="5"/>
         <v>7429.5</v>
       </c>
       <c r="D47" s="35">
-        <f>250*B46+B46*B46*B46</f>
+        <f t="shared" si="6"/>
         <v>11609</v>
       </c>
       <c r="F47" s="1"/>
@@ -5778,13 +5801,358 @@
       </c>
       <c r="E48" s="36"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>22</v>
       </c>
     </row>
+    <row r="52" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B52" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="18">
+        <v>0</v>
+      </c>
+      <c r="C53" s="17">
+        <v>5</v>
+      </c>
+      <c r="D53" s="34"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="18">
+        <v>1</v>
+      </c>
+      <c r="C54" s="17">
+        <v>10</v>
+      </c>
+      <c r="D54" s="41">
+        <v>4</v>
+      </c>
+      <c r="E54" s="40">
+        <v>4</v>
+      </c>
+      <c r="F54" s="37">
+        <v>5</v>
+      </c>
+      <c r="G54" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="18">
+        <v>2</v>
+      </c>
+      <c r="C55" s="17">
+        <v>15</v>
+      </c>
+      <c r="D55" s="41">
+        <v>7</v>
+      </c>
+      <c r="E55" s="40">
+        <v>8</v>
+      </c>
+      <c r="F55" s="37">
+        <v>9</v>
+      </c>
+      <c r="G55" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="18">
+        <v>3</v>
+      </c>
+      <c r="C56" s="17">
+        <v>20</v>
+      </c>
+      <c r="D56" s="41">
+        <v>10</v>
+      </c>
+      <c r="E56" s="40">
+        <v>12</v>
+      </c>
+      <c r="F56" s="37">
+        <v>13</v>
+      </c>
+      <c r="G56" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="18">
+        <v>4</v>
+      </c>
+      <c r="C57" s="17">
+        <v>25</v>
+      </c>
+      <c r="D57" s="41">
+        <v>13</v>
+      </c>
+      <c r="E57" s="40">
+        <v>16</v>
+      </c>
+      <c r="F57" s="37">
+        <v>17</v>
+      </c>
+      <c r="G57" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="18">
+        <v>5</v>
+      </c>
+      <c r="C58" s="17">
+        <v>30</v>
+      </c>
+      <c r="D58" s="41">
+        <v>16</v>
+      </c>
+      <c r="E58" s="40">
+        <v>20</v>
+      </c>
+      <c r="F58" s="37">
+        <v>21</v>
+      </c>
+      <c r="G58" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="18">
+        <v>6</v>
+      </c>
+      <c r="C59" s="17">
+        <v>35</v>
+      </c>
+      <c r="D59" s="41">
+        <v>19</v>
+      </c>
+      <c r="E59" s="40">
+        <v>24</v>
+      </c>
+      <c r="F59" s="37">
+        <v>25</v>
+      </c>
+      <c r="G59" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="18">
+        <v>7</v>
+      </c>
+      <c r="C60" s="17">
+        <v>40</v>
+      </c>
+      <c r="D60" s="41">
+        <v>22</v>
+      </c>
+      <c r="E60" s="40">
+        <v>28</v>
+      </c>
+      <c r="F60" s="37">
+        <v>29</v>
+      </c>
+      <c r="G60" s="17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="18">
+        <v>8</v>
+      </c>
+      <c r="C61" s="17">
+        <v>45</v>
+      </c>
+      <c r="D61" s="41">
+        <v>25</v>
+      </c>
+      <c r="E61" s="40">
+        <v>32</v>
+      </c>
+      <c r="F61" s="37">
+        <v>33</v>
+      </c>
+      <c r="G61" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="18">
+        <v>9</v>
+      </c>
+      <c r="C62" s="17">
+        <v>50</v>
+      </c>
+      <c r="D62" s="41">
+        <v>28</v>
+      </c>
+      <c r="E62" s="40">
+        <v>36</v>
+      </c>
+      <c r="F62" s="37">
+        <v>37</v>
+      </c>
+      <c r="G62" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="18">
+        <v>10</v>
+      </c>
+      <c r="C63" s="17">
+        <v>55</v>
+      </c>
+      <c r="D63" s="41">
+        <v>31</v>
+      </c>
+      <c r="E63" s="40">
+        <v>40</v>
+      </c>
+      <c r="F63" s="37">
+        <v>41</v>
+      </c>
+      <c r="G63" s="17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="18">
+        <v>11</v>
+      </c>
+      <c r="C64" s="17">
+        <v>60</v>
+      </c>
+      <c r="D64" s="41">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="18">
+        <v>12</v>
+      </c>
+      <c r="C65" s="17">
+        <v>65</v>
+      </c>
+      <c r="D65" s="41">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="18">
+        <v>13</v>
+      </c>
+      <c r="C66" s="17">
+        <v>70</v>
+      </c>
+      <c r="D66" s="41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="18">
+        <v>14</v>
+      </c>
+      <c r="C67" s="17">
+        <v>75</v>
+      </c>
+      <c r="D67" s="41">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="18">
+        <v>15</v>
+      </c>
+      <c r="C68" s="17">
+        <v>80</v>
+      </c>
+      <c r="D68" s="41">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="18">
+        <v>16</v>
+      </c>
+      <c r="C69" s="17">
+        <v>85</v>
+      </c>
+      <c r="D69" s="41">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="18">
+        <v>17</v>
+      </c>
+      <c r="C70" s="17">
+        <v>90</v>
+      </c>
+      <c r="D70" s="41">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="18">
+        <v>18</v>
+      </c>
+      <c r="C71" s="17">
+        <v>95</v>
+      </c>
+      <c r="D71" s="41">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="18">
+        <v>19</v>
+      </c>
+      <c r="C72" s="17">
+        <v>100</v>
+      </c>
+      <c r="D72" s="41">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="18">
+        <v>20</v>
+      </c>
+      <c r="C73" s="17">
+        <v>105</v>
+      </c>
+      <c r="D73" s="41">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="L5:P5"/>
     <mergeCell ref="L20:O20"/>
     <mergeCell ref="L21:O21"/>
     <mergeCell ref="L6:O6"/>
@@ -5801,7 +6169,6 @@
     <mergeCell ref="L18:O18"/>
     <mergeCell ref="L19:O19"/>
     <mergeCell ref="L14:O14"/>
-    <mergeCell ref="L5:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
